--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17372900</v>
+        <v>16117800</v>
       </c>
       <c r="E8" s="3">
-        <v>17755500</v>
+        <v>17755100</v>
       </c>
       <c r="F8" s="3">
-        <v>17190400</v>
+        <v>18146100</v>
       </c>
       <c r="G8" s="3">
-        <v>17450500</v>
+        <v>17568600</v>
       </c>
       <c r="H8" s="3">
-        <v>18860000</v>
+        <v>17834500</v>
       </c>
       <c r="I8" s="3">
-        <v>18174900</v>
+        <v>19275000</v>
       </c>
       <c r="J8" s="3">
+        <v>18574800</v>
+      </c>
+      <c r="K8" s="3">
         <v>18259400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18712800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18570900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18013000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16862100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17042100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16698500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12278300</v>
+        <v>11424900</v>
       </c>
       <c r="E9" s="3">
-        <v>12733200</v>
+        <v>12548500</v>
       </c>
       <c r="F9" s="3">
-        <v>12346100</v>
+        <v>13013400</v>
       </c>
       <c r="G9" s="3">
-        <v>12303900</v>
+        <v>12617800</v>
       </c>
       <c r="H9" s="3">
-        <v>13586800</v>
+        <v>12574600</v>
       </c>
       <c r="I9" s="3">
-        <v>13092600</v>
+        <v>13885700</v>
       </c>
       <c r="J9" s="3">
+        <v>13380700</v>
+      </c>
+      <c r="K9" s="3">
         <v>13159100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13352200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13062600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12689100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11908300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11859300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11737300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5094600</v>
+        <v>4693000</v>
       </c>
       <c r="E10" s="3">
-        <v>5022200</v>
+        <v>5206700</v>
       </c>
       <c r="F10" s="3">
-        <v>4844200</v>
+        <v>5132700</v>
       </c>
       <c r="G10" s="3">
-        <v>5146600</v>
+        <v>4950800</v>
       </c>
       <c r="H10" s="3">
-        <v>5273200</v>
+        <v>5259900</v>
       </c>
       <c r="I10" s="3">
-        <v>5082300</v>
+        <v>5389200</v>
       </c>
       <c r="J10" s="3">
+        <v>5194100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5100300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5360600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5508300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5323900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4953800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5182800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4961200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1026,17 +1046,20 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>188100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1096,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16460400</v>
+        <v>15624700</v>
       </c>
       <c r="E17" s="3">
-        <v>16992800</v>
+        <v>16822600</v>
       </c>
       <c r="F17" s="3">
-        <v>16677800</v>
+        <v>17366700</v>
       </c>
       <c r="G17" s="3">
-        <v>16371400</v>
+        <v>17044700</v>
       </c>
       <c r="H17" s="3">
-        <v>17973300</v>
+        <v>16731700</v>
       </c>
       <c r="I17" s="3">
-        <v>17308800</v>
+        <v>18368700</v>
       </c>
       <c r="J17" s="3">
+        <v>17689600</v>
+      </c>
+      <c r="K17" s="3">
         <v>17350800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18135700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17484800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16994900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16103400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17032800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15832400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>912500</v>
+        <v>493100</v>
       </c>
       <c r="E18" s="3">
-        <v>762700</v>
+        <v>932500</v>
       </c>
       <c r="F18" s="3">
-        <v>512600</v>
+        <v>779500</v>
       </c>
       <c r="G18" s="3">
-        <v>1079100</v>
+        <v>523900</v>
       </c>
       <c r="H18" s="3">
-        <v>886700</v>
+        <v>1102800</v>
       </c>
       <c r="I18" s="3">
+        <v>906200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>885200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>908600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>577100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1086100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1018100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>758700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>866100</v>
       </c>
-      <c r="J18" s="3">
-        <v>908600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>577100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1086100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1018100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>758700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>866100</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,125 +1244,132 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>-20200</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
-        <v>31100</v>
-      </c>
       <c r="H20" s="3">
-        <v>-4400</v>
+        <v>31800</v>
       </c>
       <c r="I20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-39500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1733000</v>
+        <v>1326900</v>
       </c>
       <c r="E21" s="3">
-        <v>1606100</v>
+        <v>1771100</v>
       </c>
       <c r="F21" s="3">
-        <v>1398600</v>
+        <v>1641500</v>
       </c>
       <c r="G21" s="3">
-        <v>1812900</v>
+        <v>1429300</v>
       </c>
       <c r="H21" s="3">
-        <v>1561900</v>
+        <v>1852800</v>
       </c>
       <c r="I21" s="3">
-        <v>1521100</v>
+        <v>1596300</v>
       </c>
       <c r="J21" s="3">
+        <v>1554500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1580700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1230300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1748100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1672200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1373100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>613900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1489300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1346,108 +1386,117 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>34900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>910400</v>
+        <v>492300</v>
       </c>
       <c r="E23" s="3">
-        <v>742500</v>
+        <v>930500</v>
       </c>
       <c r="F23" s="3">
-        <v>511100</v>
+        <v>758800</v>
       </c>
       <c r="G23" s="3">
-        <v>1110200</v>
+        <v>522300</v>
       </c>
       <c r="H23" s="3">
-        <v>882300</v>
+        <v>1134600</v>
       </c>
       <c r="I23" s="3">
-        <v>863700</v>
+        <v>901700</v>
       </c>
       <c r="J23" s="3">
+        <v>882700</v>
+      </c>
+      <c r="K23" s="3">
         <v>929400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>588200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1073400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1019800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>741000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>863600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>170600</v>
+        <v>32900</v>
       </c>
       <c r="E24" s="3">
-        <v>238600</v>
+        <v>174300</v>
       </c>
       <c r="F24" s="3">
-        <v>22400</v>
+        <v>243800</v>
       </c>
       <c r="G24" s="3">
-        <v>61400</v>
+        <v>22800</v>
       </c>
       <c r="H24" s="3">
-        <v>285400</v>
+        <v>62800</v>
       </c>
       <c r="I24" s="3">
-        <v>316700</v>
+        <v>291700</v>
       </c>
       <c r="J24" s="3">
+        <v>323600</v>
+      </c>
+      <c r="K24" s="3">
         <v>370200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>225800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>296900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>352300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>269200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>339400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>250000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>739900</v>
+        <v>459400</v>
       </c>
       <c r="E26" s="3">
-        <v>503900</v>
+        <v>756100</v>
       </c>
       <c r="F26" s="3">
-        <v>488700</v>
+        <v>515000</v>
       </c>
       <c r="G26" s="3">
-        <v>1048800</v>
+        <v>499500</v>
       </c>
       <c r="H26" s="3">
-        <v>596900</v>
+        <v>1071800</v>
       </c>
       <c r="I26" s="3">
-        <v>547000</v>
+        <v>610000</v>
       </c>
       <c r="J26" s="3">
+        <v>559100</v>
+      </c>
+      <c r="K26" s="3">
         <v>559200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>362400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>776500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>667500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>471800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-369600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>613600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>702000</v>
+        <v>441800</v>
       </c>
       <c r="E27" s="3">
-        <v>464900</v>
+        <v>717500</v>
       </c>
       <c r="F27" s="3">
-        <v>452500</v>
+        <v>475100</v>
       </c>
       <c r="G27" s="3">
-        <v>1003800</v>
+        <v>462400</v>
       </c>
       <c r="H27" s="3">
-        <v>546300</v>
+        <v>1025900</v>
       </c>
       <c r="I27" s="3">
-        <v>511400</v>
+        <v>558300</v>
       </c>
       <c r="J27" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K27" s="3">
         <v>521400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>324800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>734000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>634200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>440800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-426600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>562800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>20200</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
+        <v>20700</v>
+      </c>
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-31100</v>
-      </c>
       <c r="H32" s="3">
-        <v>4400</v>
+        <v>-31800</v>
       </c>
       <c r="I32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>39500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>702000</v>
+        <v>441800</v>
       </c>
       <c r="E33" s="3">
-        <v>464900</v>
+        <v>717500</v>
       </c>
       <c r="F33" s="3">
-        <v>452500</v>
+        <v>475100</v>
       </c>
       <c r="G33" s="3">
-        <v>1003800</v>
+        <v>462400</v>
       </c>
       <c r="H33" s="3">
-        <v>546300</v>
+        <v>1025900</v>
       </c>
       <c r="I33" s="3">
-        <v>511400</v>
+        <v>558300</v>
       </c>
       <c r="J33" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K33" s="3">
         <v>521400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>324800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>734000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>634200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>440800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-426600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>562800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>702000</v>
+        <v>441800</v>
       </c>
       <c r="E35" s="3">
-        <v>464900</v>
+        <v>717500</v>
       </c>
       <c r="F35" s="3">
-        <v>452500</v>
+        <v>475100</v>
       </c>
       <c r="G35" s="3">
-        <v>1003800</v>
+        <v>462400</v>
       </c>
       <c r="H35" s="3">
-        <v>546300</v>
+        <v>1025900</v>
       </c>
       <c r="I35" s="3">
-        <v>511400</v>
+        <v>558300</v>
       </c>
       <c r="J35" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K35" s="3">
         <v>521400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>324800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>734000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>634200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>440800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-426600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>562800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,384 +2139,409 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7856500</v>
+        <v>9443300</v>
       </c>
       <c r="E41" s="3">
-        <v>7471700</v>
+        <v>8029400</v>
       </c>
       <c r="F41" s="3">
-        <v>6275700</v>
+        <v>7636100</v>
       </c>
       <c r="G41" s="3">
-        <v>7019900</v>
+        <v>6413800</v>
       </c>
       <c r="H41" s="3">
-        <v>7898100</v>
+        <v>7174300</v>
       </c>
       <c r="I41" s="3">
-        <v>9740800</v>
+        <v>8071900</v>
       </c>
       <c r="J41" s="3">
+        <v>9955100</v>
+      </c>
+      <c r="K41" s="3">
         <v>9622800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9849800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9110400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9358400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9905300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11271900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10167700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1273600</v>
+        <v>1379000</v>
       </c>
       <c r="E42" s="3">
-        <v>1221300</v>
+        <v>1301600</v>
       </c>
       <c r="F42" s="3">
-        <v>1071500</v>
+        <v>1248200</v>
       </c>
       <c r="G42" s="3">
-        <v>1193600</v>
+        <v>1095100</v>
       </c>
       <c r="H42" s="3">
-        <v>1399600</v>
+        <v>1219800</v>
       </c>
       <c r="I42" s="3">
-        <v>1794800</v>
+        <v>1430400</v>
       </c>
       <c r="J42" s="3">
+        <v>1834300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2216400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1840200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1370300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1305300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1359400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10231400</v>
+        <v>9765700</v>
       </c>
       <c r="E43" s="3">
-        <v>10732700</v>
+        <v>10456600</v>
       </c>
       <c r="F43" s="3">
-        <v>10485600</v>
+        <v>10968800</v>
       </c>
       <c r="G43" s="3">
-        <v>10822700</v>
+        <v>10716300</v>
       </c>
       <c r="H43" s="3">
-        <v>10637200</v>
+        <v>11060900</v>
       </c>
       <c r="I43" s="3">
-        <v>10460100</v>
+        <v>10871200</v>
       </c>
       <c r="J43" s="3">
+        <v>10690200</v>
+      </c>
+      <c r="K43" s="3">
         <v>9936000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9392400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9350000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9295400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8475100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7512900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8383500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7980200</v>
+        <v>7371800</v>
       </c>
       <c r="E44" s="3">
-        <v>9139300</v>
+        <v>8155800</v>
       </c>
       <c r="F44" s="3">
-        <v>9471700</v>
+        <v>9340300</v>
       </c>
       <c r="G44" s="3">
-        <v>9239400</v>
+        <v>9680100</v>
       </c>
       <c r="H44" s="3">
-        <v>10028500</v>
+        <v>9442700</v>
       </c>
       <c r="I44" s="3">
-        <v>9801400</v>
+        <v>10249200</v>
       </c>
       <c r="J44" s="3">
+        <v>10017000</v>
+      </c>
+      <c r="K44" s="3">
         <v>9418500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8937000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9474900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8784700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8188700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7152000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7391100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8991800</v>
+        <v>3959200</v>
       </c>
       <c r="E45" s="3">
-        <v>3618100</v>
+        <v>9189600</v>
       </c>
       <c r="F45" s="3">
-        <v>1800300</v>
+        <v>3697700</v>
       </c>
       <c r="G45" s="3">
-        <v>1485900</v>
+        <v>1839900</v>
       </c>
       <c r="H45" s="3">
-        <v>1808100</v>
+        <v>1518600</v>
       </c>
       <c r="I45" s="3">
-        <v>1700800</v>
+        <v>1847900</v>
       </c>
       <c r="J45" s="3">
+        <v>1738200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1664900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1493600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1548200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1420800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1613100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1217000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4283600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36333600</v>
+        <v>31918900</v>
       </c>
       <c r="E46" s="3">
-        <v>32183000</v>
+        <v>37133000</v>
       </c>
       <c r="F46" s="3">
-        <v>29104800</v>
+        <v>32891100</v>
       </c>
       <c r="G46" s="3">
-        <v>29761500</v>
+        <v>29745200</v>
       </c>
       <c r="H46" s="3">
-        <v>31771500</v>
+        <v>30416300</v>
       </c>
       <c r="I46" s="3">
-        <v>33497800</v>
+        <v>32470600</v>
       </c>
       <c r="J46" s="3">
+        <v>34234800</v>
+      </c>
+      <c r="K46" s="3">
         <v>32858600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31513100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30853900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30164500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29541600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28426700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30226000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3085900</v>
+        <v>4850800</v>
       </c>
       <c r="E47" s="3">
-        <v>3137300</v>
+        <v>3153800</v>
       </c>
       <c r="F47" s="3">
-        <v>3332800</v>
+        <v>3206300</v>
       </c>
       <c r="G47" s="3">
-        <v>3206100</v>
+        <v>3406200</v>
       </c>
       <c r="H47" s="3">
-        <v>2925500</v>
+        <v>3276700</v>
       </c>
       <c r="I47" s="3">
-        <v>2799400</v>
+        <v>2989900</v>
       </c>
       <c r="J47" s="3">
+        <v>2861000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2984200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2842400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3008100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2987700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2901200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2820400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3053000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12272100</v>
+        <v>12037100</v>
       </c>
       <c r="E48" s="3">
-        <v>15610000</v>
+        <v>12542100</v>
       </c>
       <c r="F48" s="3">
-        <v>16937100</v>
+        <v>15953400</v>
       </c>
       <c r="G48" s="3">
-        <v>12038600</v>
+        <v>17309800</v>
       </c>
       <c r="H48" s="3">
-        <v>12039600</v>
+        <v>12303400</v>
       </c>
       <c r="I48" s="3">
-        <v>12192200</v>
+        <v>12304500</v>
       </c>
       <c r="J48" s="3">
+        <v>12460500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12044500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12421600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13070000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12836900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12427600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11737500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11622200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2438,28 +2549,28 @@
         <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>6005400</v>
+        <v>6163700</v>
       </c>
       <c r="F49" s="3">
-        <v>6372400</v>
+        <v>6137500</v>
       </c>
       <c r="G49" s="3">
-        <v>6540800</v>
+        <v>6512600</v>
       </c>
       <c r="H49" s="3">
-        <v>6716900</v>
+        <v>6684700</v>
       </c>
       <c r="I49" s="3">
-        <v>6832300</v>
-      </c>
-      <c r="J49" s="3" t="s">
+        <v>6864700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6982600</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2467,17 +2578,20 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>5899700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7114500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9308600</v>
+        <v>8963200</v>
       </c>
       <c r="E52" s="3">
-        <v>3296500</v>
+        <v>3349600</v>
       </c>
       <c r="F52" s="3">
-        <v>3366300</v>
+        <v>3369100</v>
       </c>
       <c r="G52" s="3">
-        <v>3119700</v>
+        <v>3440300</v>
       </c>
       <c r="H52" s="3">
-        <v>3466800</v>
+        <v>3188300</v>
       </c>
       <c r="I52" s="3">
-        <v>3423200</v>
+        <v>3543100</v>
       </c>
       <c r="J52" s="3">
+        <v>3498500</v>
+      </c>
+      <c r="K52" s="3">
         <v>10157200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3421200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10697500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10809400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10784400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4184500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2490500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61000100</v>
+        <v>57770000</v>
       </c>
       <c r="E54" s="3">
-        <v>60232200</v>
+        <v>62342300</v>
       </c>
       <c r="F54" s="3">
-        <v>59113400</v>
+        <v>61557400</v>
       </c>
       <c r="G54" s="3">
-        <v>54666600</v>
+        <v>60414000</v>
       </c>
       <c r="H54" s="3">
-        <v>56920400</v>
+        <v>55869400</v>
       </c>
       <c r="I54" s="3">
-        <v>58744900</v>
+        <v>58172800</v>
       </c>
       <c r="J54" s="3">
+        <v>60037400</v>
+      </c>
+      <c r="K54" s="3">
         <v>58044400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56872000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57629500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56798500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>55654700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>53068900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54506200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9284900</v>
+        <v>9008500</v>
       </c>
       <c r="E57" s="3">
-        <v>9674000</v>
+        <v>9489100</v>
       </c>
       <c r="F57" s="3">
-        <v>10072800</v>
+        <v>9886900</v>
       </c>
       <c r="G57" s="3">
-        <v>10464200</v>
+        <v>10294500</v>
       </c>
       <c r="H57" s="3">
-        <v>10911800</v>
+        <v>10694400</v>
       </c>
       <c r="I57" s="3">
-        <v>10768800</v>
+        <v>11151900</v>
       </c>
       <c r="J57" s="3">
+        <v>11005700</v>
+      </c>
+      <c r="K57" s="3">
         <v>10511700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10364100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10254300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9923500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9363400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8479400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8700400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3022600</v>
+        <v>2926300</v>
       </c>
       <c r="E58" s="3">
-        <v>3424700</v>
+        <v>3089100</v>
       </c>
       <c r="F58" s="3">
-        <v>3992200</v>
+        <v>3500000</v>
       </c>
       <c r="G58" s="3">
-        <v>3544700</v>
+        <v>4080000</v>
       </c>
       <c r="H58" s="3">
-        <v>2978900</v>
+        <v>3622700</v>
       </c>
       <c r="I58" s="3">
-        <v>4552000</v>
+        <v>3044500</v>
       </c>
       <c r="J58" s="3">
+        <v>4652200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4131900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3393500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1725000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1660200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1652900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1570300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>219800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16860500</v>
+        <v>12368900</v>
       </c>
       <c r="E59" s="3">
-        <v>13284700</v>
+        <v>17231400</v>
       </c>
       <c r="F59" s="3">
-        <v>13425000</v>
+        <v>13576900</v>
       </c>
       <c r="G59" s="3">
-        <v>13165200</v>
+        <v>13720400</v>
       </c>
       <c r="H59" s="3">
-        <v>13664500</v>
+        <v>13454900</v>
       </c>
       <c r="I59" s="3">
-        <v>13858500</v>
+        <v>13965100</v>
       </c>
       <c r="J59" s="3">
+        <v>14163400</v>
+      </c>
+      <c r="K59" s="3">
         <v>14387700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14247600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14958100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14818300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15005300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14006300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12533100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29167900</v>
+        <v>24303600</v>
       </c>
       <c r="E60" s="3">
-        <v>26383400</v>
+        <v>29809700</v>
       </c>
       <c r="F60" s="3">
-        <v>27490000</v>
+        <v>26963800</v>
       </c>
       <c r="G60" s="3">
-        <v>27174100</v>
+        <v>28094800</v>
       </c>
       <c r="H60" s="3">
-        <v>27555200</v>
+        <v>27772000</v>
       </c>
       <c r="I60" s="3">
-        <v>29179300</v>
+        <v>28161500</v>
       </c>
       <c r="J60" s="3">
+        <v>29821400</v>
+      </c>
+      <c r="K60" s="3">
         <v>29031300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28005300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26937300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26402000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26021600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24056000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21453400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9605800</v>
+        <v>10742200</v>
       </c>
       <c r="E61" s="3">
-        <v>12625300</v>
+        <v>9817200</v>
       </c>
       <c r="F61" s="3">
-        <v>10470300</v>
+        <v>12903100</v>
       </c>
       <c r="G61" s="3">
-        <v>5533700</v>
+        <v>10700700</v>
       </c>
       <c r="H61" s="3">
-        <v>7544200</v>
+        <v>5655400</v>
       </c>
       <c r="I61" s="3">
-        <v>7555900</v>
+        <v>7710200</v>
       </c>
       <c r="J61" s="3">
+        <v>7722100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7561500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7811000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8742800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8783300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8782800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8399600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9757300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2734400</v>
+        <v>2696200</v>
       </c>
       <c r="E62" s="3">
-        <v>2812500</v>
+        <v>2794600</v>
       </c>
       <c r="F62" s="3">
-        <v>3007300</v>
+        <v>2874400</v>
       </c>
       <c r="G62" s="3">
-        <v>3009700</v>
+        <v>3073500</v>
       </c>
       <c r="H62" s="3">
-        <v>3826900</v>
+        <v>3075900</v>
       </c>
       <c r="I62" s="3">
-        <v>3873900</v>
+        <v>3911100</v>
       </c>
       <c r="J62" s="3">
+        <v>3959200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4004300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4039800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4534000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4657500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4589900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5002700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5716900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43028700</v>
+        <v>39205400</v>
       </c>
       <c r="E66" s="3">
-        <v>43266800</v>
+        <v>43975500</v>
       </c>
       <c r="F66" s="3">
-        <v>42447800</v>
+        <v>44218800</v>
       </c>
       <c r="G66" s="3">
-        <v>37272800</v>
+        <v>43381700</v>
       </c>
       <c r="H66" s="3">
-        <v>40473000</v>
+        <v>38092900</v>
       </c>
       <c r="I66" s="3">
-        <v>42136300</v>
+        <v>41363500</v>
       </c>
       <c r="J66" s="3">
+        <v>43063400</v>
+      </c>
+      <c r="K66" s="3">
         <v>42103500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41435700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41835200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41551600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40942000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39126200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38227700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14450400</v>
+        <v>15295100</v>
       </c>
       <c r="E72" s="3">
-        <v>14055500</v>
+        <v>14768400</v>
       </c>
       <c r="F72" s="3">
-        <v>13589000</v>
+        <v>14364700</v>
       </c>
       <c r="G72" s="3">
-        <v>13642900</v>
+        <v>13888000</v>
       </c>
       <c r="H72" s="3">
-        <v>12768500</v>
+        <v>13943100</v>
       </c>
       <c r="I72" s="3">
-        <v>12532900</v>
+        <v>13049500</v>
       </c>
       <c r="J72" s="3">
+        <v>12808600</v>
+      </c>
+      <c r="K72" s="3">
         <v>12020300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11755000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11222300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10661300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10052200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9326300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11377000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17971400</v>
+        <v>18564700</v>
       </c>
       <c r="E76" s="3">
-        <v>16965400</v>
+        <v>18366800</v>
       </c>
       <c r="F76" s="3">
-        <v>16665600</v>
+        <v>17338600</v>
       </c>
       <c r="G76" s="3">
-        <v>17393800</v>
+        <v>17032300</v>
       </c>
       <c r="H76" s="3">
-        <v>16447400</v>
+        <v>17776500</v>
       </c>
       <c r="I76" s="3">
-        <v>16608600</v>
+        <v>16809300</v>
       </c>
       <c r="J76" s="3">
+        <v>16974000</v>
+      </c>
+      <c r="K76" s="3">
         <v>15940900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15436300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15794300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15247000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14712700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13942700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16278500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>702000</v>
+        <v>441800</v>
       </c>
       <c r="E81" s="3">
-        <v>464900</v>
+        <v>717500</v>
       </c>
       <c r="F81" s="3">
-        <v>452500</v>
+        <v>475100</v>
       </c>
       <c r="G81" s="3">
-        <v>1003800</v>
+        <v>462400</v>
       </c>
       <c r="H81" s="3">
-        <v>546300</v>
+        <v>1025900</v>
       </c>
       <c r="I81" s="3">
-        <v>511400</v>
+        <v>558300</v>
       </c>
       <c r="J81" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K81" s="3">
         <v>521400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>324800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>734000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>634200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>440800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-426600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>562800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>822600</v>
+        <v>834600</v>
       </c>
       <c r="E83" s="3">
-        <v>863700</v>
+        <v>840700</v>
       </c>
       <c r="F83" s="3">
-        <v>887500</v>
+        <v>882700</v>
       </c>
       <c r="G83" s="3">
-        <v>702700</v>
+        <v>907000</v>
       </c>
       <c r="H83" s="3">
-        <v>679600</v>
+        <v>718200</v>
       </c>
       <c r="I83" s="3">
-        <v>657400</v>
+        <v>694600</v>
       </c>
       <c r="J83" s="3">
+        <v>671900</v>
+      </c>
+      <c r="K83" s="3">
         <v>651300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>642100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>674700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>652400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>632000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>644100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>590800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1357500</v>
+        <v>1485700</v>
       </c>
       <c r="E89" s="3">
-        <v>305200</v>
+        <v>1225300</v>
       </c>
       <c r="F89" s="3">
-        <v>953600</v>
+        <v>311900</v>
       </c>
       <c r="G89" s="3">
-        <v>1142000</v>
+        <v>974600</v>
       </c>
       <c r="H89" s="3">
-        <v>423700</v>
+        <v>1167100</v>
       </c>
       <c r="I89" s="3">
-        <v>-47200</v>
+        <v>433000</v>
       </c>
       <c r="J89" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="K89" s="3">
         <v>333000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1437300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1104200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>574700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>709400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2263300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>783400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-522500</v>
+        <v>-698100</v>
       </c>
       <c r="E91" s="3">
-        <v>-625100</v>
+        <v>-534000</v>
       </c>
       <c r="F91" s="3">
-        <v>-659300</v>
+        <v>-638800</v>
       </c>
       <c r="G91" s="3">
-        <v>-737000</v>
+        <v>-673800</v>
       </c>
       <c r="H91" s="3">
-        <v>-643700</v>
+        <v>-753200</v>
       </c>
       <c r="I91" s="3">
-        <v>-617400</v>
+        <v>-657800</v>
       </c>
       <c r="J91" s="3">
+        <v>-631000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-875100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-940800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-756900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-825000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>575700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-320700</v>
+        <v>-434900</v>
       </c>
       <c r="E94" s="3">
-        <v>-548100</v>
+        <v>-327800</v>
       </c>
       <c r="F94" s="3">
-        <v>-579100</v>
+        <v>-560100</v>
       </c>
       <c r="G94" s="3">
-        <v>-461100</v>
+        <v>-591800</v>
       </c>
       <c r="H94" s="3">
-        <v>-250500</v>
+        <v>-471300</v>
       </c>
       <c r="I94" s="3">
-        <v>-345200</v>
+        <v>-256000</v>
       </c>
       <c r="J94" s="3">
+        <v>-352800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-701100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-949500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-927900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-974900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-477300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-318100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-325100</v>
       </c>
       <c r="F96" s="3">
-        <v>-318000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-325000</v>
       </c>
       <c r="H96" s="3">
-        <v>-318000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-325000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-424000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-210800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-316300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-205900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-672600</v>
+        <v>513400</v>
       </c>
       <c r="E100" s="3">
-        <v>1511000</v>
+        <v>-687400</v>
       </c>
       <c r="F100" s="3">
-        <v>-902400</v>
+        <v>1544300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1593300</v>
+        <v>-922300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1826300</v>
+        <v>-1628400</v>
       </c>
       <c r="I100" s="3">
-        <v>355500</v>
+        <v>-1866400</v>
       </c>
       <c r="J100" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-42600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>658200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-521600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-110300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-153600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-221900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20700</v>
+        <v>-150200</v>
       </c>
       <c r="E101" s="3">
-        <v>-72200</v>
+        <v>183200</v>
       </c>
       <c r="F101" s="3">
-        <v>-216300</v>
+        <v>-73800</v>
       </c>
       <c r="G101" s="3">
-        <v>34200</v>
+        <v>-221100</v>
       </c>
       <c r="H101" s="3">
-        <v>-189600</v>
+        <v>34900</v>
       </c>
       <c r="I101" s="3">
-        <v>154900</v>
+        <v>-193700</v>
       </c>
       <c r="J101" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K101" s="3">
         <v>129100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-406600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>97400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>127600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>29700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-280700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1123500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>384800</v>
+        <v>1413900</v>
       </c>
       <c r="E102" s="3">
-        <v>1195900</v>
+        <v>393300</v>
       </c>
       <c r="F102" s="3">
-        <v>-744100</v>
+        <v>1222200</v>
       </c>
       <c r="G102" s="3">
-        <v>-878300</v>
+        <v>-760500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1842700</v>
+        <v>-897600</v>
       </c>
       <c r="I102" s="3">
-        <v>118000</v>
+        <v>-1883200</v>
       </c>
       <c r="J102" s="3">
+        <v>120600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-281600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>739400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-247900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-546900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1118400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1102400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16117800</v>
+        <v>13139600</v>
       </c>
       <c r="E8" s="3">
-        <v>17755100</v>
+        <v>16378100</v>
       </c>
       <c r="F8" s="3">
-        <v>18146100</v>
+        <v>18041800</v>
       </c>
       <c r="G8" s="3">
-        <v>17568600</v>
+        <v>18439100</v>
       </c>
       <c r="H8" s="3">
-        <v>17834500</v>
+        <v>17852300</v>
       </c>
       <c r="I8" s="3">
-        <v>19275000</v>
+        <v>18122400</v>
       </c>
       <c r="J8" s="3">
+        <v>19586200</v>
+      </c>
+      <c r="K8" s="3">
         <v>18574800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18259400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18712800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18570900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18013000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16862100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17042100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16698500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11424900</v>
+        <v>9531800</v>
       </c>
       <c r="E9" s="3">
-        <v>12548500</v>
+        <v>11609300</v>
       </c>
       <c r="F9" s="3">
-        <v>13013400</v>
+        <v>12751100</v>
       </c>
       <c r="G9" s="3">
-        <v>12617800</v>
+        <v>13223500</v>
       </c>
       <c r="H9" s="3">
-        <v>12574600</v>
+        <v>12821500</v>
       </c>
       <c r="I9" s="3">
-        <v>13885700</v>
+        <v>12777600</v>
       </c>
       <c r="J9" s="3">
+        <v>14109900</v>
+      </c>
+      <c r="K9" s="3">
         <v>13380700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13159100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13352200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13062600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12689100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11908300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11859300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11737300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4693000</v>
+        <v>3607900</v>
       </c>
       <c r="E10" s="3">
-        <v>5206700</v>
+        <v>4768800</v>
       </c>
       <c r="F10" s="3">
-        <v>5132700</v>
+        <v>5290700</v>
       </c>
       <c r="G10" s="3">
-        <v>4950800</v>
+        <v>5215600</v>
       </c>
       <c r="H10" s="3">
-        <v>5259900</v>
+        <v>5030800</v>
       </c>
       <c r="I10" s="3">
-        <v>5389200</v>
+        <v>5344800</v>
       </c>
       <c r="J10" s="3">
+        <v>5476200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5194100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5100300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5360600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5508300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5323900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4953800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5182800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4961200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1049,17 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>188100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1099,8 +1122,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15624700</v>
+        <v>13104200</v>
       </c>
       <c r="E17" s="3">
-        <v>16822600</v>
+        <v>15877000</v>
       </c>
       <c r="F17" s="3">
-        <v>17366700</v>
+        <v>17094200</v>
       </c>
       <c r="G17" s="3">
-        <v>17044700</v>
+        <v>17647100</v>
       </c>
       <c r="H17" s="3">
-        <v>16731700</v>
+        <v>17319900</v>
       </c>
       <c r="I17" s="3">
-        <v>18368700</v>
+        <v>17001800</v>
       </c>
       <c r="J17" s="3">
+        <v>18665300</v>
+      </c>
+      <c r="K17" s="3">
         <v>17689600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17350800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18135700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17484800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16994900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16103400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17032800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15832400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>493100</v>
+        <v>35500</v>
       </c>
       <c r="E18" s="3">
-        <v>932500</v>
+        <v>501100</v>
       </c>
       <c r="F18" s="3">
-        <v>779500</v>
+        <v>947600</v>
       </c>
       <c r="G18" s="3">
-        <v>523900</v>
+        <v>792000</v>
       </c>
       <c r="H18" s="3">
-        <v>1102800</v>
+        <v>532300</v>
       </c>
       <c r="I18" s="3">
-        <v>906200</v>
+        <v>1120600</v>
       </c>
       <c r="J18" s="3">
+        <v>920900</v>
+      </c>
+      <c r="K18" s="3">
         <v>885200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>908600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>577100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1086100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1018100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>758700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>866100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-20700</v>
-      </c>
       <c r="G20" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="H20" s="3">
-        <v>31800</v>
-      </c>
       <c r="I20" s="3">
-        <v>-4500</v>
+        <v>32300</v>
       </c>
       <c r="J20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-39500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1326900</v>
+        <v>769500</v>
       </c>
       <c r="E21" s="3">
-        <v>1771100</v>
+        <v>1348300</v>
       </c>
       <c r="F21" s="3">
-        <v>1641500</v>
+        <v>1799700</v>
       </c>
       <c r="G21" s="3">
-        <v>1429300</v>
+        <v>1668000</v>
       </c>
       <c r="H21" s="3">
-        <v>1852800</v>
+        <v>1452400</v>
       </c>
       <c r="I21" s="3">
-        <v>1596300</v>
+        <v>1882700</v>
       </c>
       <c r="J21" s="3">
+        <v>1622100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1554500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1580700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1230300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1748100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1672200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1373100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>613900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1489300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,8 +1411,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1389,114 +1429,123 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>34900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>492300</v>
+        <v>29000</v>
       </c>
       <c r="E23" s="3">
-        <v>930500</v>
+        <v>500200</v>
       </c>
       <c r="F23" s="3">
-        <v>758800</v>
+        <v>945500</v>
       </c>
       <c r="G23" s="3">
-        <v>522300</v>
+        <v>771000</v>
       </c>
       <c r="H23" s="3">
-        <v>1134600</v>
+        <v>530800</v>
       </c>
       <c r="I23" s="3">
-        <v>901700</v>
+        <v>1152900</v>
       </c>
       <c r="J23" s="3">
+        <v>916300</v>
+      </c>
+      <c r="K23" s="3">
         <v>882700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>929400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>588200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1073400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1019800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>741000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>863600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32900</v>
+        <v>94200</v>
       </c>
       <c r="E24" s="3">
-        <v>174300</v>
+        <v>33400</v>
       </c>
       <c r="F24" s="3">
-        <v>243800</v>
+        <v>177100</v>
       </c>
       <c r="G24" s="3">
-        <v>22800</v>
+        <v>247800</v>
       </c>
       <c r="H24" s="3">
-        <v>62800</v>
+        <v>23200</v>
       </c>
       <c r="I24" s="3">
-        <v>291700</v>
+        <v>63800</v>
       </c>
       <c r="J24" s="3">
+        <v>296400</v>
+      </c>
+      <c r="K24" s="3">
         <v>323600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>370200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>225800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>296900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>352300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>269200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>339400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>250000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>459400</v>
+        <v>-65300</v>
       </c>
       <c r="E26" s="3">
-        <v>756100</v>
+        <v>466800</v>
       </c>
       <c r="F26" s="3">
-        <v>515000</v>
+        <v>768300</v>
       </c>
       <c r="G26" s="3">
-        <v>499500</v>
+        <v>523300</v>
       </c>
       <c r="H26" s="3">
-        <v>1071800</v>
+        <v>507600</v>
       </c>
       <c r="I26" s="3">
-        <v>610000</v>
+        <v>1089100</v>
       </c>
       <c r="J26" s="3">
+        <v>619800</v>
+      </c>
+      <c r="K26" s="3">
         <v>559100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>559200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>362400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>776500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>667500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>471800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-369600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>613600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>441800</v>
+        <v>-92800</v>
       </c>
       <c r="E27" s="3">
-        <v>717500</v>
+        <v>448900</v>
       </c>
       <c r="F27" s="3">
-        <v>475100</v>
+        <v>729000</v>
       </c>
       <c r="G27" s="3">
-        <v>462400</v>
+        <v>482800</v>
       </c>
       <c r="H27" s="3">
-        <v>1025900</v>
+        <v>469900</v>
       </c>
       <c r="I27" s="3">
-        <v>558300</v>
+        <v>1042500</v>
       </c>
       <c r="J27" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K27" s="3">
         <v>522600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>521400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>324800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>734000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>634200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>440800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-426600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>562800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
-        <v>20700</v>
-      </c>
       <c r="G32" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-31800</v>
-      </c>
       <c r="I32" s="3">
-        <v>4500</v>
+        <v>-32300</v>
       </c>
       <c r="J32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>39500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>441800</v>
+        <v>-92800</v>
       </c>
       <c r="E33" s="3">
-        <v>717500</v>
+        <v>448900</v>
       </c>
       <c r="F33" s="3">
-        <v>475100</v>
+        <v>729000</v>
       </c>
       <c r="G33" s="3">
-        <v>462400</v>
+        <v>482800</v>
       </c>
       <c r="H33" s="3">
-        <v>1025900</v>
+        <v>469900</v>
       </c>
       <c r="I33" s="3">
-        <v>558300</v>
+        <v>1042500</v>
       </c>
       <c r="J33" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K33" s="3">
         <v>522600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>521400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>324800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>734000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>634200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>440800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-426600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>562800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>441800</v>
+        <v>-92800</v>
       </c>
       <c r="E35" s="3">
-        <v>717500</v>
+        <v>448900</v>
       </c>
       <c r="F35" s="3">
-        <v>475100</v>
+        <v>729000</v>
       </c>
       <c r="G35" s="3">
-        <v>462400</v>
+        <v>482800</v>
       </c>
       <c r="H35" s="3">
-        <v>1025900</v>
+        <v>469900</v>
       </c>
       <c r="I35" s="3">
-        <v>558300</v>
+        <v>1042500</v>
       </c>
       <c r="J35" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K35" s="3">
         <v>522600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>521400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>324800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>734000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>634200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>440800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-426600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>562800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,440 +2226,465 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9443300</v>
+        <v>10014200</v>
       </c>
       <c r="E41" s="3">
-        <v>8029400</v>
+        <v>9595800</v>
       </c>
       <c r="F41" s="3">
-        <v>7636100</v>
+        <v>8159000</v>
       </c>
       <c r="G41" s="3">
-        <v>6413800</v>
+        <v>7759400</v>
       </c>
       <c r="H41" s="3">
-        <v>7174300</v>
+        <v>6517400</v>
       </c>
       <c r="I41" s="3">
-        <v>8071900</v>
+        <v>7290200</v>
       </c>
       <c r="J41" s="3">
+        <v>8202200</v>
+      </c>
+      <c r="K41" s="3">
         <v>9955100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9622800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9849800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9110400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9358400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9905300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11271900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10167700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1379000</v>
+        <v>979900</v>
       </c>
       <c r="E42" s="3">
-        <v>1301600</v>
+        <v>1401200</v>
       </c>
       <c r="F42" s="3">
-        <v>1248200</v>
+        <v>1322600</v>
       </c>
       <c r="G42" s="3">
-        <v>1095100</v>
+        <v>1268400</v>
       </c>
       <c r="H42" s="3">
-        <v>1219800</v>
+        <v>1112700</v>
       </c>
       <c r="I42" s="3">
-        <v>1430400</v>
+        <v>1239500</v>
       </c>
       <c r="J42" s="3">
+        <v>1453500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1834300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2216400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1840200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1370300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1305300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1359400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9765700</v>
+        <v>9611400</v>
       </c>
       <c r="E43" s="3">
-        <v>10456600</v>
+        <v>9923400</v>
       </c>
       <c r="F43" s="3">
-        <v>10968800</v>
+        <v>10625400</v>
       </c>
       <c r="G43" s="3">
-        <v>10716300</v>
+        <v>11145900</v>
       </c>
       <c r="H43" s="3">
-        <v>11060900</v>
+        <v>10889300</v>
       </c>
       <c r="I43" s="3">
-        <v>10871200</v>
+        <v>11239500</v>
       </c>
       <c r="J43" s="3">
+        <v>11046700</v>
+      </c>
+      <c r="K43" s="3">
         <v>10690200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9936000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9392400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9350000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9295400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8475100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7512900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8383500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7371800</v>
+        <v>7958100</v>
       </c>
       <c r="E44" s="3">
-        <v>8155800</v>
+        <v>7490800</v>
       </c>
       <c r="F44" s="3">
-        <v>9340300</v>
+        <v>8287500</v>
       </c>
       <c r="G44" s="3">
-        <v>9680100</v>
+        <v>9491200</v>
       </c>
       <c r="H44" s="3">
-        <v>9442700</v>
+        <v>9836400</v>
       </c>
       <c r="I44" s="3">
-        <v>10249200</v>
+        <v>9595200</v>
       </c>
       <c r="J44" s="3">
+        <v>10414700</v>
+      </c>
+      <c r="K44" s="3">
         <v>10017000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9418500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8937000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9474900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8784700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8188700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7152000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7391100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3959200</v>
+        <v>2224400</v>
       </c>
       <c r="E45" s="3">
-        <v>9189600</v>
+        <v>4023100</v>
       </c>
       <c r="F45" s="3">
-        <v>3697700</v>
+        <v>9338000</v>
       </c>
       <c r="G45" s="3">
-        <v>1839900</v>
+        <v>3757400</v>
       </c>
       <c r="H45" s="3">
-        <v>1518600</v>
+        <v>1869600</v>
       </c>
       <c r="I45" s="3">
-        <v>1847900</v>
+        <v>1543100</v>
       </c>
       <c r="J45" s="3">
+        <v>1877700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1738200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1664900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1493600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1548200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1420800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1613100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1217000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4283600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31918900</v>
+        <v>30787900</v>
       </c>
       <c r="E46" s="3">
-        <v>37133000</v>
+        <v>32434300</v>
       </c>
       <c r="F46" s="3">
-        <v>32891100</v>
+        <v>37732500</v>
       </c>
       <c r="G46" s="3">
-        <v>29745200</v>
+        <v>33422200</v>
       </c>
       <c r="H46" s="3">
-        <v>30416300</v>
+        <v>30225500</v>
       </c>
       <c r="I46" s="3">
-        <v>32470600</v>
+        <v>30907400</v>
       </c>
       <c r="J46" s="3">
+        <v>32994900</v>
+      </c>
+      <c r="K46" s="3">
         <v>34234800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32858600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31513100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30853900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30164500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29541600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28426700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30226000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4850800</v>
+        <v>6814400</v>
       </c>
       <c r="E47" s="3">
-        <v>3153800</v>
+        <v>4929200</v>
       </c>
       <c r="F47" s="3">
-        <v>3206300</v>
+        <v>3204700</v>
       </c>
       <c r="G47" s="3">
-        <v>3406200</v>
+        <v>3258100</v>
       </c>
       <c r="H47" s="3">
-        <v>3276700</v>
+        <v>3461200</v>
       </c>
       <c r="I47" s="3">
-        <v>2989900</v>
+        <v>3329600</v>
       </c>
       <c r="J47" s="3">
+        <v>3038200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2861000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2984200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2842400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3008100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2987700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2901200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2820400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3053000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12037100</v>
+        <v>12035100</v>
       </c>
       <c r="E48" s="3">
-        <v>12542100</v>
+        <v>12231500</v>
       </c>
       <c r="F48" s="3">
-        <v>15953400</v>
+        <v>12744600</v>
       </c>
       <c r="G48" s="3">
-        <v>17309800</v>
+        <v>16211000</v>
       </c>
       <c r="H48" s="3">
-        <v>12303400</v>
+        <v>17589200</v>
       </c>
       <c r="I48" s="3">
-        <v>12304500</v>
+        <v>12502100</v>
       </c>
       <c r="J48" s="3">
+        <v>12503100</v>
+      </c>
+      <c r="K48" s="3">
         <v>12460500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12044500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12421600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13070000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12836900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12427600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11737500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11622200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>5826600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5858600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6263300</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6236600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6617700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6792600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6975600</v>
+      </c>
+      <c r="K49" s="3">
+        <v>6982600</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>6163700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6137500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6512600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6684700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6864700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>6982600</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2581,17 +2692,20 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5899700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7114500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8963200</v>
+        <v>3150800</v>
       </c>
       <c r="E52" s="3">
-        <v>3349600</v>
+        <v>3249300</v>
       </c>
       <c r="F52" s="3">
-        <v>3369100</v>
+        <v>3403700</v>
       </c>
       <c r="G52" s="3">
-        <v>3440300</v>
+        <v>3423500</v>
       </c>
       <c r="H52" s="3">
-        <v>3188300</v>
+        <v>3495900</v>
       </c>
       <c r="I52" s="3">
-        <v>3543100</v>
+        <v>3239800</v>
       </c>
       <c r="J52" s="3">
+        <v>3600300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3498500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10157200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3421200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10697500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10809400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10784400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4184500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2490500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57770000</v>
+        <v>58614800</v>
       </c>
       <c r="E54" s="3">
-        <v>62342300</v>
+        <v>58702800</v>
       </c>
       <c r="F54" s="3">
-        <v>61557400</v>
+        <v>63348900</v>
       </c>
       <c r="G54" s="3">
-        <v>60414000</v>
+        <v>62551300</v>
       </c>
       <c r="H54" s="3">
-        <v>55869400</v>
+        <v>61389500</v>
       </c>
       <c r="I54" s="3">
-        <v>58172800</v>
+        <v>56771500</v>
       </c>
       <c r="J54" s="3">
+        <v>59112100</v>
+      </c>
+      <c r="K54" s="3">
         <v>60037400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58044400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56872000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57629500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56798500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>55654700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53068900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54506200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9008500</v>
+        <v>8029700</v>
       </c>
       <c r="E57" s="3">
-        <v>9489100</v>
+        <v>9153900</v>
       </c>
       <c r="F57" s="3">
-        <v>9886900</v>
+        <v>9642400</v>
       </c>
       <c r="G57" s="3">
-        <v>10294500</v>
+        <v>10046500</v>
       </c>
       <c r="H57" s="3">
-        <v>10694400</v>
+        <v>10460700</v>
       </c>
       <c r="I57" s="3">
-        <v>11151900</v>
+        <v>10867100</v>
       </c>
       <c r="J57" s="3">
+        <v>11331900</v>
+      </c>
+      <c r="K57" s="3">
         <v>11005700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10511700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10364100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10254300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9923500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9363400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8479400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8700400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2926300</v>
+        <v>4668000</v>
       </c>
       <c r="E58" s="3">
-        <v>3089100</v>
+        <v>2973600</v>
       </c>
       <c r="F58" s="3">
-        <v>3500000</v>
+        <v>3139000</v>
       </c>
       <c r="G58" s="3">
-        <v>4080000</v>
+        <v>3556500</v>
       </c>
       <c r="H58" s="3">
-        <v>3622700</v>
+        <v>4145900</v>
       </c>
       <c r="I58" s="3">
-        <v>3044500</v>
+        <v>3681200</v>
       </c>
       <c r="J58" s="3">
+        <v>3093600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4652200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4131900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3393500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1725000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1660200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1652900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1570300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>219800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12368900</v>
+        <v>11638000</v>
       </c>
       <c r="E59" s="3">
-        <v>17231400</v>
+        <v>12568600</v>
       </c>
       <c r="F59" s="3">
-        <v>13576900</v>
+        <v>17509700</v>
       </c>
       <c r="G59" s="3">
-        <v>13720400</v>
+        <v>13796200</v>
       </c>
       <c r="H59" s="3">
-        <v>13454900</v>
+        <v>13941900</v>
       </c>
       <c r="I59" s="3">
-        <v>13965100</v>
+        <v>13672200</v>
       </c>
       <c r="J59" s="3">
+        <v>14190600</v>
+      </c>
+      <c r="K59" s="3">
         <v>14163400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14387700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14247600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14958100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14818300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15005300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14006300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12533100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24303600</v>
+        <v>24335600</v>
       </c>
       <c r="E60" s="3">
-        <v>29809700</v>
+        <v>24696100</v>
       </c>
       <c r="F60" s="3">
-        <v>26963800</v>
+        <v>30291000</v>
       </c>
       <c r="G60" s="3">
-        <v>28094800</v>
+        <v>27399200</v>
       </c>
       <c r="H60" s="3">
-        <v>27772000</v>
+        <v>28548400</v>
       </c>
       <c r="I60" s="3">
-        <v>28161500</v>
+        <v>28220400</v>
       </c>
       <c r="J60" s="3">
+        <v>28616200</v>
+      </c>
+      <c r="K60" s="3">
         <v>29821400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29031300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28005300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26937300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26402000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26021600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24056000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21453400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10742200</v>
+        <v>10892500</v>
       </c>
       <c r="E61" s="3">
-        <v>9817200</v>
+        <v>10915600</v>
       </c>
       <c r="F61" s="3">
-        <v>12903100</v>
+        <v>9975700</v>
       </c>
       <c r="G61" s="3">
-        <v>10700700</v>
+        <v>13111400</v>
       </c>
       <c r="H61" s="3">
-        <v>5655400</v>
+        <v>10873400</v>
       </c>
       <c r="I61" s="3">
-        <v>7710200</v>
+        <v>5746800</v>
       </c>
       <c r="J61" s="3">
+        <v>7834600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7722100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7561500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7811000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8742800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8783300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8782800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8399600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9757300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2696200</v>
+        <v>2922700</v>
       </c>
       <c r="E62" s="3">
-        <v>2794600</v>
+        <v>2739700</v>
       </c>
       <c r="F62" s="3">
-        <v>2874400</v>
+        <v>2839700</v>
       </c>
       <c r="G62" s="3">
-        <v>3073500</v>
+        <v>2920800</v>
       </c>
       <c r="H62" s="3">
-        <v>3075900</v>
+        <v>3123100</v>
       </c>
       <c r="I62" s="3">
-        <v>3911100</v>
+        <v>3125600</v>
       </c>
       <c r="J62" s="3">
+        <v>3974200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3959200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4004300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4039800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4534000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4657500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4589900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5002700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5716900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39205400</v>
+        <v>39549700</v>
       </c>
       <c r="E66" s="3">
-        <v>43975500</v>
+        <v>39838400</v>
       </c>
       <c r="F66" s="3">
-        <v>44218800</v>
+        <v>44685500</v>
       </c>
       <c r="G66" s="3">
-        <v>43381700</v>
+        <v>44932800</v>
       </c>
       <c r="H66" s="3">
-        <v>38092900</v>
+        <v>44082200</v>
       </c>
       <c r="I66" s="3">
-        <v>41363500</v>
+        <v>38707900</v>
       </c>
       <c r="J66" s="3">
+        <v>42031400</v>
+      </c>
+      <c r="K66" s="3">
         <v>43063400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42103500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41435700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41835200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41551600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40942000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39126200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38227700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15295100</v>
+        <v>15109000</v>
       </c>
       <c r="E72" s="3">
-        <v>14768400</v>
+        <v>15542000</v>
       </c>
       <c r="F72" s="3">
-        <v>14364700</v>
+        <v>15006800</v>
       </c>
       <c r="G72" s="3">
-        <v>13888000</v>
+        <v>14596700</v>
       </c>
       <c r="H72" s="3">
-        <v>13943100</v>
+        <v>14112200</v>
       </c>
       <c r="I72" s="3">
-        <v>13049500</v>
+        <v>14168200</v>
       </c>
       <c r="J72" s="3">
+        <v>13260200</v>
+      </c>
+      <c r="K72" s="3">
         <v>12808600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12020300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11755000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11222300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10661300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10052200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9326300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11377000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18564700</v>
+        <v>19065100</v>
       </c>
       <c r="E76" s="3">
-        <v>18366800</v>
+        <v>18864400</v>
       </c>
       <c r="F76" s="3">
-        <v>17338600</v>
+        <v>18663400</v>
       </c>
       <c r="G76" s="3">
-        <v>17032300</v>
+        <v>17618600</v>
       </c>
       <c r="H76" s="3">
-        <v>17776500</v>
+        <v>17307300</v>
       </c>
       <c r="I76" s="3">
-        <v>16809300</v>
+        <v>18063600</v>
       </c>
       <c r="J76" s="3">
+        <v>17080700</v>
+      </c>
+      <c r="K76" s="3">
         <v>16974000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15940900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15436300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15794300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15247000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14712700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13942700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16278500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>441800</v>
+        <v>-92800</v>
       </c>
       <c r="E81" s="3">
-        <v>717500</v>
+        <v>448900</v>
       </c>
       <c r="F81" s="3">
-        <v>475100</v>
+        <v>729000</v>
       </c>
       <c r="G81" s="3">
-        <v>462400</v>
+        <v>482800</v>
       </c>
       <c r="H81" s="3">
-        <v>1025900</v>
+        <v>469900</v>
       </c>
       <c r="I81" s="3">
-        <v>558300</v>
+        <v>1042500</v>
       </c>
       <c r="J81" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K81" s="3">
         <v>522600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>521400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>324800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>734000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>634200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>440800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-426600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>562800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>834600</v>
+        <v>740500</v>
       </c>
       <c r="E83" s="3">
-        <v>840700</v>
+        <v>848100</v>
       </c>
       <c r="F83" s="3">
-        <v>882700</v>
+        <v>854200</v>
       </c>
       <c r="G83" s="3">
-        <v>907000</v>
+        <v>896900</v>
       </c>
       <c r="H83" s="3">
-        <v>718200</v>
+        <v>921600</v>
       </c>
       <c r="I83" s="3">
-        <v>694600</v>
+        <v>729800</v>
       </c>
       <c r="J83" s="3">
+        <v>705800</v>
+      </c>
+      <c r="K83" s="3">
         <v>671900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>651300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>642100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>674700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>652400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>632000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>644100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>590800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1485700</v>
+        <v>-937700</v>
       </c>
       <c r="E89" s="3">
-        <v>1225300</v>
+        <v>1508300</v>
       </c>
       <c r="F89" s="3">
-        <v>311900</v>
+        <v>1245100</v>
       </c>
       <c r="G89" s="3">
-        <v>974600</v>
+        <v>317000</v>
       </c>
       <c r="H89" s="3">
-        <v>1167100</v>
+        <v>990300</v>
       </c>
       <c r="I89" s="3">
-        <v>433000</v>
+        <v>1185900</v>
       </c>
       <c r="J89" s="3">
+        <v>440000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-48200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>333000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1437300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1104200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>574700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>709400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2263300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>783400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-698100</v>
+        <v>-451700</v>
       </c>
       <c r="E91" s="3">
-        <v>-534000</v>
+        <v>-709300</v>
       </c>
       <c r="F91" s="3">
-        <v>-638800</v>
+        <v>-542600</v>
       </c>
       <c r="G91" s="3">
-        <v>-673800</v>
+        <v>-649100</v>
       </c>
       <c r="H91" s="3">
-        <v>-753200</v>
+        <v>-684700</v>
       </c>
       <c r="I91" s="3">
-        <v>-657800</v>
+        <v>-765400</v>
       </c>
       <c r="J91" s="3">
+        <v>-668500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-631000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-875100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-940800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-756900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-825000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>575700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-434900</v>
+        <v>416000</v>
       </c>
       <c r="E94" s="3">
-        <v>-327800</v>
+        <v>-441900</v>
       </c>
       <c r="F94" s="3">
-        <v>-560100</v>
+        <v>-333100</v>
       </c>
       <c r="G94" s="3">
-        <v>-591800</v>
+        <v>-569200</v>
       </c>
       <c r="H94" s="3">
-        <v>-471300</v>
+        <v>-601300</v>
       </c>
       <c r="I94" s="3">
-        <v>-256000</v>
+        <v>-478900</v>
       </c>
       <c r="J94" s="3">
+        <v>-260100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-352800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-701100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-949500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-927900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-974900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-477300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-330300</v>
       </c>
       <c r="E96" s="3">
-        <v>-325100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-330300</v>
       </c>
       <c r="G96" s="3">
-        <v>-325000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-330300</v>
       </c>
       <c r="I96" s="3">
-        <v>-325000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-330300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-424000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-210800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-316300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-205900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>513400</v>
+        <v>986400</v>
       </c>
       <c r="E100" s="3">
-        <v>-687400</v>
+        <v>521700</v>
       </c>
       <c r="F100" s="3">
-        <v>1544300</v>
+        <v>-698500</v>
       </c>
       <c r="G100" s="3">
-        <v>-922300</v>
+        <v>1569200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1628400</v>
+        <v>-937200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1866400</v>
+        <v>-1654600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1896600</v>
+      </c>
+      <c r="K100" s="3">
         <v>363300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-42600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>658200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-521600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-110300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-153600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-221900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-150200</v>
+        <v>-46200</v>
       </c>
       <c r="E101" s="3">
-        <v>183200</v>
+        <v>-151300</v>
       </c>
       <c r="F101" s="3">
-        <v>-73800</v>
+        <v>186200</v>
       </c>
       <c r="G101" s="3">
-        <v>-221100</v>
+        <v>-75000</v>
       </c>
       <c r="H101" s="3">
-        <v>34900</v>
+        <v>-224600</v>
       </c>
       <c r="I101" s="3">
-        <v>-193700</v>
+        <v>35500</v>
       </c>
       <c r="J101" s="3">
+        <v>-196900</v>
+      </c>
+      <c r="K101" s="3">
         <v>158300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>129100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-406600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>97400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>127600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>29700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-280700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1123500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1413900</v>
+        <v>418400</v>
       </c>
       <c r="E102" s="3">
-        <v>393300</v>
+        <v>1436800</v>
       </c>
       <c r="F102" s="3">
-        <v>1222200</v>
+        <v>399700</v>
       </c>
       <c r="G102" s="3">
-        <v>-760500</v>
+        <v>1242000</v>
       </c>
       <c r="H102" s="3">
-        <v>-897600</v>
+        <v>-772800</v>
       </c>
       <c r="I102" s="3">
-        <v>-1883200</v>
+        <v>-912100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1913600</v>
+      </c>
+      <c r="K102" s="3">
         <v>120600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-281600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>739400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-247900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-546900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1118400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1102400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13139600</v>
+        <v>16022200</v>
       </c>
       <c r="E8" s="3">
-        <v>16378100</v>
+        <v>13376300</v>
       </c>
       <c r="F8" s="3">
-        <v>18041800</v>
+        <v>16673000</v>
       </c>
       <c r="G8" s="3">
-        <v>18439100</v>
+        <v>18366700</v>
       </c>
       <c r="H8" s="3">
-        <v>17852300</v>
+        <v>18771200</v>
       </c>
       <c r="I8" s="3">
-        <v>18122400</v>
+        <v>18173700</v>
       </c>
       <c r="J8" s="3">
+        <v>18448800</v>
+      </c>
+      <c r="K8" s="3">
         <v>19586200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18574800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18259400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18712800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18570900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18013000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16862100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17042100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16698500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9531800</v>
+        <v>11346400</v>
       </c>
       <c r="E9" s="3">
-        <v>11609300</v>
+        <v>9703400</v>
       </c>
       <c r="F9" s="3">
-        <v>12751100</v>
+        <v>11818400</v>
       </c>
       <c r="G9" s="3">
-        <v>13223500</v>
+        <v>12980700</v>
       </c>
       <c r="H9" s="3">
-        <v>12821500</v>
+        <v>13461700</v>
       </c>
       <c r="I9" s="3">
-        <v>12777600</v>
+        <v>13052400</v>
       </c>
       <c r="J9" s="3">
+        <v>13007700</v>
+      </c>
+      <c r="K9" s="3">
         <v>14109900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13380700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13159100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13352200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13062600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12689100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11908300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11859300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11737300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3607900</v>
+        <v>4675800</v>
       </c>
       <c r="E10" s="3">
-        <v>4768800</v>
+        <v>3672900</v>
       </c>
       <c r="F10" s="3">
-        <v>5290700</v>
+        <v>4854600</v>
       </c>
       <c r="G10" s="3">
-        <v>5215600</v>
+        <v>5386000</v>
       </c>
       <c r="H10" s="3">
-        <v>5030800</v>
+        <v>5309500</v>
       </c>
       <c r="I10" s="3">
-        <v>5344800</v>
+        <v>5121400</v>
       </c>
       <c r="J10" s="3">
+        <v>5441100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5476200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5194100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5100300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5360600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5508300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5323900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4953800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5182800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4961200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>188100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>20900</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,8 +1148,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13104200</v>
+        <v>15129700</v>
       </c>
       <c r="E17" s="3">
-        <v>15877000</v>
+        <v>13340200</v>
       </c>
       <c r="F17" s="3">
-        <v>17094200</v>
+        <v>16163000</v>
       </c>
       <c r="G17" s="3">
-        <v>17647100</v>
+        <v>17402100</v>
       </c>
       <c r="H17" s="3">
-        <v>17319900</v>
+        <v>17964900</v>
       </c>
       <c r="I17" s="3">
-        <v>17001800</v>
+        <v>17631900</v>
       </c>
       <c r="J17" s="3">
+        <v>17308000</v>
+      </c>
+      <c r="K17" s="3">
         <v>18665300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17689600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17350800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18135700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17484800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16994900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16103400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17032800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15832400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35500</v>
+        <v>892500</v>
       </c>
       <c r="E18" s="3">
-        <v>501100</v>
+        <v>36100</v>
       </c>
       <c r="F18" s="3">
-        <v>947600</v>
+        <v>510100</v>
       </c>
       <c r="G18" s="3">
-        <v>792000</v>
+        <v>964700</v>
       </c>
       <c r="H18" s="3">
-        <v>532300</v>
+        <v>806300</v>
       </c>
       <c r="I18" s="3">
-        <v>1120600</v>
+        <v>541900</v>
       </c>
       <c r="J18" s="3">
+        <v>1140800</v>
+      </c>
+      <c r="K18" s="3">
         <v>920900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>885200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>908600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>577100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1086100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1018100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>758700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>866100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6500</v>
+        <v>-26600</v>
       </c>
       <c r="E20" s="3">
-        <v>-800</v>
+        <v>-6600</v>
       </c>
       <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-21000</v>
-      </c>
       <c r="H20" s="3">
-        <v>-1500</v>
+        <v>-21400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M20" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N20" s="3">
+        <v>11100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="S20" s="3">
         <v>32300</v>
       </c>
-      <c r="J20" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>20800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>11100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-39500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>32300</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>769500</v>
+        <v>1614600</v>
       </c>
       <c r="E21" s="3">
-        <v>1348300</v>
+        <v>783300</v>
       </c>
       <c r="F21" s="3">
-        <v>1799700</v>
+        <v>1372600</v>
       </c>
       <c r="G21" s="3">
-        <v>1668000</v>
+        <v>1832100</v>
       </c>
       <c r="H21" s="3">
-        <v>1452400</v>
+        <v>1698000</v>
       </c>
       <c r="I21" s="3">
-        <v>1882700</v>
+        <v>1478600</v>
       </c>
       <c r="J21" s="3">
+        <v>1916600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1622100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1554500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1580700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1230300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1748100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1672200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1373100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>613900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1489300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,8 +1454,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1432,120 +1472,129 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>34900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29000</v>
+        <v>865900</v>
       </c>
       <c r="E23" s="3">
-        <v>500200</v>
+        <v>29500</v>
       </c>
       <c r="F23" s="3">
-        <v>945500</v>
+        <v>509200</v>
       </c>
       <c r="G23" s="3">
-        <v>771000</v>
+        <v>962500</v>
       </c>
       <c r="H23" s="3">
-        <v>530800</v>
+        <v>784900</v>
       </c>
       <c r="I23" s="3">
-        <v>1152900</v>
+        <v>540300</v>
       </c>
       <c r="J23" s="3">
+        <v>1173700</v>
+      </c>
+      <c r="K23" s="3">
         <v>916300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>882700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>929400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>588200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1073400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1019800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>741000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>863600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>94200</v>
+        <v>251900</v>
       </c>
       <c r="E24" s="3">
-        <v>33400</v>
+        <v>95900</v>
       </c>
       <c r="F24" s="3">
-        <v>177100</v>
+        <v>34000</v>
       </c>
       <c r="G24" s="3">
-        <v>247800</v>
+        <v>180300</v>
       </c>
       <c r="H24" s="3">
-        <v>23200</v>
+        <v>252200</v>
       </c>
       <c r="I24" s="3">
-        <v>63800</v>
+        <v>23600</v>
       </c>
       <c r="J24" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K24" s="3">
         <v>296400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>323600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>370200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>225800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>296900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>352300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>269200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>339400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>250000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-65300</v>
+        <v>614000</v>
       </c>
       <c r="E26" s="3">
-        <v>466800</v>
+        <v>-66500</v>
       </c>
       <c r="F26" s="3">
-        <v>768300</v>
+        <v>475200</v>
       </c>
       <c r="G26" s="3">
-        <v>523300</v>
+        <v>782200</v>
       </c>
       <c r="H26" s="3">
-        <v>507600</v>
+        <v>532700</v>
       </c>
       <c r="I26" s="3">
-        <v>1089100</v>
+        <v>516700</v>
       </c>
       <c r="J26" s="3">
+        <v>1108800</v>
+      </c>
+      <c r="K26" s="3">
         <v>619800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>559100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>559200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>362400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>776500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>667500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>471800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-369600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>613600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-92800</v>
+        <v>564100</v>
       </c>
       <c r="E27" s="3">
-        <v>448900</v>
+        <v>-94500</v>
       </c>
       <c r="F27" s="3">
-        <v>729000</v>
+        <v>457000</v>
       </c>
       <c r="G27" s="3">
-        <v>482800</v>
+        <v>742100</v>
       </c>
       <c r="H27" s="3">
-        <v>469900</v>
+        <v>491500</v>
       </c>
       <c r="I27" s="3">
-        <v>1042500</v>
+        <v>478400</v>
       </c>
       <c r="J27" s="3">
+        <v>1061300</v>
+      </c>
+      <c r="K27" s="3">
         <v>567300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>522600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>521400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>324800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>734000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>634200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>440800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-426600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>562800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6500</v>
+        <v>26600</v>
       </c>
       <c r="E32" s="3">
-        <v>800</v>
+        <v>6600</v>
       </c>
       <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>21000</v>
-      </c>
       <c r="H32" s="3">
-        <v>1500</v>
+        <v>21400</v>
       </c>
       <c r="I32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>12700</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>17700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>39500</v>
+      </c>
+      <c r="S32" s="3">
         <v>-32300</v>
       </c>
-      <c r="J32" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>12700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>17700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>39500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-92800</v>
+        <v>564100</v>
       </c>
       <c r="E33" s="3">
-        <v>448900</v>
+        <v>-94500</v>
       </c>
       <c r="F33" s="3">
-        <v>729000</v>
+        <v>457000</v>
       </c>
       <c r="G33" s="3">
-        <v>482800</v>
+        <v>742100</v>
       </c>
       <c r="H33" s="3">
-        <v>469900</v>
+        <v>491500</v>
       </c>
       <c r="I33" s="3">
-        <v>1042500</v>
+        <v>478400</v>
       </c>
       <c r="J33" s="3">
+        <v>1061300</v>
+      </c>
+      <c r="K33" s="3">
         <v>567300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>522600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>521400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>324800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>734000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>634200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>440800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-426600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>562800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-92800</v>
+        <v>564100</v>
       </c>
       <c r="E35" s="3">
-        <v>448900</v>
+        <v>-94500</v>
       </c>
       <c r="F35" s="3">
-        <v>729000</v>
+        <v>457000</v>
       </c>
       <c r="G35" s="3">
-        <v>482800</v>
+        <v>742100</v>
       </c>
       <c r="H35" s="3">
-        <v>469900</v>
+        <v>491500</v>
       </c>
       <c r="I35" s="3">
-        <v>1042500</v>
+        <v>478400</v>
       </c>
       <c r="J35" s="3">
+        <v>1061300</v>
+      </c>
+      <c r="K35" s="3">
         <v>567300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>522600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>521400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>324800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>734000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>634200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>440800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-426600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>562800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,467 +2313,492 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10014200</v>
+        <v>11784900</v>
       </c>
       <c r="E41" s="3">
-        <v>9595800</v>
+        <v>10194600</v>
       </c>
       <c r="F41" s="3">
-        <v>8159000</v>
+        <v>9768600</v>
       </c>
       <c r="G41" s="3">
-        <v>7759400</v>
+        <v>8306000</v>
       </c>
       <c r="H41" s="3">
-        <v>6517400</v>
+        <v>7899100</v>
       </c>
       <c r="I41" s="3">
-        <v>7290200</v>
+        <v>6634700</v>
       </c>
       <c r="J41" s="3">
+        <v>7421500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8202200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9955100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9622800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9849800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9110400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9358400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9905300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11271900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10167700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>979900</v>
+        <v>1174000</v>
       </c>
       <c r="E42" s="3">
-        <v>1401200</v>
+        <v>997500</v>
       </c>
       <c r="F42" s="3">
-        <v>1322600</v>
+        <v>1426500</v>
       </c>
       <c r="G42" s="3">
-        <v>1268400</v>
+        <v>1346500</v>
       </c>
       <c r="H42" s="3">
-        <v>1112700</v>
+        <v>1291200</v>
       </c>
       <c r="I42" s="3">
-        <v>1239500</v>
+        <v>1132800</v>
       </c>
       <c r="J42" s="3">
+        <v>1261800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1453500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1834300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2216400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1840200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1370300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1305300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1359400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9611400</v>
+        <v>10351900</v>
       </c>
       <c r="E43" s="3">
-        <v>9923400</v>
+        <v>9784400</v>
       </c>
       <c r="F43" s="3">
-        <v>10625400</v>
+        <v>10102100</v>
       </c>
       <c r="G43" s="3">
-        <v>11145900</v>
+        <v>10816700</v>
       </c>
       <c r="H43" s="3">
-        <v>10889300</v>
+        <v>11346700</v>
       </c>
       <c r="I43" s="3">
-        <v>11239500</v>
+        <v>11085400</v>
       </c>
       <c r="J43" s="3">
+        <v>11441900</v>
+      </c>
+      <c r="K43" s="3">
         <v>11046700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10690200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9936000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9392400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9350000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9295400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8475100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7512900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8383500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7958100</v>
+        <v>7626300</v>
       </c>
       <c r="E44" s="3">
-        <v>7490800</v>
+        <v>8101400</v>
       </c>
       <c r="F44" s="3">
-        <v>8287500</v>
+        <v>7625700</v>
       </c>
       <c r="G44" s="3">
-        <v>9491200</v>
+        <v>8436700</v>
       </c>
       <c r="H44" s="3">
-        <v>9836400</v>
+        <v>9662100</v>
       </c>
       <c r="I44" s="3">
-        <v>9595200</v>
+        <v>10013600</v>
       </c>
       <c r="J44" s="3">
+        <v>9768000</v>
+      </c>
+      <c r="K44" s="3">
         <v>10414700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10017000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9418500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8937000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9474900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8784700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8188700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7152000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7391100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2224400</v>
+        <v>1577300</v>
       </c>
       <c r="E45" s="3">
-        <v>4023100</v>
+        <v>2264500</v>
       </c>
       <c r="F45" s="3">
-        <v>9338000</v>
+        <v>4095600</v>
       </c>
       <c r="G45" s="3">
-        <v>3757400</v>
+        <v>9506100</v>
       </c>
       <c r="H45" s="3">
-        <v>1869600</v>
+        <v>3825000</v>
       </c>
       <c r="I45" s="3">
-        <v>1543100</v>
+        <v>1903300</v>
       </c>
       <c r="J45" s="3">
+        <v>1570900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1877700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1738200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1664900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1493600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1548200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1420800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1613100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1217000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4283600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30787900</v>
+        <v>32514500</v>
       </c>
       <c r="E46" s="3">
-        <v>32434300</v>
+        <v>31342400</v>
       </c>
       <c r="F46" s="3">
-        <v>37732500</v>
+        <v>33018400</v>
       </c>
       <c r="G46" s="3">
-        <v>33422200</v>
+        <v>38412000</v>
       </c>
       <c r="H46" s="3">
-        <v>30225500</v>
+        <v>34024100</v>
       </c>
       <c r="I46" s="3">
-        <v>30907400</v>
+        <v>30769800</v>
       </c>
       <c r="J46" s="3">
+        <v>31464000</v>
+      </c>
+      <c r="K46" s="3">
         <v>32994900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34234800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32858600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31513100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30853900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30164500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29541600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28426700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30226000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6814400</v>
+        <v>7741000</v>
       </c>
       <c r="E47" s="3">
-        <v>4929200</v>
+        <v>6937100</v>
       </c>
       <c r="F47" s="3">
-        <v>3204700</v>
+        <v>5017900</v>
       </c>
       <c r="G47" s="3">
-        <v>3258100</v>
+        <v>3262400</v>
       </c>
       <c r="H47" s="3">
-        <v>3461200</v>
+        <v>3316800</v>
       </c>
       <c r="I47" s="3">
-        <v>3329600</v>
+        <v>3523500</v>
       </c>
       <c r="J47" s="3">
+        <v>3389600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3038200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2861000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2984200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2842400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3008100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2987700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2901200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2820400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3053000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12035100</v>
+        <v>12090000</v>
       </c>
       <c r="E48" s="3">
-        <v>12231500</v>
+        <v>12251900</v>
       </c>
       <c r="F48" s="3">
-        <v>12744600</v>
+        <v>12451700</v>
       </c>
       <c r="G48" s="3">
-        <v>16211000</v>
+        <v>12974100</v>
       </c>
       <c r="H48" s="3">
-        <v>17589200</v>
+        <v>16502900</v>
       </c>
       <c r="I48" s="3">
-        <v>12502100</v>
+        <v>17906000</v>
       </c>
       <c r="J48" s="3">
+        <v>12727200</v>
+      </c>
+      <c r="K48" s="3">
         <v>12503100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12460500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12044500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12421600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13070000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12836900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12427600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11737500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11622200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5826600</v>
+        <v>5892100</v>
       </c>
       <c r="E49" s="3">
-        <v>5858600</v>
+        <v>5931600</v>
       </c>
       <c r="F49" s="3">
-        <v>6263300</v>
+        <v>5964100</v>
       </c>
       <c r="G49" s="3">
-        <v>6236600</v>
+        <v>6376000</v>
       </c>
       <c r="H49" s="3">
-        <v>6617700</v>
+        <v>6348900</v>
       </c>
       <c r="I49" s="3">
-        <v>6792600</v>
+        <v>6736900</v>
       </c>
       <c r="J49" s="3">
+        <v>6914900</v>
+      </c>
+      <c r="K49" s="3">
         <v>6975600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6982600</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2695,17 +2806,20 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>5899700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7114500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3150800</v>
+        <v>3115900</v>
       </c>
       <c r="E52" s="3">
-        <v>3249300</v>
+        <v>3207500</v>
       </c>
       <c r="F52" s="3">
-        <v>3403700</v>
+        <v>3307800</v>
       </c>
       <c r="G52" s="3">
-        <v>3423500</v>
+        <v>3465000</v>
       </c>
       <c r="H52" s="3">
-        <v>3495900</v>
+        <v>3485100</v>
       </c>
       <c r="I52" s="3">
-        <v>3239800</v>
+        <v>3558800</v>
       </c>
       <c r="J52" s="3">
+        <v>3298100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3600300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3498500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10157200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3421200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10697500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10809400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10784400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4184500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2490500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58614800</v>
+        <v>61353400</v>
       </c>
       <c r="E54" s="3">
-        <v>58702800</v>
+        <v>59670400</v>
       </c>
       <c r="F54" s="3">
-        <v>63348900</v>
+        <v>59760000</v>
       </c>
       <c r="G54" s="3">
-        <v>62551300</v>
+        <v>64489700</v>
       </c>
       <c r="H54" s="3">
-        <v>61389500</v>
+        <v>63677800</v>
       </c>
       <c r="I54" s="3">
-        <v>56771500</v>
+        <v>62495000</v>
       </c>
       <c r="J54" s="3">
+        <v>57793900</v>
+      </c>
+      <c r="K54" s="3">
         <v>59112100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60037400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58044400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>56872000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57629500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56798500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>55654700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>53068900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>54506200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8029700</v>
+        <v>8427700</v>
       </c>
       <c r="E57" s="3">
-        <v>9153900</v>
+        <v>8174300</v>
       </c>
       <c r="F57" s="3">
-        <v>9642400</v>
+        <v>9318800</v>
       </c>
       <c r="G57" s="3">
-        <v>10046500</v>
+        <v>9816000</v>
       </c>
       <c r="H57" s="3">
-        <v>10460700</v>
+        <v>10227400</v>
       </c>
       <c r="I57" s="3">
-        <v>10867100</v>
+        <v>10649100</v>
       </c>
       <c r="J57" s="3">
+        <v>11062800</v>
+      </c>
+      <c r="K57" s="3">
         <v>11331900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11005700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10511700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10364100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10254300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9923500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9363400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8479400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8700400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4668000</v>
+        <v>6914800</v>
       </c>
       <c r="E58" s="3">
-        <v>2973600</v>
+        <v>4752000</v>
       </c>
       <c r="F58" s="3">
-        <v>3139000</v>
+        <v>3027100</v>
       </c>
       <c r="G58" s="3">
-        <v>3556500</v>
+        <v>3195500</v>
       </c>
       <c r="H58" s="3">
-        <v>4145900</v>
+        <v>3620600</v>
       </c>
       <c r="I58" s="3">
-        <v>3681200</v>
+        <v>4220500</v>
       </c>
       <c r="J58" s="3">
+        <v>3747500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3093600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4652200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4131900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3393500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1725000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1660200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1652900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1570300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>219800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11638000</v>
+        <v>11669700</v>
       </c>
       <c r="E59" s="3">
-        <v>12568600</v>
+        <v>11847600</v>
       </c>
       <c r="F59" s="3">
-        <v>17509700</v>
+        <v>12794900</v>
       </c>
       <c r="G59" s="3">
-        <v>13796200</v>
+        <v>17825000</v>
       </c>
       <c r="H59" s="3">
-        <v>13941900</v>
+        <v>14044600</v>
       </c>
       <c r="I59" s="3">
-        <v>13672200</v>
+        <v>14193000</v>
       </c>
       <c r="J59" s="3">
+        <v>13918400</v>
+      </c>
+      <c r="K59" s="3">
         <v>14190600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14163400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14387700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14247600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14958100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14818300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15005300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14006300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12533100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24335600</v>
+        <v>27012200</v>
       </c>
       <c r="E60" s="3">
-        <v>24696100</v>
+        <v>24773900</v>
       </c>
       <c r="F60" s="3">
-        <v>30291000</v>
+        <v>25140800</v>
       </c>
       <c r="G60" s="3">
-        <v>27399200</v>
+        <v>30836500</v>
       </c>
       <c r="H60" s="3">
-        <v>28548400</v>
+        <v>27892600</v>
       </c>
       <c r="I60" s="3">
-        <v>28220400</v>
+        <v>29062600</v>
       </c>
       <c r="J60" s="3">
+        <v>28728600</v>
+      </c>
+      <c r="K60" s="3">
         <v>28616200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29821400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29031300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28005300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26937300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26402000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26021600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24056000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21453400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10892500</v>
+        <v>9126000</v>
       </c>
       <c r="E61" s="3">
-        <v>10915600</v>
+        <v>11088600</v>
       </c>
       <c r="F61" s="3">
-        <v>9975700</v>
+        <v>11112200</v>
       </c>
       <c r="G61" s="3">
-        <v>13111400</v>
+        <v>10155300</v>
       </c>
       <c r="H61" s="3">
-        <v>10873400</v>
+        <v>13347600</v>
       </c>
       <c r="I61" s="3">
-        <v>5746800</v>
+        <v>11069200</v>
       </c>
       <c r="J61" s="3">
+        <v>5850200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7834600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7722100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7561500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7811000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8742800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8783300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8782800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8399600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9757300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2922700</v>
+        <v>3043200</v>
       </c>
       <c r="E62" s="3">
-        <v>2739700</v>
+        <v>2975300</v>
       </c>
       <c r="F62" s="3">
-        <v>2839700</v>
+        <v>2789100</v>
       </c>
       <c r="G62" s="3">
-        <v>2920800</v>
+        <v>2890800</v>
       </c>
       <c r="H62" s="3">
-        <v>3123100</v>
+        <v>2973400</v>
       </c>
       <c r="I62" s="3">
-        <v>3125600</v>
+        <v>3179400</v>
       </c>
       <c r="J62" s="3">
+        <v>3181900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3974200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3959200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4004300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4039800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4534000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4657500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4589900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5002700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5716900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39549700</v>
+        <v>40650300</v>
       </c>
       <c r="E66" s="3">
-        <v>39838400</v>
+        <v>40261900</v>
       </c>
       <c r="F66" s="3">
-        <v>44685500</v>
+        <v>40555800</v>
       </c>
       <c r="G66" s="3">
-        <v>44932800</v>
+        <v>45490200</v>
       </c>
       <c r="H66" s="3">
-        <v>44082200</v>
+        <v>45741900</v>
       </c>
       <c r="I66" s="3">
-        <v>38707900</v>
+        <v>44876000</v>
       </c>
       <c r="J66" s="3">
+        <v>39405000</v>
+      </c>
+      <c r="K66" s="3">
         <v>42031400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43063400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42103500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41435700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41835200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41551600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40942000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39126200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38227700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15109000</v>
+        <v>16757600</v>
       </c>
       <c r="E72" s="3">
-        <v>15542000</v>
+        <v>15381100</v>
       </c>
       <c r="F72" s="3">
-        <v>15006800</v>
+        <v>15821900</v>
       </c>
       <c r="G72" s="3">
-        <v>14596700</v>
+        <v>15277100</v>
       </c>
       <c r="H72" s="3">
-        <v>14112200</v>
+        <v>14859500</v>
       </c>
       <c r="I72" s="3">
-        <v>14168200</v>
+        <v>14366400</v>
       </c>
       <c r="J72" s="3">
+        <v>14423400</v>
+      </c>
+      <c r="K72" s="3">
         <v>13260200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12808600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12020300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11755000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11222300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10661300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10052200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9326300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11377000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19065100</v>
+        <v>20703100</v>
       </c>
       <c r="E76" s="3">
-        <v>18864400</v>
+        <v>19408500</v>
       </c>
       <c r="F76" s="3">
-        <v>18663400</v>
+        <v>19204100</v>
       </c>
       <c r="G76" s="3">
-        <v>17618600</v>
+        <v>18999500</v>
       </c>
       <c r="H76" s="3">
-        <v>17307300</v>
+        <v>17935900</v>
       </c>
       <c r="I76" s="3">
-        <v>18063600</v>
+        <v>17619000</v>
       </c>
       <c r="J76" s="3">
+        <v>18388900</v>
+      </c>
+      <c r="K76" s="3">
         <v>17080700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16974000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15940900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15436300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15794300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15247000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14712700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13942700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16278500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-92800</v>
+        <v>564100</v>
       </c>
       <c r="E81" s="3">
-        <v>448900</v>
+        <v>-94500</v>
       </c>
       <c r="F81" s="3">
-        <v>729000</v>
+        <v>457000</v>
       </c>
       <c r="G81" s="3">
-        <v>482800</v>
+        <v>742100</v>
       </c>
       <c r="H81" s="3">
-        <v>469900</v>
+        <v>491500</v>
       </c>
       <c r="I81" s="3">
-        <v>1042500</v>
+        <v>478400</v>
       </c>
       <c r="J81" s="3">
+        <v>1061300</v>
+      </c>
+      <c r="K81" s="3">
         <v>567300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>522600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>521400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>324800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>734000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>634200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>440800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-426600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>562800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>740500</v>
+        <v>748700</v>
       </c>
       <c r="E83" s="3">
-        <v>848100</v>
+        <v>753800</v>
       </c>
       <c r="F83" s="3">
-        <v>854200</v>
+        <v>863300</v>
       </c>
       <c r="G83" s="3">
-        <v>896900</v>
+        <v>869600</v>
       </c>
       <c r="H83" s="3">
-        <v>921600</v>
+        <v>913100</v>
       </c>
       <c r="I83" s="3">
-        <v>729800</v>
+        <v>938200</v>
       </c>
       <c r="J83" s="3">
+        <v>742900</v>
+      </c>
+      <c r="K83" s="3">
         <v>705800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>671900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>651300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>642100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>674700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>652400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>632000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>644100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>590800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-937700</v>
+        <v>1685000</v>
       </c>
       <c r="E89" s="3">
-        <v>1508300</v>
+        <v>-954600</v>
       </c>
       <c r="F89" s="3">
-        <v>1245100</v>
+        <v>1535500</v>
       </c>
       <c r="G89" s="3">
-        <v>317000</v>
+        <v>1267500</v>
       </c>
       <c r="H89" s="3">
-        <v>990300</v>
+        <v>322700</v>
       </c>
       <c r="I89" s="3">
-        <v>1185900</v>
+        <v>1008200</v>
       </c>
       <c r="J89" s="3">
+        <v>1207300</v>
+      </c>
+      <c r="K89" s="3">
         <v>440000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-48200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>333000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1437300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1104200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>574700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>709400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2263300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>783400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-451700</v>
+        <v>-413800</v>
       </c>
       <c r="E91" s="3">
-        <v>-709300</v>
+        <v>-459800</v>
       </c>
       <c r="F91" s="3">
-        <v>-542600</v>
+        <v>-722100</v>
       </c>
       <c r="G91" s="3">
-        <v>-649100</v>
+        <v>-552400</v>
       </c>
       <c r="H91" s="3">
-        <v>-684700</v>
+        <v>-660800</v>
       </c>
       <c r="I91" s="3">
-        <v>-765400</v>
+        <v>-697000</v>
       </c>
       <c r="J91" s="3">
+        <v>-779200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-668500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-631000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-875100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-940800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-756900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-825000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>575700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>416000</v>
+        <v>-155900</v>
       </c>
       <c r="E94" s="3">
-        <v>-441900</v>
+        <v>423500</v>
       </c>
       <c r="F94" s="3">
-        <v>-333100</v>
+        <v>-449900</v>
       </c>
       <c r="G94" s="3">
-        <v>-569200</v>
+        <v>-339100</v>
       </c>
       <c r="H94" s="3">
-        <v>-601300</v>
+        <v>-579400</v>
       </c>
       <c r="I94" s="3">
-        <v>-478900</v>
+        <v>-612200</v>
       </c>
       <c r="J94" s="3">
+        <v>-487500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-260100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-352800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-701100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-949500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-927900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-974900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-477300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-336300</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-336300</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-336200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-330300</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-330300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-330300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-330300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-424000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-210800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-316300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-205900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>986400</v>
+        <v>118100</v>
       </c>
       <c r="E100" s="3">
-        <v>521700</v>
+        <v>1004200</v>
       </c>
       <c r="F100" s="3">
-        <v>-698500</v>
+        <v>531100</v>
       </c>
       <c r="G100" s="3">
-        <v>1569200</v>
+        <v>-711100</v>
       </c>
       <c r="H100" s="3">
-        <v>-937200</v>
+        <v>1597500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1654600</v>
+        <v>-954000</v>
       </c>
       <c r="J100" s="3">
+        <v>-1684400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>363300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-42600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>658200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-521600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-110300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-153600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-221900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-46200</v>
+        <v>-56900</v>
       </c>
       <c r="E101" s="3">
-        <v>-151300</v>
+        <v>-47100</v>
       </c>
       <c r="F101" s="3">
-        <v>186200</v>
+        <v>-154000</v>
       </c>
       <c r="G101" s="3">
-        <v>-75000</v>
+        <v>189500</v>
       </c>
       <c r="H101" s="3">
-        <v>-224600</v>
+        <v>-76400</v>
       </c>
       <c r="I101" s="3">
-        <v>35500</v>
+        <v>-228700</v>
       </c>
       <c r="J101" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-196900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>158300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>129100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-406600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>97400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>127600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>29700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-280700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1123500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>418400</v>
+        <v>1590300</v>
       </c>
       <c r="E102" s="3">
-        <v>1436800</v>
+        <v>426000</v>
       </c>
       <c r="F102" s="3">
-        <v>399700</v>
+        <v>1462700</v>
       </c>
       <c r="G102" s="3">
-        <v>1242000</v>
+        <v>406900</v>
       </c>
       <c r="H102" s="3">
-        <v>-772800</v>
+        <v>1264300</v>
       </c>
       <c r="I102" s="3">
-        <v>-912100</v>
+        <v>-786700</v>
       </c>
       <c r="J102" s="3">
+        <v>-928500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-281600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>739400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-247900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-546900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1118400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1102400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16022200</v>
+        <v>16617500</v>
       </c>
       <c r="E8" s="3">
-        <v>13376300</v>
+        <v>15271900</v>
       </c>
       <c r="F8" s="3">
-        <v>16673000</v>
+        <v>12749900</v>
       </c>
       <c r="G8" s="3">
-        <v>18366700</v>
+        <v>15892300</v>
       </c>
       <c r="H8" s="3">
-        <v>18771200</v>
+        <v>17506700</v>
       </c>
       <c r="I8" s="3">
-        <v>18173700</v>
+        <v>17892200</v>
       </c>
       <c r="J8" s="3">
+        <v>17322700</v>
+      </c>
+      <c r="K8" s="3">
         <v>18448800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19586200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18574800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18259400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18712800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18570900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18013000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16862100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17042100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16698500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11346400</v>
+        <v>11575000</v>
       </c>
       <c r="E9" s="3">
-        <v>9703400</v>
+        <v>10815100</v>
       </c>
       <c r="F9" s="3">
-        <v>11818400</v>
+        <v>9249000</v>
       </c>
       <c r="G9" s="3">
-        <v>12980700</v>
+        <v>11265000</v>
       </c>
       <c r="H9" s="3">
-        <v>13461700</v>
+        <v>12372900</v>
       </c>
       <c r="I9" s="3">
-        <v>13052400</v>
+        <v>12831300</v>
       </c>
       <c r="J9" s="3">
+        <v>12441200</v>
+      </c>
+      <c r="K9" s="3">
         <v>13007700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14109900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13380700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13159100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13352200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13062600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12689100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11908300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11859300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11737300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4675800</v>
+        <v>5042500</v>
       </c>
       <c r="E10" s="3">
-        <v>3672900</v>
+        <v>4456800</v>
       </c>
       <c r="F10" s="3">
-        <v>4854600</v>
+        <v>3500900</v>
       </c>
       <c r="G10" s="3">
-        <v>5386000</v>
+        <v>4627300</v>
       </c>
       <c r="H10" s="3">
-        <v>5309500</v>
+        <v>5133800</v>
       </c>
       <c r="I10" s="3">
-        <v>5121400</v>
+        <v>5060900</v>
       </c>
       <c r="J10" s="3">
+        <v>4881500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5441100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5476200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5194100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5100300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5360600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5508300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5323900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4953800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5182800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4961200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1099,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1095,17 +1114,20 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>188100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>20900</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,8 +1173,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15129700</v>
+        <v>15425100</v>
       </c>
       <c r="E17" s="3">
-        <v>13340200</v>
+        <v>14421300</v>
       </c>
       <c r="F17" s="3">
-        <v>16163000</v>
+        <v>12715500</v>
       </c>
       <c r="G17" s="3">
-        <v>17402100</v>
+        <v>15406100</v>
       </c>
       <c r="H17" s="3">
-        <v>17964900</v>
+        <v>16587200</v>
       </c>
       <c r="I17" s="3">
-        <v>17631900</v>
+        <v>17123600</v>
       </c>
       <c r="J17" s="3">
+        <v>16806200</v>
+      </c>
+      <c r="K17" s="3">
         <v>17308000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18665300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17689600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17350800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18135700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17484800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16994900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16103400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17032800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15832400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>892500</v>
+        <v>1192400</v>
       </c>
       <c r="E18" s="3">
-        <v>36100</v>
+        <v>850700</v>
       </c>
       <c r="F18" s="3">
-        <v>510100</v>
+        <v>34400</v>
       </c>
       <c r="G18" s="3">
-        <v>964700</v>
+        <v>486200</v>
       </c>
       <c r="H18" s="3">
-        <v>806300</v>
+        <v>919500</v>
       </c>
       <c r="I18" s="3">
-        <v>541900</v>
+        <v>768600</v>
       </c>
       <c r="J18" s="3">
+        <v>516500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1140800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>920900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>885200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>908600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>577100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1086100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1018100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>758700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>866100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26600</v>
+        <v>-29900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6600</v>
+        <v>-25300</v>
       </c>
       <c r="F20" s="3">
-        <v>-900</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2100</v>
+        <v>-800</v>
       </c>
       <c r="H20" s="3">
-        <v>-21400</v>
+        <v>-2000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1600</v>
+        <v>-20400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>32900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-39500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1614600</v>
+        <v>1885200</v>
       </c>
       <c r="E21" s="3">
-        <v>783300</v>
+        <v>1539000</v>
       </c>
       <c r="F21" s="3">
-        <v>1372600</v>
+        <v>746600</v>
       </c>
       <c r="G21" s="3">
-        <v>1832100</v>
+        <v>1308300</v>
       </c>
       <c r="H21" s="3">
-        <v>1698000</v>
+        <v>1746400</v>
       </c>
       <c r="I21" s="3">
-        <v>1478600</v>
+        <v>1618500</v>
       </c>
       <c r="J21" s="3">
+        <v>1409300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1916600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1622100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1554500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1580700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1230300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1748100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1672200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1373100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>613900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1489300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,8 +1496,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1475,126 +1514,135 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>34900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>865900</v>
+        <v>1162500</v>
       </c>
       <c r="E23" s="3">
-        <v>29500</v>
+        <v>825400</v>
       </c>
       <c r="F23" s="3">
-        <v>509200</v>
+        <v>28100</v>
       </c>
       <c r="G23" s="3">
-        <v>962500</v>
+        <v>485400</v>
       </c>
       <c r="H23" s="3">
-        <v>784900</v>
+        <v>917400</v>
       </c>
       <c r="I23" s="3">
-        <v>540300</v>
+        <v>748200</v>
       </c>
       <c r="J23" s="3">
+        <v>515000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1173700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>916300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>882700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>929400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>588200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1073400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1019800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>741000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-30200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>863600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>251900</v>
+        <v>362900</v>
       </c>
       <c r="E24" s="3">
-        <v>95900</v>
+        <v>240100</v>
       </c>
       <c r="F24" s="3">
-        <v>34000</v>
+        <v>91500</v>
       </c>
       <c r="G24" s="3">
-        <v>180300</v>
+        <v>32400</v>
       </c>
       <c r="H24" s="3">
-        <v>252200</v>
+        <v>171900</v>
       </c>
       <c r="I24" s="3">
-        <v>23600</v>
+        <v>240400</v>
       </c>
       <c r="J24" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K24" s="3">
         <v>64900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>296400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>323600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>370200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>225800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>296900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>352300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>269200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>339400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>250000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>614000</v>
+        <v>799500</v>
       </c>
       <c r="E26" s="3">
-        <v>-66500</v>
+        <v>585200</v>
       </c>
       <c r="F26" s="3">
-        <v>475200</v>
+        <v>-63300</v>
       </c>
       <c r="G26" s="3">
-        <v>782200</v>
+        <v>452900</v>
       </c>
       <c r="H26" s="3">
-        <v>532700</v>
+        <v>745600</v>
       </c>
       <c r="I26" s="3">
-        <v>516700</v>
+        <v>507800</v>
       </c>
       <c r="J26" s="3">
+        <v>492500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1108800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>619800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>559100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>559200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>362400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>776500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>667500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>471800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-369600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>613600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>564100</v>
+        <v>744500</v>
       </c>
       <c r="E27" s="3">
-        <v>-94500</v>
+        <v>537600</v>
       </c>
       <c r="F27" s="3">
-        <v>457000</v>
+        <v>-90100</v>
       </c>
       <c r="G27" s="3">
-        <v>742100</v>
+        <v>435600</v>
       </c>
       <c r="H27" s="3">
-        <v>491500</v>
+        <v>707400</v>
       </c>
       <c r="I27" s="3">
-        <v>478400</v>
+        <v>468400</v>
       </c>
       <c r="J27" s="3">
+        <v>456000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1061300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>567300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>522600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>521400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>324800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>734000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>634200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>440800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-426600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>562800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26600</v>
+        <v>29900</v>
       </c>
       <c r="E32" s="3">
-        <v>6600</v>
+        <v>25300</v>
       </c>
       <c r="F32" s="3">
-        <v>900</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="H32" s="3">
-        <v>21400</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="3">
-        <v>1600</v>
+        <v>20400</v>
       </c>
       <c r="J32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>39500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>564100</v>
+        <v>744500</v>
       </c>
       <c r="E33" s="3">
-        <v>-94500</v>
+        <v>537600</v>
       </c>
       <c r="F33" s="3">
-        <v>457000</v>
+        <v>-90100</v>
       </c>
       <c r="G33" s="3">
-        <v>742100</v>
+        <v>435600</v>
       </c>
       <c r="H33" s="3">
-        <v>491500</v>
+        <v>707400</v>
       </c>
       <c r="I33" s="3">
-        <v>478400</v>
+        <v>468400</v>
       </c>
       <c r="J33" s="3">
+        <v>456000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1061300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>567300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>522600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>521400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>324800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>734000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>634200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>440800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-426600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>562800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>564100</v>
+        <v>744500</v>
       </c>
       <c r="E35" s="3">
-        <v>-94500</v>
+        <v>537600</v>
       </c>
       <c r="F35" s="3">
-        <v>457000</v>
+        <v>-90100</v>
       </c>
       <c r="G35" s="3">
-        <v>742100</v>
+        <v>435600</v>
       </c>
       <c r="H35" s="3">
-        <v>491500</v>
+        <v>707400</v>
       </c>
       <c r="I35" s="3">
-        <v>478400</v>
+        <v>468400</v>
       </c>
       <c r="J35" s="3">
+        <v>456000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1061300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>567300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>522600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>521400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>324800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>734000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>634200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>440800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-426600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>562800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,494 +2399,519 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11784900</v>
+        <v>12447400</v>
       </c>
       <c r="E41" s="3">
-        <v>10194600</v>
+        <v>11233000</v>
       </c>
       <c r="F41" s="3">
-        <v>9768600</v>
+        <v>9717200</v>
       </c>
       <c r="G41" s="3">
-        <v>8306000</v>
+        <v>9311200</v>
       </c>
       <c r="H41" s="3">
-        <v>7899100</v>
+        <v>7917000</v>
       </c>
       <c r="I41" s="3">
-        <v>6634700</v>
+        <v>7529200</v>
       </c>
       <c r="J41" s="3">
+        <v>6324100</v>
+      </c>
+      <c r="K41" s="3">
         <v>7421500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8202200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9955100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9622800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9849800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9110400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9358400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9905300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11271900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10167700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1174000</v>
+        <v>1199100</v>
       </c>
       <c r="E42" s="3">
-        <v>997500</v>
+        <v>1119100</v>
       </c>
       <c r="F42" s="3">
-        <v>1426500</v>
+        <v>950800</v>
       </c>
       <c r="G42" s="3">
-        <v>1346500</v>
+        <v>1359700</v>
       </c>
       <c r="H42" s="3">
-        <v>1291200</v>
+        <v>1283400</v>
       </c>
       <c r="I42" s="3">
-        <v>1132800</v>
+        <v>1230700</v>
       </c>
       <c r="J42" s="3">
+        <v>1079700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1261800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1453500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1834300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2216400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1840200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1370300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1305300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1359400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10351900</v>
+        <v>10532500</v>
       </c>
       <c r="E43" s="3">
-        <v>9784400</v>
+        <v>9867200</v>
       </c>
       <c r="F43" s="3">
-        <v>10102100</v>
+        <v>9326300</v>
       </c>
       <c r="G43" s="3">
-        <v>10816700</v>
+        <v>9629000</v>
       </c>
       <c r="H43" s="3">
-        <v>11346700</v>
+        <v>10310200</v>
       </c>
       <c r="I43" s="3">
-        <v>11085400</v>
+        <v>10815300</v>
       </c>
       <c r="J43" s="3">
+        <v>10566300</v>
+      </c>
+      <c r="K43" s="3">
         <v>11441900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11046700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10690200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9936000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9392400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9350000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9295400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8475100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7512900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8383500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7626300</v>
+        <v>7292400</v>
       </c>
       <c r="E44" s="3">
-        <v>8101400</v>
+        <v>7269200</v>
       </c>
       <c r="F44" s="3">
-        <v>7625700</v>
+        <v>7722000</v>
       </c>
       <c r="G44" s="3">
-        <v>8436700</v>
+        <v>7268600</v>
       </c>
       <c r="H44" s="3">
-        <v>9662100</v>
+        <v>8041700</v>
       </c>
       <c r="I44" s="3">
-        <v>10013600</v>
+        <v>9209600</v>
       </c>
       <c r="J44" s="3">
+        <v>9544700</v>
+      </c>
+      <c r="K44" s="3">
         <v>9768000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10414700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10017000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9418500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8937000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9474900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8784700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8188700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7152000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7391100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1577300</v>
+        <v>1635300</v>
       </c>
       <c r="E45" s="3">
-        <v>2264500</v>
+        <v>1503400</v>
       </c>
       <c r="F45" s="3">
-        <v>4095600</v>
+        <v>2158500</v>
       </c>
       <c r="G45" s="3">
-        <v>9506100</v>
+        <v>3903800</v>
       </c>
       <c r="H45" s="3">
-        <v>3825000</v>
+        <v>9061000</v>
       </c>
       <c r="I45" s="3">
-        <v>1903300</v>
+        <v>3645900</v>
       </c>
       <c r="J45" s="3">
+        <v>1814100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1570900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1877700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1738200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1664900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1493600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1548200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1420800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1613100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1217000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4283600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32514500</v>
+        <v>33106600</v>
       </c>
       <c r="E46" s="3">
-        <v>31342400</v>
+        <v>30991900</v>
       </c>
       <c r="F46" s="3">
-        <v>33018400</v>
+        <v>29874700</v>
       </c>
       <c r="G46" s="3">
-        <v>38412000</v>
+        <v>31472200</v>
       </c>
       <c r="H46" s="3">
-        <v>34024100</v>
+        <v>36613400</v>
       </c>
       <c r="I46" s="3">
-        <v>30769800</v>
+        <v>32430900</v>
       </c>
       <c r="J46" s="3">
+        <v>29328900</v>
+      </c>
+      <c r="K46" s="3">
         <v>31464000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32994900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34234800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32858600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31513100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30853900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30164500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29541600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28426700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30226000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7741000</v>
+        <v>8164000</v>
       </c>
       <c r="E47" s="3">
-        <v>6937100</v>
+        <v>7378500</v>
       </c>
       <c r="F47" s="3">
-        <v>5017900</v>
+        <v>6612200</v>
       </c>
       <c r="G47" s="3">
-        <v>3262400</v>
+        <v>4783000</v>
       </c>
       <c r="H47" s="3">
-        <v>3316800</v>
+        <v>3109700</v>
       </c>
       <c r="I47" s="3">
-        <v>3523500</v>
+        <v>3161500</v>
       </c>
       <c r="J47" s="3">
+        <v>3358500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3389600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3038200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2861000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2984200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2842400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3008100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2987700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2901200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2820400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3053000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12090000</v>
+        <v>11378600</v>
       </c>
       <c r="E48" s="3">
-        <v>12251900</v>
+        <v>11523900</v>
       </c>
       <c r="F48" s="3">
-        <v>12451700</v>
+        <v>11678100</v>
       </c>
       <c r="G48" s="3">
-        <v>12974100</v>
+        <v>11868700</v>
       </c>
       <c r="H48" s="3">
-        <v>16502900</v>
+        <v>12366600</v>
       </c>
       <c r="I48" s="3">
-        <v>17906000</v>
+        <v>15730200</v>
       </c>
       <c r="J48" s="3">
+        <v>17067500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12727200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12503100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12460500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12044500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12421600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13070000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12836900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12427600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11737500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11622200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5892100</v>
+        <v>5567400</v>
       </c>
       <c r="E49" s="3">
-        <v>5931600</v>
+        <v>5616200</v>
       </c>
       <c r="F49" s="3">
-        <v>5964100</v>
+        <v>5653800</v>
       </c>
       <c r="G49" s="3">
-        <v>6376000</v>
+        <v>5684800</v>
       </c>
       <c r="H49" s="3">
-        <v>6348900</v>
+        <v>6077500</v>
       </c>
       <c r="I49" s="3">
-        <v>6736900</v>
+        <v>6051600</v>
       </c>
       <c r="J49" s="3">
+        <v>6421400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6914900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6975600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6982600</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2809,17 +2919,20 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>5899700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7114500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3115900</v>
+        <v>2905900</v>
       </c>
       <c r="E52" s="3">
-        <v>3207500</v>
+        <v>2970000</v>
       </c>
       <c r="F52" s="3">
-        <v>3307800</v>
+        <v>3057300</v>
       </c>
       <c r="G52" s="3">
-        <v>3465000</v>
+        <v>3152900</v>
       </c>
       <c r="H52" s="3">
-        <v>3485100</v>
+        <v>3302800</v>
       </c>
       <c r="I52" s="3">
-        <v>3558800</v>
+        <v>3321900</v>
       </c>
       <c r="J52" s="3">
+        <v>3392200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3298100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3498500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10157200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3421200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10697500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10809400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10784400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4184500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2490500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61353400</v>
+        <v>61122500</v>
       </c>
       <c r="E54" s="3">
-        <v>59670400</v>
+        <v>58480500</v>
       </c>
       <c r="F54" s="3">
-        <v>59760000</v>
+        <v>56876300</v>
       </c>
       <c r="G54" s="3">
-        <v>64489700</v>
+        <v>56961600</v>
       </c>
       <c r="H54" s="3">
-        <v>63677800</v>
+        <v>61469900</v>
       </c>
       <c r="I54" s="3">
-        <v>62495000</v>
+        <v>60696000</v>
       </c>
       <c r="J54" s="3">
+        <v>59568600</v>
+      </c>
+      <c r="K54" s="3">
         <v>57793900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59112100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60037400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58044400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>56872000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57629500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56798500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>55654700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>53068900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>54506200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8427700</v>
+        <v>8853000</v>
       </c>
       <c r="E57" s="3">
-        <v>8174300</v>
+        <v>8033100</v>
       </c>
       <c r="F57" s="3">
-        <v>9318800</v>
+        <v>7791500</v>
       </c>
       <c r="G57" s="3">
-        <v>9816000</v>
+        <v>8882400</v>
       </c>
       <c r="H57" s="3">
-        <v>10227400</v>
+        <v>9356400</v>
       </c>
       <c r="I57" s="3">
-        <v>10649100</v>
+        <v>9748500</v>
       </c>
       <c r="J57" s="3">
+        <v>10150400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11062800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11331900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11005700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10511700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10364100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10254300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9923500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9363400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8479400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8700400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6914800</v>
+        <v>4519300</v>
       </c>
       <c r="E58" s="3">
-        <v>4752000</v>
+        <v>6591000</v>
       </c>
       <c r="F58" s="3">
-        <v>3027100</v>
+        <v>4529500</v>
       </c>
       <c r="G58" s="3">
-        <v>3195500</v>
+        <v>2885400</v>
       </c>
       <c r="H58" s="3">
-        <v>3620600</v>
+        <v>3045900</v>
       </c>
       <c r="I58" s="3">
-        <v>4220500</v>
+        <v>3451000</v>
       </c>
       <c r="J58" s="3">
+        <v>4022900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3747500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3093600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4652200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4131900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3393500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1725000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1660200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1652900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1570300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>219800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11669700</v>
+        <v>11727300</v>
       </c>
       <c r="E59" s="3">
-        <v>11847600</v>
+        <v>11123200</v>
       </c>
       <c r="F59" s="3">
-        <v>12794900</v>
+        <v>11292800</v>
       </c>
       <c r="G59" s="3">
-        <v>17825000</v>
+        <v>12195800</v>
       </c>
       <c r="H59" s="3">
-        <v>14044600</v>
+        <v>16990300</v>
       </c>
       <c r="I59" s="3">
-        <v>14193000</v>
+        <v>13387000</v>
       </c>
       <c r="J59" s="3">
+        <v>13528400</v>
+      </c>
+      <c r="K59" s="3">
         <v>13918400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14190600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14163400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14387700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14247600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14958100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14818300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15005300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14006300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12533100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27012200</v>
+        <v>25099500</v>
       </c>
       <c r="E60" s="3">
-        <v>24773900</v>
+        <v>25747300</v>
       </c>
       <c r="F60" s="3">
-        <v>25140800</v>
+        <v>23613800</v>
       </c>
       <c r="G60" s="3">
-        <v>30836500</v>
+        <v>23963500</v>
       </c>
       <c r="H60" s="3">
-        <v>27892600</v>
+        <v>29392500</v>
       </c>
       <c r="I60" s="3">
-        <v>29062600</v>
+        <v>26586500</v>
       </c>
       <c r="J60" s="3">
+        <v>27701700</v>
+      </c>
+      <c r="K60" s="3">
         <v>28728600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28616200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29821400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29031300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28005300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26937300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26402000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26021600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24056000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21453400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9126000</v>
+        <v>10376100</v>
       </c>
       <c r="E61" s="3">
-        <v>11088600</v>
+        <v>8698600</v>
       </c>
       <c r="F61" s="3">
-        <v>11112200</v>
+        <v>10569400</v>
       </c>
       <c r="G61" s="3">
-        <v>10155300</v>
+        <v>10591900</v>
       </c>
       <c r="H61" s="3">
-        <v>13347600</v>
+        <v>9679800</v>
       </c>
       <c r="I61" s="3">
-        <v>11069200</v>
+        <v>12722500</v>
       </c>
       <c r="J61" s="3">
+        <v>10550900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5850200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7834600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7722100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7561500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7811000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8742800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8783300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8782800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8399600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9757300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3043200</v>
+        <v>3267400</v>
       </c>
       <c r="E62" s="3">
-        <v>2975300</v>
+        <v>2900700</v>
       </c>
       <c r="F62" s="3">
-        <v>2789100</v>
+        <v>2836000</v>
       </c>
       <c r="G62" s="3">
-        <v>2890800</v>
+        <v>2658500</v>
       </c>
       <c r="H62" s="3">
-        <v>2973400</v>
+        <v>2755400</v>
       </c>
       <c r="I62" s="3">
-        <v>3179400</v>
+        <v>2834200</v>
       </c>
       <c r="J62" s="3">
+        <v>3030500</v>
+      </c>
+      <c r="K62" s="3">
         <v>3181900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3974200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3959200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4004300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4039800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4534000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4657500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4589900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5002700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5716900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40650300</v>
+        <v>40218200</v>
       </c>
       <c r="E66" s="3">
-        <v>40261900</v>
+        <v>38746800</v>
       </c>
       <c r="F66" s="3">
-        <v>40555800</v>
+        <v>38376600</v>
       </c>
       <c r="G66" s="3">
-        <v>45490200</v>
+        <v>38656700</v>
       </c>
       <c r="H66" s="3">
-        <v>45741900</v>
+        <v>43360100</v>
       </c>
       <c r="I66" s="3">
-        <v>44876000</v>
+        <v>43600000</v>
       </c>
       <c r="J66" s="3">
+        <v>42774700</v>
+      </c>
+      <c r="K66" s="3">
         <v>39405000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42031400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43063400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42103500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41435700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41835200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41551600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40942000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39126200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38227700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16757600</v>
+        <v>16512000</v>
       </c>
       <c r="E72" s="3">
-        <v>15381100</v>
+        <v>15972900</v>
       </c>
       <c r="F72" s="3">
-        <v>15821900</v>
+        <v>14660800</v>
       </c>
       <c r="G72" s="3">
-        <v>15277100</v>
+        <v>15081100</v>
       </c>
       <c r="H72" s="3">
-        <v>14859500</v>
+        <v>14561700</v>
       </c>
       <c r="I72" s="3">
-        <v>14366400</v>
+        <v>14163700</v>
       </c>
       <c r="J72" s="3">
+        <v>13693700</v>
+      </c>
+      <c r="K72" s="3">
         <v>14423400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13260200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12808600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12020300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11755000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11222300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10661300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10052200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9326300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11377000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20703100</v>
+        <v>20904300</v>
       </c>
       <c r="E76" s="3">
-        <v>19408500</v>
+        <v>19733600</v>
       </c>
       <c r="F76" s="3">
-        <v>19204100</v>
+        <v>18499600</v>
       </c>
       <c r="G76" s="3">
-        <v>18999500</v>
+        <v>18304900</v>
       </c>
       <c r="H76" s="3">
-        <v>17935900</v>
+        <v>18109800</v>
       </c>
       <c r="I76" s="3">
-        <v>17619000</v>
+        <v>17096000</v>
       </c>
       <c r="J76" s="3">
+        <v>16793900</v>
+      </c>
+      <c r="K76" s="3">
         <v>18388900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17080700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16974000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15940900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15436300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15794300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15247000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14712700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13942700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16278500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>564100</v>
+        <v>744500</v>
       </c>
       <c r="E81" s="3">
-        <v>-94500</v>
+        <v>537600</v>
       </c>
       <c r="F81" s="3">
-        <v>457000</v>
+        <v>-90100</v>
       </c>
       <c r="G81" s="3">
-        <v>742100</v>
+        <v>435600</v>
       </c>
       <c r="H81" s="3">
-        <v>491500</v>
+        <v>707400</v>
       </c>
       <c r="I81" s="3">
-        <v>478400</v>
+        <v>468400</v>
       </c>
       <c r="J81" s="3">
+        <v>456000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1061300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>567300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>522600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>521400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>324800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>734000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>634200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>440800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-426600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>562800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>748700</v>
+        <v>722800</v>
       </c>
       <c r="E83" s="3">
-        <v>753800</v>
+        <v>713600</v>
       </c>
       <c r="F83" s="3">
-        <v>863300</v>
+        <v>718500</v>
       </c>
       <c r="G83" s="3">
-        <v>869600</v>
+        <v>822900</v>
       </c>
       <c r="H83" s="3">
-        <v>913100</v>
+        <v>828900</v>
       </c>
       <c r="I83" s="3">
-        <v>938200</v>
+        <v>870300</v>
       </c>
       <c r="J83" s="3">
+        <v>894300</v>
+      </c>
+      <c r="K83" s="3">
         <v>742900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>705800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>671900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>651300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>642100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>674700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>652400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>632000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>644100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>590800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1685000</v>
+        <v>2327200</v>
       </c>
       <c r="E89" s="3">
-        <v>-954600</v>
+        <v>1606100</v>
       </c>
       <c r="F89" s="3">
-        <v>1535500</v>
+        <v>-909900</v>
       </c>
       <c r="G89" s="3">
-        <v>1267500</v>
+        <v>1463600</v>
       </c>
       <c r="H89" s="3">
-        <v>322700</v>
+        <v>1208200</v>
       </c>
       <c r="I89" s="3">
-        <v>1008200</v>
+        <v>307600</v>
       </c>
       <c r="J89" s="3">
+        <v>961000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1207300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>440000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-48200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>333000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1437300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1104200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>574700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>709400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2263300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>783400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-413800</v>
+        <v>-369300</v>
       </c>
       <c r="E91" s="3">
-        <v>-459800</v>
+        <v>-394400</v>
       </c>
       <c r="F91" s="3">
-        <v>-722100</v>
+        <v>-438300</v>
       </c>
       <c r="G91" s="3">
-        <v>-552400</v>
+        <v>-688300</v>
       </c>
       <c r="H91" s="3">
-        <v>-660800</v>
+        <v>-526500</v>
       </c>
       <c r="I91" s="3">
-        <v>-697000</v>
+        <v>-629900</v>
       </c>
       <c r="J91" s="3">
+        <v>-664400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-779200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-668500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-631000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-875100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-940800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-756900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-825000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>575700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-155900</v>
+        <v>-421800</v>
       </c>
       <c r="E94" s="3">
-        <v>423500</v>
+        <v>-148600</v>
       </c>
       <c r="F94" s="3">
-        <v>-449900</v>
+        <v>403600</v>
       </c>
       <c r="G94" s="3">
-        <v>-339100</v>
+        <v>-428800</v>
       </c>
       <c r="H94" s="3">
-        <v>-579400</v>
+        <v>-323200</v>
       </c>
       <c r="I94" s="3">
-        <v>-612200</v>
+        <v>-552300</v>
       </c>
       <c r="J94" s="3">
+        <v>-583500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-487500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-260100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-352800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-701100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-949500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-927900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-974900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-477300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-213700</v>
       </c>
       <c r="E96" s="3">
-        <v>-336300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-320500</v>
       </c>
       <c r="G96" s="3">
-        <v>-336300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-320500</v>
       </c>
       <c r="I96" s="3">
-        <v>-336200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-320500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-330300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-424000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-210800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-316300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-205900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>118100</v>
+        <v>-608800</v>
       </c>
       <c r="E100" s="3">
-        <v>1004200</v>
+        <v>112500</v>
       </c>
       <c r="F100" s="3">
-        <v>531100</v>
+        <v>957200</v>
       </c>
       <c r="G100" s="3">
-        <v>-711100</v>
+        <v>506200</v>
       </c>
       <c r="H100" s="3">
-        <v>1597500</v>
+        <v>-677800</v>
       </c>
       <c r="I100" s="3">
-        <v>-954000</v>
+        <v>1522700</v>
       </c>
       <c r="J100" s="3">
+        <v>-909400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>363300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-42600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>658200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-521600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-110300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-153600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-221900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-56900</v>
+        <v>-82200</v>
       </c>
       <c r="E101" s="3">
-        <v>-47100</v>
+        <v>-54300</v>
       </c>
       <c r="F101" s="3">
-        <v>-154000</v>
+        <v>-44900</v>
       </c>
       <c r="G101" s="3">
-        <v>189500</v>
+        <v>-146800</v>
       </c>
       <c r="H101" s="3">
-        <v>-76400</v>
+        <v>180600</v>
       </c>
       <c r="I101" s="3">
-        <v>-228700</v>
+        <v>-72800</v>
       </c>
       <c r="J101" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="K101" s="3">
         <v>36100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-196900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>158300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>129100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-406600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>97400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>127600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>29700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-280700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1123500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1590300</v>
+        <v>1214400</v>
       </c>
       <c r="E102" s="3">
-        <v>426000</v>
+        <v>1515800</v>
       </c>
       <c r="F102" s="3">
-        <v>1462700</v>
+        <v>406000</v>
       </c>
       <c r="G102" s="3">
-        <v>406900</v>
+        <v>1394200</v>
       </c>
       <c r="H102" s="3">
-        <v>1264300</v>
+        <v>387800</v>
       </c>
       <c r="I102" s="3">
-        <v>-786700</v>
+        <v>1205100</v>
       </c>
       <c r="J102" s="3">
+        <v>-749900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-928500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-281600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>739400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-247900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-546900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1118400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1102400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16617500</v>
+        <v>16776400</v>
       </c>
       <c r="E8" s="3">
-        <v>15271900</v>
+        <v>16671900</v>
       </c>
       <c r="F8" s="3">
-        <v>12749900</v>
+        <v>15322000</v>
       </c>
       <c r="G8" s="3">
-        <v>15892300</v>
+        <v>12791700</v>
       </c>
       <c r="H8" s="3">
-        <v>17506700</v>
+        <v>15944300</v>
       </c>
       <c r="I8" s="3">
-        <v>17892200</v>
+        <v>17564000</v>
       </c>
       <c r="J8" s="3">
+        <v>17950800</v>
+      </c>
+      <c r="K8" s="3">
         <v>17322700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18448800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19586200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18574800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18259400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18712800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18570900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18013000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16862100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17042100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16698500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11575000</v>
+        <v>11670200</v>
       </c>
       <c r="E9" s="3">
-        <v>10815100</v>
+        <v>11612900</v>
       </c>
       <c r="F9" s="3">
-        <v>9249000</v>
+        <v>10850600</v>
       </c>
       <c r="G9" s="3">
-        <v>11265000</v>
+        <v>9279300</v>
       </c>
       <c r="H9" s="3">
-        <v>12372900</v>
+        <v>11301900</v>
       </c>
       <c r="I9" s="3">
-        <v>12831300</v>
+        <v>12413400</v>
       </c>
       <c r="J9" s="3">
+        <v>12873300</v>
+      </c>
+      <c r="K9" s="3">
         <v>12441200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13007700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14109900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13380700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13159100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13352200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13062600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12689100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11908300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11859300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11737300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5042500</v>
+        <v>5106100</v>
       </c>
       <c r="E10" s="3">
-        <v>4456800</v>
+        <v>5059000</v>
       </c>
       <c r="F10" s="3">
-        <v>3500900</v>
+        <v>4471400</v>
       </c>
       <c r="G10" s="3">
-        <v>4627300</v>
+        <v>3512300</v>
       </c>
       <c r="H10" s="3">
-        <v>5133800</v>
+        <v>4642500</v>
       </c>
       <c r="I10" s="3">
-        <v>5060900</v>
+        <v>5150600</v>
       </c>
       <c r="J10" s="3">
+        <v>5077500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4881500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5441100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5476200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5194100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5360600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5508300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5323900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4953800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5182800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4961200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1122,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1117,17 +1137,20 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>188100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>20900</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1176,8 +1199,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15425100</v>
+        <v>16484100</v>
       </c>
       <c r="E17" s="3">
-        <v>14421300</v>
+        <v>15475600</v>
       </c>
       <c r="F17" s="3">
-        <v>12715500</v>
+        <v>14468500</v>
       </c>
       <c r="G17" s="3">
-        <v>15406100</v>
+        <v>12757100</v>
       </c>
       <c r="H17" s="3">
-        <v>16587200</v>
+        <v>15456600</v>
       </c>
       <c r="I17" s="3">
-        <v>17123600</v>
+        <v>16641500</v>
       </c>
       <c r="J17" s="3">
+        <v>17179700</v>
+      </c>
+      <c r="K17" s="3">
         <v>16806200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17308000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18665300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17689600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17350800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18135700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17484800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16994900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16103400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17032800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15832400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1192400</v>
+        <v>292200</v>
       </c>
       <c r="E18" s="3">
-        <v>850700</v>
+        <v>1196300</v>
       </c>
       <c r="F18" s="3">
-        <v>34400</v>
+        <v>853500</v>
       </c>
       <c r="G18" s="3">
-        <v>486200</v>
+        <v>34500</v>
       </c>
       <c r="H18" s="3">
-        <v>919500</v>
+        <v>487800</v>
       </c>
       <c r="I18" s="3">
-        <v>768600</v>
+        <v>922500</v>
       </c>
       <c r="J18" s="3">
+        <v>771100</v>
+      </c>
+      <c r="K18" s="3">
         <v>516500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1140800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>920900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>885200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>908600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>577100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1086100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1018100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>758700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>866100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-29900</v>
+        <v>82100</v>
       </c>
       <c r="E20" s="3">
-        <v>-25300</v>
+        <v>-30000</v>
       </c>
       <c r="F20" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-6300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-39500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1885200</v>
+        <v>1130900</v>
       </c>
       <c r="E21" s="3">
-        <v>1539000</v>
+        <v>1891400</v>
       </c>
       <c r="F21" s="3">
-        <v>746600</v>
+        <v>1544000</v>
       </c>
       <c r="G21" s="3">
-        <v>1308300</v>
+        <v>749100</v>
       </c>
       <c r="H21" s="3">
-        <v>1746400</v>
+        <v>1312600</v>
       </c>
       <c r="I21" s="3">
-        <v>1618500</v>
+        <v>1752100</v>
       </c>
       <c r="J21" s="3">
+        <v>1623800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1409300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1916600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1622100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1554500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1580700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1230300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1748100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1672200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1373100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>613900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1489300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1499,8 +1539,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1517,132 +1557,141 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>34900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1162500</v>
+        <v>374400</v>
       </c>
       <c r="E23" s="3">
-        <v>825400</v>
+        <v>1166300</v>
       </c>
       <c r="F23" s="3">
-        <v>28100</v>
+        <v>828100</v>
       </c>
       <c r="G23" s="3">
-        <v>485400</v>
+        <v>28200</v>
       </c>
       <c r="H23" s="3">
-        <v>917400</v>
+        <v>487000</v>
       </c>
       <c r="I23" s="3">
-        <v>748200</v>
+        <v>920500</v>
       </c>
       <c r="J23" s="3">
+        <v>750600</v>
+      </c>
+      <c r="K23" s="3">
         <v>515000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1173700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>916300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>882700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>929400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>588200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1073400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1019800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>741000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-30200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>863600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>362900</v>
+        <v>10100</v>
       </c>
       <c r="E24" s="3">
-        <v>240100</v>
+        <v>364100</v>
       </c>
       <c r="F24" s="3">
-        <v>91500</v>
+        <v>240900</v>
       </c>
       <c r="G24" s="3">
-        <v>32400</v>
+        <v>91800</v>
       </c>
       <c r="H24" s="3">
-        <v>171900</v>
+        <v>32600</v>
       </c>
       <c r="I24" s="3">
-        <v>240400</v>
+        <v>172500</v>
       </c>
       <c r="J24" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K24" s="3">
         <v>22500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>296400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>323600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>370200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>225800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>296900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>352300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>269200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>339400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>250000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>799500</v>
+        <v>364200</v>
       </c>
       <c r="E26" s="3">
-        <v>585200</v>
+        <v>802200</v>
       </c>
       <c r="F26" s="3">
-        <v>-63300</v>
+        <v>587100</v>
       </c>
       <c r="G26" s="3">
-        <v>452900</v>
+        <v>-63500</v>
       </c>
       <c r="H26" s="3">
-        <v>745600</v>
+        <v>454400</v>
       </c>
       <c r="I26" s="3">
-        <v>507800</v>
+        <v>748000</v>
       </c>
       <c r="J26" s="3">
+        <v>509400</v>
+      </c>
+      <c r="K26" s="3">
         <v>492500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1108800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>619800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>559100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>559200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>362400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>776500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>667500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>471800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-369600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>613600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>744500</v>
+        <v>321100</v>
       </c>
       <c r="E27" s="3">
-        <v>537600</v>
+        <v>746900</v>
       </c>
       <c r="F27" s="3">
-        <v>-90100</v>
+        <v>539400</v>
       </c>
       <c r="G27" s="3">
-        <v>435600</v>
+        <v>-90400</v>
       </c>
       <c r="H27" s="3">
-        <v>707400</v>
+        <v>437100</v>
       </c>
       <c r="I27" s="3">
-        <v>468400</v>
+        <v>709700</v>
       </c>
       <c r="J27" s="3">
+        <v>470000</v>
+      </c>
+      <c r="K27" s="3">
         <v>456000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1061300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>567300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>522600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>521400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>324800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>734000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>634200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>440800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-426600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>562800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>29900</v>
+        <v>-82100</v>
       </c>
       <c r="E32" s="3">
-        <v>25300</v>
+        <v>30000</v>
       </c>
       <c r="F32" s="3">
+        <v>25400</v>
+      </c>
+      <c r="G32" s="3">
         <v>6300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>39500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>744500</v>
+        <v>321100</v>
       </c>
       <c r="E33" s="3">
-        <v>537600</v>
+        <v>746900</v>
       </c>
       <c r="F33" s="3">
-        <v>-90100</v>
+        <v>539400</v>
       </c>
       <c r="G33" s="3">
-        <v>435600</v>
+        <v>-90400</v>
       </c>
       <c r="H33" s="3">
-        <v>707400</v>
+        <v>437100</v>
       </c>
       <c r="I33" s="3">
-        <v>468400</v>
+        <v>709700</v>
       </c>
       <c r="J33" s="3">
+        <v>470000</v>
+      </c>
+      <c r="K33" s="3">
         <v>456000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1061300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>567300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>522600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>521400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>324800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>734000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>634200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>440800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-426600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>562800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>744500</v>
+        <v>321100</v>
       </c>
       <c r="E35" s="3">
-        <v>537600</v>
+        <v>746900</v>
       </c>
       <c r="F35" s="3">
-        <v>-90100</v>
+        <v>539400</v>
       </c>
       <c r="G35" s="3">
-        <v>435600</v>
+        <v>-90400</v>
       </c>
       <c r="H35" s="3">
-        <v>707400</v>
+        <v>437100</v>
       </c>
       <c r="I35" s="3">
-        <v>468400</v>
+        <v>709700</v>
       </c>
       <c r="J35" s="3">
+        <v>470000</v>
+      </c>
+      <c r="K35" s="3">
         <v>456000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1061300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>567300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>522600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>521400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>324800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>734000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>634200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>440800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-426600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>562800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,521 +2486,546 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12447400</v>
+        <v>14641700</v>
       </c>
       <c r="E41" s="3">
-        <v>11233000</v>
+        <v>12488200</v>
       </c>
       <c r="F41" s="3">
-        <v>9717200</v>
+        <v>11269800</v>
       </c>
       <c r="G41" s="3">
-        <v>9311200</v>
+        <v>9749000</v>
       </c>
       <c r="H41" s="3">
-        <v>7917000</v>
+        <v>9341700</v>
       </c>
       <c r="I41" s="3">
-        <v>7529200</v>
+        <v>7942900</v>
       </c>
       <c r="J41" s="3">
+        <v>7553900</v>
+      </c>
+      <c r="K41" s="3">
         <v>6324100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7421500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8202200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9955100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9622800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9849800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9110400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9358400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9905300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11271900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10167700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1199100</v>
+        <v>1375100</v>
       </c>
       <c r="E42" s="3">
-        <v>1119100</v>
+        <v>1203000</v>
       </c>
       <c r="F42" s="3">
-        <v>950800</v>
+        <v>1122700</v>
       </c>
       <c r="G42" s="3">
-        <v>1359700</v>
+        <v>953900</v>
       </c>
       <c r="H42" s="3">
-        <v>1283400</v>
+        <v>1364100</v>
       </c>
       <c r="I42" s="3">
-        <v>1230700</v>
+        <v>1287600</v>
       </c>
       <c r="J42" s="3">
+        <v>1234800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1079700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1261800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1453500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1834300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2216400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1840200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1370300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1305300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1359400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10532500</v>
+        <v>10976500</v>
       </c>
       <c r="E43" s="3">
-        <v>9867200</v>
+        <v>10567000</v>
       </c>
       <c r="F43" s="3">
-        <v>9326300</v>
+        <v>9899500</v>
       </c>
       <c r="G43" s="3">
-        <v>9629000</v>
+        <v>9356800</v>
       </c>
       <c r="H43" s="3">
-        <v>10310200</v>
+        <v>9660600</v>
       </c>
       <c r="I43" s="3">
-        <v>10815300</v>
+        <v>10344000</v>
       </c>
       <c r="J43" s="3">
+        <v>10850800</v>
+      </c>
+      <c r="K43" s="3">
         <v>10566300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11441900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11046700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10690200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9936000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9392400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9350000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9295400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8475100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7512900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8383500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7651300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7316300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7293000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7747300</v>
+      </c>
+      <c r="H44" s="3">
         <v>7292400</v>
       </c>
-      <c r="E44" s="3">
-        <v>7269200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>7722000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>7268600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8041700</v>
-      </c>
       <c r="I44" s="3">
-        <v>9209600</v>
+        <v>8068000</v>
       </c>
       <c r="J44" s="3">
+        <v>9239800</v>
+      </c>
+      <c r="K44" s="3">
         <v>9544700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9768000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10414700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10017000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9418500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8937000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9474900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8784700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8188700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7152000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7391100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1635300</v>
+        <v>1405500</v>
       </c>
       <c r="E45" s="3">
-        <v>1503400</v>
+        <v>1640600</v>
       </c>
       <c r="F45" s="3">
-        <v>2158500</v>
+        <v>1508400</v>
       </c>
       <c r="G45" s="3">
-        <v>3903800</v>
+        <v>2165500</v>
       </c>
       <c r="H45" s="3">
-        <v>9061000</v>
+        <v>3916600</v>
       </c>
       <c r="I45" s="3">
-        <v>3645900</v>
+        <v>9090700</v>
       </c>
       <c r="J45" s="3">
+        <v>3657900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1814100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1570900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1877700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1738200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1664900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1493600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1548200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1420800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1613100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1217000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4283600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>33106600</v>
+        <v>36050000</v>
       </c>
       <c r="E46" s="3">
-        <v>30991900</v>
+        <v>33215000</v>
       </c>
       <c r="F46" s="3">
-        <v>29874700</v>
+        <v>31093400</v>
       </c>
       <c r="G46" s="3">
-        <v>31472200</v>
+        <v>29972600</v>
       </c>
       <c r="H46" s="3">
-        <v>36613400</v>
+        <v>31575300</v>
       </c>
       <c r="I46" s="3">
-        <v>32430900</v>
+        <v>36733300</v>
       </c>
       <c r="J46" s="3">
+        <v>32537100</v>
+      </c>
+      <c r="K46" s="3">
         <v>29328900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31464000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32994900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34234800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32858600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31513100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30853900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30164500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29541600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28426700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30226000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8164000</v>
+        <v>6313400</v>
       </c>
       <c r="E47" s="3">
-        <v>7378500</v>
+        <v>8190700</v>
       </c>
       <c r="F47" s="3">
-        <v>6612200</v>
+        <v>7402600</v>
       </c>
       <c r="G47" s="3">
-        <v>4783000</v>
+        <v>6633900</v>
       </c>
       <c r="H47" s="3">
-        <v>3109700</v>
+        <v>4798600</v>
       </c>
       <c r="I47" s="3">
-        <v>3161500</v>
+        <v>3119800</v>
       </c>
       <c r="J47" s="3">
+        <v>3171800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3358500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3389600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3038200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2861000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2984200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2842400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3008100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2987700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2901200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2820400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3053000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11378600</v>
+        <v>12053300</v>
       </c>
       <c r="E48" s="3">
-        <v>11523900</v>
+        <v>11415800</v>
       </c>
       <c r="F48" s="3">
-        <v>11678100</v>
+        <v>11561600</v>
       </c>
       <c r="G48" s="3">
-        <v>11868700</v>
+        <v>11716400</v>
       </c>
       <c r="H48" s="3">
-        <v>12366600</v>
+        <v>11907500</v>
       </c>
       <c r="I48" s="3">
-        <v>15730200</v>
+        <v>12407100</v>
       </c>
       <c r="J48" s="3">
+        <v>15781700</v>
+      </c>
+      <c r="K48" s="3">
         <v>17067500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12727200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12503100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12460500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12044500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12421600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13070000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12836900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12427600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11737500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11622200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>5567400</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>5616200</v>
+        <v>5585700</v>
       </c>
       <c r="F49" s="3">
-        <v>5653800</v>
+        <v>5634600</v>
       </c>
       <c r="G49" s="3">
-        <v>5684800</v>
+        <v>5672300</v>
       </c>
       <c r="H49" s="3">
-        <v>6077500</v>
+        <v>5703400</v>
       </c>
       <c r="I49" s="3">
-        <v>6051600</v>
+        <v>6097400</v>
       </c>
       <c r="J49" s="3">
+        <v>6071400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6421400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6914900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6975600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6982600</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -2922,17 +3033,20 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>5899700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7114500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2905900</v>
+        <v>8507900</v>
       </c>
       <c r="E52" s="3">
-        <v>2970000</v>
+        <v>2915400</v>
       </c>
       <c r="F52" s="3">
-        <v>3057300</v>
+        <v>2979700</v>
       </c>
       <c r="G52" s="3">
-        <v>3152900</v>
+        <v>3067300</v>
       </c>
       <c r="H52" s="3">
-        <v>3302800</v>
+        <v>3163300</v>
       </c>
       <c r="I52" s="3">
-        <v>3321900</v>
+        <v>3313600</v>
       </c>
       <c r="J52" s="3">
+        <v>3332800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3392200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3298100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3498500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10157200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3421200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10697500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10809400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10784400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4184500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2490500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61122500</v>
+        <v>62924600</v>
       </c>
       <c r="E54" s="3">
-        <v>58480500</v>
+        <v>61322700</v>
       </c>
       <c r="F54" s="3">
-        <v>56876300</v>
+        <v>58672000</v>
       </c>
       <c r="G54" s="3">
-        <v>56961600</v>
+        <v>57062500</v>
       </c>
       <c r="H54" s="3">
-        <v>61469900</v>
+        <v>57148200</v>
       </c>
       <c r="I54" s="3">
-        <v>60696000</v>
+        <v>61671200</v>
       </c>
       <c r="J54" s="3">
+        <v>60894800</v>
+      </c>
+      <c r="K54" s="3">
         <v>59568600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57793900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59112100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60037400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58044400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>56872000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57629500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56798500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>55654700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>53068900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>54506200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8853000</v>
+        <v>9609200</v>
       </c>
       <c r="E57" s="3">
-        <v>8033100</v>
+        <v>8882000</v>
       </c>
       <c r="F57" s="3">
-        <v>7791500</v>
+        <v>8059400</v>
       </c>
       <c r="G57" s="3">
-        <v>8882400</v>
+        <v>7817000</v>
       </c>
       <c r="H57" s="3">
-        <v>9356400</v>
+        <v>8911500</v>
       </c>
       <c r="I57" s="3">
-        <v>9748500</v>
+        <v>9387000</v>
       </c>
       <c r="J57" s="3">
+        <v>9780500</v>
+      </c>
+      <c r="K57" s="3">
         <v>10150400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11062800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11331900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11005700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10511700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10364100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10254300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9923500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9363400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8479400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8700400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4519300</v>
+        <v>3392400</v>
       </c>
       <c r="E58" s="3">
-        <v>6591000</v>
+        <v>4534100</v>
       </c>
       <c r="F58" s="3">
-        <v>4529500</v>
+        <v>6612600</v>
       </c>
       <c r="G58" s="3">
-        <v>2885400</v>
+        <v>4544400</v>
       </c>
       <c r="H58" s="3">
-        <v>3045900</v>
+        <v>2894800</v>
       </c>
       <c r="I58" s="3">
-        <v>3451000</v>
+        <v>3055800</v>
       </c>
       <c r="J58" s="3">
+        <v>3462300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4022900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3747500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3093600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4652200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4131900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3393500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1725000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1660200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1652900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1570300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>219800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11727300</v>
+        <v>12770200</v>
       </c>
       <c r="E59" s="3">
-        <v>11123200</v>
+        <v>11765700</v>
       </c>
       <c r="F59" s="3">
-        <v>11292800</v>
+        <v>11159700</v>
       </c>
       <c r="G59" s="3">
-        <v>12195800</v>
+        <v>11329800</v>
       </c>
       <c r="H59" s="3">
-        <v>16990300</v>
+        <v>12235700</v>
       </c>
       <c r="I59" s="3">
-        <v>13387000</v>
+        <v>17045900</v>
       </c>
       <c r="J59" s="3">
+        <v>13430800</v>
+      </c>
+      <c r="K59" s="3">
         <v>13528400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13918400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14190600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14163400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14387700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14247600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14958100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14818300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15005300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14006300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12533100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25099500</v>
+        <v>25771800</v>
       </c>
       <c r="E60" s="3">
-        <v>25747300</v>
+        <v>25181700</v>
       </c>
       <c r="F60" s="3">
-        <v>23613800</v>
+        <v>25831600</v>
       </c>
       <c r="G60" s="3">
-        <v>23963500</v>
+        <v>23691200</v>
       </c>
       <c r="H60" s="3">
-        <v>29392500</v>
+        <v>24042000</v>
       </c>
       <c r="I60" s="3">
-        <v>26586500</v>
+        <v>29488800</v>
       </c>
       <c r="J60" s="3">
+        <v>26673600</v>
+      </c>
+      <c r="K60" s="3">
         <v>27701700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28728600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28616200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29821400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29031300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28005300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26937300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26402000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26021600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24056000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21453400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10376100</v>
+        <v>9909500</v>
       </c>
       <c r="E61" s="3">
-        <v>8698600</v>
+        <v>10410100</v>
       </c>
       <c r="F61" s="3">
-        <v>10569400</v>
+        <v>8727100</v>
       </c>
       <c r="G61" s="3">
-        <v>10591900</v>
+        <v>10604000</v>
       </c>
       <c r="H61" s="3">
-        <v>9679800</v>
+        <v>10626500</v>
       </c>
       <c r="I61" s="3">
-        <v>12722500</v>
+        <v>9711500</v>
       </c>
       <c r="J61" s="3">
+        <v>12764200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10550900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5850200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7834600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7722100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7561500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7811000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8742800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8783300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8782800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8399600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9757300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3267400</v>
+        <v>1800800</v>
       </c>
       <c r="E62" s="3">
-        <v>2900700</v>
+        <v>3278100</v>
       </c>
       <c r="F62" s="3">
-        <v>2836000</v>
+        <v>2910200</v>
       </c>
       <c r="G62" s="3">
-        <v>2658500</v>
+        <v>2845300</v>
       </c>
       <c r="H62" s="3">
-        <v>2755400</v>
+        <v>2667200</v>
       </c>
       <c r="I62" s="3">
-        <v>2834200</v>
+        <v>2764500</v>
       </c>
       <c r="J62" s="3">
+        <v>2843400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3030500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3181900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3974200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3959200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4004300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4039800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4534000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4657500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4589900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5002700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5716900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40218200</v>
+        <v>39085400</v>
       </c>
       <c r="E66" s="3">
-        <v>38746800</v>
+        <v>40349900</v>
       </c>
       <c r="F66" s="3">
-        <v>38376600</v>
+        <v>38873700</v>
       </c>
       <c r="G66" s="3">
-        <v>38656700</v>
+        <v>38502300</v>
       </c>
       <c r="H66" s="3">
-        <v>43360100</v>
+        <v>38783400</v>
       </c>
       <c r="I66" s="3">
-        <v>43600000</v>
+        <v>43502100</v>
       </c>
       <c r="J66" s="3">
+        <v>43742800</v>
+      </c>
+      <c r="K66" s="3">
         <v>42774700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39405000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42031400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43063400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42103500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41435700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41835200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41551600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40942000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39126200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38227700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16512000</v>
+        <v>19795500</v>
       </c>
       <c r="E72" s="3">
-        <v>15972900</v>
+        <v>16566100</v>
       </c>
       <c r="F72" s="3">
-        <v>14660800</v>
+        <v>16025200</v>
       </c>
       <c r="G72" s="3">
-        <v>15081100</v>
+        <v>14708900</v>
       </c>
       <c r="H72" s="3">
-        <v>14561700</v>
+        <v>15130400</v>
       </c>
       <c r="I72" s="3">
-        <v>14163700</v>
+        <v>14609400</v>
       </c>
       <c r="J72" s="3">
+        <v>14210100</v>
+      </c>
+      <c r="K72" s="3">
         <v>13693700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14423400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13260200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12808600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12020300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11755000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11222300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10661300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10052200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9326300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11377000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20904300</v>
+        <v>23839200</v>
       </c>
       <c r="E76" s="3">
-        <v>19733600</v>
+        <v>20972800</v>
       </c>
       <c r="F76" s="3">
-        <v>18499600</v>
+        <v>19798200</v>
       </c>
       <c r="G76" s="3">
-        <v>18304900</v>
+        <v>18560200</v>
       </c>
       <c r="H76" s="3">
-        <v>18109800</v>
+        <v>18364800</v>
       </c>
       <c r="I76" s="3">
-        <v>17096000</v>
+        <v>18169100</v>
       </c>
       <c r="J76" s="3">
+        <v>17152000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16793900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18388900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17080700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16974000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15940900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15436300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15794300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15247000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14712700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13942700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16278500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>744500</v>
+        <v>321100</v>
       </c>
       <c r="E81" s="3">
-        <v>537600</v>
+        <v>746900</v>
       </c>
       <c r="F81" s="3">
-        <v>-90100</v>
+        <v>539400</v>
       </c>
       <c r="G81" s="3">
-        <v>435600</v>
+        <v>-90400</v>
       </c>
       <c r="H81" s="3">
-        <v>707400</v>
+        <v>437100</v>
       </c>
       <c r="I81" s="3">
-        <v>468400</v>
+        <v>709700</v>
       </c>
       <c r="J81" s="3">
+        <v>470000</v>
+      </c>
+      <c r="K81" s="3">
         <v>456000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1061300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>567300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>522600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>521400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>324800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>734000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>634200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>440800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-426600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>562800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>722800</v>
+        <v>756500</v>
       </c>
       <c r="E83" s="3">
-        <v>713600</v>
+        <v>725100</v>
       </c>
       <c r="F83" s="3">
-        <v>718500</v>
+        <v>716000</v>
       </c>
       <c r="G83" s="3">
-        <v>822900</v>
+        <v>720900</v>
       </c>
       <c r="H83" s="3">
-        <v>828900</v>
+        <v>825600</v>
       </c>
       <c r="I83" s="3">
-        <v>870300</v>
+        <v>831600</v>
       </c>
       <c r="J83" s="3">
+        <v>873200</v>
+      </c>
+      <c r="K83" s="3">
         <v>894300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>742900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>705800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>671900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>651300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>642100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>674700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>652400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>632000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>644100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>590800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2327200</v>
+        <v>1598800</v>
       </c>
       <c r="E89" s="3">
-        <v>1606100</v>
+        <v>2334800</v>
       </c>
       <c r="F89" s="3">
-        <v>-909900</v>
+        <v>1611400</v>
       </c>
       <c r="G89" s="3">
-        <v>1463600</v>
+        <v>-912900</v>
       </c>
       <c r="H89" s="3">
-        <v>1208200</v>
+        <v>1468400</v>
       </c>
       <c r="I89" s="3">
-        <v>307600</v>
+        <v>1212100</v>
       </c>
       <c r="J89" s="3">
+        <v>308600</v>
+      </c>
+      <c r="K89" s="3">
         <v>961000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1207300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>440000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-48200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>333000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1437300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1104200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>574700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>709400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2263300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>783400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-369300</v>
+        <v>-918000</v>
       </c>
       <c r="E91" s="3">
-        <v>-394400</v>
+        <v>-370500</v>
       </c>
       <c r="F91" s="3">
-        <v>-438300</v>
+        <v>-395700</v>
       </c>
       <c r="G91" s="3">
-        <v>-688300</v>
+        <v>-439700</v>
       </c>
       <c r="H91" s="3">
-        <v>-526500</v>
+        <v>-690500</v>
       </c>
       <c r="I91" s="3">
-        <v>-629900</v>
+        <v>-528300</v>
       </c>
       <c r="J91" s="3">
+        <v>-632000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-664400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-779200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-668500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-631000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-875100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-940800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-756900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-825000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>575700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-421800</v>
+        <v>1790200</v>
       </c>
       <c r="E94" s="3">
-        <v>-148600</v>
+        <v>-423200</v>
       </c>
       <c r="F94" s="3">
-        <v>403600</v>
+        <v>-149100</v>
       </c>
       <c r="G94" s="3">
-        <v>-428800</v>
+        <v>405000</v>
       </c>
       <c r="H94" s="3">
-        <v>-323200</v>
+        <v>-430200</v>
       </c>
       <c r="I94" s="3">
-        <v>-552300</v>
+        <v>-324200</v>
       </c>
       <c r="J94" s="3">
+        <v>-554100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-583500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-487500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-260100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-352800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-701100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-949500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-927900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-974900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-477300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-213700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-214400</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-321600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-321600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-320500</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-320500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-320500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-330300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-424000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-210800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-316300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-205900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-608800</v>
+        <v>-2095600</v>
       </c>
       <c r="E100" s="3">
-        <v>112500</v>
+        <v>-610800</v>
       </c>
       <c r="F100" s="3">
-        <v>957200</v>
+        <v>112900</v>
       </c>
       <c r="G100" s="3">
-        <v>506200</v>
+        <v>960300</v>
       </c>
       <c r="H100" s="3">
-        <v>-677800</v>
+        <v>507900</v>
       </c>
       <c r="I100" s="3">
-        <v>1522700</v>
+        <v>-680000</v>
       </c>
       <c r="J100" s="3">
+        <v>1527700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-909400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>363300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-42600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>658200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-521600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-110300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-153600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-221900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-82200</v>
+        <v>860100</v>
       </c>
       <c r="E101" s="3">
-        <v>-54300</v>
+        <v>-82500</v>
       </c>
       <c r="F101" s="3">
-        <v>-44900</v>
+        <v>-54500</v>
       </c>
       <c r="G101" s="3">
-        <v>-146800</v>
+        <v>-45000</v>
       </c>
       <c r="H101" s="3">
-        <v>180600</v>
+        <v>-147300</v>
       </c>
       <c r="I101" s="3">
-        <v>-72800</v>
+        <v>181200</v>
       </c>
       <c r="J101" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-218000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-196900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>158300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>129100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-406600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>97400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>127600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>29700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-280700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1123500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1214400</v>
+        <v>2153500</v>
       </c>
       <c r="E102" s="3">
-        <v>1515800</v>
+        <v>1218400</v>
       </c>
       <c r="F102" s="3">
-        <v>406000</v>
+        <v>1520800</v>
       </c>
       <c r="G102" s="3">
-        <v>1394200</v>
+        <v>407400</v>
       </c>
       <c r="H102" s="3">
-        <v>387800</v>
+        <v>1398700</v>
       </c>
       <c r="I102" s="3">
-        <v>1205100</v>
+        <v>389100</v>
       </c>
       <c r="J102" s="3">
+        <v>1209100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-749900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-928500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-281600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>739400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-247900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-546900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1118400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1102400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16776400</v>
+        <v>16329000</v>
       </c>
       <c r="E8" s="3">
-        <v>16671900</v>
+        <v>16630400</v>
       </c>
       <c r="F8" s="3">
-        <v>15322000</v>
+        <v>16526800</v>
       </c>
       <c r="G8" s="3">
-        <v>12791700</v>
+        <v>15188600</v>
       </c>
       <c r="H8" s="3">
-        <v>15944300</v>
+        <v>12680300</v>
       </c>
       <c r="I8" s="3">
-        <v>17564000</v>
+        <v>15805500</v>
       </c>
       <c r="J8" s="3">
+        <v>17411100</v>
+      </c>
+      <c r="K8" s="3">
         <v>17950800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17322700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18448800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19586200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18574800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18259400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18712800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18570900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18013000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16862100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17042100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16698500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11670200</v>
+        <v>11532300</v>
       </c>
       <c r="E9" s="3">
-        <v>11612900</v>
+        <v>11568700</v>
       </c>
       <c r="F9" s="3">
-        <v>10850600</v>
+        <v>11511800</v>
       </c>
       <c r="G9" s="3">
-        <v>9279300</v>
+        <v>10756100</v>
       </c>
       <c r="H9" s="3">
-        <v>11301900</v>
+        <v>9198600</v>
       </c>
       <c r="I9" s="3">
-        <v>12413400</v>
+        <v>11203500</v>
       </c>
       <c r="J9" s="3">
+        <v>12305300</v>
+      </c>
+      <c r="K9" s="3">
         <v>12873300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12441200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13007700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14109900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13380700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13159100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13352200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13062600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12689100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11908300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11859300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11737300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5106100</v>
+        <v>4796700</v>
       </c>
       <c r="E10" s="3">
-        <v>5059000</v>
+        <v>5061700</v>
       </c>
       <c r="F10" s="3">
-        <v>4471400</v>
+        <v>5014900</v>
       </c>
       <c r="G10" s="3">
-        <v>3512300</v>
+        <v>4432500</v>
       </c>
       <c r="H10" s="3">
-        <v>4642500</v>
+        <v>3481800</v>
       </c>
       <c r="I10" s="3">
-        <v>5150600</v>
+        <v>4602100</v>
       </c>
       <c r="J10" s="3">
+        <v>5105800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5077500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4881500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5441100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5476200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5194100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5100300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5360600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5508300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5323900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4953800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5182800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4961200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1140,17 +1160,20 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>188100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>20900</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,8 +1225,8 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16484100</v>
+        <v>15378100</v>
       </c>
       <c r="E17" s="3">
-        <v>15475600</v>
+        <v>16340700</v>
       </c>
       <c r="F17" s="3">
-        <v>14468500</v>
+        <v>15340900</v>
       </c>
       <c r="G17" s="3">
-        <v>12757100</v>
+        <v>14342500</v>
       </c>
       <c r="H17" s="3">
-        <v>15456600</v>
+        <v>12646100</v>
       </c>
       <c r="I17" s="3">
-        <v>16641500</v>
+        <v>15322000</v>
       </c>
       <c r="J17" s="3">
+        <v>16496700</v>
+      </c>
+      <c r="K17" s="3">
         <v>17179700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16806200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17308000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18665300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17689600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17350800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18135700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17484800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16994900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16103400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17032800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15832400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>292200</v>
+        <v>950900</v>
       </c>
       <c r="E18" s="3">
-        <v>1196300</v>
+        <v>289700</v>
       </c>
       <c r="F18" s="3">
-        <v>853500</v>
+        <v>1185900</v>
       </c>
       <c r="G18" s="3">
-        <v>34500</v>
+        <v>846000</v>
       </c>
       <c r="H18" s="3">
-        <v>487800</v>
+        <v>34200</v>
       </c>
       <c r="I18" s="3">
-        <v>922500</v>
+        <v>483500</v>
       </c>
       <c r="J18" s="3">
+        <v>914500</v>
+      </c>
+      <c r="K18" s="3">
         <v>771100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>516500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1140800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>920900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>885200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>908600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>577100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1086100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1018100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>758700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>866100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>82100</v>
+        <v>37900</v>
       </c>
       <c r="E20" s="3">
-        <v>-30000</v>
+        <v>81400</v>
       </c>
       <c r="F20" s="3">
-        <v>-25400</v>
+        <v>-29700</v>
       </c>
       <c r="G20" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-6300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-17700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-39500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1130900</v>
+        <v>1690900</v>
       </c>
       <c r="E21" s="3">
-        <v>1891400</v>
+        <v>1121000</v>
       </c>
       <c r="F21" s="3">
-        <v>1544000</v>
+        <v>1875000</v>
       </c>
       <c r="G21" s="3">
-        <v>749100</v>
+        <v>1530600</v>
       </c>
       <c r="H21" s="3">
-        <v>1312600</v>
+        <v>742600</v>
       </c>
       <c r="I21" s="3">
-        <v>1752100</v>
+        <v>1301100</v>
       </c>
       <c r="J21" s="3">
+        <v>1736800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1623800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1409300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1916600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1622100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1554500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1580700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1230300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1748100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1672200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1373100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>613900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1489300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,8 +1582,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1560,138 +1600,147 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>34900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>374400</v>
+        <v>988700</v>
       </c>
       <c r="E23" s="3">
-        <v>1166300</v>
+        <v>371100</v>
       </c>
       <c r="F23" s="3">
-        <v>828100</v>
+        <v>1156100</v>
       </c>
       <c r="G23" s="3">
-        <v>28200</v>
+        <v>820900</v>
       </c>
       <c r="H23" s="3">
-        <v>487000</v>
+        <v>28000</v>
       </c>
       <c r="I23" s="3">
-        <v>920500</v>
+        <v>482700</v>
       </c>
       <c r="J23" s="3">
+        <v>912400</v>
+      </c>
+      <c r="K23" s="3">
         <v>750600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>515000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1173700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>916300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>882700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>929400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>588200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1073400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1019800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>741000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-30200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>863600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>248600</v>
+      </c>
+      <c r="E24" s="3">
         <v>10100</v>
       </c>
-      <c r="E24" s="3">
-        <v>364100</v>
-      </c>
       <c r="F24" s="3">
-        <v>240900</v>
+        <v>361000</v>
       </c>
       <c r="G24" s="3">
-        <v>91800</v>
+        <v>238800</v>
       </c>
       <c r="H24" s="3">
-        <v>32600</v>
+        <v>91000</v>
       </c>
       <c r="I24" s="3">
-        <v>172500</v>
+        <v>32300</v>
       </c>
       <c r="J24" s="3">
+        <v>170900</v>
+      </c>
+      <c r="K24" s="3">
         <v>241200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>296400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>323600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>370200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>225800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>296900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>352300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>269200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>339400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>250000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>364200</v>
+        <v>740200</v>
       </c>
       <c r="E26" s="3">
-        <v>802200</v>
+        <v>361000</v>
       </c>
       <c r="F26" s="3">
-        <v>587100</v>
+        <v>795200</v>
       </c>
       <c r="G26" s="3">
-        <v>-63500</v>
+        <v>582000</v>
       </c>
       <c r="H26" s="3">
-        <v>454400</v>
+        <v>-63000</v>
       </c>
       <c r="I26" s="3">
-        <v>748000</v>
+        <v>450500</v>
       </c>
       <c r="J26" s="3">
+        <v>741500</v>
+      </c>
+      <c r="K26" s="3">
         <v>509400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>492500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1108800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>619800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>559100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>559200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>362400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>776500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>667500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>471800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-369600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>613600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>321100</v>
+        <v>697300</v>
       </c>
       <c r="E27" s="3">
-        <v>746900</v>
+        <v>318300</v>
       </c>
       <c r="F27" s="3">
-        <v>539400</v>
+        <v>740400</v>
       </c>
       <c r="G27" s="3">
-        <v>-90400</v>
+        <v>534700</v>
       </c>
       <c r="H27" s="3">
-        <v>437100</v>
+        <v>-89600</v>
       </c>
       <c r="I27" s="3">
-        <v>709700</v>
+        <v>433300</v>
       </c>
       <c r="J27" s="3">
+        <v>703500</v>
+      </c>
+      <c r="K27" s="3">
         <v>470000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>456000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1061300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>567300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>522600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>521400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>324800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>734000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>634200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>440800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-426600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>562800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-82100</v>
+        <v>-37900</v>
       </c>
       <c r="E32" s="3">
-        <v>30000</v>
+        <v>-81400</v>
       </c>
       <c r="F32" s="3">
-        <v>25400</v>
+        <v>29700</v>
       </c>
       <c r="G32" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H32" s="3">
         <v>6300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>17700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>39500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>321100</v>
+        <v>697300</v>
       </c>
       <c r="E33" s="3">
-        <v>746900</v>
+        <v>318300</v>
       </c>
       <c r="F33" s="3">
-        <v>539400</v>
+        <v>740400</v>
       </c>
       <c r="G33" s="3">
-        <v>-90400</v>
+        <v>534700</v>
       </c>
       <c r="H33" s="3">
-        <v>437100</v>
+        <v>-89600</v>
       </c>
       <c r="I33" s="3">
-        <v>709700</v>
+        <v>433300</v>
       </c>
       <c r="J33" s="3">
+        <v>703500</v>
+      </c>
+      <c r="K33" s="3">
         <v>470000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>456000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1061300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>567300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>522600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>521400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>324800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>734000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>634200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>440800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-426600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>562800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>321100</v>
+        <v>697300</v>
       </c>
       <c r="E35" s="3">
-        <v>746900</v>
+        <v>318300</v>
       </c>
       <c r="F35" s="3">
-        <v>539400</v>
+        <v>740400</v>
       </c>
       <c r="G35" s="3">
-        <v>-90400</v>
+        <v>534700</v>
       </c>
       <c r="H35" s="3">
-        <v>437100</v>
+        <v>-89600</v>
       </c>
       <c r="I35" s="3">
-        <v>709700</v>
+        <v>433300</v>
       </c>
       <c r="J35" s="3">
+        <v>703500</v>
+      </c>
+      <c r="K35" s="3">
         <v>470000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>456000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1061300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>567300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>522600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>521400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>324800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>734000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>634200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>440800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-426600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>562800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,548 +2573,573 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14641700</v>
+        <v>14807200</v>
       </c>
       <c r="E41" s="3">
-        <v>12488200</v>
+        <v>14514300</v>
       </c>
       <c r="F41" s="3">
-        <v>11269800</v>
+        <v>12379500</v>
       </c>
       <c r="G41" s="3">
-        <v>9749000</v>
+        <v>11171700</v>
       </c>
       <c r="H41" s="3">
-        <v>9341700</v>
+        <v>9664200</v>
       </c>
       <c r="I41" s="3">
-        <v>7942900</v>
+        <v>9260400</v>
       </c>
       <c r="J41" s="3">
+        <v>7873800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7553900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6324100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7421500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8202200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9955100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9622800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9849800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9110400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9358400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9905300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11271900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10167700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1375100</v>
+        <v>1282300</v>
       </c>
       <c r="E42" s="3">
-        <v>1203000</v>
+        <v>1363100</v>
       </c>
       <c r="F42" s="3">
-        <v>1122700</v>
+        <v>1192500</v>
       </c>
       <c r="G42" s="3">
-        <v>953900</v>
+        <v>1113000</v>
       </c>
       <c r="H42" s="3">
-        <v>1364100</v>
+        <v>945600</v>
       </c>
       <c r="I42" s="3">
-        <v>1287600</v>
+        <v>1352300</v>
       </c>
       <c r="J42" s="3">
+        <v>1276400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1234800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1079700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1261800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1453500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1834300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2216400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1840200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1370300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1305300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1359400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10976500</v>
+        <v>10764100</v>
       </c>
       <c r="E43" s="3">
-        <v>10567000</v>
+        <v>10880900</v>
       </c>
       <c r="F43" s="3">
-        <v>9899500</v>
+        <v>10475000</v>
       </c>
       <c r="G43" s="3">
-        <v>9356800</v>
+        <v>9813300</v>
       </c>
       <c r="H43" s="3">
-        <v>9660600</v>
+        <v>9275400</v>
       </c>
       <c r="I43" s="3">
-        <v>10344000</v>
+        <v>9576500</v>
       </c>
       <c r="J43" s="3">
+        <v>10254000</v>
+      </c>
+      <c r="K43" s="3">
         <v>10850800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10566300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11441900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11046700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10690200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9936000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9392400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9350000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9295400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>8475100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7512900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8383500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7651300</v>
+        <v>8362400</v>
       </c>
       <c r="E44" s="3">
-        <v>7316300</v>
+        <v>7584700</v>
       </c>
       <c r="F44" s="3">
-        <v>7293000</v>
+        <v>7252600</v>
       </c>
       <c r="G44" s="3">
-        <v>7747300</v>
+        <v>7229500</v>
       </c>
       <c r="H44" s="3">
-        <v>7292400</v>
+        <v>7679900</v>
       </c>
       <c r="I44" s="3">
-        <v>8068000</v>
+        <v>7228900</v>
       </c>
       <c r="J44" s="3">
+        <v>7997800</v>
+      </c>
+      <c r="K44" s="3">
         <v>9239800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9544700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9768000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10414700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10017000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9418500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8937000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9474900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8784700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8188700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7152000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7391100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1405500</v>
+        <v>1444400</v>
       </c>
       <c r="E45" s="3">
-        <v>1640600</v>
+        <v>1393200</v>
       </c>
       <c r="F45" s="3">
-        <v>1508400</v>
+        <v>1626300</v>
       </c>
       <c r="G45" s="3">
-        <v>2165500</v>
+        <v>1495200</v>
       </c>
       <c r="H45" s="3">
-        <v>3916600</v>
+        <v>2146700</v>
       </c>
       <c r="I45" s="3">
-        <v>9090700</v>
+        <v>3882500</v>
       </c>
       <c r="J45" s="3">
+        <v>9011500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3657900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1814100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1570900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1877700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1738200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1664900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1493600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1548200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1420800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1613100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1217000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4283600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36050000</v>
+        <v>36660400</v>
       </c>
       <c r="E46" s="3">
-        <v>33215000</v>
+        <v>35736200</v>
       </c>
       <c r="F46" s="3">
-        <v>31093400</v>
+        <v>32925900</v>
       </c>
       <c r="G46" s="3">
-        <v>29972600</v>
+        <v>30822800</v>
       </c>
       <c r="H46" s="3">
-        <v>31575300</v>
+        <v>29711700</v>
       </c>
       <c r="I46" s="3">
-        <v>36733300</v>
+        <v>31300500</v>
       </c>
       <c r="J46" s="3">
+        <v>36413500</v>
+      </c>
+      <c r="K46" s="3">
         <v>32537100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29328900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31464000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32994900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34234800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32858600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31513100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30853900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30164500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29541600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28426700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30226000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6313400</v>
+        <v>6156700</v>
       </c>
       <c r="E47" s="3">
-        <v>8190700</v>
+        <v>6258400</v>
       </c>
       <c r="F47" s="3">
-        <v>7402600</v>
+        <v>8119400</v>
       </c>
       <c r="G47" s="3">
-        <v>6633900</v>
+        <v>7338200</v>
       </c>
       <c r="H47" s="3">
-        <v>4798600</v>
+        <v>6576200</v>
       </c>
       <c r="I47" s="3">
-        <v>3119800</v>
+        <v>4756900</v>
       </c>
       <c r="J47" s="3">
+        <v>3092700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3171800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3358500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3389600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3038200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2861000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2984200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2842400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3008100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2987700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2901200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2820400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3053000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12053300</v>
+        <v>11955000</v>
       </c>
       <c r="E48" s="3">
-        <v>11415800</v>
+        <v>11948400</v>
       </c>
       <c r="F48" s="3">
-        <v>11561600</v>
+        <v>11316500</v>
       </c>
       <c r="G48" s="3">
-        <v>11716400</v>
+        <v>11461000</v>
       </c>
       <c r="H48" s="3">
-        <v>11907500</v>
+        <v>11614400</v>
       </c>
       <c r="I48" s="3">
-        <v>12407100</v>
+        <v>11803900</v>
       </c>
       <c r="J48" s="3">
+        <v>12299100</v>
+      </c>
+      <c r="K48" s="3">
         <v>15781700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17067500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12727200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12503100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12460500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12044500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12421600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13070000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12836900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12427600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11737500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11622200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>5470000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5484600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5537000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5585500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5622900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5653800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6044300</v>
+      </c>
+      <c r="K49" s="3">
+        <v>6071400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6421400</v>
+      </c>
+      <c r="M49" s="3">
+        <v>6914900</v>
+      </c>
+      <c r="N49" s="3">
+        <v>6975600</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6982600</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>5585700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5634600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>5672300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>5703400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6097400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>6071400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>6421400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>6914900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>6975600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>6982600</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -3036,17 +3147,20 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>5899700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7114500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8507900</v>
+        <v>3033100</v>
       </c>
       <c r="E52" s="3">
-        <v>2915400</v>
+        <v>2949200</v>
       </c>
       <c r="F52" s="3">
-        <v>2979700</v>
+        <v>2890100</v>
       </c>
       <c r="G52" s="3">
-        <v>3067300</v>
+        <v>2953800</v>
       </c>
       <c r="H52" s="3">
-        <v>3163300</v>
+        <v>3040600</v>
       </c>
       <c r="I52" s="3">
-        <v>3313600</v>
+        <v>3135700</v>
       </c>
       <c r="J52" s="3">
+        <v>3284700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3332800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3392200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3298100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3600300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3498500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10157200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3421200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10697500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10809400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10784400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4184500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2490500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62924600</v>
+        <v>63275300</v>
       </c>
       <c r="E54" s="3">
-        <v>61322700</v>
+        <v>62376800</v>
       </c>
       <c r="F54" s="3">
-        <v>58672000</v>
+        <v>60788800</v>
       </c>
       <c r="G54" s="3">
-        <v>57062500</v>
+        <v>58161200</v>
       </c>
       <c r="H54" s="3">
-        <v>57148200</v>
+        <v>56565800</v>
       </c>
       <c r="I54" s="3">
-        <v>61671200</v>
+        <v>56650700</v>
       </c>
       <c r="J54" s="3">
+        <v>61134300</v>
+      </c>
+      <c r="K54" s="3">
         <v>60894800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59568600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>57793900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59112100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60037400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58044400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56872000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57629500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56798500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>55654700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>53068900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>54506200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9609200</v>
+        <v>9747600</v>
       </c>
       <c r="E57" s="3">
-        <v>8882000</v>
+        <v>9525600</v>
       </c>
       <c r="F57" s="3">
-        <v>8059400</v>
+        <v>8804600</v>
       </c>
       <c r="G57" s="3">
-        <v>7817000</v>
+        <v>7989200</v>
       </c>
       <c r="H57" s="3">
-        <v>8911500</v>
+        <v>7749000</v>
       </c>
       <c r="I57" s="3">
-        <v>9387000</v>
+        <v>8833900</v>
       </c>
       <c r="J57" s="3">
+        <v>9305300</v>
+      </c>
+      <c r="K57" s="3">
         <v>9780500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10150400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11062800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11331900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11005700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10511700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10364100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10254300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9923500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9363400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8479400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8700400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3392400</v>
+        <v>3414500</v>
       </c>
       <c r="E58" s="3">
-        <v>4534100</v>
+        <v>3362800</v>
       </c>
       <c r="F58" s="3">
-        <v>6612600</v>
+        <v>4494600</v>
       </c>
       <c r="G58" s="3">
-        <v>4544400</v>
+        <v>6555000</v>
       </c>
       <c r="H58" s="3">
-        <v>2894800</v>
+        <v>4504800</v>
       </c>
       <c r="I58" s="3">
-        <v>3055800</v>
+        <v>2869600</v>
       </c>
       <c r="J58" s="3">
+        <v>3029200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3462300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4022900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3747500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3093600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4652200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4131900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3393500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1725000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1660200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1652900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1570300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>219800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12770200</v>
+        <v>12701200</v>
       </c>
       <c r="E59" s="3">
-        <v>11765700</v>
+        <v>12659000</v>
       </c>
       <c r="F59" s="3">
-        <v>11159700</v>
+        <v>11663300</v>
       </c>
       <c r="G59" s="3">
-        <v>11329800</v>
+        <v>11062500</v>
       </c>
       <c r="H59" s="3">
-        <v>12235700</v>
+        <v>11231100</v>
       </c>
       <c r="I59" s="3">
-        <v>17045900</v>
+        <v>12129200</v>
       </c>
       <c r="J59" s="3">
+        <v>16897600</v>
+      </c>
+      <c r="K59" s="3">
         <v>13430800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13528400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13918400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14190600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14163400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14387700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14247600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14958100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14818300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15005300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14006300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12533100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25771800</v>
+        <v>25863400</v>
       </c>
       <c r="E60" s="3">
-        <v>25181700</v>
+        <v>25547400</v>
       </c>
       <c r="F60" s="3">
-        <v>25831600</v>
+        <v>24962500</v>
       </c>
       <c r="G60" s="3">
-        <v>23691200</v>
+        <v>25606700</v>
       </c>
       <c r="H60" s="3">
-        <v>24042000</v>
+        <v>23484900</v>
       </c>
       <c r="I60" s="3">
-        <v>29488800</v>
+        <v>23832700</v>
       </c>
       <c r="J60" s="3">
+        <v>29232100</v>
+      </c>
+      <c r="K60" s="3">
         <v>26673600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27701700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28728600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28616200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29821400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29031300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28005300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26937300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26402000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26021600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24056000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21453400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9909500</v>
+        <v>9850600</v>
       </c>
       <c r="E61" s="3">
-        <v>10410100</v>
+        <v>9823200</v>
       </c>
       <c r="F61" s="3">
-        <v>8727100</v>
+        <v>10319500</v>
       </c>
       <c r="G61" s="3">
-        <v>10604000</v>
+        <v>8651100</v>
       </c>
       <c r="H61" s="3">
-        <v>10626500</v>
+        <v>10511700</v>
       </c>
       <c r="I61" s="3">
-        <v>9711500</v>
+        <v>10534000</v>
       </c>
       <c r="J61" s="3">
+        <v>9626900</v>
+      </c>
+      <c r="K61" s="3">
         <v>12764200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10550900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5850200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7834600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7722100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7561500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7811000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8742800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8783300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8782800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8399600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9757300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800800</v>
+        <v>1741100</v>
       </c>
       <c r="E62" s="3">
-        <v>3278100</v>
+        <v>1785200</v>
       </c>
       <c r="F62" s="3">
-        <v>2910200</v>
+        <v>3249500</v>
       </c>
       <c r="G62" s="3">
-        <v>2845300</v>
+        <v>2884900</v>
       </c>
       <c r="H62" s="3">
-        <v>2667200</v>
+        <v>2820500</v>
       </c>
       <c r="I62" s="3">
-        <v>2764500</v>
+        <v>2644000</v>
       </c>
       <c r="J62" s="3">
+        <v>2740400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2843400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3030500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3181900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3974200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3959200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4004300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4039800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4534000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4657500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4589900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5002700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5716900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39085400</v>
+        <v>39019200</v>
       </c>
       <c r="E66" s="3">
-        <v>40349900</v>
+        <v>38745200</v>
       </c>
       <c r="F66" s="3">
-        <v>38873700</v>
+        <v>39998600</v>
       </c>
       <c r="G66" s="3">
-        <v>38502300</v>
+        <v>38535300</v>
       </c>
       <c r="H66" s="3">
-        <v>38783400</v>
+        <v>38167100</v>
       </c>
       <c r="I66" s="3">
-        <v>43502100</v>
+        <v>38445700</v>
       </c>
       <c r="J66" s="3">
+        <v>43123400</v>
+      </c>
+      <c r="K66" s="3">
         <v>43742800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42774700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39405000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42031400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43063400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42103500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41435700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41835200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41551600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40942000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39126200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38227700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19795500</v>
+        <v>20122700</v>
       </c>
       <c r="E72" s="3">
-        <v>16566100</v>
+        <v>19623100</v>
       </c>
       <c r="F72" s="3">
-        <v>16025200</v>
+        <v>16421900</v>
       </c>
       <c r="G72" s="3">
-        <v>14708900</v>
+        <v>15885700</v>
       </c>
       <c r="H72" s="3">
-        <v>15130400</v>
+        <v>14580800</v>
       </c>
       <c r="I72" s="3">
-        <v>14609400</v>
+        <v>14998700</v>
       </c>
       <c r="J72" s="3">
+        <v>14482200</v>
+      </c>
+      <c r="K72" s="3">
         <v>14210100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13693700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14423400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13260200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12808600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12020300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11755000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11222300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10661300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10052200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9326300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11377000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23839200</v>
+        <v>24256100</v>
       </c>
       <c r="E76" s="3">
-        <v>20972800</v>
+        <v>23631600</v>
       </c>
       <c r="F76" s="3">
-        <v>19798200</v>
+        <v>20790200</v>
       </c>
       <c r="G76" s="3">
-        <v>18560200</v>
+        <v>19625900</v>
       </c>
       <c r="H76" s="3">
-        <v>18364800</v>
+        <v>18398700</v>
       </c>
       <c r="I76" s="3">
-        <v>18169100</v>
+        <v>18205000</v>
       </c>
       <c r="J76" s="3">
+        <v>18010900</v>
+      </c>
+      <c r="K76" s="3">
         <v>17152000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16793900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18388900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17080700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16974000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15940900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15436300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15794300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15247000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14712700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13942700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16278500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>321100</v>
+        <v>697300</v>
       </c>
       <c r="E81" s="3">
-        <v>746900</v>
+        <v>318300</v>
       </c>
       <c r="F81" s="3">
-        <v>539400</v>
+        <v>740400</v>
       </c>
       <c r="G81" s="3">
-        <v>-90400</v>
+        <v>534700</v>
       </c>
       <c r="H81" s="3">
-        <v>437100</v>
+        <v>-89600</v>
       </c>
       <c r="I81" s="3">
-        <v>709700</v>
+        <v>433300</v>
       </c>
       <c r="J81" s="3">
+        <v>703500</v>
+      </c>
+      <c r="K81" s="3">
         <v>470000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>456000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1061300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>567300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>522600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>521400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>324800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>734000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>634200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>440800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-426600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>562800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>756500</v>
+        <v>702200</v>
       </c>
       <c r="E83" s="3">
-        <v>725100</v>
+        <v>749900</v>
       </c>
       <c r="F83" s="3">
-        <v>716000</v>
+        <v>718800</v>
       </c>
       <c r="G83" s="3">
-        <v>720900</v>
+        <v>709700</v>
       </c>
       <c r="H83" s="3">
-        <v>825600</v>
+        <v>714600</v>
       </c>
       <c r="I83" s="3">
-        <v>831600</v>
+        <v>818400</v>
       </c>
       <c r="J83" s="3">
+        <v>824400</v>
+      </c>
+      <c r="K83" s="3">
         <v>873200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>894300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>742900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>705800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>671900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>651300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>642100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>674700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>652400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>632000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>644100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>590800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1598800</v>
+        <v>1190900</v>
       </c>
       <c r="E89" s="3">
-        <v>2334800</v>
+        <v>1580400</v>
       </c>
       <c r="F89" s="3">
-        <v>1611400</v>
+        <v>2314500</v>
       </c>
       <c r="G89" s="3">
-        <v>-912900</v>
+        <v>1597400</v>
       </c>
       <c r="H89" s="3">
-        <v>1468400</v>
+        <v>-905000</v>
       </c>
       <c r="I89" s="3">
-        <v>1212100</v>
+        <v>1455600</v>
       </c>
       <c r="J89" s="3">
+        <v>1201600</v>
+      </c>
+      <c r="K89" s="3">
         <v>308600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>961000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1207300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>440000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-48200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>333000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1437300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1104200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>574700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>709400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2263300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>783400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-918000</v>
+        <v>-537300</v>
       </c>
       <c r="E91" s="3">
-        <v>-370500</v>
+        <v>-910000</v>
       </c>
       <c r="F91" s="3">
-        <v>-395700</v>
+        <v>-367300</v>
       </c>
       <c r="G91" s="3">
-        <v>-439700</v>
+        <v>-392300</v>
       </c>
       <c r="H91" s="3">
-        <v>-690500</v>
+        <v>-435900</v>
       </c>
       <c r="I91" s="3">
-        <v>-528300</v>
+        <v>-684500</v>
       </c>
       <c r="J91" s="3">
+        <v>-523700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-632000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-664400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-779200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-668500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-631000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-875100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-940800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-756900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-825000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>575700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1790200</v>
+        <v>-537100</v>
       </c>
       <c r="E94" s="3">
-        <v>-423200</v>
+        <v>1774600</v>
       </c>
       <c r="F94" s="3">
-        <v>-149100</v>
+        <v>-419500</v>
       </c>
       <c r="G94" s="3">
-        <v>405000</v>
+        <v>-147800</v>
       </c>
       <c r="H94" s="3">
-        <v>-430200</v>
+        <v>401400</v>
       </c>
       <c r="I94" s="3">
-        <v>-324200</v>
+        <v>-426500</v>
       </c>
       <c r="J94" s="3">
+        <v>-321400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-554100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-583500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-487500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-260100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-352800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-701100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-949500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-927900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-974900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-477300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-212600</v>
       </c>
       <c r="E96" s="3">
-        <v>-214400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-212600</v>
       </c>
       <c r="G96" s="3">
-        <v>-321600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-318800</v>
       </c>
       <c r="I96" s="3">
-        <v>-321600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-318800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-320500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-330300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-424000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-210800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-316300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-205900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2095600</v>
+        <v>-420800</v>
       </c>
       <c r="E100" s="3">
-        <v>-610800</v>
+        <v>-2077300</v>
       </c>
       <c r="F100" s="3">
-        <v>112900</v>
+        <v>-605400</v>
       </c>
       <c r="G100" s="3">
-        <v>960300</v>
+        <v>111900</v>
       </c>
       <c r="H100" s="3">
-        <v>507900</v>
+        <v>951900</v>
       </c>
       <c r="I100" s="3">
-        <v>-680000</v>
+        <v>503400</v>
       </c>
       <c r="J100" s="3">
+        <v>-674100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1527700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-909400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>363300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-42600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>658200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-521600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-110300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-153600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-221900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>860100</v>
+        <v>59900</v>
       </c>
       <c r="E101" s="3">
-        <v>-82500</v>
+        <v>857100</v>
       </c>
       <c r="F101" s="3">
-        <v>-54500</v>
+        <v>-81800</v>
       </c>
       <c r="G101" s="3">
-        <v>-45000</v>
+        <v>-54000</v>
       </c>
       <c r="H101" s="3">
-        <v>-147300</v>
+        <v>-44600</v>
       </c>
       <c r="I101" s="3">
-        <v>181200</v>
+        <v>-146000</v>
       </c>
       <c r="J101" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-73000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-218000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>36100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-196900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>158300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>129100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-406600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>97400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>127600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>29700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-280700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1123500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2153500</v>
+        <v>292900</v>
       </c>
       <c r="E102" s="3">
-        <v>1218400</v>
+        <v>2134800</v>
       </c>
       <c r="F102" s="3">
-        <v>1520800</v>
+        <v>1207700</v>
       </c>
       <c r="G102" s="3">
-        <v>407400</v>
+        <v>1507600</v>
       </c>
       <c r="H102" s="3">
-        <v>1398700</v>
+        <v>403800</v>
       </c>
       <c r="I102" s="3">
-        <v>389100</v>
+        <v>1386600</v>
       </c>
       <c r="J102" s="3">
+        <v>385700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1209100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-749900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-928500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-281600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>739400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-247900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-546900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1118400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1102400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16329000</v>
+        <v>15339400</v>
       </c>
       <c r="E8" s="3">
-        <v>16630400</v>
+        <v>15791200</v>
       </c>
       <c r="F8" s="3">
-        <v>16526800</v>
+        <v>16082700</v>
       </c>
       <c r="G8" s="3">
-        <v>15188600</v>
+        <v>15982500</v>
       </c>
       <c r="H8" s="3">
-        <v>12680300</v>
+        <v>14688400</v>
       </c>
       <c r="I8" s="3">
-        <v>15805500</v>
+        <v>12262700</v>
       </c>
       <c r="J8" s="3">
+        <v>15285100</v>
+      </c>
+      <c r="K8" s="3">
         <v>17411100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17950800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17322700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18448800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19586200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18574800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18259400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18712800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18570900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18013000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16862100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17042100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16698500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11532300</v>
+        <v>11080300</v>
       </c>
       <c r="E9" s="3">
-        <v>11568700</v>
+        <v>11152500</v>
       </c>
       <c r="F9" s="3">
-        <v>11511800</v>
+        <v>11187700</v>
       </c>
       <c r="G9" s="3">
-        <v>10756100</v>
+        <v>11132700</v>
       </c>
       <c r="H9" s="3">
-        <v>9198600</v>
+        <v>10401900</v>
       </c>
       <c r="I9" s="3">
-        <v>11203500</v>
+        <v>8895600</v>
       </c>
       <c r="J9" s="3">
+        <v>10834500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12305300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12873300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12441200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13007700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14109900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13380700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13159100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13352200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13062600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12689100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11908300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11859300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11737300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4796700</v>
+        <v>4259100</v>
       </c>
       <c r="E10" s="3">
-        <v>5061700</v>
+        <v>4638700</v>
       </c>
       <c r="F10" s="3">
-        <v>5014900</v>
+        <v>4895000</v>
       </c>
       <c r="G10" s="3">
-        <v>4432500</v>
+        <v>4849800</v>
       </c>
       <c r="H10" s="3">
-        <v>3481800</v>
+        <v>4286500</v>
       </c>
       <c r="I10" s="3">
-        <v>4602100</v>
+        <v>3367100</v>
       </c>
       <c r="J10" s="3">
+        <v>4450500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5105800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5077500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4881500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5441100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5476200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5194100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5100300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5360600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5508300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5323900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4953800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5182800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4961200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1168,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1163,17 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>188100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>20900</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1228,8 +1251,8 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15378100</v>
+        <v>14486400</v>
       </c>
       <c r="E17" s="3">
-        <v>16340700</v>
+        <v>14871700</v>
       </c>
       <c r="F17" s="3">
-        <v>15340900</v>
+        <v>15802500</v>
       </c>
       <c r="G17" s="3">
-        <v>14342500</v>
+        <v>14835700</v>
       </c>
       <c r="H17" s="3">
-        <v>12646100</v>
+        <v>13870200</v>
       </c>
       <c r="I17" s="3">
-        <v>15322000</v>
+        <v>12229600</v>
       </c>
       <c r="J17" s="3">
+        <v>14817400</v>
+      </c>
+      <c r="K17" s="3">
         <v>16496700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17179700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16806200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17308000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18665300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17689600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17350800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18135700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17484800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16994900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16103400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17032800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15832400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>950900</v>
+        <v>853000</v>
       </c>
       <c r="E18" s="3">
-        <v>289700</v>
+        <v>919600</v>
       </c>
       <c r="F18" s="3">
-        <v>1185900</v>
+        <v>280200</v>
       </c>
       <c r="G18" s="3">
-        <v>846000</v>
+        <v>1146800</v>
       </c>
       <c r="H18" s="3">
-        <v>34200</v>
+        <v>818200</v>
       </c>
       <c r="I18" s="3">
-        <v>483500</v>
+        <v>33100</v>
       </c>
       <c r="J18" s="3">
+        <v>467600</v>
+      </c>
+      <c r="K18" s="3">
         <v>914500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>771100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>516500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1140800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>920900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>885200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>908600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>577100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1086100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1018100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>758700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>866100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37900</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>81400</v>
+        <v>36600</v>
       </c>
       <c r="F20" s="3">
-        <v>-29700</v>
+        <v>78700</v>
       </c>
       <c r="G20" s="3">
-        <v>-25200</v>
+        <v>-28800</v>
       </c>
       <c r="H20" s="3">
-        <v>-6300</v>
+        <v>-24300</v>
       </c>
       <c r="I20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-17700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-39500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1690900</v>
+        <v>1568400</v>
       </c>
       <c r="E21" s="3">
-        <v>1121000</v>
+        <v>1635300</v>
       </c>
       <c r="F21" s="3">
-        <v>1875000</v>
+        <v>1084100</v>
       </c>
       <c r="G21" s="3">
-        <v>1530600</v>
+        <v>1813200</v>
       </c>
       <c r="H21" s="3">
-        <v>742600</v>
+        <v>1480200</v>
       </c>
       <c r="I21" s="3">
-        <v>1301100</v>
+        <v>718100</v>
       </c>
       <c r="J21" s="3">
+        <v>1258300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1736800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1623800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1409300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1916600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1622100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1554500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1580700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1230300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1748100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1672200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1373100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>613900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1489300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1585,8 +1625,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1603,144 +1643,153 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>34900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>988700</v>
+        <v>856600</v>
       </c>
       <c r="E23" s="3">
-        <v>371100</v>
+        <v>956200</v>
       </c>
       <c r="F23" s="3">
-        <v>1156100</v>
+        <v>358900</v>
       </c>
       <c r="G23" s="3">
-        <v>820900</v>
+        <v>1118100</v>
       </c>
       <c r="H23" s="3">
-        <v>28000</v>
+        <v>793800</v>
       </c>
       <c r="I23" s="3">
-        <v>482700</v>
+        <v>27000</v>
       </c>
       <c r="J23" s="3">
+        <v>466800</v>
+      </c>
+      <c r="K23" s="3">
         <v>912400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>750600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>515000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1173700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>916300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>882700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>929400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>588200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1073400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1019800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>741000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-30200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>863600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>248600</v>
+        <v>153000</v>
       </c>
       <c r="E24" s="3">
-        <v>10100</v>
+        <v>240400</v>
       </c>
       <c r="F24" s="3">
-        <v>361000</v>
+        <v>9700</v>
       </c>
       <c r="G24" s="3">
-        <v>238800</v>
+        <v>349100</v>
       </c>
       <c r="H24" s="3">
-        <v>91000</v>
+        <v>231000</v>
       </c>
       <c r="I24" s="3">
-        <v>32300</v>
+        <v>88000</v>
       </c>
       <c r="J24" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K24" s="3">
         <v>170900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>241200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>64900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>296400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>323600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>370200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>225800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>296900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>352300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>269200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>339400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>250000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>740200</v>
+        <v>703600</v>
       </c>
       <c r="E26" s="3">
-        <v>361000</v>
+        <v>715800</v>
       </c>
       <c r="F26" s="3">
-        <v>795200</v>
+        <v>349200</v>
       </c>
       <c r="G26" s="3">
-        <v>582000</v>
+        <v>769000</v>
       </c>
       <c r="H26" s="3">
-        <v>-63000</v>
+        <v>562900</v>
       </c>
       <c r="I26" s="3">
-        <v>450500</v>
+        <v>-60900</v>
       </c>
       <c r="J26" s="3">
+        <v>435600</v>
+      </c>
+      <c r="K26" s="3">
         <v>741500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>509400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>492500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1108800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>619800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>559100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>559200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>362400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>776500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>667500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>471800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-369600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>613600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>697300</v>
+        <v>674000</v>
       </c>
       <c r="E27" s="3">
-        <v>318300</v>
+        <v>674300</v>
       </c>
       <c r="F27" s="3">
-        <v>740400</v>
+        <v>307800</v>
       </c>
       <c r="G27" s="3">
-        <v>534700</v>
+        <v>716000</v>
       </c>
       <c r="H27" s="3">
-        <v>-89600</v>
+        <v>517100</v>
       </c>
       <c r="I27" s="3">
-        <v>433300</v>
+        <v>-86600</v>
       </c>
       <c r="J27" s="3">
+        <v>419000</v>
+      </c>
+      <c r="K27" s="3">
         <v>703500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>470000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>456000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1061300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>567300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>522600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>521400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>324800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>734000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>634200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>440800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-426600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>562800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37900</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-81400</v>
+        <v>-36600</v>
       </c>
       <c r="F32" s="3">
-        <v>29700</v>
+        <v>-78700</v>
       </c>
       <c r="G32" s="3">
-        <v>25200</v>
+        <v>28800</v>
       </c>
       <c r="H32" s="3">
-        <v>6300</v>
+        <v>24300</v>
       </c>
       <c r="I32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>17700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>39500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>697300</v>
+        <v>674000</v>
       </c>
       <c r="E33" s="3">
-        <v>318300</v>
+        <v>674300</v>
       </c>
       <c r="F33" s="3">
-        <v>740400</v>
+        <v>307800</v>
       </c>
       <c r="G33" s="3">
-        <v>534700</v>
+        <v>716000</v>
       </c>
       <c r="H33" s="3">
-        <v>-89600</v>
+        <v>517100</v>
       </c>
       <c r="I33" s="3">
-        <v>433300</v>
+        <v>-86600</v>
       </c>
       <c r="J33" s="3">
+        <v>419000</v>
+      </c>
+      <c r="K33" s="3">
         <v>703500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>470000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>456000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1061300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>567300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>522600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>521400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>324800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>734000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>634200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>440800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-426600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>562800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>697300</v>
+        <v>674000</v>
       </c>
       <c r="E35" s="3">
-        <v>318300</v>
+        <v>674300</v>
       </c>
       <c r="F35" s="3">
-        <v>740400</v>
+        <v>307800</v>
       </c>
       <c r="G35" s="3">
-        <v>534700</v>
+        <v>716000</v>
       </c>
       <c r="H35" s="3">
-        <v>-89600</v>
+        <v>517100</v>
       </c>
       <c r="I35" s="3">
-        <v>433300</v>
+        <v>-86600</v>
       </c>
       <c r="J35" s="3">
+        <v>419000</v>
+      </c>
+      <c r="K35" s="3">
         <v>703500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>470000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>456000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1061300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>567300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>522600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>521400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>324800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>734000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>634200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>440800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-426600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>562800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,575 +2660,600 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14807200</v>
+        <v>8592600</v>
       </c>
       <c r="E41" s="3">
-        <v>14514300</v>
+        <v>14319600</v>
       </c>
       <c r="F41" s="3">
-        <v>12379500</v>
+        <v>14036300</v>
       </c>
       <c r="G41" s="3">
-        <v>11171700</v>
+        <v>11971800</v>
       </c>
       <c r="H41" s="3">
-        <v>9664200</v>
+        <v>10803800</v>
       </c>
       <c r="I41" s="3">
-        <v>9260400</v>
+        <v>9345900</v>
       </c>
       <c r="J41" s="3">
+        <v>8955400</v>
+      </c>
+      <c r="K41" s="3">
         <v>7873800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7553900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6324100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7421500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8202200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9955100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9622800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9849800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9110400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9358400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9905300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11271900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10167700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1282300</v>
+        <v>1242600</v>
       </c>
       <c r="E42" s="3">
-        <v>1363100</v>
+        <v>1240100</v>
       </c>
       <c r="F42" s="3">
-        <v>1192500</v>
+        <v>1318200</v>
       </c>
       <c r="G42" s="3">
-        <v>1113000</v>
+        <v>1153200</v>
       </c>
       <c r="H42" s="3">
-        <v>945600</v>
+        <v>1076300</v>
       </c>
       <c r="I42" s="3">
-        <v>1352300</v>
+        <v>914500</v>
       </c>
       <c r="J42" s="3">
+        <v>1307700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1276400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1234800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1079700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1261800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1453500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1834300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2216400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1840200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1370300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1305300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1359400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10764100</v>
+        <v>10609600</v>
       </c>
       <c r="E43" s="3">
-        <v>10880900</v>
+        <v>10409600</v>
       </c>
       <c r="F43" s="3">
-        <v>10475000</v>
+        <v>10522600</v>
       </c>
       <c r="G43" s="3">
-        <v>9813300</v>
+        <v>10130000</v>
       </c>
       <c r="H43" s="3">
-        <v>9275400</v>
+        <v>9490200</v>
       </c>
       <c r="I43" s="3">
-        <v>9576500</v>
+        <v>8969900</v>
       </c>
       <c r="J43" s="3">
+        <v>9261100</v>
+      </c>
+      <c r="K43" s="3">
         <v>10254000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10850800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10566300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11441900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11046700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10690200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9936000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9392400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9350000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9295400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>8475100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7512900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8383500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8362400</v>
+        <v>8775100</v>
       </c>
       <c r="E44" s="3">
-        <v>7584700</v>
+        <v>8087000</v>
       </c>
       <c r="F44" s="3">
-        <v>7252600</v>
+        <v>7334900</v>
       </c>
       <c r="G44" s="3">
-        <v>7229500</v>
+        <v>7013700</v>
       </c>
       <c r="H44" s="3">
-        <v>7679900</v>
+        <v>6991400</v>
       </c>
       <c r="I44" s="3">
-        <v>7228900</v>
+        <v>7427000</v>
       </c>
       <c r="J44" s="3">
+        <v>6990900</v>
+      </c>
+      <c r="K44" s="3">
         <v>7997800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9239800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9544700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9768000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10414700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10017000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9418500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8937000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9474900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8784700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8188700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7152000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7391100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1444400</v>
+        <v>1295600</v>
       </c>
       <c r="E45" s="3">
-        <v>1393200</v>
+        <v>1396900</v>
       </c>
       <c r="F45" s="3">
-        <v>1626300</v>
+        <v>1347300</v>
       </c>
       <c r="G45" s="3">
-        <v>1495200</v>
+        <v>1572800</v>
       </c>
       <c r="H45" s="3">
-        <v>2146700</v>
+        <v>1446000</v>
       </c>
       <c r="I45" s="3">
-        <v>3882500</v>
+        <v>2076000</v>
       </c>
       <c r="J45" s="3">
+        <v>3754600</v>
+      </c>
+      <c r="K45" s="3">
         <v>9011500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3657900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1814100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1570900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1877700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1738200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1664900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1493600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1548200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1420800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1613100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1217000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4283600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36660400</v>
+        <v>30515500</v>
       </c>
       <c r="E46" s="3">
-        <v>35736200</v>
+        <v>35453100</v>
       </c>
       <c r="F46" s="3">
-        <v>32925900</v>
+        <v>34559400</v>
       </c>
       <c r="G46" s="3">
-        <v>30822800</v>
+        <v>31841600</v>
       </c>
       <c r="H46" s="3">
-        <v>29711700</v>
+        <v>29807800</v>
       </c>
       <c r="I46" s="3">
-        <v>31300500</v>
+        <v>28733200</v>
       </c>
       <c r="J46" s="3">
+        <v>30269700</v>
+      </c>
+      <c r="K46" s="3">
         <v>36413500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32537100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29328900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31464000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32994900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34234800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32858600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31513100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30853900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30164500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29541600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28426700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30226000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6156700</v>
+        <v>5273900</v>
       </c>
       <c r="E47" s="3">
-        <v>6258400</v>
+        <v>5954000</v>
       </c>
       <c r="F47" s="3">
-        <v>8119400</v>
+        <v>6052300</v>
       </c>
       <c r="G47" s="3">
-        <v>7338200</v>
+        <v>7852000</v>
       </c>
       <c r="H47" s="3">
-        <v>6576200</v>
+        <v>7096600</v>
       </c>
       <c r="I47" s="3">
-        <v>4756900</v>
+        <v>6359600</v>
       </c>
       <c r="J47" s="3">
+        <v>4600200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3092700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3171800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3358500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3389600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3038200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2861000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2984200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2842400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3008100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2987700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2901200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2820400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3053000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11955000</v>
+        <v>11524900</v>
       </c>
       <c r="E48" s="3">
-        <v>11948400</v>
+        <v>11561300</v>
       </c>
       <c r="F48" s="3">
-        <v>11316500</v>
+        <v>11554900</v>
       </c>
       <c r="G48" s="3">
-        <v>11461000</v>
+        <v>10943800</v>
       </c>
       <c r="H48" s="3">
-        <v>11614400</v>
+        <v>11083500</v>
       </c>
       <c r="I48" s="3">
-        <v>11803900</v>
+        <v>11231900</v>
       </c>
       <c r="J48" s="3">
+        <v>11415200</v>
+      </c>
+      <c r="K48" s="3">
         <v>12299100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15781700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17067500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12727200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12503100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12460500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12044500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12421600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13070000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12836900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12427600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11737500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11622200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5470000</v>
+        <v>13780200</v>
       </c>
       <c r="E49" s="3">
-        <v>5484600</v>
+        <v>5289900</v>
       </c>
       <c r="F49" s="3">
-        <v>5537000</v>
+        <v>5304000</v>
       </c>
       <c r="G49" s="3">
-        <v>5585500</v>
+        <v>5354700</v>
       </c>
       <c r="H49" s="3">
-        <v>5622900</v>
+        <v>5401600</v>
       </c>
       <c r="I49" s="3">
-        <v>5653800</v>
+        <v>5437800</v>
       </c>
       <c r="J49" s="3">
+        <v>5467600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6044300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6071400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6421400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6914900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6975600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6982600</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3150,17 +3261,20 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>5899700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7114500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3033100</v>
+        <v>3001300</v>
       </c>
       <c r="E52" s="3">
-        <v>2949200</v>
+        <v>2933300</v>
       </c>
       <c r="F52" s="3">
-        <v>2890100</v>
+        <v>2852100</v>
       </c>
       <c r="G52" s="3">
-        <v>2953800</v>
+        <v>2794900</v>
       </c>
       <c r="H52" s="3">
-        <v>3040600</v>
+        <v>2856500</v>
       </c>
       <c r="I52" s="3">
-        <v>3135700</v>
+        <v>2940500</v>
       </c>
       <c r="J52" s="3">
+        <v>3032500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3284700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3332800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3392200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3298100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3600300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3498500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10157200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3421200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10697500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10809400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10784400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4184500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2490500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63275300</v>
+        <v>64095800</v>
       </c>
       <c r="E54" s="3">
-        <v>62376800</v>
+        <v>61191600</v>
       </c>
       <c r="F54" s="3">
-        <v>60788800</v>
+        <v>60322700</v>
       </c>
       <c r="G54" s="3">
-        <v>58161200</v>
+        <v>58787000</v>
       </c>
       <c r="H54" s="3">
-        <v>56565800</v>
+        <v>56245900</v>
       </c>
       <c r="I54" s="3">
-        <v>56650700</v>
+        <v>54703000</v>
       </c>
       <c r="J54" s="3">
+        <v>54785100</v>
+      </c>
+      <c r="K54" s="3">
         <v>61134300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60894800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59568600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>57793900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59112100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60037400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>58044400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56872000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57629500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56798500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>55654700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>53068900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>54506200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9747600</v>
+        <v>9460400</v>
       </c>
       <c r="E57" s="3">
-        <v>9525600</v>
+        <v>9426600</v>
       </c>
       <c r="F57" s="3">
-        <v>8804600</v>
+        <v>9211900</v>
       </c>
       <c r="G57" s="3">
-        <v>7989200</v>
+        <v>8514700</v>
       </c>
       <c r="H57" s="3">
-        <v>7749000</v>
+        <v>7726100</v>
       </c>
       <c r="I57" s="3">
-        <v>8833900</v>
+        <v>7493800</v>
       </c>
       <c r="J57" s="3">
+        <v>8543000</v>
+      </c>
+      <c r="K57" s="3">
         <v>9305300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9780500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10150400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11062800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11331900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11005700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10511700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10364100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10254300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9923500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9363400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8479400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8700400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3414500</v>
+        <v>6846000</v>
       </c>
       <c r="E58" s="3">
-        <v>3362800</v>
+        <v>3302100</v>
       </c>
       <c r="F58" s="3">
-        <v>4494600</v>
+        <v>3252100</v>
       </c>
       <c r="G58" s="3">
-        <v>6555000</v>
+        <v>4346600</v>
       </c>
       <c r="H58" s="3">
-        <v>4504800</v>
+        <v>6339100</v>
       </c>
       <c r="I58" s="3">
-        <v>2869600</v>
+        <v>4356500</v>
       </c>
       <c r="J58" s="3">
+        <v>2775100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3029200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3462300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4022900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3747500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3093600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4652200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4131900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3393500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1725000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1660200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1652900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1570300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>219800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12701200</v>
+        <v>11503400</v>
       </c>
       <c r="E59" s="3">
-        <v>12659000</v>
+        <v>12283000</v>
       </c>
       <c r="F59" s="3">
-        <v>11663300</v>
+        <v>12242200</v>
       </c>
       <c r="G59" s="3">
-        <v>11062500</v>
+        <v>11279200</v>
       </c>
       <c r="H59" s="3">
-        <v>11231100</v>
+        <v>10698200</v>
       </c>
       <c r="I59" s="3">
-        <v>12129200</v>
+        <v>10861300</v>
       </c>
       <c r="J59" s="3">
+        <v>11729800</v>
+      </c>
+      <c r="K59" s="3">
         <v>16897600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13430800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13528400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13918400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14190600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14163400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14387700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14247600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14958100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14818300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15005300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14006300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12533100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25863400</v>
+        <v>27809800</v>
       </c>
       <c r="E60" s="3">
-        <v>25547400</v>
+        <v>25011700</v>
       </c>
       <c r="F60" s="3">
-        <v>24962500</v>
+        <v>24706100</v>
       </c>
       <c r="G60" s="3">
-        <v>25606700</v>
+        <v>24140500</v>
       </c>
       <c r="H60" s="3">
-        <v>23484900</v>
+        <v>24763500</v>
       </c>
       <c r="I60" s="3">
-        <v>23832700</v>
+        <v>22711600</v>
       </c>
       <c r="J60" s="3">
+        <v>23047900</v>
+      </c>
+      <c r="K60" s="3">
         <v>29232100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26673600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27701700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28728600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28616200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29821400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29031300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28005300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26937300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26402000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26021600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24056000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21453400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9850600</v>
+        <v>8574400</v>
       </c>
       <c r="E61" s="3">
-        <v>9823200</v>
+        <v>9526200</v>
       </c>
       <c r="F61" s="3">
-        <v>10319500</v>
+        <v>9499700</v>
       </c>
       <c r="G61" s="3">
-        <v>8651100</v>
+        <v>9979600</v>
       </c>
       <c r="H61" s="3">
-        <v>10511700</v>
+        <v>8366200</v>
       </c>
       <c r="I61" s="3">
-        <v>10534000</v>
+        <v>10165500</v>
       </c>
       <c r="J61" s="3">
+        <v>10187100</v>
+      </c>
+      <c r="K61" s="3">
         <v>9626900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12764200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10550900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5850200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7834600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7722100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7561500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7811000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8742800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8783300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8782800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8399600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9757300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1741100</v>
+        <v>1841100</v>
       </c>
       <c r="E62" s="3">
-        <v>1785200</v>
+        <v>1683700</v>
       </c>
       <c r="F62" s="3">
-        <v>3249500</v>
+        <v>1726400</v>
       </c>
       <c r="G62" s="3">
-        <v>2884900</v>
+        <v>3142500</v>
       </c>
       <c r="H62" s="3">
-        <v>2820500</v>
+        <v>2789900</v>
       </c>
       <c r="I62" s="3">
-        <v>2644000</v>
+        <v>2727600</v>
       </c>
       <c r="J62" s="3">
+        <v>2556900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2740400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2843400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3030500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3181900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3974200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3959200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4004300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4039800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4534000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4657500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4589900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5002700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5716900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39019200</v>
+        <v>39747100</v>
       </c>
       <c r="E66" s="3">
-        <v>38745200</v>
+        <v>37734300</v>
       </c>
       <c r="F66" s="3">
-        <v>39998600</v>
+        <v>37469300</v>
       </c>
       <c r="G66" s="3">
-        <v>38535300</v>
+        <v>38681400</v>
       </c>
       <c r="H66" s="3">
-        <v>38167100</v>
+        <v>37266300</v>
       </c>
       <c r="I66" s="3">
-        <v>38445700</v>
+        <v>36910300</v>
       </c>
       <c r="J66" s="3">
+        <v>37179700</v>
+      </c>
+      <c r="K66" s="3">
         <v>43123400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43742800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>42774700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39405000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42031400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43063400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42103500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41435700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41835200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41551600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40942000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39126200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>38227700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20122700</v>
+        <v>20129500</v>
       </c>
       <c r="E72" s="3">
-        <v>19623100</v>
+        <v>19460100</v>
       </c>
       <c r="F72" s="3">
-        <v>16421900</v>
+        <v>18976900</v>
       </c>
       <c r="G72" s="3">
-        <v>15885700</v>
+        <v>15881100</v>
       </c>
       <c r="H72" s="3">
-        <v>14580800</v>
+        <v>15362600</v>
       </c>
       <c r="I72" s="3">
-        <v>14998700</v>
+        <v>14100700</v>
       </c>
       <c r="J72" s="3">
+        <v>14504800</v>
+      </c>
+      <c r="K72" s="3">
         <v>14482200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14210100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13693700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14423400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13260200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12808600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12020300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11755000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11222300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10661300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10052200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9326300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11377000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24256100</v>
+        <v>24348700</v>
       </c>
       <c r="E76" s="3">
-        <v>23631600</v>
+        <v>23457300</v>
       </c>
       <c r="F76" s="3">
-        <v>20790200</v>
+        <v>22853400</v>
       </c>
       <c r="G76" s="3">
-        <v>19625900</v>
+        <v>20105600</v>
       </c>
       <c r="H76" s="3">
-        <v>18398700</v>
+        <v>18979600</v>
       </c>
       <c r="I76" s="3">
-        <v>18205000</v>
+        <v>17792800</v>
       </c>
       <c r="J76" s="3">
+        <v>17605500</v>
+      </c>
+      <c r="K76" s="3">
         <v>18010900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17152000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16793900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18388900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17080700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16974000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15940900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15436300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15794300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15247000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14712700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13942700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16278500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>697300</v>
+        <v>674000</v>
       </c>
       <c r="E81" s="3">
-        <v>318300</v>
+        <v>674300</v>
       </c>
       <c r="F81" s="3">
-        <v>740400</v>
+        <v>307800</v>
       </c>
       <c r="G81" s="3">
-        <v>534700</v>
+        <v>716000</v>
       </c>
       <c r="H81" s="3">
-        <v>-89600</v>
+        <v>517100</v>
       </c>
       <c r="I81" s="3">
-        <v>433300</v>
+        <v>-86600</v>
       </c>
       <c r="J81" s="3">
+        <v>419000</v>
+      </c>
+      <c r="K81" s="3">
         <v>703500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>470000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>456000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1061300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>567300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>522600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>521400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>324800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>734000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>634200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>440800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-426600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>562800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>702200</v>
+        <v>711800</v>
       </c>
       <c r="E83" s="3">
-        <v>749900</v>
+        <v>679100</v>
       </c>
       <c r="F83" s="3">
-        <v>718800</v>
+        <v>725200</v>
       </c>
       <c r="G83" s="3">
-        <v>709700</v>
+        <v>695100</v>
       </c>
       <c r="H83" s="3">
-        <v>714600</v>
+        <v>686400</v>
       </c>
       <c r="I83" s="3">
-        <v>818400</v>
+        <v>691100</v>
       </c>
       <c r="J83" s="3">
+        <v>791500</v>
+      </c>
+      <c r="K83" s="3">
         <v>824400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>873200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>894300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>742900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>705800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>671900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>651300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>642100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>674700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>652400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>632000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>644100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>590800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1190900</v>
+        <v>-779800</v>
       </c>
       <c r="E89" s="3">
-        <v>1580400</v>
+        <v>1151700</v>
       </c>
       <c r="F89" s="3">
-        <v>2314500</v>
+        <v>1528400</v>
       </c>
       <c r="G89" s="3">
-        <v>1597400</v>
+        <v>2238200</v>
       </c>
       <c r="H89" s="3">
-        <v>-905000</v>
+        <v>1544800</v>
       </c>
       <c r="I89" s="3">
-        <v>1455600</v>
+        <v>-875200</v>
       </c>
       <c r="J89" s="3">
+        <v>1407700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1201600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>308600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>961000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1207300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>440000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-48200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>333000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1437300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1104200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>574700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>709400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2263300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>783400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-537300</v>
+        <v>-434600</v>
       </c>
       <c r="E91" s="3">
-        <v>-910000</v>
+        <v>-519600</v>
       </c>
       <c r="F91" s="3">
-        <v>-367300</v>
+        <v>-880100</v>
       </c>
       <c r="G91" s="3">
-        <v>-392300</v>
+        <v>-355200</v>
       </c>
       <c r="H91" s="3">
-        <v>-435900</v>
+        <v>-379300</v>
       </c>
       <c r="I91" s="3">
-        <v>-684500</v>
+        <v>-421500</v>
       </c>
       <c r="J91" s="3">
+        <v>-662000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-523700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-632000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-664400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-779200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-668500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-631000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-875100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-940800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-756900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-825000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>575700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-537100</v>
+        <v>-5671700</v>
       </c>
       <c r="E94" s="3">
-        <v>1774600</v>
+        <v>-519400</v>
       </c>
       <c r="F94" s="3">
-        <v>-419500</v>
+        <v>1716200</v>
       </c>
       <c r="G94" s="3">
-        <v>-147800</v>
+        <v>-405700</v>
       </c>
       <c r="H94" s="3">
-        <v>401400</v>
+        <v>-142900</v>
       </c>
       <c r="I94" s="3">
-        <v>-426500</v>
+        <v>388200</v>
       </c>
       <c r="J94" s="3">
+        <v>-412400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-321400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-554100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-583500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-487500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-260100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-352800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-701100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-949500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-927900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-974900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-477300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-212600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-205600</v>
       </c>
       <c r="F96" s="3">
-        <v>-212600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-205600</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-308300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-318800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-318800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-320500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-330300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-424000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-210800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-316300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-205900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-420800</v>
+        <v>666400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2077300</v>
+        <v>-407000</v>
       </c>
       <c r="F100" s="3">
-        <v>-605400</v>
+        <v>-2008900</v>
       </c>
       <c r="G100" s="3">
-        <v>111900</v>
+        <v>-585500</v>
       </c>
       <c r="H100" s="3">
-        <v>951900</v>
+        <v>108200</v>
       </c>
       <c r="I100" s="3">
-        <v>503400</v>
+        <v>920600</v>
       </c>
       <c r="J100" s="3">
+        <v>486900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-674100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1527700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-909400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>363300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>658200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-521600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-110300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-153600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-221900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59900</v>
+        <v>58100</v>
       </c>
       <c r="E101" s="3">
-        <v>857100</v>
+        <v>58000</v>
       </c>
       <c r="F101" s="3">
-        <v>-81800</v>
+        <v>828900</v>
       </c>
       <c r="G101" s="3">
-        <v>-54000</v>
+        <v>-79100</v>
       </c>
       <c r="H101" s="3">
-        <v>-44600</v>
+        <v>-52200</v>
       </c>
       <c r="I101" s="3">
-        <v>-146000</v>
+        <v>-43200</v>
       </c>
       <c r="J101" s="3">
+        <v>-141200</v>
+      </c>
+      <c r="K101" s="3">
         <v>179600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-73000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-218000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>36100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-196900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>158300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>129100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-406600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>97400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>127600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>29700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-280700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1123500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>292900</v>
+        <v>-5727000</v>
       </c>
       <c r="E102" s="3">
-        <v>2134800</v>
+        <v>283300</v>
       </c>
       <c r="F102" s="3">
-        <v>1207700</v>
+        <v>2064500</v>
       </c>
       <c r="G102" s="3">
-        <v>1507600</v>
+        <v>1168000</v>
       </c>
       <c r="H102" s="3">
-        <v>403800</v>
+        <v>1457900</v>
       </c>
       <c r="I102" s="3">
-        <v>1386600</v>
+        <v>390500</v>
       </c>
       <c r="J102" s="3">
+        <v>1340900</v>
+      </c>
+      <c r="K102" s="3">
         <v>385700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1209100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-749900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-928500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>120600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-281600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>739400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-247900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-546900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1118400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1102400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15339400</v>
+        <v>16120000</v>
       </c>
       <c r="E8" s="3">
-        <v>15791200</v>
+        <v>14851900</v>
       </c>
       <c r="F8" s="3">
-        <v>16082700</v>
+        <v>15289400</v>
       </c>
       <c r="G8" s="3">
-        <v>15982500</v>
+        <v>15571600</v>
       </c>
       <c r="H8" s="3">
-        <v>14688400</v>
+        <v>15474600</v>
       </c>
       <c r="I8" s="3">
-        <v>12262700</v>
+        <v>14221600</v>
       </c>
       <c r="J8" s="3">
+        <v>11873000</v>
+      </c>
+      <c r="K8" s="3">
         <v>15285100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17411100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17950800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17322700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18448800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19586200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18574800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18259400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18712800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18570900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18013000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16862100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17042100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16698500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11080300</v>
+        <v>11627500</v>
       </c>
       <c r="E9" s="3">
-        <v>11152500</v>
+        <v>10728100</v>
       </c>
       <c r="F9" s="3">
-        <v>11187700</v>
+        <v>10798100</v>
       </c>
       <c r="G9" s="3">
-        <v>11132700</v>
+        <v>10832100</v>
       </c>
       <c r="H9" s="3">
-        <v>10401900</v>
+        <v>10778900</v>
       </c>
       <c r="I9" s="3">
-        <v>8895600</v>
+        <v>10071300</v>
       </c>
       <c r="J9" s="3">
+        <v>8612900</v>
+      </c>
+      <c r="K9" s="3">
         <v>10834500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12305300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12873300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12441200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13007700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14109900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13380700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13159100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13352200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13062600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12689100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11908300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11859300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11737300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4259100</v>
+        <v>4492500</v>
       </c>
       <c r="E10" s="3">
-        <v>4638700</v>
+        <v>4123700</v>
       </c>
       <c r="F10" s="3">
-        <v>4895000</v>
+        <v>4491300</v>
       </c>
       <c r="G10" s="3">
-        <v>4849800</v>
+        <v>4739400</v>
       </c>
       <c r="H10" s="3">
-        <v>4286500</v>
+        <v>4695700</v>
       </c>
       <c r="I10" s="3">
-        <v>3367100</v>
+        <v>4150300</v>
       </c>
       <c r="J10" s="3">
+        <v>3260100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4450500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5105800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5077500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4881500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5441100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5476200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5194100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5100300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5360600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5508300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5323900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4953800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5182800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4961200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,31 +1143,34 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>251000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1171,8 +1190,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1186,17 +1205,20 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>188100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>20900</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1254,8 +1276,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14486400</v>
+        <v>15497800</v>
       </c>
       <c r="E17" s="3">
-        <v>14871700</v>
+        <v>14025900</v>
       </c>
       <c r="F17" s="3">
-        <v>15802500</v>
+        <v>14399000</v>
       </c>
       <c r="G17" s="3">
-        <v>14835700</v>
+        <v>15300300</v>
       </c>
       <c r="H17" s="3">
-        <v>13870200</v>
+        <v>14364200</v>
       </c>
       <c r="I17" s="3">
-        <v>12229600</v>
+        <v>13429400</v>
       </c>
       <c r="J17" s="3">
+        <v>11841000</v>
+      </c>
+      <c r="K17" s="3">
         <v>14817400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16496700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17179700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16806200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17308000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18665300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17689600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17350800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18135700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17484800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16994900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16103400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17032800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15832400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>853000</v>
+        <v>622300</v>
       </c>
       <c r="E18" s="3">
-        <v>919600</v>
+        <v>825900</v>
       </c>
       <c r="F18" s="3">
-        <v>280200</v>
+        <v>890300</v>
       </c>
       <c r="G18" s="3">
-        <v>1146800</v>
+        <v>271300</v>
       </c>
       <c r="H18" s="3">
-        <v>818200</v>
+        <v>1110400</v>
       </c>
       <c r="I18" s="3">
-        <v>33100</v>
+        <v>792200</v>
       </c>
       <c r="J18" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K18" s="3">
         <v>467600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>914500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>771100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>516500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1140800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>920900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>885200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>908600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>577100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1086100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1018100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>758700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>866100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>5700</v>
       </c>
       <c r="E20" s="3">
-        <v>36600</v>
+        <v>3400</v>
       </c>
       <c r="F20" s="3">
-        <v>78700</v>
+        <v>35500</v>
       </c>
       <c r="G20" s="3">
-        <v>-28800</v>
+        <v>76200</v>
       </c>
       <c r="H20" s="3">
-        <v>-24300</v>
+        <v>-27800</v>
       </c>
       <c r="I20" s="3">
-        <v>-6100</v>
+        <v>-23600</v>
       </c>
       <c r="J20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-17700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-39500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>32300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1568400</v>
+        <v>1377000</v>
       </c>
       <c r="E21" s="3">
-        <v>1635300</v>
+        <v>1518600</v>
       </c>
       <c r="F21" s="3">
-        <v>1084100</v>
+        <v>1583300</v>
       </c>
       <c r="G21" s="3">
-        <v>1813200</v>
+        <v>1049700</v>
       </c>
       <c r="H21" s="3">
-        <v>1480200</v>
+        <v>1755600</v>
       </c>
       <c r="I21" s="3">
-        <v>718100</v>
+        <v>1433100</v>
       </c>
       <c r="J21" s="3">
+        <v>695300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1258300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1736800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1623800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1409300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1916600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1622100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1554500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1580700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1230300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1748100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1672200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1373100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>613900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1489300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1628,8 +1667,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1646,150 +1685,159 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>34900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>856600</v>
+        <v>627900</v>
       </c>
       <c r="E23" s="3">
-        <v>956200</v>
+        <v>829400</v>
       </c>
       <c r="F23" s="3">
-        <v>358900</v>
+        <v>925800</v>
       </c>
       <c r="G23" s="3">
-        <v>1118100</v>
+        <v>347500</v>
       </c>
       <c r="H23" s="3">
-        <v>793800</v>
+        <v>1082500</v>
       </c>
       <c r="I23" s="3">
-        <v>27000</v>
+        <v>768600</v>
       </c>
       <c r="J23" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K23" s="3">
         <v>466800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>912400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>750600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>515000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1173700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>916300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>882700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>929400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>588200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1073400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1019800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>741000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-30200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>863600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>153000</v>
+        <v>260500</v>
       </c>
       <c r="E24" s="3">
-        <v>240400</v>
+        <v>148100</v>
       </c>
       <c r="F24" s="3">
-        <v>9700</v>
+        <v>232800</v>
       </c>
       <c r="G24" s="3">
-        <v>349100</v>
+        <v>9400</v>
       </c>
       <c r="H24" s="3">
-        <v>231000</v>
+        <v>338000</v>
       </c>
       <c r="I24" s="3">
-        <v>88000</v>
+        <v>223600</v>
       </c>
       <c r="J24" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K24" s="3">
         <v>31200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>170900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>241200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>296400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>323600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>370200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>225800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>296900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>352300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>269200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>339400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>250000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>703600</v>
+        <v>367400</v>
       </c>
       <c r="E26" s="3">
-        <v>715800</v>
+        <v>681200</v>
       </c>
       <c r="F26" s="3">
-        <v>349200</v>
+        <v>693000</v>
       </c>
       <c r="G26" s="3">
-        <v>769000</v>
+        <v>338100</v>
       </c>
       <c r="H26" s="3">
-        <v>562900</v>
+        <v>744600</v>
       </c>
       <c r="I26" s="3">
-        <v>-60900</v>
+        <v>545000</v>
       </c>
       <c r="J26" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="K26" s="3">
         <v>435600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>741500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>509400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>492500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1108800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>619800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>559100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>559200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>362400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>776500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>667500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>471800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-369600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>613600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>674000</v>
+        <v>363300</v>
       </c>
       <c r="E27" s="3">
-        <v>674300</v>
+        <v>652600</v>
       </c>
       <c r="F27" s="3">
-        <v>307800</v>
+        <v>652900</v>
       </c>
       <c r="G27" s="3">
-        <v>716000</v>
+        <v>298000</v>
       </c>
       <c r="H27" s="3">
-        <v>517100</v>
+        <v>693300</v>
       </c>
       <c r="I27" s="3">
-        <v>-86600</v>
+        <v>500700</v>
       </c>
       <c r="J27" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="K27" s="3">
         <v>419000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>703500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>470000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>456000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1061300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>567300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>522600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>521400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>324800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>734000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>634200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>440800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-426600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>562800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-5700</v>
       </c>
       <c r="E32" s="3">
-        <v>-36600</v>
+        <v>-3400</v>
       </c>
       <c r="F32" s="3">
-        <v>-78700</v>
+        <v>-35500</v>
       </c>
       <c r="G32" s="3">
-        <v>28800</v>
+        <v>-76200</v>
       </c>
       <c r="H32" s="3">
-        <v>24300</v>
+        <v>27800</v>
       </c>
       <c r="I32" s="3">
-        <v>6100</v>
+        <v>23600</v>
       </c>
       <c r="J32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>17700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>39500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-32300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>674000</v>
+        <v>363300</v>
       </c>
       <c r="E33" s="3">
-        <v>674300</v>
+        <v>652600</v>
       </c>
       <c r="F33" s="3">
-        <v>307800</v>
+        <v>652900</v>
       </c>
       <c r="G33" s="3">
-        <v>716000</v>
+        <v>298000</v>
       </c>
       <c r="H33" s="3">
-        <v>517100</v>
+        <v>693300</v>
       </c>
       <c r="I33" s="3">
-        <v>-86600</v>
+        <v>500700</v>
       </c>
       <c r="J33" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="K33" s="3">
         <v>419000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>703500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>470000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>456000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1061300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>567300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>522600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>521400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>324800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>734000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>634200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>440800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-426600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>562800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>674000</v>
+        <v>363300</v>
       </c>
       <c r="E35" s="3">
-        <v>674300</v>
+        <v>652600</v>
       </c>
       <c r="F35" s="3">
-        <v>307800</v>
+        <v>652900</v>
       </c>
       <c r="G35" s="3">
-        <v>716000</v>
+        <v>298000</v>
       </c>
       <c r="H35" s="3">
-        <v>517100</v>
+        <v>693300</v>
       </c>
       <c r="I35" s="3">
-        <v>-86600</v>
+        <v>500700</v>
       </c>
       <c r="J35" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="K35" s="3">
         <v>419000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>703500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>470000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>456000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1061300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>567300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>522600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>521400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>324800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>734000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>634200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>440800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-426600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>562800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,602 +2746,627 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8592600</v>
+        <v>7589500</v>
       </c>
       <c r="E41" s="3">
-        <v>14319600</v>
+        <v>8319500</v>
       </c>
       <c r="F41" s="3">
-        <v>14036300</v>
+        <v>13864500</v>
       </c>
       <c r="G41" s="3">
-        <v>11971800</v>
+        <v>13590200</v>
       </c>
       <c r="H41" s="3">
-        <v>10803800</v>
+        <v>11591300</v>
       </c>
       <c r="I41" s="3">
-        <v>9345900</v>
+        <v>10460500</v>
       </c>
       <c r="J41" s="3">
+        <v>9048900</v>
+      </c>
+      <c r="K41" s="3">
         <v>8955400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7873800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7553900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6324100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7421500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8202200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9955100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9622800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9849800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9110400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9358400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9905300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11271900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10167700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1242600</v>
+        <v>1368700</v>
       </c>
       <c r="E42" s="3">
-        <v>1240100</v>
+        <v>1203100</v>
       </c>
       <c r="F42" s="3">
-        <v>1318200</v>
+        <v>1200700</v>
       </c>
       <c r="G42" s="3">
-        <v>1153200</v>
+        <v>1276300</v>
       </c>
       <c r="H42" s="3">
-        <v>1076300</v>
+        <v>1116600</v>
       </c>
       <c r="I42" s="3">
-        <v>914500</v>
+        <v>1042100</v>
       </c>
       <c r="J42" s="3">
+        <v>885400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1307700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1276400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1234800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1079700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1261800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1453500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1834300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2216400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1840200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1370300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1305300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1359400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10609600</v>
+        <v>10833500</v>
       </c>
       <c r="E43" s="3">
-        <v>10409600</v>
+        <v>10272400</v>
       </c>
       <c r="F43" s="3">
-        <v>10522600</v>
+        <v>10078800</v>
       </c>
       <c r="G43" s="3">
-        <v>10130000</v>
+        <v>10188200</v>
       </c>
       <c r="H43" s="3">
-        <v>9490200</v>
+        <v>9808100</v>
       </c>
       <c r="I43" s="3">
-        <v>8969900</v>
+        <v>9188600</v>
       </c>
       <c r="J43" s="3">
+        <v>8684800</v>
+      </c>
+      <c r="K43" s="3">
         <v>9261100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10254000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10850800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10566300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11441900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11046700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10690200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9936000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9392400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9350000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9295400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>8475100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7512900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8383500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8775100</v>
+        <v>9034300</v>
       </c>
       <c r="E44" s="3">
-        <v>8087000</v>
+        <v>8496200</v>
       </c>
       <c r="F44" s="3">
-        <v>7334900</v>
+        <v>7830000</v>
       </c>
       <c r="G44" s="3">
-        <v>7013700</v>
+        <v>7101800</v>
       </c>
       <c r="H44" s="3">
-        <v>6991400</v>
+        <v>6790800</v>
       </c>
       <c r="I44" s="3">
-        <v>7427000</v>
+        <v>6769200</v>
       </c>
       <c r="J44" s="3">
+        <v>7190900</v>
+      </c>
+      <c r="K44" s="3">
         <v>6990900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7997800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9239800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9544700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9768000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10414700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10017000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9418500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8937000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9474900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8784700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8188700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7152000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7391100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1295600</v>
+        <v>1348000</v>
       </c>
       <c r="E45" s="3">
-        <v>1396900</v>
+        <v>1254400</v>
       </c>
       <c r="F45" s="3">
-        <v>1347300</v>
+        <v>1352500</v>
       </c>
       <c r="G45" s="3">
-        <v>1572800</v>
+        <v>1304500</v>
       </c>
       <c r="H45" s="3">
-        <v>1446000</v>
+        <v>1522800</v>
       </c>
       <c r="I45" s="3">
-        <v>2076000</v>
+        <v>1400000</v>
       </c>
       <c r="J45" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3754600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9011500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3657900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1814100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1570900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1877700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1738200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1664900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1493600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1548200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1420800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1613100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1217000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4283600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30515500</v>
+        <v>30174100</v>
       </c>
       <c r="E46" s="3">
-        <v>35453100</v>
+        <v>29545600</v>
       </c>
       <c r="F46" s="3">
-        <v>34559400</v>
+        <v>34326300</v>
       </c>
       <c r="G46" s="3">
-        <v>31841600</v>
+        <v>33461000</v>
       </c>
       <c r="H46" s="3">
-        <v>29807800</v>
+        <v>30829600</v>
       </c>
       <c r="I46" s="3">
-        <v>28733200</v>
+        <v>28860400</v>
       </c>
       <c r="J46" s="3">
+        <v>27820000</v>
+      </c>
+      <c r="K46" s="3">
         <v>30269700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36413500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32537100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29328900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31464000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32994900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34234800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32858600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31513100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30853900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30164500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29541600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28426700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30226000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5273900</v>
+        <v>4965200</v>
       </c>
       <c r="E47" s="3">
-        <v>5954000</v>
+        <v>5106300</v>
       </c>
       <c r="F47" s="3">
-        <v>6052300</v>
+        <v>5764800</v>
       </c>
       <c r="G47" s="3">
-        <v>7852000</v>
+        <v>5860000</v>
       </c>
       <c r="H47" s="3">
-        <v>7096600</v>
+        <v>7602500</v>
       </c>
       <c r="I47" s="3">
-        <v>6359600</v>
+        <v>6871000</v>
       </c>
       <c r="J47" s="3">
+        <v>6157500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4600200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3092700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3171800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3358500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3389600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3038200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2861000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2984200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2842400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3008100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2987700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2901200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2820400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3053000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11524900</v>
+        <v>11186200</v>
       </c>
       <c r="E48" s="3">
-        <v>11561300</v>
+        <v>11158600</v>
       </c>
       <c r="F48" s="3">
-        <v>11554900</v>
+        <v>11193900</v>
       </c>
       <c r="G48" s="3">
-        <v>10943800</v>
+        <v>11187700</v>
       </c>
       <c r="H48" s="3">
-        <v>11083500</v>
+        <v>10596000</v>
       </c>
       <c r="I48" s="3">
-        <v>11231900</v>
+        <v>10731300</v>
       </c>
       <c r="J48" s="3">
+        <v>10875000</v>
+      </c>
+      <c r="K48" s="3">
         <v>11415200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12299100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15781700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17067500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12727200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12503100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12460500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12044500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12421600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13070000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12836900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12427600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11737500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11622200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13780200</v>
+        <v>13708200</v>
       </c>
       <c r="E49" s="3">
-        <v>5289900</v>
+        <v>13342300</v>
       </c>
       <c r="F49" s="3">
-        <v>5304000</v>
+        <v>5121700</v>
       </c>
       <c r="G49" s="3">
-        <v>5354700</v>
+        <v>5135400</v>
       </c>
       <c r="H49" s="3">
-        <v>5401600</v>
+        <v>5184500</v>
       </c>
       <c r="I49" s="3">
-        <v>5437800</v>
+        <v>5229900</v>
       </c>
       <c r="J49" s="3">
+        <v>5265000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5467600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6044300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6071400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6421400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6914900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6975600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6982600</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3264,17 +3374,20 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>5899700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7114500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3001300</v>
+        <v>2890100</v>
       </c>
       <c r="E52" s="3">
-        <v>2933300</v>
+        <v>2905900</v>
       </c>
       <c r="F52" s="3">
-        <v>2852100</v>
+        <v>2840000</v>
       </c>
       <c r="G52" s="3">
-        <v>2794900</v>
+        <v>2761400</v>
       </c>
       <c r="H52" s="3">
-        <v>2856500</v>
+        <v>2706100</v>
       </c>
       <c r="I52" s="3">
-        <v>2940500</v>
+        <v>2765700</v>
       </c>
       <c r="J52" s="3">
+        <v>2847000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3032500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3284700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3332800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3392200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3298100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3600300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3498500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10157200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3421200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10697500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10809400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10784400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4184500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2490500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64095800</v>
+        <v>62923900</v>
       </c>
       <c r="E54" s="3">
-        <v>61191600</v>
+        <v>62058700</v>
       </c>
       <c r="F54" s="3">
-        <v>60322700</v>
+        <v>59246800</v>
       </c>
       <c r="G54" s="3">
-        <v>58787000</v>
+        <v>58405500</v>
       </c>
       <c r="H54" s="3">
-        <v>56245900</v>
+        <v>56918600</v>
       </c>
       <c r="I54" s="3">
-        <v>54703000</v>
+        <v>54458300</v>
       </c>
       <c r="J54" s="3">
+        <v>52964500</v>
+      </c>
+      <c r="K54" s="3">
         <v>54785100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>61134300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60894800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59568600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57793900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59112100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60037400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>58044400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56872000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57629500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56798500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>55654700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>53068900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>54506200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9460400</v>
+        <v>9551900</v>
       </c>
       <c r="E57" s="3">
-        <v>9426600</v>
+        <v>9159800</v>
       </c>
       <c r="F57" s="3">
-        <v>9211900</v>
+        <v>9127000</v>
       </c>
       <c r="G57" s="3">
-        <v>8514700</v>
+        <v>8919100</v>
       </c>
       <c r="H57" s="3">
-        <v>7726100</v>
+        <v>8244100</v>
       </c>
       <c r="I57" s="3">
-        <v>7493800</v>
+        <v>7480600</v>
       </c>
       <c r="J57" s="3">
+        <v>7255600</v>
+      </c>
+      <c r="K57" s="3">
         <v>8543000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9305300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9780500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10150400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11062800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11331900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11005700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10511700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10364100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10254300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9923500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9363400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>8479400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8700400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6846000</v>
+        <v>2678900</v>
       </c>
       <c r="E58" s="3">
-        <v>3302100</v>
+        <v>6628400</v>
       </c>
       <c r="F58" s="3">
-        <v>3252100</v>
+        <v>3197100</v>
       </c>
       <c r="G58" s="3">
-        <v>4346600</v>
+        <v>3148700</v>
       </c>
       <c r="H58" s="3">
-        <v>6339100</v>
+        <v>4208500</v>
       </c>
       <c r="I58" s="3">
-        <v>4356500</v>
+        <v>6137700</v>
       </c>
       <c r="J58" s="3">
+        <v>4218000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2775100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3029200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3462300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4022900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3747500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3093600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4652200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4131900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3393500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1725000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1660200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1652900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1570300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>219800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11503400</v>
+        <v>11161100</v>
       </c>
       <c r="E59" s="3">
-        <v>12283000</v>
+        <v>11137800</v>
       </c>
       <c r="F59" s="3">
-        <v>12242200</v>
+        <v>11892600</v>
       </c>
       <c r="G59" s="3">
-        <v>11279200</v>
+        <v>11853100</v>
       </c>
       <c r="H59" s="3">
-        <v>10698200</v>
+        <v>10920700</v>
       </c>
       <c r="I59" s="3">
-        <v>10861300</v>
+        <v>10358200</v>
       </c>
       <c r="J59" s="3">
+        <v>10516100</v>
+      </c>
+      <c r="K59" s="3">
         <v>11729800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16897600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13430800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13528400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13918400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14190600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14163400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14387700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14247600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14958100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14818300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15005300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14006300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12533100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27809800</v>
+        <v>23391900</v>
       </c>
       <c r="E60" s="3">
-        <v>25011700</v>
+        <v>26925900</v>
       </c>
       <c r="F60" s="3">
-        <v>24706100</v>
+        <v>24216800</v>
       </c>
       <c r="G60" s="3">
-        <v>24140500</v>
+        <v>23920900</v>
       </c>
       <c r="H60" s="3">
-        <v>24763500</v>
+        <v>23373300</v>
       </c>
       <c r="I60" s="3">
-        <v>22711600</v>
+        <v>23976400</v>
       </c>
       <c r="J60" s="3">
+        <v>21989700</v>
+      </c>
+      <c r="K60" s="3">
         <v>23047900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29232100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26673600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27701700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28728600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28616200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29821400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29031300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28005300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26937300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26402000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26021600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24056000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21453400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8574400</v>
+        <v>11702900</v>
       </c>
       <c r="E61" s="3">
-        <v>9526200</v>
+        <v>8301800</v>
       </c>
       <c r="F61" s="3">
-        <v>9499700</v>
+        <v>9223400</v>
       </c>
       <c r="G61" s="3">
-        <v>9979600</v>
+        <v>9197800</v>
       </c>
       <c r="H61" s="3">
-        <v>8366200</v>
+        <v>9662500</v>
       </c>
       <c r="I61" s="3">
-        <v>10165500</v>
+        <v>8100400</v>
       </c>
       <c r="J61" s="3">
+        <v>9842400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10187100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9626900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12764200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10550900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5850200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7834600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7722100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7561500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7811000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8742800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8783300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8782800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8399600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9757300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1841100</v>
+        <v>1968400</v>
       </c>
       <c r="E62" s="3">
-        <v>1683700</v>
+        <v>1782600</v>
       </c>
       <c r="F62" s="3">
-        <v>1726400</v>
+        <v>1630200</v>
       </c>
       <c r="G62" s="3">
-        <v>3142500</v>
+        <v>1671500</v>
       </c>
       <c r="H62" s="3">
-        <v>2789900</v>
+        <v>3042700</v>
       </c>
       <c r="I62" s="3">
-        <v>2727600</v>
+        <v>2701200</v>
       </c>
       <c r="J62" s="3">
+        <v>2640900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2556900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2740400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2843400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3030500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3181900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3974200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3959200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4004300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4039800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4534000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4657500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4589900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5002700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5716900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39747100</v>
+        <v>38572400</v>
       </c>
       <c r="E66" s="3">
-        <v>37734300</v>
+        <v>38483900</v>
       </c>
       <c r="F66" s="3">
-        <v>37469300</v>
+        <v>36535000</v>
       </c>
       <c r="G66" s="3">
-        <v>38681400</v>
+        <v>36278400</v>
       </c>
       <c r="H66" s="3">
-        <v>37266300</v>
+        <v>37452100</v>
       </c>
       <c r="I66" s="3">
-        <v>36910300</v>
+        <v>36081900</v>
       </c>
       <c r="J66" s="3">
+        <v>35737200</v>
+      </c>
+      <c r="K66" s="3">
         <v>37179700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43123400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43742800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42774700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39405000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42031400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43063400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42103500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41435700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41835200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41551600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40942000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>39126200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>38227700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20129500</v>
+        <v>19596900</v>
       </c>
       <c r="E72" s="3">
-        <v>19460100</v>
+        <v>19489800</v>
       </c>
       <c r="F72" s="3">
-        <v>18976900</v>
+        <v>18841600</v>
       </c>
       <c r="G72" s="3">
-        <v>15881100</v>
+        <v>18373800</v>
       </c>
       <c r="H72" s="3">
-        <v>15362600</v>
+        <v>15376400</v>
       </c>
       <c r="I72" s="3">
-        <v>14100700</v>
+        <v>14874300</v>
       </c>
       <c r="J72" s="3">
+        <v>13652500</v>
+      </c>
+      <c r="K72" s="3">
         <v>14504800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14482200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14210100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13693700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14423400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13260200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12808600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12020300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11755000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11222300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10661300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10052200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9326300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11377000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24348700</v>
+        <v>24351500</v>
       </c>
       <c r="E76" s="3">
-        <v>23457300</v>
+        <v>23574800</v>
       </c>
       <c r="F76" s="3">
-        <v>22853400</v>
+        <v>22711800</v>
       </c>
       <c r="G76" s="3">
-        <v>20105600</v>
+        <v>22127100</v>
       </c>
       <c r="H76" s="3">
-        <v>18979600</v>
+        <v>19466600</v>
       </c>
       <c r="I76" s="3">
-        <v>17792800</v>
+        <v>18376400</v>
       </c>
       <c r="J76" s="3">
+        <v>17227300</v>
+      </c>
+      <c r="K76" s="3">
         <v>17605500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18010900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17152000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16793900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18388900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17080700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16974000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15940900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15436300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15794300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15247000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14712700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13942700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16278500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>674000</v>
+        <v>363300</v>
       </c>
       <c r="E81" s="3">
-        <v>674300</v>
+        <v>652600</v>
       </c>
       <c r="F81" s="3">
-        <v>307800</v>
+        <v>652900</v>
       </c>
       <c r="G81" s="3">
-        <v>716000</v>
+        <v>298000</v>
       </c>
       <c r="H81" s="3">
-        <v>517100</v>
+        <v>693300</v>
       </c>
       <c r="I81" s="3">
-        <v>-86600</v>
+        <v>500700</v>
       </c>
       <c r="J81" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="K81" s="3">
         <v>419000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>703500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>470000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>456000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1061300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>567300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>522600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>521400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>324800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>734000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>634200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>440800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-426600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>562800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>711800</v>
+        <v>749100</v>
       </c>
       <c r="E83" s="3">
-        <v>679100</v>
+        <v>689200</v>
       </c>
       <c r="F83" s="3">
-        <v>725200</v>
+        <v>657500</v>
       </c>
       <c r="G83" s="3">
-        <v>695100</v>
+        <v>702200</v>
       </c>
       <c r="H83" s="3">
-        <v>686400</v>
+        <v>673100</v>
       </c>
       <c r="I83" s="3">
-        <v>691100</v>
+        <v>664500</v>
       </c>
       <c r="J83" s="3">
+        <v>669100</v>
+      </c>
+      <c r="K83" s="3">
         <v>791500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>824400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>873200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>894300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>742900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>705800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>671900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>651300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>642100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>674700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>652400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>632000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>644100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>590800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-779800</v>
+        <v>531300</v>
       </c>
       <c r="E89" s="3">
-        <v>1151700</v>
+        <v>-755000</v>
       </c>
       <c r="F89" s="3">
-        <v>1528400</v>
+        <v>1115100</v>
       </c>
       <c r="G89" s="3">
-        <v>2238200</v>
+        <v>1479800</v>
       </c>
       <c r="H89" s="3">
-        <v>1544800</v>
+        <v>2167100</v>
       </c>
       <c r="I89" s="3">
-        <v>-875200</v>
+        <v>1495700</v>
       </c>
       <c r="J89" s="3">
+        <v>-847300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1407700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1201600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>308600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>961000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1207300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>440000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-48200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>333000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1437300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1104200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>574700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>709400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2263300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>783400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-434600</v>
+        <v>-504500</v>
       </c>
       <c r="E91" s="3">
-        <v>-519600</v>
+        <v>-420800</v>
       </c>
       <c r="F91" s="3">
-        <v>-880100</v>
+        <v>-503100</v>
       </c>
       <c r="G91" s="3">
-        <v>-355200</v>
+        <v>-852100</v>
       </c>
       <c r="H91" s="3">
-        <v>-379300</v>
+        <v>-343900</v>
       </c>
       <c r="I91" s="3">
-        <v>-421500</v>
+        <v>-367300</v>
       </c>
       <c r="J91" s="3">
+        <v>-408200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-662000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-523700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-632000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-664400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-779200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-668500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-631000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-875100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-940800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-756900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-825000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>575700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5671700</v>
+        <v>-495800</v>
       </c>
       <c r="E94" s="3">
-        <v>-519400</v>
+        <v>-5491400</v>
       </c>
       <c r="F94" s="3">
-        <v>1716200</v>
+        <v>-502900</v>
       </c>
       <c r="G94" s="3">
-        <v>-405700</v>
+        <v>1661600</v>
       </c>
       <c r="H94" s="3">
-        <v>-142900</v>
+        <v>-392800</v>
       </c>
       <c r="I94" s="3">
-        <v>388200</v>
+        <v>-138400</v>
       </c>
       <c r="J94" s="3">
+        <v>375900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-412400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-321400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-554100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-583500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-487500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-260100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-352800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-701100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-949500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-927900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-974900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-477300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-298600</v>
       </c>
       <c r="E96" s="3">
-        <v>-205600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-199000</v>
       </c>
       <c r="G96" s="3">
-        <v>-205600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-199000</v>
       </c>
       <c r="I96" s="3">
-        <v>-308300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-298500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-318800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-320500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-330300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-424000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-210800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-316300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-205900</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>666400</v>
+        <v>-1017900</v>
       </c>
       <c r="E100" s="3">
-        <v>-407000</v>
+        <v>645200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2008900</v>
+        <v>-394000</v>
       </c>
       <c r="G100" s="3">
-        <v>-585500</v>
+        <v>-1945100</v>
       </c>
       <c r="H100" s="3">
-        <v>108200</v>
+        <v>-566900</v>
       </c>
       <c r="I100" s="3">
-        <v>920600</v>
+        <v>104800</v>
       </c>
       <c r="J100" s="3">
+        <v>891300</v>
+      </c>
+      <c r="K100" s="3">
         <v>486900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-674100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1527700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-909400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>363300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-42600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>658200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-521600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-110300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-153600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-221900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>58100</v>
+        <v>252400</v>
       </c>
       <c r="E101" s="3">
-        <v>58000</v>
+        <v>56200</v>
       </c>
       <c r="F101" s="3">
-        <v>828900</v>
+        <v>56100</v>
       </c>
       <c r="G101" s="3">
-        <v>-79100</v>
+        <v>802500</v>
       </c>
       <c r="H101" s="3">
-        <v>-52200</v>
+        <v>-76600</v>
       </c>
       <c r="I101" s="3">
-        <v>-43200</v>
+        <v>-50500</v>
       </c>
       <c r="J101" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-141200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>179600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-73000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-218000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>36100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-196900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>158300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>129100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-406600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>97400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>127600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>29700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-280700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1123500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5727000</v>
+        <v>-729900</v>
       </c>
       <c r="E102" s="3">
-        <v>283300</v>
+        <v>-5545000</v>
       </c>
       <c r="F102" s="3">
-        <v>2064500</v>
+        <v>274300</v>
       </c>
       <c r="G102" s="3">
-        <v>1168000</v>
+        <v>1998900</v>
       </c>
       <c r="H102" s="3">
-        <v>1457900</v>
+        <v>1130900</v>
       </c>
       <c r="I102" s="3">
-        <v>390500</v>
+        <v>1411600</v>
       </c>
       <c r="J102" s="3">
+        <v>378100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1340900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>385700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1209100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-749900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-928500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>120600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-281600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>739400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-247900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-546900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1118400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1102400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16120000</v>
+        <v>15310700</v>
       </c>
       <c r="E8" s="3">
-        <v>14851900</v>
+        <v>14721600</v>
       </c>
       <c r="F8" s="3">
-        <v>15289400</v>
+        <v>13563400</v>
       </c>
       <c r="G8" s="3">
-        <v>15571600</v>
+        <v>13963000</v>
       </c>
       <c r="H8" s="3">
-        <v>15474600</v>
+        <v>14220700</v>
       </c>
       <c r="I8" s="3">
-        <v>14221600</v>
+        <v>14132100</v>
       </c>
       <c r="J8" s="3">
+        <v>12987800</v>
+      </c>
+      <c r="K8" s="3">
         <v>11873000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15285100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17411100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17950800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17322700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18448800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19586200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18574800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18259400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18712800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18570900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18013000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>16862100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17042100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16698500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11627500</v>
+        <v>11060700</v>
       </c>
       <c r="E9" s="3">
-        <v>10728100</v>
+        <v>10618800</v>
       </c>
       <c r="F9" s="3">
-        <v>10798100</v>
+        <v>9797500</v>
       </c>
       <c r="G9" s="3">
-        <v>10832100</v>
+        <v>9861300</v>
       </c>
       <c r="H9" s="3">
-        <v>10778900</v>
+        <v>9892400</v>
       </c>
       <c r="I9" s="3">
-        <v>10071300</v>
+        <v>9843800</v>
       </c>
       <c r="J9" s="3">
+        <v>9197600</v>
+      </c>
+      <c r="K9" s="3">
         <v>8612900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10834500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12305300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12873300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12441200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13007700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14109900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13380700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13159100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13352200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13062600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12689100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11908300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11859300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11737300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4492500</v>
+        <v>4250000</v>
       </c>
       <c r="E10" s="3">
-        <v>4123700</v>
+        <v>4102800</v>
       </c>
       <c r="F10" s="3">
-        <v>4491300</v>
+        <v>3766000</v>
       </c>
       <c r="G10" s="3">
-        <v>4739400</v>
+        <v>4101700</v>
       </c>
       <c r="H10" s="3">
-        <v>4695700</v>
+        <v>4328300</v>
       </c>
       <c r="I10" s="3">
-        <v>4150300</v>
+        <v>4288300</v>
       </c>
       <c r="J10" s="3">
+        <v>3790200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3260100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4450500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5105800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5077500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4881500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5441100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5476200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5194100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5100300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5360600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5508300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5323900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4953800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5182800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4961200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,19 +1163,22 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>34000</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>251000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>31100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>229200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1193,8 +1213,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1208,17 +1228,20 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>188100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>20900</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1279,8 +1302,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15497800</v>
+        <v>14661200</v>
       </c>
       <c r="E17" s="3">
-        <v>14025900</v>
+        <v>14153300</v>
       </c>
       <c r="F17" s="3">
-        <v>14399000</v>
+        <v>12809200</v>
       </c>
       <c r="G17" s="3">
-        <v>15300300</v>
+        <v>13149900</v>
       </c>
       <c r="H17" s="3">
-        <v>14364200</v>
+        <v>13973000</v>
       </c>
       <c r="I17" s="3">
-        <v>13429400</v>
+        <v>13118100</v>
       </c>
       <c r="J17" s="3">
+        <v>12264400</v>
+      </c>
+      <c r="K17" s="3">
         <v>11841000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14817400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16496700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17179700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16806200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17308000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18665300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17689600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17350800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18135700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17484800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16994900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16103400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17032800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15832400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>622300</v>
+        <v>649500</v>
       </c>
       <c r="E18" s="3">
-        <v>825900</v>
+        <v>568300</v>
       </c>
       <c r="F18" s="3">
-        <v>890300</v>
+        <v>754300</v>
       </c>
       <c r="G18" s="3">
-        <v>271300</v>
+        <v>813100</v>
       </c>
       <c r="H18" s="3">
-        <v>1110400</v>
+        <v>247700</v>
       </c>
       <c r="I18" s="3">
-        <v>792200</v>
+        <v>1014000</v>
       </c>
       <c r="J18" s="3">
+        <v>723400</v>
+      </c>
+      <c r="K18" s="3">
         <v>32100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>467600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>914500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>771100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>516500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1140800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>920900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>885200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>908600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>577100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1086100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1018100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>758700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>866100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5700</v>
+        <v>-18400</v>
       </c>
       <c r="E20" s="3">
-        <v>3400</v>
+        <v>5200</v>
       </c>
       <c r="F20" s="3">
-        <v>35500</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
-        <v>76200</v>
+        <v>32400</v>
       </c>
       <c r="H20" s="3">
-        <v>-27800</v>
+        <v>69600</v>
       </c>
       <c r="I20" s="3">
-        <v>-23600</v>
+        <v>-25400</v>
       </c>
       <c r="J20" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-17700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-39500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>32300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1377000</v>
+        <v>1359100</v>
       </c>
       <c r="E21" s="3">
-        <v>1518600</v>
+        <v>1257600</v>
       </c>
       <c r="F21" s="3">
-        <v>1583300</v>
+        <v>1386800</v>
       </c>
       <c r="G21" s="3">
-        <v>1049700</v>
+        <v>1445900</v>
       </c>
       <c r="H21" s="3">
-        <v>1755600</v>
+        <v>958600</v>
       </c>
       <c r="I21" s="3">
-        <v>1433100</v>
+        <v>1603300</v>
       </c>
       <c r="J21" s="3">
+        <v>1308800</v>
+      </c>
+      <c r="K21" s="3">
         <v>695300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1258300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1736800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1623800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1409300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1916600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1622100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1554500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1580700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1230300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1748100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1672200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1373100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>613900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1489300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1670,8 +1710,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1688,156 +1728,165 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3">
         <v>34900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>627900</v>
+        <v>631100</v>
       </c>
       <c r="E23" s="3">
-        <v>829400</v>
+        <v>573500</v>
       </c>
       <c r="F23" s="3">
-        <v>925800</v>
+        <v>757400</v>
       </c>
       <c r="G23" s="3">
-        <v>347500</v>
+        <v>845500</v>
       </c>
       <c r="H23" s="3">
-        <v>1082500</v>
+        <v>317300</v>
       </c>
       <c r="I23" s="3">
-        <v>768600</v>
+        <v>988600</v>
       </c>
       <c r="J23" s="3">
+        <v>701900</v>
+      </c>
+      <c r="K23" s="3">
         <v>26200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>466800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>912400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>750600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>515000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1173700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>916300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>882700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>929400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>588200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1073400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1019800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>741000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-30200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>863600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>260500</v>
+        <v>154000</v>
       </c>
       <c r="E24" s="3">
-        <v>148100</v>
+        <v>237900</v>
       </c>
       <c r="F24" s="3">
-        <v>232800</v>
+        <v>135300</v>
       </c>
       <c r="G24" s="3">
-        <v>9400</v>
+        <v>212600</v>
       </c>
       <c r="H24" s="3">
-        <v>338000</v>
+        <v>8600</v>
       </c>
       <c r="I24" s="3">
-        <v>223600</v>
+        <v>308700</v>
       </c>
       <c r="J24" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K24" s="3">
         <v>85200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>170900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>241200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>296400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>323600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>370200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>225800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>296900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>352300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>269200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>339400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>250000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>367400</v>
+        <v>477100</v>
       </c>
       <c r="E26" s="3">
-        <v>681200</v>
+        <v>335600</v>
       </c>
       <c r="F26" s="3">
-        <v>693000</v>
+        <v>622100</v>
       </c>
       <c r="G26" s="3">
-        <v>338100</v>
+        <v>632900</v>
       </c>
       <c r="H26" s="3">
-        <v>744600</v>
+        <v>308700</v>
       </c>
       <c r="I26" s="3">
-        <v>545000</v>
+        <v>680000</v>
       </c>
       <c r="J26" s="3">
+        <v>497700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-59000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>435600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>741500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>509400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>492500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1108800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>619800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>559100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>559200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>362400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>776500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>667500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>471800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-369600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>613600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>363300</v>
+        <v>465100</v>
       </c>
       <c r="E27" s="3">
-        <v>652600</v>
+        <v>331800</v>
       </c>
       <c r="F27" s="3">
-        <v>652900</v>
+        <v>596000</v>
       </c>
       <c r="G27" s="3">
-        <v>298000</v>
+        <v>596200</v>
       </c>
       <c r="H27" s="3">
-        <v>693300</v>
+        <v>272100</v>
       </c>
       <c r="I27" s="3">
-        <v>500700</v>
+        <v>633100</v>
       </c>
       <c r="J27" s="3">
+        <v>457200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-83900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>419000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>703500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>470000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>456000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1061300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>567300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>522600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>521400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>324800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>734000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>634200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>440800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-426600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>562800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5700</v>
+        <v>18400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3400</v>
+        <v>-5200</v>
       </c>
       <c r="F32" s="3">
-        <v>-35500</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-76200</v>
+        <v>-32400</v>
       </c>
       <c r="H32" s="3">
-        <v>27800</v>
+        <v>-69600</v>
       </c>
       <c r="I32" s="3">
-        <v>23600</v>
+        <v>25400</v>
       </c>
       <c r="J32" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K32" s="3">
         <v>5900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>17700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>39500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-32300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>363300</v>
+        <v>465100</v>
       </c>
       <c r="E33" s="3">
-        <v>652600</v>
+        <v>331800</v>
       </c>
       <c r="F33" s="3">
-        <v>652900</v>
+        <v>596000</v>
       </c>
       <c r="G33" s="3">
-        <v>298000</v>
+        <v>596200</v>
       </c>
       <c r="H33" s="3">
-        <v>693300</v>
+        <v>272100</v>
       </c>
       <c r="I33" s="3">
-        <v>500700</v>
+        <v>633100</v>
       </c>
       <c r="J33" s="3">
+        <v>457200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-83900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>419000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>703500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>470000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>456000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1061300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>567300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>522600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>521400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>324800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>734000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>634200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>440800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-426600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>562800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>363300</v>
+        <v>465100</v>
       </c>
       <c r="E35" s="3">
-        <v>652600</v>
+        <v>331800</v>
       </c>
       <c r="F35" s="3">
-        <v>652900</v>
+        <v>596000</v>
       </c>
       <c r="G35" s="3">
-        <v>298000</v>
+        <v>596200</v>
       </c>
       <c r="H35" s="3">
-        <v>693300</v>
+        <v>272100</v>
       </c>
       <c r="I35" s="3">
-        <v>500700</v>
+        <v>633100</v>
       </c>
       <c r="J35" s="3">
+        <v>457200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-83900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>419000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>703500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>470000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>456000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1061300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>567300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>522600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>521400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>324800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>734000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>634200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>440800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-426600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>562800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,629 +2833,654 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7589500</v>
+        <v>9393800</v>
       </c>
       <c r="E41" s="3">
-        <v>8319500</v>
+        <v>6931100</v>
       </c>
       <c r="F41" s="3">
-        <v>13864500</v>
+        <v>7597700</v>
       </c>
       <c r="G41" s="3">
-        <v>13590200</v>
+        <v>12661700</v>
       </c>
       <c r="H41" s="3">
-        <v>11591300</v>
+        <v>12411200</v>
       </c>
       <c r="I41" s="3">
-        <v>10460500</v>
+        <v>10585700</v>
       </c>
       <c r="J41" s="3">
+        <v>9553000</v>
+      </c>
+      <c r="K41" s="3">
         <v>9048900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8955400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7873800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7553900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6324100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7421500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8202200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9955100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9622800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9849800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9110400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9358400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9905300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11271900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10167700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1368700</v>
+        <v>1640800</v>
       </c>
       <c r="E42" s="3">
-        <v>1203100</v>
+        <v>1250000</v>
       </c>
       <c r="F42" s="3">
-        <v>1200700</v>
+        <v>1098700</v>
       </c>
       <c r="G42" s="3">
-        <v>1276300</v>
+        <v>1096500</v>
       </c>
       <c r="H42" s="3">
-        <v>1116600</v>
+        <v>1165600</v>
       </c>
       <c r="I42" s="3">
-        <v>1042100</v>
+        <v>1019700</v>
       </c>
       <c r="J42" s="3">
+        <v>951700</v>
+      </c>
+      <c r="K42" s="3">
         <v>885400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1307700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1276400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1234800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1079700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1261800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1453500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1834300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2216400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1840200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1370300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1305300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1359400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10833500</v>
+        <v>10318800</v>
       </c>
       <c r="E43" s="3">
-        <v>10272400</v>
+        <v>9893700</v>
       </c>
       <c r="F43" s="3">
-        <v>10078800</v>
+        <v>9381300</v>
       </c>
       <c r="G43" s="3">
-        <v>10188200</v>
+        <v>9204400</v>
       </c>
       <c r="H43" s="3">
-        <v>9808100</v>
+        <v>9304300</v>
       </c>
       <c r="I43" s="3">
-        <v>9188600</v>
+        <v>8957200</v>
       </c>
       <c r="J43" s="3">
+        <v>8391400</v>
+      </c>
+      <c r="K43" s="3">
         <v>8684800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9261100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10254000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10850800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10566300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11441900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11046700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10690200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9936000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9392400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9350000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9295400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>8475100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7512900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8383500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9034300</v>
+        <v>8823500</v>
       </c>
       <c r="E44" s="3">
-        <v>8496200</v>
+        <v>8250600</v>
       </c>
       <c r="F44" s="3">
-        <v>7830000</v>
+        <v>7759200</v>
       </c>
       <c r="G44" s="3">
-        <v>7101800</v>
+        <v>7150700</v>
       </c>
       <c r="H44" s="3">
-        <v>6790800</v>
+        <v>6485700</v>
       </c>
       <c r="I44" s="3">
-        <v>6769200</v>
+        <v>6201700</v>
       </c>
       <c r="J44" s="3">
+        <v>6182000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7190900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6990900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7997800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9239800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9544700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9768000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10414700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10017000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9418500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8937000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9474900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8784700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>8188700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7152000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7391100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1348000</v>
+        <v>1226200</v>
       </c>
       <c r="E45" s="3">
-        <v>1254400</v>
+        <v>1231100</v>
       </c>
       <c r="F45" s="3">
-        <v>1352500</v>
+        <v>1145600</v>
       </c>
       <c r="G45" s="3">
-        <v>1304500</v>
+        <v>1235100</v>
       </c>
       <c r="H45" s="3">
-        <v>1522800</v>
+        <v>1191400</v>
       </c>
       <c r="I45" s="3">
-        <v>1400000</v>
+        <v>1390700</v>
       </c>
       <c r="J45" s="3">
+        <v>1278600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2010000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3754600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9011500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3657900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1814100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1570900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1877700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1738200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1664900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1493600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1548200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1420800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1613100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1217000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4283600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30174100</v>
+        <v>31403000</v>
       </c>
       <c r="E46" s="3">
-        <v>29545600</v>
+        <v>27556400</v>
       </c>
       <c r="F46" s="3">
-        <v>34326300</v>
+        <v>26982500</v>
       </c>
       <c r="G46" s="3">
-        <v>33461000</v>
+        <v>31348400</v>
       </c>
       <c r="H46" s="3">
-        <v>30829600</v>
+        <v>30558200</v>
       </c>
       <c r="I46" s="3">
-        <v>28860400</v>
+        <v>28155100</v>
       </c>
       <c r="J46" s="3">
+        <v>26356700</v>
+      </c>
+      <c r="K46" s="3">
         <v>27820000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30269700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36413500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32537100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29328900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31464000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32994900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34234800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32858600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31513100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30853900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30164500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29541600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>28426700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30226000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4965200</v>
+        <v>4800400</v>
       </c>
       <c r="E47" s="3">
-        <v>5106300</v>
+        <v>4534500</v>
       </c>
       <c r="F47" s="3">
-        <v>5764800</v>
+        <v>4663300</v>
       </c>
       <c r="G47" s="3">
-        <v>5860000</v>
+        <v>5264600</v>
       </c>
       <c r="H47" s="3">
-        <v>7602500</v>
+        <v>5351600</v>
       </c>
       <c r="I47" s="3">
-        <v>6871000</v>
+        <v>6942900</v>
       </c>
       <c r="J47" s="3">
+        <v>6274900</v>
+      </c>
+      <c r="K47" s="3">
         <v>6157500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4600200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3092700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3171800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3358500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3389600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3038200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2861000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2984200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2842400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3008100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2987700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2901200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2820400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3053000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11186200</v>
+        <v>10696100</v>
       </c>
       <c r="E48" s="3">
-        <v>11158600</v>
+        <v>10215800</v>
       </c>
       <c r="F48" s="3">
-        <v>11193900</v>
+        <v>10190600</v>
       </c>
       <c r="G48" s="3">
-        <v>11187700</v>
+        <v>10222800</v>
       </c>
       <c r="H48" s="3">
-        <v>10596000</v>
+        <v>10217100</v>
       </c>
       <c r="I48" s="3">
-        <v>10731300</v>
+        <v>9676700</v>
       </c>
       <c r="J48" s="3">
+        <v>9800300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10875000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11415200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12299100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15781700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17067500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12727200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12503100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12460500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12044500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12421600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13070000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12836900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12427600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11737500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11622200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>13708200</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>13342300</v>
+        <v>12519000</v>
       </c>
       <c r="F49" s="3">
-        <v>5121700</v>
+        <v>12184800</v>
       </c>
       <c r="G49" s="3">
-        <v>5135400</v>
+        <v>4677400</v>
       </c>
       <c r="H49" s="3">
-        <v>5184500</v>
+        <v>4689900</v>
       </c>
       <c r="I49" s="3">
-        <v>5229900</v>
+        <v>4734800</v>
       </c>
       <c r="J49" s="3">
+        <v>4776200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5265000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5467600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6044300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6071400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6421400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6914900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6975600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6982600</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3377,17 +3488,20 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
         <v>5899700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7114500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2890100</v>
+        <v>15604200</v>
       </c>
       <c r="E52" s="3">
-        <v>2905900</v>
+        <v>2639400</v>
       </c>
       <c r="F52" s="3">
-        <v>2840000</v>
+        <v>2653800</v>
       </c>
       <c r="G52" s="3">
-        <v>2761400</v>
+        <v>2593700</v>
       </c>
       <c r="H52" s="3">
-        <v>2706100</v>
+        <v>2521900</v>
       </c>
       <c r="I52" s="3">
-        <v>2765700</v>
+        <v>2471300</v>
       </c>
       <c r="J52" s="3">
+        <v>2525800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2847000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3032500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3284700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3332800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3392200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3298100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3600300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3498500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10157200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3421200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10697500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10809400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10784400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4184500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2490500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62923900</v>
+        <v>62503700</v>
       </c>
       <c r="E54" s="3">
-        <v>62058700</v>
+        <v>57465100</v>
       </c>
       <c r="F54" s="3">
-        <v>59246800</v>
+        <v>56674900</v>
       </c>
       <c r="G54" s="3">
-        <v>58405500</v>
+        <v>54106900</v>
       </c>
       <c r="H54" s="3">
-        <v>56918600</v>
+        <v>53338700</v>
       </c>
       <c r="I54" s="3">
-        <v>54458300</v>
+        <v>51980800</v>
       </c>
       <c r="J54" s="3">
+        <v>49733900</v>
+      </c>
+      <c r="K54" s="3">
         <v>52964500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54785100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61134300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60894800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>59568600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57793900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59112100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60037400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>58044400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56872000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57629500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56798500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>55654700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>53068900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>54506200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9551900</v>
+        <v>12964000</v>
       </c>
       <c r="E57" s="3">
-        <v>9159800</v>
+        <v>8723200</v>
       </c>
       <c r="F57" s="3">
-        <v>9127000</v>
+        <v>8365100</v>
       </c>
       <c r="G57" s="3">
-        <v>8919100</v>
+        <v>8335300</v>
       </c>
       <c r="H57" s="3">
-        <v>8244100</v>
+        <v>8145400</v>
       </c>
       <c r="I57" s="3">
-        <v>7480600</v>
+        <v>7528900</v>
       </c>
       <c r="J57" s="3">
+        <v>6831600</v>
+      </c>
+      <c r="K57" s="3">
         <v>7255600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8543000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9305300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9780500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10150400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11062800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11331900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11005700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10511700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10364100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10254300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9923500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9363400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>8479400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8700400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2678900</v>
+        <v>3843700</v>
       </c>
       <c r="E58" s="3">
-        <v>6628400</v>
+        <v>2446500</v>
       </c>
       <c r="F58" s="3">
-        <v>3197100</v>
+        <v>6053400</v>
       </c>
       <c r="G58" s="3">
-        <v>3148700</v>
+        <v>2919800</v>
       </c>
       <c r="H58" s="3">
-        <v>4208500</v>
+        <v>2875600</v>
       </c>
       <c r="I58" s="3">
-        <v>6137700</v>
+        <v>3843400</v>
       </c>
       <c r="J58" s="3">
+        <v>5605200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4218000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2775100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3029200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3462300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4022900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3747500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3093600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4652200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4131900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3393500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1725000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1660200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1652900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1570300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>219800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11161100</v>
+        <v>7072300</v>
       </c>
       <c r="E59" s="3">
-        <v>11137800</v>
+        <v>10192900</v>
       </c>
       <c r="F59" s="3">
-        <v>11892600</v>
+        <v>10171500</v>
       </c>
       <c r="G59" s="3">
-        <v>11853100</v>
+        <v>10860900</v>
       </c>
       <c r="H59" s="3">
-        <v>10920700</v>
+        <v>10824800</v>
       </c>
       <c r="I59" s="3">
-        <v>10358200</v>
+        <v>9973300</v>
       </c>
       <c r="J59" s="3">
+        <v>9459600</v>
+      </c>
+      <c r="K59" s="3">
         <v>10516100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11729800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16897600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13430800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13528400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13918400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14190600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14163400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14387700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14247600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14958100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14818300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15005300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14006300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12533100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23391900</v>
+        <v>23880000</v>
       </c>
       <c r="E60" s="3">
-        <v>26925900</v>
+        <v>21362600</v>
       </c>
       <c r="F60" s="3">
-        <v>24216800</v>
+        <v>24590000</v>
       </c>
       <c r="G60" s="3">
-        <v>23920900</v>
+        <v>22115900</v>
       </c>
       <c r="H60" s="3">
-        <v>23373300</v>
+        <v>21845700</v>
       </c>
       <c r="I60" s="3">
-        <v>23976400</v>
+        <v>21345600</v>
       </c>
       <c r="J60" s="3">
+        <v>21896400</v>
+      </c>
+      <c r="K60" s="3">
         <v>21989700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23047900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29232100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26673600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27701700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28728600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28616200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29821400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29031300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28005300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26937300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26402000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26021600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24056000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21453400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11702900</v>
+        <v>10936200</v>
       </c>
       <c r="E61" s="3">
-        <v>8301800</v>
+        <v>10687600</v>
       </c>
       <c r="F61" s="3">
-        <v>9223400</v>
+        <v>7581600</v>
       </c>
       <c r="G61" s="3">
-        <v>9197800</v>
+        <v>8423300</v>
       </c>
       <c r="H61" s="3">
-        <v>9662500</v>
+        <v>8399900</v>
       </c>
       <c r="I61" s="3">
-        <v>8100400</v>
+        <v>8824200</v>
       </c>
       <c r="J61" s="3">
+        <v>7397600</v>
+      </c>
+      <c r="K61" s="3">
         <v>9842400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10187100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9626900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12764200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10550900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5850200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7834600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7722100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7561500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7811000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8742800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8783300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8782800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8399600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9757300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1968400</v>
+        <v>1613100</v>
       </c>
       <c r="E62" s="3">
-        <v>1782600</v>
+        <v>1797600</v>
       </c>
       <c r="F62" s="3">
-        <v>1630200</v>
+        <v>1627900</v>
       </c>
       <c r="G62" s="3">
-        <v>1671500</v>
+        <v>1488800</v>
       </c>
       <c r="H62" s="3">
-        <v>3042700</v>
+        <v>1526500</v>
       </c>
       <c r="I62" s="3">
-        <v>2701200</v>
+        <v>2778700</v>
       </c>
       <c r="J62" s="3">
+        <v>2466900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2640900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2556900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2740400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2843400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3030500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3181900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3974200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3959200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4004300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4039800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4534000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4657500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4589900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5002700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5716900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38572400</v>
+        <v>37848700</v>
       </c>
       <c r="E66" s="3">
-        <v>38483900</v>
+        <v>35226200</v>
       </c>
       <c r="F66" s="3">
-        <v>36535000</v>
+        <v>35145300</v>
       </c>
       <c r="G66" s="3">
-        <v>36278400</v>
+        <v>33365500</v>
       </c>
       <c r="H66" s="3">
-        <v>37452100</v>
+        <v>33131200</v>
       </c>
       <c r="I66" s="3">
-        <v>36081900</v>
+        <v>34203000</v>
       </c>
       <c r="J66" s="3">
+        <v>32951700</v>
+      </c>
+      <c r="K66" s="3">
         <v>35737200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37179700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43123400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43742800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42774700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39405000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42031400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43063400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42103500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41435700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41835200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41551600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>40942000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>39126200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>38227700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19596900</v>
+        <v>18596900</v>
       </c>
       <c r="E72" s="3">
-        <v>19489800</v>
+        <v>17896800</v>
       </c>
       <c r="F72" s="3">
-        <v>18841600</v>
+        <v>17799000</v>
       </c>
       <c r="G72" s="3">
-        <v>18373800</v>
+        <v>17207000</v>
       </c>
       <c r="H72" s="3">
-        <v>15376400</v>
+        <v>16779800</v>
       </c>
       <c r="I72" s="3">
-        <v>14874300</v>
+        <v>14042400</v>
       </c>
       <c r="J72" s="3">
+        <v>13584000</v>
+      </c>
+      <c r="K72" s="3">
         <v>13652500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14504800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14482200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14210100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13693700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14423400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13260200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12808600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12020300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11755000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11222300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10661300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10052200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9326300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11377000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24351500</v>
+        <v>24655100</v>
       </c>
       <c r="E76" s="3">
-        <v>23574800</v>
+        <v>22238900</v>
       </c>
       <c r="F76" s="3">
-        <v>22711800</v>
+        <v>21529600</v>
       </c>
       <c r="G76" s="3">
-        <v>22127100</v>
+        <v>20741500</v>
       </c>
       <c r="H76" s="3">
-        <v>19466600</v>
+        <v>20207500</v>
       </c>
       <c r="I76" s="3">
-        <v>18376400</v>
+        <v>17777800</v>
       </c>
       <c r="J76" s="3">
+        <v>16782200</v>
+      </c>
+      <c r="K76" s="3">
         <v>17227300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17605500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18010900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17152000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16793900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18388900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17080700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16974000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15940900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15436300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15794300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15247000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14712700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13942700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>16278500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>363300</v>
+        <v>465100</v>
       </c>
       <c r="E81" s="3">
-        <v>652600</v>
+        <v>331800</v>
       </c>
       <c r="F81" s="3">
-        <v>652900</v>
+        <v>596000</v>
       </c>
       <c r="G81" s="3">
-        <v>298000</v>
+        <v>596200</v>
       </c>
       <c r="H81" s="3">
-        <v>693300</v>
+        <v>272100</v>
       </c>
       <c r="I81" s="3">
-        <v>500700</v>
+        <v>633100</v>
       </c>
       <c r="J81" s="3">
+        <v>457200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-83900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>419000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>703500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>470000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>456000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1061300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>567300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>522600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>521400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>324800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>734000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>634200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>440800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-426600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>562800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>749100</v>
+        <v>728000</v>
       </c>
       <c r="E83" s="3">
-        <v>689200</v>
+        <v>684100</v>
       </c>
       <c r="F83" s="3">
-        <v>657500</v>
+        <v>629400</v>
       </c>
       <c r="G83" s="3">
-        <v>702200</v>
+        <v>600500</v>
       </c>
       <c r="H83" s="3">
-        <v>673100</v>
+        <v>641300</v>
       </c>
       <c r="I83" s="3">
-        <v>664500</v>
+        <v>614700</v>
       </c>
       <c r="J83" s="3">
+        <v>606900</v>
+      </c>
+      <c r="K83" s="3">
         <v>669100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>791500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>824400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>873200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>894300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>742900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>705800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>671900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>651300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>642100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>674700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>652400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>632000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>644100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>590800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>531300</v>
+        <v>1154000</v>
       </c>
       <c r="E89" s="3">
-        <v>-755000</v>
+        <v>485200</v>
       </c>
       <c r="F89" s="3">
-        <v>1115100</v>
+        <v>-689500</v>
       </c>
       <c r="G89" s="3">
-        <v>1479800</v>
+        <v>1018300</v>
       </c>
       <c r="H89" s="3">
-        <v>2167100</v>
+        <v>1351400</v>
       </c>
       <c r="I89" s="3">
-        <v>1495700</v>
+        <v>1979100</v>
       </c>
       <c r="J89" s="3">
+        <v>1365900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-847300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1407700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1201600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>308600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>961000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1207300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>440000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-48200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>333000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1437300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1104200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>574700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>709400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2263300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>783400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-504500</v>
+        <v>-518100</v>
       </c>
       <c r="E91" s="3">
-        <v>-420800</v>
+        <v>-460800</v>
       </c>
       <c r="F91" s="3">
-        <v>-503100</v>
+        <v>-384300</v>
       </c>
       <c r="G91" s="3">
-        <v>-852100</v>
+        <v>-459400</v>
       </c>
       <c r="H91" s="3">
-        <v>-343900</v>
+        <v>-778200</v>
       </c>
       <c r="I91" s="3">
-        <v>-367300</v>
+        <v>-314100</v>
       </c>
       <c r="J91" s="3">
+        <v>-335400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-408200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-662000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-523700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-632000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-664400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-779200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-668500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-631000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-875100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-940800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-756900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-825000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>575700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-495800</v>
+        <v>-275000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5491400</v>
+        <v>-452800</v>
       </c>
       <c r="F94" s="3">
-        <v>-502900</v>
+        <v>-5015000</v>
       </c>
       <c r="G94" s="3">
-        <v>1661600</v>
+        <v>-459300</v>
       </c>
       <c r="H94" s="3">
-        <v>-392800</v>
+        <v>1517500</v>
       </c>
       <c r="I94" s="3">
-        <v>-138400</v>
+        <v>-358700</v>
       </c>
       <c r="J94" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K94" s="3">
         <v>375900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-412400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-321400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-554100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-583500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-487500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-260100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-352800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-701100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-949500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-927900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-974900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-477300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-298600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-272700</v>
       </c>
       <c r="F96" s="3">
-        <v>-199000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-181800</v>
       </c>
       <c r="H96" s="3">
-        <v>-199000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-181800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-298500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-318800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-320500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-330300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-424000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-210800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-316300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-205900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1017900</v>
+        <v>1159100</v>
       </c>
       <c r="E100" s="3">
-        <v>645200</v>
+        <v>-929600</v>
       </c>
       <c r="F100" s="3">
-        <v>-394000</v>
+        <v>589300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1945100</v>
+        <v>-359900</v>
       </c>
       <c r="H100" s="3">
-        <v>-566900</v>
+        <v>-1776300</v>
       </c>
       <c r="I100" s="3">
-        <v>104800</v>
+        <v>-517700</v>
       </c>
       <c r="J100" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K100" s="3">
         <v>891300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>486900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-674100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1527700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-909400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>363300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-42600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>658200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-521600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-110300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-153600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-221900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>252400</v>
+        <v>424500</v>
       </c>
       <c r="E101" s="3">
-        <v>56200</v>
+        <v>230500</v>
       </c>
       <c r="F101" s="3">
-        <v>56100</v>
+        <v>51400</v>
       </c>
       <c r="G101" s="3">
-        <v>802500</v>
+        <v>51200</v>
       </c>
       <c r="H101" s="3">
-        <v>-76600</v>
+        <v>732900</v>
       </c>
       <c r="I101" s="3">
-        <v>-50500</v>
+        <v>-69900</v>
       </c>
       <c r="J101" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-41800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-141200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>179600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-73000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-218000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>36100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-196900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>158300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>129100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-406600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>97400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>127600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>29700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-280700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1123500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-729900</v>
+        <v>2462600</v>
       </c>
       <c r="E102" s="3">
-        <v>-5545000</v>
+        <v>-666600</v>
       </c>
       <c r="F102" s="3">
-        <v>274300</v>
+        <v>-5063900</v>
       </c>
       <c r="G102" s="3">
-        <v>1998900</v>
+        <v>250500</v>
       </c>
       <c r="H102" s="3">
-        <v>1130900</v>
+        <v>1825500</v>
       </c>
       <c r="I102" s="3">
-        <v>1411600</v>
+        <v>1032800</v>
       </c>
       <c r="J102" s="3">
+        <v>1289100</v>
+      </c>
+      <c r="K102" s="3">
         <v>378100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1340900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>385700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1209100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-749900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-928500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>120600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-281600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>739400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-247900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-546900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1118400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1102400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15310700</v>
+        <v>14468400</v>
       </c>
       <c r="E8" s="3">
-        <v>14721600</v>
+        <v>14406600</v>
       </c>
       <c r="F8" s="3">
-        <v>13563400</v>
+        <v>13852200</v>
       </c>
       <c r="G8" s="3">
-        <v>13963000</v>
+        <v>12762500</v>
       </c>
       <c r="H8" s="3">
-        <v>14220700</v>
+        <v>13138400</v>
       </c>
       <c r="I8" s="3">
-        <v>14132100</v>
+        <v>13381000</v>
       </c>
       <c r="J8" s="3">
+        <v>13297600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12987800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11873000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15285100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17411100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17950800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17322700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18448800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19586200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18574800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18259400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18712800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18570900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18013000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>16862100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>17042100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16698500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11060700</v>
+        <v>10601200</v>
       </c>
       <c r="E9" s="3">
-        <v>10618800</v>
+        <v>10407600</v>
       </c>
       <c r="F9" s="3">
-        <v>9797500</v>
+        <v>9991700</v>
       </c>
       <c r="G9" s="3">
-        <v>9861300</v>
+        <v>9218900</v>
       </c>
       <c r="H9" s="3">
-        <v>9892400</v>
+        <v>9279000</v>
       </c>
       <c r="I9" s="3">
-        <v>9843800</v>
+        <v>9308300</v>
       </c>
       <c r="J9" s="3">
+        <v>9262500</v>
+      </c>
+      <c r="K9" s="3">
         <v>9197600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8612900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10834500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12305300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12873300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12441200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13007700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14109900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13380700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13159100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13352200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13062600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12689100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>11908300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11859300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11737300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4250000</v>
+        <v>3867200</v>
       </c>
       <c r="E10" s="3">
-        <v>4102800</v>
+        <v>3999000</v>
       </c>
       <c r="F10" s="3">
-        <v>3766000</v>
+        <v>3860500</v>
       </c>
       <c r="G10" s="3">
-        <v>4101700</v>
+        <v>3543600</v>
       </c>
       <c r="H10" s="3">
-        <v>4328300</v>
+        <v>3859500</v>
       </c>
       <c r="I10" s="3">
-        <v>4288300</v>
+        <v>4072700</v>
       </c>
       <c r="J10" s="3">
+        <v>4035100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3790200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3260100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4450500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5105800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5077500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4881500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5441100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5476200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5194100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5100300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5360600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5508300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5323900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4953800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5182800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4961200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,13 +1195,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>31100</v>
+        <v>21900</v>
       </c>
       <c r="F14" s="3">
-        <v>229200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>29200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>215700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1215,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1216,8 +1236,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1231,17 +1251,20 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>188100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>20900</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1305,8 +1328,8 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14661200</v>
+        <v>14001500</v>
       </c>
       <c r="E17" s="3">
-        <v>14153300</v>
+        <v>13795500</v>
       </c>
       <c r="F17" s="3">
-        <v>12809200</v>
+        <v>13317500</v>
       </c>
       <c r="G17" s="3">
-        <v>13149900</v>
+        <v>12052800</v>
       </c>
       <c r="H17" s="3">
-        <v>13973000</v>
+        <v>12373400</v>
       </c>
       <c r="I17" s="3">
-        <v>13118100</v>
+        <v>13147900</v>
       </c>
       <c r="J17" s="3">
+        <v>12343400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12264400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11841000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14817400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16496700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17179700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16806200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17308000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18665300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17689600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17350800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18135700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17484800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16994900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16103400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17032800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>15832400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>649500</v>
+        <v>466900</v>
       </c>
       <c r="E18" s="3">
-        <v>568300</v>
+        <v>611100</v>
       </c>
       <c r="F18" s="3">
-        <v>754300</v>
+        <v>534700</v>
       </c>
       <c r="G18" s="3">
-        <v>813100</v>
+        <v>709700</v>
       </c>
       <c r="H18" s="3">
-        <v>247700</v>
+        <v>765100</v>
       </c>
       <c r="I18" s="3">
-        <v>1014000</v>
+        <v>233100</v>
       </c>
       <c r="J18" s="3">
+        <v>954200</v>
+      </c>
+      <c r="K18" s="3">
         <v>723400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>467600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>914500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>771100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>516500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1140800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>920900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>885200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>908600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>577100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1086100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1018100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>758700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>866100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18400</v>
+        <v>72200</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>-17300</v>
       </c>
       <c r="F20" s="3">
-        <v>3100</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
-        <v>32400</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="3">
-        <v>69600</v>
+        <v>30500</v>
       </c>
       <c r="I20" s="3">
-        <v>-25400</v>
+        <v>65500</v>
       </c>
       <c r="J20" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-21500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>20800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-17700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-39500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>32300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1359100</v>
+        <v>1221900</v>
       </c>
       <c r="E21" s="3">
-        <v>1257600</v>
+        <v>1278900</v>
       </c>
       <c r="F21" s="3">
-        <v>1386800</v>
+        <v>1183300</v>
       </c>
       <c r="G21" s="3">
-        <v>1445900</v>
+        <v>1304900</v>
       </c>
       <c r="H21" s="3">
-        <v>958600</v>
+        <v>1360600</v>
       </c>
       <c r="I21" s="3">
-        <v>1603300</v>
+        <v>902000</v>
       </c>
       <c r="J21" s="3">
+        <v>1508600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1308800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>695300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1258300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1736800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1623800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1409300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1916600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1622100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1554500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1580700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1230300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1748100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1672200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1373100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>613900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1489300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1713,8 +1753,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1731,162 +1771,171 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>34900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>631100</v>
+        <v>539100</v>
       </c>
       <c r="E23" s="3">
-        <v>573500</v>
+        <v>593900</v>
       </c>
       <c r="F23" s="3">
-        <v>757400</v>
+        <v>539600</v>
       </c>
       <c r="G23" s="3">
-        <v>845500</v>
+        <v>712700</v>
       </c>
       <c r="H23" s="3">
-        <v>317300</v>
+        <v>795600</v>
       </c>
       <c r="I23" s="3">
-        <v>988600</v>
+        <v>298600</v>
       </c>
       <c r="J23" s="3">
+        <v>930200</v>
+      </c>
+      <c r="K23" s="3">
         <v>701900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>466800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>912400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>750600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>515000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1173700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>916300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>882700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>929400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>588200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1073400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1019800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>741000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>863600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>154000</v>
+        <v>153800</v>
       </c>
       <c r="E24" s="3">
-        <v>237900</v>
+        <v>144900</v>
       </c>
       <c r="F24" s="3">
-        <v>135300</v>
+        <v>223800</v>
       </c>
       <c r="G24" s="3">
-        <v>212600</v>
+        <v>127300</v>
       </c>
       <c r="H24" s="3">
-        <v>8600</v>
+        <v>200000</v>
       </c>
       <c r="I24" s="3">
-        <v>308700</v>
+        <v>8100</v>
       </c>
       <c r="J24" s="3">
+        <v>290400</v>
+      </c>
+      <c r="K24" s="3">
         <v>204200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>170900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>241200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>64900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>296400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>323600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>370200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>225800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>296900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>352300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>269200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>339400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>250000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>477100</v>
+        <v>385300</v>
       </c>
       <c r="E26" s="3">
-        <v>335600</v>
+        <v>449000</v>
       </c>
       <c r="F26" s="3">
-        <v>622100</v>
+        <v>315700</v>
       </c>
       <c r="G26" s="3">
-        <v>632900</v>
+        <v>585400</v>
       </c>
       <c r="H26" s="3">
-        <v>308700</v>
+        <v>595500</v>
       </c>
       <c r="I26" s="3">
-        <v>680000</v>
+        <v>290500</v>
       </c>
       <c r="J26" s="3">
+        <v>639800</v>
+      </c>
+      <c r="K26" s="3">
         <v>497700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-59000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>435600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>741500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>509400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>492500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1108800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>619800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>559100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>559200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>362400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>776500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>667500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>471800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-369600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>613600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>465100</v>
+        <v>358800</v>
       </c>
       <c r="E27" s="3">
-        <v>331800</v>
+        <v>437500</v>
       </c>
       <c r="F27" s="3">
-        <v>596000</v>
+        <v>312200</v>
       </c>
       <c r="G27" s="3">
-        <v>596200</v>
+        <v>560800</v>
       </c>
       <c r="H27" s="3">
-        <v>272100</v>
+        <v>561000</v>
       </c>
       <c r="I27" s="3">
-        <v>633100</v>
+        <v>256100</v>
       </c>
       <c r="J27" s="3">
+        <v>595700</v>
+      </c>
+      <c r="K27" s="3">
         <v>457200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-83900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>419000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>703500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>470000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>456000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1061300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>567300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>522600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>521400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>324800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>734000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>634200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>440800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-426600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>562800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18400</v>
+        <v>-72200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>17300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3100</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
-        <v>-32400</v>
+        <v>-3000</v>
       </c>
       <c r="H32" s="3">
-        <v>-69600</v>
+        <v>-30500</v>
       </c>
       <c r="I32" s="3">
-        <v>25400</v>
+        <v>-65500</v>
       </c>
       <c r="J32" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K32" s="3">
         <v>21500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-20800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>17700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>39500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-32300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>465100</v>
+        <v>358800</v>
       </c>
       <c r="E33" s="3">
-        <v>331800</v>
+        <v>437500</v>
       </c>
       <c r="F33" s="3">
-        <v>596000</v>
+        <v>312200</v>
       </c>
       <c r="G33" s="3">
-        <v>596200</v>
+        <v>560800</v>
       </c>
       <c r="H33" s="3">
-        <v>272100</v>
+        <v>561000</v>
       </c>
       <c r="I33" s="3">
-        <v>633100</v>
+        <v>256100</v>
       </c>
       <c r="J33" s="3">
+        <v>595700</v>
+      </c>
+      <c r="K33" s="3">
         <v>457200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-83900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>419000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>703500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>470000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>456000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1061300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>567300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>522600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>521400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>324800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>734000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>634200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>440800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-426600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>562800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>465100</v>
+        <v>358800</v>
       </c>
       <c r="E35" s="3">
-        <v>331800</v>
+        <v>437500</v>
       </c>
       <c r="F35" s="3">
-        <v>596000</v>
+        <v>312200</v>
       </c>
       <c r="G35" s="3">
-        <v>596200</v>
+        <v>560800</v>
       </c>
       <c r="H35" s="3">
-        <v>272100</v>
+        <v>561000</v>
       </c>
       <c r="I35" s="3">
-        <v>633100</v>
+        <v>256100</v>
       </c>
       <c r="J35" s="3">
+        <v>595700</v>
+      </c>
+      <c r="K35" s="3">
         <v>457200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-83900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>419000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>703500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>470000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>456000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1061300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>567300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>522600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>521400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>324800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>734000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>634200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>440800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-426600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>562800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,656 +2920,681 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9393800</v>
+        <v>6948000</v>
       </c>
       <c r="E41" s="3">
-        <v>6931100</v>
+        <v>8839000</v>
       </c>
       <c r="F41" s="3">
-        <v>7597700</v>
+        <v>6521800</v>
       </c>
       <c r="G41" s="3">
-        <v>12661700</v>
+        <v>7149100</v>
       </c>
       <c r="H41" s="3">
-        <v>12411200</v>
+        <v>11914000</v>
       </c>
       <c r="I41" s="3">
-        <v>10585700</v>
+        <v>11678300</v>
       </c>
       <c r="J41" s="3">
+        <v>9960700</v>
+      </c>
+      <c r="K41" s="3">
         <v>9553000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9048900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8955400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7873800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7553900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6324100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7421500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8202200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9955100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9622800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9849800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9110400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9358400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9905300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11271900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>10167700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1640800</v>
+        <v>1662800</v>
       </c>
       <c r="E42" s="3">
-        <v>1250000</v>
+        <v>1543900</v>
       </c>
       <c r="F42" s="3">
-        <v>1098700</v>
+        <v>1176100</v>
       </c>
       <c r="G42" s="3">
-        <v>1096500</v>
+        <v>1033800</v>
       </c>
       <c r="H42" s="3">
-        <v>1165600</v>
+        <v>1031700</v>
       </c>
       <c r="I42" s="3">
-        <v>1019700</v>
+        <v>1096800</v>
       </c>
       <c r="J42" s="3">
+        <v>959500</v>
+      </c>
+      <c r="K42" s="3">
         <v>951700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>885400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1307700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1276400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1234800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1079700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1261800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1453500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1834300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2216400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1840200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1370300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1305300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1359400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10318800</v>
+        <v>9984600</v>
       </c>
       <c r="E43" s="3">
-        <v>9893700</v>
+        <v>9709400</v>
       </c>
       <c r="F43" s="3">
-        <v>9381300</v>
+        <v>9309500</v>
       </c>
       <c r="G43" s="3">
-        <v>9204400</v>
+        <v>8827300</v>
       </c>
       <c r="H43" s="3">
-        <v>9304300</v>
+        <v>8660900</v>
       </c>
       <c r="I43" s="3">
-        <v>8957200</v>
+        <v>8754900</v>
       </c>
       <c r="J43" s="3">
+        <v>8428300</v>
+      </c>
+      <c r="K43" s="3">
         <v>8391400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8684800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9261100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10254000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10850800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10566300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11441900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11046700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10690200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9936000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9392400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9350000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9295400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>8475100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7512900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8383500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8823500</v>
+        <v>9675700</v>
       </c>
       <c r="E44" s="3">
-        <v>8250600</v>
+        <v>8302400</v>
       </c>
       <c r="F44" s="3">
-        <v>7759200</v>
+        <v>7763400</v>
       </c>
       <c r="G44" s="3">
-        <v>7150700</v>
+        <v>7301000</v>
       </c>
       <c r="H44" s="3">
-        <v>6485700</v>
+        <v>6728400</v>
       </c>
       <c r="I44" s="3">
-        <v>6201700</v>
+        <v>6102700</v>
       </c>
       <c r="J44" s="3">
+        <v>5835500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6182000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7190900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6990900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7997800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9239800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9544700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9768000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10414700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10017000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9418500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8937000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9474900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>8784700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>8188700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7152000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7391100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1226200</v>
+        <v>1458100</v>
       </c>
       <c r="E45" s="3">
-        <v>1231100</v>
+        <v>1153800</v>
       </c>
       <c r="F45" s="3">
-        <v>1145600</v>
+        <v>1158400</v>
       </c>
       <c r="G45" s="3">
-        <v>1235100</v>
+        <v>1077900</v>
       </c>
       <c r="H45" s="3">
-        <v>1191400</v>
+        <v>1162200</v>
       </c>
       <c r="I45" s="3">
-        <v>1390700</v>
+        <v>1121000</v>
       </c>
       <c r="J45" s="3">
+        <v>1308600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1278600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2010000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3754600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9011500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3657900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1814100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1570900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1877700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1738200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1664900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1493600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1548200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1420800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1613100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1217000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4283600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31403000</v>
+        <v>29729200</v>
       </c>
       <c r="E46" s="3">
-        <v>27556400</v>
+        <v>29548700</v>
       </c>
       <c r="F46" s="3">
-        <v>26982500</v>
+        <v>25929200</v>
       </c>
       <c r="G46" s="3">
-        <v>31348400</v>
+        <v>25389100</v>
       </c>
       <c r="H46" s="3">
-        <v>30558200</v>
+        <v>29497300</v>
       </c>
       <c r="I46" s="3">
-        <v>28155100</v>
+        <v>28753700</v>
       </c>
       <c r="J46" s="3">
+        <v>26492500</v>
+      </c>
+      <c r="K46" s="3">
         <v>26356700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27820000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30269700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36413500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32537100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29328900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31464000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32994900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34234800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32858600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31513100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30853900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30164500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29541600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>28426700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30226000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4800400</v>
+        <v>4688000</v>
       </c>
       <c r="E47" s="3">
-        <v>4534500</v>
+        <v>4516900</v>
       </c>
       <c r="F47" s="3">
-        <v>4663300</v>
+        <v>4266700</v>
       </c>
       <c r="G47" s="3">
-        <v>5264600</v>
+        <v>4387900</v>
       </c>
       <c r="H47" s="3">
-        <v>5351600</v>
+        <v>4953800</v>
       </c>
       <c r="I47" s="3">
-        <v>6942900</v>
+        <v>5035600</v>
       </c>
       <c r="J47" s="3">
+        <v>6533000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6274900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6157500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4600200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3092700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3171800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3358500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3389600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3038200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2861000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2984200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2842400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3008100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2987700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2901200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2820400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3053000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10696100</v>
+        <v>10197600</v>
       </c>
       <c r="E48" s="3">
-        <v>10215800</v>
+        <v>10064500</v>
       </c>
       <c r="F48" s="3">
-        <v>10190600</v>
+        <v>9612500</v>
       </c>
       <c r="G48" s="3">
-        <v>10222800</v>
+        <v>9588800</v>
       </c>
       <c r="H48" s="3">
-        <v>10217100</v>
+        <v>9619100</v>
       </c>
       <c r="I48" s="3">
-        <v>9676700</v>
+        <v>9613800</v>
       </c>
       <c r="J48" s="3">
+        <v>9105300</v>
+      </c>
+      <c r="K48" s="3">
         <v>9800300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10875000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11415200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12299100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15781700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17067500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12727200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12503100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12460500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12044500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12421600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13070000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12836900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12427600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11737500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11622200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>13469100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12314600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>11779700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11465300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4401200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4413000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4455200</v>
+      </c>
+      <c r="K49" s="3">
+        <v>4776200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>5265000</v>
+      </c>
+      <c r="M49" s="3">
+        <v>5467600</v>
+      </c>
+      <c r="N49" s="3">
+        <v>6044300</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6071400</v>
+      </c>
+      <c r="P49" s="3">
+        <v>6421400</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>6914900</v>
+      </c>
+      <c r="R49" s="3">
+        <v>6975600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>6982600</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>12519000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>12184800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4677400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4689900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4734800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4776200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>5265000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>5467600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>6044300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>6071400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>6421400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>6914900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>6975600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>6982600</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
@@ -3491,17 +3602,20 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>5899700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7114500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15604200</v>
+        <v>2446900</v>
       </c>
       <c r="E52" s="3">
-        <v>2639400</v>
+        <v>2368200</v>
       </c>
       <c r="F52" s="3">
-        <v>2653800</v>
+        <v>2483600</v>
       </c>
       <c r="G52" s="3">
-        <v>2593700</v>
+        <v>2497100</v>
       </c>
       <c r="H52" s="3">
-        <v>2521900</v>
+        <v>2440500</v>
       </c>
       <c r="I52" s="3">
-        <v>2471300</v>
+        <v>2373000</v>
       </c>
       <c r="J52" s="3">
+        <v>2325400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2525800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2847000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3032500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3284700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3332800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3392200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3298100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3600300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3498500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10157200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3421200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10697500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10809400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10784400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4184500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2490500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62503700</v>
+        <v>60530800</v>
       </c>
       <c r="E54" s="3">
-        <v>57465100</v>
+        <v>58812900</v>
       </c>
       <c r="F54" s="3">
-        <v>56674900</v>
+        <v>54071700</v>
       </c>
       <c r="G54" s="3">
-        <v>54106900</v>
+        <v>53328300</v>
       </c>
       <c r="H54" s="3">
-        <v>53338700</v>
+        <v>50911900</v>
       </c>
       <c r="I54" s="3">
-        <v>51980800</v>
+        <v>50189000</v>
       </c>
       <c r="J54" s="3">
+        <v>48911300</v>
+      </c>
+      <c r="K54" s="3">
         <v>49733900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52964500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54785100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61134300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60894800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>59568600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57793900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59112100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60037400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>58044400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56872000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57629500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56798500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>55654700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>53068900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>54506200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12964000</v>
+        <v>12589700</v>
       </c>
       <c r="E57" s="3">
-        <v>8723200</v>
+        <v>12198400</v>
       </c>
       <c r="F57" s="3">
-        <v>8365100</v>
+        <v>8208100</v>
       </c>
       <c r="G57" s="3">
-        <v>8335300</v>
+        <v>7871200</v>
       </c>
       <c r="H57" s="3">
-        <v>8145400</v>
+        <v>7843100</v>
       </c>
       <c r="I57" s="3">
-        <v>7528900</v>
+        <v>7664400</v>
       </c>
       <c r="J57" s="3">
+        <v>7084300</v>
+      </c>
+      <c r="K57" s="3">
         <v>6831600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7255600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8543000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9305300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9780500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10150400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11062800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11331900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11005700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10511700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10364100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10254300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9923500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9363400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8479400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8700400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3843700</v>
+        <v>1620900</v>
       </c>
       <c r="E58" s="3">
-        <v>2446500</v>
+        <v>3616700</v>
       </c>
       <c r="F58" s="3">
-        <v>6053400</v>
+        <v>2302000</v>
       </c>
       <c r="G58" s="3">
-        <v>2919800</v>
+        <v>5695900</v>
       </c>
       <c r="H58" s="3">
-        <v>2875600</v>
+        <v>2747300</v>
       </c>
       <c r="I58" s="3">
-        <v>3843400</v>
+        <v>2705800</v>
       </c>
       <c r="J58" s="3">
+        <v>3616400</v>
+      </c>
+      <c r="K58" s="3">
         <v>5605200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4218000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2775100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3029200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3462300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4022900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3747500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3093600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4652200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4131900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3393500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1725000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1660200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1652900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1570300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>219800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7072300</v>
+        <v>7389400</v>
       </c>
       <c r="E59" s="3">
-        <v>10192900</v>
+        <v>6654700</v>
       </c>
       <c r="F59" s="3">
-        <v>10171500</v>
+        <v>9591000</v>
       </c>
       <c r="G59" s="3">
-        <v>10860900</v>
+        <v>9570900</v>
       </c>
       <c r="H59" s="3">
-        <v>10824800</v>
+        <v>10219600</v>
       </c>
       <c r="I59" s="3">
-        <v>9973300</v>
+        <v>10185600</v>
       </c>
       <c r="J59" s="3">
+        <v>9384400</v>
+      </c>
+      <c r="K59" s="3">
         <v>9459600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10516100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11729800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16897600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13430800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13528400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13918400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14190600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14163400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14387700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14247600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14958100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14818300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15005300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14006300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12533100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23880000</v>
+        <v>21599900</v>
       </c>
       <c r="E60" s="3">
-        <v>21362600</v>
+        <v>22469900</v>
       </c>
       <c r="F60" s="3">
-        <v>24590000</v>
+        <v>20101100</v>
       </c>
       <c r="G60" s="3">
-        <v>22115900</v>
+        <v>23138000</v>
       </c>
       <c r="H60" s="3">
-        <v>21845700</v>
+        <v>20810000</v>
       </c>
       <c r="I60" s="3">
-        <v>21345600</v>
+        <v>20555700</v>
       </c>
       <c r="J60" s="3">
+        <v>20085100</v>
+      </c>
+      <c r="K60" s="3">
         <v>21896400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21989700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23047900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29232100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26673600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27701700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28728600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28616200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29821400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>29031300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28005300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26937300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26402000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26021600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24056000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21453400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10936200</v>
+        <v>10332200</v>
       </c>
       <c r="E61" s="3">
-        <v>10687600</v>
+        <v>10290400</v>
       </c>
       <c r="F61" s="3">
-        <v>7581600</v>
+        <v>10056500</v>
       </c>
       <c r="G61" s="3">
-        <v>8423300</v>
+        <v>7133900</v>
       </c>
       <c r="H61" s="3">
-        <v>8399900</v>
+        <v>7925900</v>
       </c>
       <c r="I61" s="3">
-        <v>8824200</v>
+        <v>7903800</v>
       </c>
       <c r="J61" s="3">
+        <v>8303100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7397600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9842400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10187100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9626900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12764200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10550900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5850200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7834600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7722100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7561500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7811000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8742800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8783300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8782800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8399600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9757300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1613100</v>
+        <v>1370700</v>
       </c>
       <c r="E62" s="3">
-        <v>1797600</v>
+        <v>1517900</v>
       </c>
       <c r="F62" s="3">
-        <v>1627900</v>
+        <v>1691500</v>
       </c>
       <c r="G62" s="3">
-        <v>1488800</v>
+        <v>1531800</v>
       </c>
       <c r="H62" s="3">
-        <v>1526500</v>
+        <v>1400900</v>
       </c>
       <c r="I62" s="3">
-        <v>2778700</v>
+        <v>1436400</v>
       </c>
       <c r="J62" s="3">
+        <v>2614600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2466900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2640900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2556900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2740400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2843400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3030500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3181900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3974200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3959200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4004300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4039800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4534000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4657500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4589900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5002700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5716900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37848700</v>
+        <v>34660200</v>
       </c>
       <c r="E66" s="3">
-        <v>35226200</v>
+        <v>35613700</v>
       </c>
       <c r="F66" s="3">
-        <v>35145300</v>
+        <v>33146000</v>
       </c>
       <c r="G66" s="3">
-        <v>33365500</v>
+        <v>33070000</v>
       </c>
       <c r="H66" s="3">
-        <v>33131200</v>
+        <v>31395200</v>
       </c>
       <c r="I66" s="3">
-        <v>34203000</v>
+        <v>31174800</v>
       </c>
       <c r="J66" s="3">
+        <v>32183300</v>
+      </c>
+      <c r="K66" s="3">
         <v>32951700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35737200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37179700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43123400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43742800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42774700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39405000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42031400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43063400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42103500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41435700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41835200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>41551600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>40942000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>39126200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>38227700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18596900</v>
+        <v>17668200</v>
       </c>
       <c r="E72" s="3">
-        <v>17896800</v>
+        <v>17498800</v>
       </c>
       <c r="F72" s="3">
-        <v>17799000</v>
+        <v>16840000</v>
       </c>
       <c r="G72" s="3">
-        <v>17207000</v>
+        <v>16748000</v>
       </c>
       <c r="H72" s="3">
-        <v>16779800</v>
+        <v>16191000</v>
       </c>
       <c r="I72" s="3">
-        <v>14042400</v>
+        <v>15789000</v>
       </c>
       <c r="J72" s="3">
+        <v>13213200</v>
+      </c>
+      <c r="K72" s="3">
         <v>13584000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13652500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14504800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14482200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14210100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13693700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14423400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13260200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12808600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12020300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11755000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11222300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10661300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10052200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9326300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11377000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24655100</v>
+        <v>25870600</v>
       </c>
       <c r="E76" s="3">
-        <v>22238900</v>
+        <v>23199200</v>
       </c>
       <c r="F76" s="3">
-        <v>21529600</v>
+        <v>20925700</v>
       </c>
       <c r="G76" s="3">
-        <v>20741500</v>
+        <v>20258300</v>
       </c>
       <c r="H76" s="3">
-        <v>20207500</v>
+        <v>19516700</v>
       </c>
       <c r="I76" s="3">
-        <v>17777800</v>
+        <v>19014300</v>
       </c>
       <c r="J76" s="3">
+        <v>16728000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16782200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17227300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17605500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18010900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17152000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16793900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18388900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17080700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16974000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15940900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15436300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15794300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15247000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14712700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13942700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>16278500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>465100</v>
+        <v>358800</v>
       </c>
       <c r="E81" s="3">
-        <v>331800</v>
+        <v>437500</v>
       </c>
       <c r="F81" s="3">
-        <v>596000</v>
+        <v>312200</v>
       </c>
       <c r="G81" s="3">
-        <v>596200</v>
+        <v>560800</v>
       </c>
       <c r="H81" s="3">
-        <v>272100</v>
+        <v>561000</v>
       </c>
       <c r="I81" s="3">
-        <v>633100</v>
+        <v>256100</v>
       </c>
       <c r="J81" s="3">
+        <v>595700</v>
+      </c>
+      <c r="K81" s="3">
         <v>457200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-83900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>419000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>703500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>470000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>456000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1061300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>567300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>522600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>521400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>324800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>734000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>634200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>440800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-426600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>562800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>728000</v>
+        <v>682800</v>
       </c>
       <c r="E83" s="3">
-        <v>684100</v>
+        <v>685000</v>
       </c>
       <c r="F83" s="3">
-        <v>629400</v>
+        <v>643700</v>
       </c>
       <c r="G83" s="3">
-        <v>600500</v>
+        <v>592300</v>
       </c>
       <c r="H83" s="3">
-        <v>641300</v>
+        <v>565000</v>
       </c>
       <c r="I83" s="3">
-        <v>614700</v>
+        <v>603400</v>
       </c>
       <c r="J83" s="3">
+        <v>578400</v>
+      </c>
+      <c r="K83" s="3">
         <v>606900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>669100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>791500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>824400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>873200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>894300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>742900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>705800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>671900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>651300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>642100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>674700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>652400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>632000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>644100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>590800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1154000</v>
+        <v>898000</v>
       </c>
       <c r="E89" s="3">
-        <v>485200</v>
+        <v>1089200</v>
       </c>
       <c r="F89" s="3">
-        <v>-689500</v>
+        <v>456500</v>
       </c>
       <c r="G89" s="3">
-        <v>1018300</v>
+        <v>-648800</v>
       </c>
       <c r="H89" s="3">
-        <v>1351400</v>
+        <v>958200</v>
       </c>
       <c r="I89" s="3">
-        <v>1979100</v>
+        <v>1271600</v>
       </c>
       <c r="J89" s="3">
+        <v>1862200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1365900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-847300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1407700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1201600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>308600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>961000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1207300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>440000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-48200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>333000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1437300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1104200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>574700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>709400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2263300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>783400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-518100</v>
+        <v>-427500</v>
       </c>
       <c r="E91" s="3">
-        <v>-460800</v>
+        <v>-487500</v>
       </c>
       <c r="F91" s="3">
-        <v>-384300</v>
+        <v>-433600</v>
       </c>
       <c r="G91" s="3">
-        <v>-459400</v>
+        <v>-361600</v>
       </c>
       <c r="H91" s="3">
-        <v>-778200</v>
+        <v>-432300</v>
       </c>
       <c r="I91" s="3">
-        <v>-314100</v>
+        <v>-732200</v>
       </c>
       <c r="J91" s="3">
+        <v>-295500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-335400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-408200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-662000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-523700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-632000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-664400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-779200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-668500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-631000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-875100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-940800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-756900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-825000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>575700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-275000</v>
+        <v>-544200</v>
       </c>
       <c r="E94" s="3">
-        <v>-452800</v>
+        <v>-258700</v>
       </c>
       <c r="F94" s="3">
-        <v>-5015000</v>
+        <v>-426000</v>
       </c>
       <c r="G94" s="3">
-        <v>-459300</v>
+        <v>-4718900</v>
       </c>
       <c r="H94" s="3">
-        <v>1517500</v>
+        <v>-432100</v>
       </c>
       <c r="I94" s="3">
-        <v>-358700</v>
+        <v>1427900</v>
       </c>
       <c r="J94" s="3">
+        <v>-337500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-126400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>375900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-412400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-321400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-554100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-583500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-487500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-260100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-352800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-701100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-949500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-927900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-974900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-477300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-256600</v>
       </c>
       <c r="E96" s="3">
-        <v>-272700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-256600</v>
       </c>
       <c r="G96" s="3">
-        <v>-181800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-171000</v>
       </c>
       <c r="I96" s="3">
-        <v>-181800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-171000</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-298500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-318800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-320500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-330300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-424000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-210800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-316300</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-205900</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1159100</v>
+        <v>-2786900</v>
       </c>
       <c r="E100" s="3">
-        <v>-929600</v>
+        <v>1090700</v>
       </c>
       <c r="F100" s="3">
-        <v>589300</v>
+        <v>-874700</v>
       </c>
       <c r="G100" s="3">
-        <v>-359900</v>
+        <v>554500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1776300</v>
+        <v>-338600</v>
       </c>
       <c r="I100" s="3">
-        <v>-517700</v>
+        <v>-1671400</v>
       </c>
       <c r="J100" s="3">
+        <v>-487100</v>
+      </c>
+      <c r="K100" s="3">
         <v>95700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>891300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>486900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-674100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1527700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-909400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>363300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-42600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>658200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-521600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-110300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-153600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-221900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>424500</v>
+        <v>542100</v>
       </c>
       <c r="E101" s="3">
-        <v>230500</v>
+        <v>396100</v>
       </c>
       <c r="F101" s="3">
-        <v>51400</v>
+        <v>216900</v>
       </c>
       <c r="G101" s="3">
-        <v>51200</v>
+        <v>48300</v>
       </c>
       <c r="H101" s="3">
-        <v>732900</v>
+        <v>48200</v>
       </c>
       <c r="I101" s="3">
-        <v>-69900</v>
+        <v>689600</v>
       </c>
       <c r="J101" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-46200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-41800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-141200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>179600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-73000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-218000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>36100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-196900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>158300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>129100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-406600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>97400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>127600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>29700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-280700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1123500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2462600</v>
+        <v>-1891100</v>
       </c>
       <c r="E102" s="3">
-        <v>-666600</v>
+        <v>2317200</v>
       </c>
       <c r="F102" s="3">
-        <v>-5063900</v>
+        <v>-627300</v>
       </c>
       <c r="G102" s="3">
-        <v>250500</v>
+        <v>-4764900</v>
       </c>
       <c r="H102" s="3">
-        <v>1825500</v>
+        <v>235700</v>
       </c>
       <c r="I102" s="3">
-        <v>1032800</v>
+        <v>1717700</v>
       </c>
       <c r="J102" s="3">
+        <v>971800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1289100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>378100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1340900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>385700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1209100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-749900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-928500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>120600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-281600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>739400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-247900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-546900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1118400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1102400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14468400</v>
+        <v>14818600</v>
       </c>
       <c r="E8" s="3">
-        <v>14406600</v>
+        <v>13994700</v>
       </c>
       <c r="F8" s="3">
-        <v>13852200</v>
+        <v>13934900</v>
       </c>
       <c r="G8" s="3">
-        <v>12762500</v>
+        <v>13398700</v>
       </c>
       <c r="H8" s="3">
-        <v>13138400</v>
+        <v>12344600</v>
       </c>
       <c r="I8" s="3">
-        <v>13381000</v>
+        <v>12708300</v>
       </c>
       <c r="J8" s="3">
+        <v>12942800</v>
+      </c>
+      <c r="K8" s="3">
         <v>13297600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12987800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11873000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15285100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17411100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17950800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17322700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18448800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19586200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18574800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18259400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18712800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18570900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18013000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16862100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17042100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16698500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10601200</v>
+        <v>10842000</v>
       </c>
       <c r="E9" s="3">
-        <v>10407600</v>
+        <v>10254100</v>
       </c>
       <c r="F9" s="3">
-        <v>9991700</v>
+        <v>10066800</v>
       </c>
       <c r="G9" s="3">
-        <v>9218900</v>
+        <v>9664600</v>
       </c>
       <c r="H9" s="3">
-        <v>9279000</v>
+        <v>8917100</v>
       </c>
       <c r="I9" s="3">
-        <v>9308300</v>
+        <v>8975200</v>
       </c>
       <c r="J9" s="3">
+        <v>9003500</v>
+      </c>
+      <c r="K9" s="3">
         <v>9262500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9197600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8612900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10834500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12305300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12873300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12441200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13007700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14109900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13380700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13159100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13352200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13062600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12689100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>11908300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11859300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11737300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3867200</v>
+        <v>3976600</v>
       </c>
       <c r="E10" s="3">
-        <v>3999000</v>
+        <v>3740600</v>
       </c>
       <c r="F10" s="3">
-        <v>3860500</v>
+        <v>3868100</v>
       </c>
       <c r="G10" s="3">
-        <v>3543600</v>
+        <v>3734100</v>
       </c>
       <c r="H10" s="3">
-        <v>3859500</v>
+        <v>3427600</v>
       </c>
       <c r="I10" s="3">
-        <v>4072700</v>
+        <v>3733100</v>
       </c>
       <c r="J10" s="3">
+        <v>3939300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4035100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3790200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3260100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4450500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5105800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5077500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4881500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5441100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5476200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5194100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5100300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5360600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5508300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5323900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4953800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5182800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4961200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,25 +1203,28 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>21900</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>29200</v>
+        <v>21200</v>
       </c>
       <c r="G14" s="3">
-        <v>215700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>28300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>208600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1238,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1239,8 +1259,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1254,17 +1274,20 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>188100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>20900</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1331,8 +1354,8 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>8</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14001500</v>
+        <v>14208400</v>
       </c>
       <c r="E17" s="3">
-        <v>13795500</v>
+        <v>13543000</v>
       </c>
       <c r="F17" s="3">
-        <v>13317500</v>
+        <v>13343800</v>
       </c>
       <c r="G17" s="3">
-        <v>12052800</v>
+        <v>12881500</v>
       </c>
       <c r="H17" s="3">
-        <v>12373400</v>
+        <v>11658100</v>
       </c>
       <c r="I17" s="3">
-        <v>13147900</v>
+        <v>11968200</v>
       </c>
       <c r="J17" s="3">
+        <v>12717400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12343400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12264400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11841000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14817400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16496700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17179700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16806200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17308000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18665300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17689600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17350800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18135700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17484800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16994900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16103400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17032800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>15832400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>466900</v>
+        <v>610200</v>
       </c>
       <c r="E18" s="3">
-        <v>611100</v>
+        <v>451600</v>
       </c>
       <c r="F18" s="3">
-        <v>534700</v>
+        <v>591100</v>
       </c>
       <c r="G18" s="3">
-        <v>709700</v>
+        <v>517200</v>
       </c>
       <c r="H18" s="3">
-        <v>765100</v>
+        <v>686500</v>
       </c>
       <c r="I18" s="3">
-        <v>233100</v>
+        <v>740000</v>
       </c>
       <c r="J18" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K18" s="3">
         <v>954200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>723400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>467600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>914500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>771100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>516500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1140800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>920900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>885200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>908600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>577100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1086100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1018100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>758700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>866100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72200</v>
+        <v>49800</v>
       </c>
       <c r="E20" s="3">
-        <v>-17300</v>
+        <v>69800</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>-16700</v>
       </c>
       <c r="G20" s="3">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="H20" s="3">
-        <v>30500</v>
+        <v>2900</v>
       </c>
       <c r="I20" s="3">
-        <v>65500</v>
+        <v>29500</v>
       </c>
       <c r="J20" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-23900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>20800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>11100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-17700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-39500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>32300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1221900</v>
+        <v>1336100</v>
       </c>
       <c r="E21" s="3">
-        <v>1278900</v>
+        <v>1181900</v>
       </c>
       <c r="F21" s="3">
-        <v>1183300</v>
+        <v>1237000</v>
       </c>
       <c r="G21" s="3">
-        <v>1304900</v>
+        <v>1144600</v>
       </c>
       <c r="H21" s="3">
-        <v>1360600</v>
+        <v>1262200</v>
       </c>
       <c r="I21" s="3">
-        <v>902000</v>
+        <v>1316000</v>
       </c>
       <c r="J21" s="3">
+        <v>872500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1508600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1308800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>695300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1258300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1736800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1623800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1409300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1916600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1622100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1554500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1580700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1230300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1748100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1672200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1373100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>613900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1489300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1756,8 +1796,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1774,168 +1814,177 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
         <v>34900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>539100</v>
+        <v>659900</v>
       </c>
       <c r="E23" s="3">
-        <v>593900</v>
+        <v>521400</v>
       </c>
       <c r="F23" s="3">
-        <v>539600</v>
+        <v>574400</v>
       </c>
       <c r="G23" s="3">
-        <v>712700</v>
+        <v>521900</v>
       </c>
       <c r="H23" s="3">
-        <v>795600</v>
+        <v>689300</v>
       </c>
       <c r="I23" s="3">
-        <v>298600</v>
+        <v>769500</v>
       </c>
       <c r="J23" s="3">
+        <v>288800</v>
+      </c>
+      <c r="K23" s="3">
         <v>930200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>701900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>466800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>912400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>750600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>515000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1173700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>916300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>882700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>929400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>588200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1073400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1019800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>741000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-30200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>863600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>153800</v>
+        <v>210200</v>
       </c>
       <c r="E24" s="3">
-        <v>144900</v>
+        <v>148700</v>
       </c>
       <c r="F24" s="3">
-        <v>223800</v>
+        <v>140200</v>
       </c>
       <c r="G24" s="3">
-        <v>127300</v>
+        <v>216500</v>
       </c>
       <c r="H24" s="3">
-        <v>200000</v>
+        <v>123100</v>
       </c>
       <c r="I24" s="3">
-        <v>8100</v>
+        <v>193500</v>
       </c>
       <c r="J24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K24" s="3">
         <v>290400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>204200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>170900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>241200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>64900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>296400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>323600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>370200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>225800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>296900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>352300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>269200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>339400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>250000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>385300</v>
+        <v>449700</v>
       </c>
       <c r="E26" s="3">
-        <v>449000</v>
+        <v>372700</v>
       </c>
       <c r="F26" s="3">
-        <v>315700</v>
+        <v>434300</v>
       </c>
       <c r="G26" s="3">
-        <v>585400</v>
+        <v>305400</v>
       </c>
       <c r="H26" s="3">
-        <v>595500</v>
+        <v>566200</v>
       </c>
       <c r="I26" s="3">
-        <v>290500</v>
+        <v>576000</v>
       </c>
       <c r="J26" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K26" s="3">
         <v>639800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>497700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-59000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>435600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>741500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>509400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>492500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1108800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>619800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>559100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>559200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>362400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>776500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>667500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>471800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-369600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>613600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>358800</v>
+        <v>414000</v>
       </c>
       <c r="E27" s="3">
-        <v>437500</v>
+        <v>347000</v>
       </c>
       <c r="F27" s="3">
-        <v>312200</v>
+        <v>423200</v>
       </c>
       <c r="G27" s="3">
-        <v>560800</v>
+        <v>302000</v>
       </c>
       <c r="H27" s="3">
-        <v>561000</v>
+        <v>542400</v>
       </c>
       <c r="I27" s="3">
-        <v>256100</v>
+        <v>542600</v>
       </c>
       <c r="J27" s="3">
+        <v>247700</v>
+      </c>
+      <c r="K27" s="3">
         <v>595700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>457200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-83900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>419000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>703500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>470000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>456000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1061300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>567300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>522600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>521400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>324800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>734000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>634200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>440800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-426600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>562800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72200</v>
+        <v>-49800</v>
       </c>
       <c r="E32" s="3">
-        <v>17300</v>
+        <v>-69800</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>16700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3000</v>
+        <v>-4700</v>
       </c>
       <c r="H32" s="3">
-        <v>-30500</v>
+        <v>-2900</v>
       </c>
       <c r="I32" s="3">
-        <v>-65500</v>
+        <v>-29500</v>
       </c>
       <c r="J32" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="K32" s="3">
         <v>23900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-20800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-11100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>17700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>39500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-32300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>358800</v>
+        <v>414000</v>
       </c>
       <c r="E33" s="3">
-        <v>437500</v>
+        <v>347000</v>
       </c>
       <c r="F33" s="3">
-        <v>312200</v>
+        <v>423200</v>
       </c>
       <c r="G33" s="3">
-        <v>560800</v>
+        <v>302000</v>
       </c>
       <c r="H33" s="3">
-        <v>561000</v>
+        <v>542400</v>
       </c>
       <c r="I33" s="3">
-        <v>256100</v>
+        <v>542600</v>
       </c>
       <c r="J33" s="3">
+        <v>247700</v>
+      </c>
+      <c r="K33" s="3">
         <v>595700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>457200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-83900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>419000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>703500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>470000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>456000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1061300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>567300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>522600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>521400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>324800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>734000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>634200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>440800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-426600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>562800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>358800</v>
+        <v>414000</v>
       </c>
       <c r="E35" s="3">
-        <v>437500</v>
+        <v>347000</v>
       </c>
       <c r="F35" s="3">
-        <v>312200</v>
+        <v>423200</v>
       </c>
       <c r="G35" s="3">
-        <v>560800</v>
+        <v>302000</v>
       </c>
       <c r="H35" s="3">
-        <v>561000</v>
+        <v>542400</v>
       </c>
       <c r="I35" s="3">
-        <v>256100</v>
+        <v>542600</v>
       </c>
       <c r="J35" s="3">
+        <v>247700</v>
+      </c>
+      <c r="K35" s="3">
         <v>595700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>457200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-83900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>419000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>703500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>470000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>456000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1061300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>567300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>522600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>521400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>324800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>734000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>634200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>440800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-426600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>562800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,683 +3007,708 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6948000</v>
+        <v>6006600</v>
       </c>
       <c r="E41" s="3">
-        <v>8839000</v>
+        <v>6720500</v>
       </c>
       <c r="F41" s="3">
-        <v>6521800</v>
+        <v>8549600</v>
       </c>
       <c r="G41" s="3">
-        <v>7149100</v>
+        <v>6308300</v>
       </c>
       <c r="H41" s="3">
-        <v>11914000</v>
+        <v>6915000</v>
       </c>
       <c r="I41" s="3">
-        <v>11678300</v>
+        <v>11523900</v>
       </c>
       <c r="J41" s="3">
+        <v>11296000</v>
+      </c>
+      <c r="K41" s="3">
         <v>9960700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9553000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9048900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8955400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7873800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7553900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6324100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7421500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8202200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9955100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9622800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9849800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9110400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9358400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9905300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11271900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>10167700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1662800</v>
+        <v>1151800</v>
       </c>
       <c r="E42" s="3">
-        <v>1543900</v>
+        <v>1608400</v>
       </c>
       <c r="F42" s="3">
-        <v>1176100</v>
+        <v>1493400</v>
       </c>
       <c r="G42" s="3">
-        <v>1033800</v>
+        <v>1137600</v>
       </c>
       <c r="H42" s="3">
-        <v>1031700</v>
+        <v>1000000</v>
       </c>
       <c r="I42" s="3">
-        <v>1096800</v>
+        <v>998000</v>
       </c>
       <c r="J42" s="3">
+        <v>1060900</v>
+      </c>
+      <c r="K42" s="3">
         <v>959500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>951700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>885400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1307700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1276400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1234800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1079700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1261800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1453500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1834300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2216400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1840200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1370300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1305300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1359400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9984600</v>
+        <v>9807600</v>
       </c>
       <c r="E43" s="3">
-        <v>9709400</v>
+        <v>9657600</v>
       </c>
       <c r="F43" s="3">
-        <v>9309500</v>
+        <v>9391500</v>
       </c>
       <c r="G43" s="3">
-        <v>8827300</v>
+        <v>9004700</v>
       </c>
       <c r="H43" s="3">
-        <v>8660900</v>
+        <v>8538300</v>
       </c>
       <c r="I43" s="3">
-        <v>8754900</v>
+        <v>8377300</v>
       </c>
       <c r="J43" s="3">
+        <v>8468200</v>
+      </c>
+      <c r="K43" s="3">
         <v>8428300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8391400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8684800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9261100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10254000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10850800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10566300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11441900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11046700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10690200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9936000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9392400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9350000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9295400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>8475100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7512900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8383500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9675700</v>
+        <v>10178000</v>
       </c>
       <c r="E44" s="3">
-        <v>8302400</v>
+        <v>9358800</v>
       </c>
       <c r="F44" s="3">
-        <v>7763400</v>
+        <v>8030600</v>
       </c>
       <c r="G44" s="3">
-        <v>7301000</v>
+        <v>7509200</v>
       </c>
       <c r="H44" s="3">
-        <v>6728400</v>
+        <v>7061900</v>
       </c>
       <c r="I44" s="3">
-        <v>6102700</v>
+        <v>6508100</v>
       </c>
       <c r="J44" s="3">
+        <v>5902900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5835500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6182000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7190900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6990900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7997800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9239800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9544700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9768000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10414700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10017000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9418500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8937000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9474900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>8784700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>8188700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7152000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7391100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1458100</v>
+        <v>1800500</v>
       </c>
       <c r="E45" s="3">
-        <v>1153800</v>
+        <v>1410400</v>
       </c>
       <c r="F45" s="3">
-        <v>1158400</v>
+        <v>1116000</v>
       </c>
       <c r="G45" s="3">
-        <v>1077900</v>
+        <v>1120500</v>
       </c>
       <c r="H45" s="3">
-        <v>1162200</v>
+        <v>1042600</v>
       </c>
       <c r="I45" s="3">
-        <v>1121000</v>
+        <v>1124200</v>
       </c>
       <c r="J45" s="3">
+        <v>1084300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1308600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1278600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2010000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3754600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9011500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3657900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1814100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1570900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1877700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1738200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1664900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1493600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1548200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1420800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1613100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1217000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4283600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29729200</v>
+        <v>28944400</v>
       </c>
       <c r="E46" s="3">
-        <v>29548700</v>
+        <v>28755800</v>
       </c>
       <c r="F46" s="3">
-        <v>25929200</v>
+        <v>28581200</v>
       </c>
       <c r="G46" s="3">
-        <v>25389100</v>
+        <v>25080200</v>
       </c>
       <c r="H46" s="3">
-        <v>29497300</v>
+        <v>24557900</v>
       </c>
       <c r="I46" s="3">
-        <v>28753700</v>
+        <v>28531500</v>
       </c>
       <c r="J46" s="3">
+        <v>27812300</v>
+      </c>
+      <c r="K46" s="3">
         <v>26492500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26356700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27820000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30269700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36413500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32537100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29328900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>31464000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32994900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34234800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32858600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31513100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30853900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30164500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>29541600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>28426700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30226000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4688000</v>
+        <v>4599700</v>
       </c>
       <c r="E47" s="3">
-        <v>4516900</v>
+        <v>4534500</v>
       </c>
       <c r="F47" s="3">
-        <v>4266700</v>
+        <v>4369000</v>
       </c>
       <c r="G47" s="3">
-        <v>4387900</v>
+        <v>4127000</v>
       </c>
       <c r="H47" s="3">
-        <v>4953800</v>
+        <v>4244200</v>
       </c>
       <c r="I47" s="3">
-        <v>5035600</v>
+        <v>4791600</v>
       </c>
       <c r="J47" s="3">
+        <v>4870700</v>
+      </c>
+      <c r="K47" s="3">
         <v>6533000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6274900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6157500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4600200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3092700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3171800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3358500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3389600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3038200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2861000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2984200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2842400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3008100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2987700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2901200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2820400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3053000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10197600</v>
+        <v>9877600</v>
       </c>
       <c r="E48" s="3">
-        <v>10064500</v>
+        <v>9863800</v>
       </c>
       <c r="F48" s="3">
-        <v>9612500</v>
+        <v>9734900</v>
       </c>
       <c r="G48" s="3">
-        <v>9588800</v>
+        <v>9297800</v>
       </c>
       <c r="H48" s="3">
-        <v>9619100</v>
+        <v>9274900</v>
       </c>
       <c r="I48" s="3">
-        <v>9613800</v>
+        <v>9304200</v>
       </c>
       <c r="J48" s="3">
+        <v>9299000</v>
+      </c>
+      <c r="K48" s="3">
         <v>9105300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9800300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10875000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11415200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12299100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15781700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17067500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12727200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12503100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12460500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12044500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12421600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13070000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12836900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12427600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11737500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11622200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13469100</v>
+        <v>13589400</v>
       </c>
       <c r="E49" s="3">
-        <v>12314600</v>
+        <v>13028100</v>
       </c>
       <c r="F49" s="3">
-        <v>11779700</v>
+        <v>11911400</v>
       </c>
       <c r="G49" s="3">
-        <v>11465300</v>
+        <v>11394100</v>
       </c>
       <c r="H49" s="3">
-        <v>4401200</v>
+        <v>11089900</v>
       </c>
       <c r="I49" s="3">
-        <v>4413000</v>
+        <v>4257100</v>
       </c>
       <c r="J49" s="3">
+        <v>4268500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4455200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4776200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5265000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5467600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6044300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6071400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6421400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6914900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6975600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6982600</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3605,17 +3716,20 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>5899700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7114500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2446900</v>
+        <v>2426900</v>
       </c>
       <c r="E52" s="3">
-        <v>2368200</v>
+        <v>2366800</v>
       </c>
       <c r="F52" s="3">
-        <v>2483600</v>
+        <v>2290700</v>
       </c>
       <c r="G52" s="3">
-        <v>2497100</v>
+        <v>2402200</v>
       </c>
       <c r="H52" s="3">
-        <v>2440500</v>
+        <v>2415400</v>
       </c>
       <c r="I52" s="3">
-        <v>2373000</v>
+        <v>2360600</v>
       </c>
       <c r="J52" s="3">
+        <v>2295300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2325400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2525800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2847000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3032500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3284700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3332800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3392200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3298100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3600300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3498500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10157200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3421200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10697500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10809400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10784400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4184500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2490500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60530800</v>
+        <v>59438100</v>
       </c>
       <c r="E54" s="3">
-        <v>58812900</v>
+        <v>58548900</v>
       </c>
       <c r="F54" s="3">
-        <v>54071700</v>
+        <v>56887200</v>
       </c>
       <c r="G54" s="3">
-        <v>53328300</v>
+        <v>52301300</v>
       </c>
       <c r="H54" s="3">
-        <v>50911900</v>
+        <v>51582200</v>
       </c>
       <c r="I54" s="3">
-        <v>50189000</v>
+        <v>49245000</v>
       </c>
       <c r="J54" s="3">
+        <v>48545700</v>
+      </c>
+      <c r="K54" s="3">
         <v>48911300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49733900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>52964500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54785100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61134300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60894800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59568600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57793900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59112100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60037400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>58044400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56872000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>57629500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56798500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>55654700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>53068900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>54506200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12589700</v>
+        <v>12550200</v>
       </c>
       <c r="E57" s="3">
-        <v>12198400</v>
+        <v>12177500</v>
       </c>
       <c r="F57" s="3">
-        <v>8208100</v>
+        <v>11799000</v>
       </c>
       <c r="G57" s="3">
-        <v>7871200</v>
+        <v>7939300</v>
       </c>
       <c r="H57" s="3">
-        <v>7843100</v>
+        <v>7613400</v>
       </c>
       <c r="I57" s="3">
-        <v>7664400</v>
+        <v>7586300</v>
       </c>
       <c r="J57" s="3">
+        <v>7413400</v>
+      </c>
+      <c r="K57" s="3">
         <v>7084300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6831600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7255600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8543000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9305300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9780500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10150400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11062800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11331900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11005700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10511700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10364100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10254300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9923500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9363400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8479400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8700400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1620900</v>
+        <v>1073600</v>
       </c>
       <c r="E58" s="3">
-        <v>3616700</v>
+        <v>1567800</v>
       </c>
       <c r="F58" s="3">
-        <v>2302000</v>
+        <v>3498300</v>
       </c>
       <c r="G58" s="3">
-        <v>5695900</v>
+        <v>2226600</v>
       </c>
       <c r="H58" s="3">
-        <v>2747300</v>
+        <v>5509400</v>
       </c>
       <c r="I58" s="3">
-        <v>2705800</v>
+        <v>2657400</v>
       </c>
       <c r="J58" s="3">
+        <v>2617200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3616400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5605200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4218000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2775100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3029200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3462300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4022900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3747500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3093600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4652200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4131900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3393500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1725000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1660200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1652900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1570300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>219800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7389400</v>
+        <v>7055600</v>
       </c>
       <c r="E59" s="3">
-        <v>6654700</v>
+        <v>7147400</v>
       </c>
       <c r="F59" s="3">
-        <v>9591000</v>
+        <v>6436800</v>
       </c>
       <c r="G59" s="3">
-        <v>9570900</v>
+        <v>9277000</v>
       </c>
       <c r="H59" s="3">
-        <v>10219600</v>
+        <v>9257500</v>
       </c>
       <c r="I59" s="3">
-        <v>10185600</v>
+        <v>9884900</v>
       </c>
       <c r="J59" s="3">
+        <v>9852100</v>
+      </c>
+      <c r="K59" s="3">
         <v>9384400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9459600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10516100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11729800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16897600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13430800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13528400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13918400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14190600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14163400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14387700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14247600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14958100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14818300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15005300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14006300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12533100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21599900</v>
+        <v>20679400</v>
       </c>
       <c r="E60" s="3">
-        <v>22469900</v>
+        <v>20892700</v>
       </c>
       <c r="F60" s="3">
-        <v>20101100</v>
+        <v>21734100</v>
       </c>
       <c r="G60" s="3">
-        <v>23138000</v>
+        <v>19442900</v>
       </c>
       <c r="H60" s="3">
-        <v>20810000</v>
+        <v>22380400</v>
       </c>
       <c r="I60" s="3">
-        <v>20555700</v>
+        <v>20128600</v>
       </c>
       <c r="J60" s="3">
+        <v>19882700</v>
+      </c>
+      <c r="K60" s="3">
         <v>20085100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21896400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21989700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23047900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29232100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26673600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27701700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28728600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28616200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>29821400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29031300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28005300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26937300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26402000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26021600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24056000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>21453400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10332200</v>
+        <v>9541800</v>
       </c>
       <c r="E61" s="3">
-        <v>10290400</v>
+        <v>9993900</v>
       </c>
       <c r="F61" s="3">
-        <v>10056500</v>
+        <v>9953500</v>
       </c>
       <c r="G61" s="3">
-        <v>7133900</v>
+        <v>9727200</v>
       </c>
       <c r="H61" s="3">
-        <v>7925900</v>
+        <v>6900400</v>
       </c>
       <c r="I61" s="3">
-        <v>7903800</v>
+        <v>7666400</v>
       </c>
       <c r="J61" s="3">
+        <v>7645100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8303100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7397600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9842400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10187100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9626900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12764200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10550900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5850200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7834600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7722100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7561500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7811000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8742800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8783300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8782800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8399600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9757300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1370700</v>
+        <v>1346700</v>
       </c>
       <c r="E62" s="3">
-        <v>1517900</v>
+        <v>1325900</v>
       </c>
       <c r="F62" s="3">
-        <v>1691500</v>
+        <v>1468200</v>
       </c>
       <c r="G62" s="3">
-        <v>1531800</v>
+        <v>1636100</v>
       </c>
       <c r="H62" s="3">
-        <v>1400900</v>
+        <v>1481600</v>
       </c>
       <c r="I62" s="3">
-        <v>1436400</v>
+        <v>1355000</v>
       </c>
       <c r="J62" s="3">
+        <v>1389300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2614600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2466900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2640900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2556900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2740400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2843400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3030500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3181900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3974200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3959200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4004300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4039800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4534000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4657500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4589900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5002700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5716900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34660200</v>
+        <v>32901500</v>
       </c>
       <c r="E66" s="3">
-        <v>35613700</v>
+        <v>33525300</v>
       </c>
       <c r="F66" s="3">
-        <v>33146000</v>
+        <v>34447600</v>
       </c>
       <c r="G66" s="3">
-        <v>33070000</v>
+        <v>32060800</v>
       </c>
       <c r="H66" s="3">
-        <v>31395200</v>
+        <v>31987200</v>
       </c>
       <c r="I66" s="3">
-        <v>31174800</v>
+        <v>30367300</v>
       </c>
       <c r="J66" s="3">
+        <v>30154000</v>
+      </c>
+      <c r="K66" s="3">
         <v>32183300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32951700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35737200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37179700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43123400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43742800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42774700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39405000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42031400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43063400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42103500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41435700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>41835200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>41551600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>40942000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>39126200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>38227700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17668200</v>
+        <v>17511500</v>
       </c>
       <c r="E72" s="3">
-        <v>17498800</v>
+        <v>17089700</v>
       </c>
       <c r="F72" s="3">
-        <v>16840000</v>
+        <v>16925800</v>
       </c>
       <c r="G72" s="3">
-        <v>16748000</v>
+        <v>16288600</v>
       </c>
       <c r="H72" s="3">
-        <v>16191000</v>
+        <v>16199600</v>
       </c>
       <c r="I72" s="3">
-        <v>15789000</v>
+        <v>15660800</v>
       </c>
       <c r="J72" s="3">
+        <v>15272000</v>
+      </c>
+      <c r="K72" s="3">
         <v>13213200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13584000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13652500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14504800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14482200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14210100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13693700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14423400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13260200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12808600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12020300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11755000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11222300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10661300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10052200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9326300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11377000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25870600</v>
+        <v>26536700</v>
       </c>
       <c r="E76" s="3">
-        <v>23199200</v>
+        <v>25023600</v>
       </c>
       <c r="F76" s="3">
-        <v>20925700</v>
+        <v>22439600</v>
       </c>
       <c r="G76" s="3">
-        <v>20258300</v>
+        <v>20240500</v>
       </c>
       <c r="H76" s="3">
-        <v>19516700</v>
+        <v>19595000</v>
       </c>
       <c r="I76" s="3">
-        <v>19014300</v>
+        <v>18877700</v>
       </c>
       <c r="J76" s="3">
+        <v>18391700</v>
+      </c>
+      <c r="K76" s="3">
         <v>16728000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16782200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17227300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17605500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18010900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17152000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16793900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18388900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17080700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16974000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15940900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15436300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15794300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15247000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14712700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13942700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>16278500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>358800</v>
+        <v>414000</v>
       </c>
       <c r="E81" s="3">
-        <v>437500</v>
+        <v>347000</v>
       </c>
       <c r="F81" s="3">
-        <v>312200</v>
+        <v>423200</v>
       </c>
       <c r="G81" s="3">
-        <v>560800</v>
+        <v>302000</v>
       </c>
       <c r="H81" s="3">
-        <v>561000</v>
+        <v>542400</v>
       </c>
       <c r="I81" s="3">
-        <v>256100</v>
+        <v>542600</v>
       </c>
       <c r="J81" s="3">
+        <v>247700</v>
+      </c>
+      <c r="K81" s="3">
         <v>595700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>457200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-83900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>419000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>703500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>470000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>456000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1061300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>567300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>522600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>521400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>324800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>734000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>634200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>440800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-426600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>562800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>682800</v>
+        <v>676200</v>
       </c>
       <c r="E83" s="3">
-        <v>685000</v>
+        <v>660500</v>
       </c>
       <c r="F83" s="3">
-        <v>643700</v>
+        <v>662600</v>
       </c>
       <c r="G83" s="3">
-        <v>592300</v>
+        <v>622600</v>
       </c>
       <c r="H83" s="3">
-        <v>565000</v>
+        <v>572900</v>
       </c>
       <c r="I83" s="3">
-        <v>603400</v>
+        <v>546500</v>
       </c>
       <c r="J83" s="3">
+        <v>583700</v>
+      </c>
+      <c r="K83" s="3">
         <v>578400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>606900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>669100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>791500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>824400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>873200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>894300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>742900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>705800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>671900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>651300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>642100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>674700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>652400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>632000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>644100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>590800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>898000</v>
+        <v>524900</v>
       </c>
       <c r="E89" s="3">
-        <v>1089200</v>
+        <v>868600</v>
       </c>
       <c r="F89" s="3">
-        <v>456500</v>
+        <v>1053500</v>
       </c>
       <c r="G89" s="3">
-        <v>-648800</v>
+        <v>441600</v>
       </c>
       <c r="H89" s="3">
-        <v>958200</v>
+        <v>-627600</v>
       </c>
       <c r="I89" s="3">
-        <v>1271600</v>
+        <v>926800</v>
       </c>
       <c r="J89" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1862200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1365900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-847300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1407700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1201600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>308600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>961000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1207300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>440000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-48200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>333000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1437300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1104200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>574700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>709400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2263300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>783400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-427500</v>
+        <v>-418100</v>
       </c>
       <c r="E91" s="3">
-        <v>-487500</v>
+        <v>-413500</v>
       </c>
       <c r="F91" s="3">
-        <v>-433600</v>
+        <v>-471600</v>
       </c>
       <c r="G91" s="3">
-        <v>-361600</v>
+        <v>-419400</v>
       </c>
       <c r="H91" s="3">
-        <v>-432300</v>
+        <v>-349700</v>
       </c>
       <c r="I91" s="3">
-        <v>-732200</v>
+        <v>-418100</v>
       </c>
       <c r="J91" s="3">
+        <v>-708200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-295500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-335400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-408200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-662000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-523700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-632000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-664400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-779200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-668500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-631000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-875100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-940800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-756900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-825000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>575700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-544200</v>
+        <v>-466400</v>
       </c>
       <c r="E94" s="3">
-        <v>-258700</v>
+        <v>-526400</v>
       </c>
       <c r="F94" s="3">
-        <v>-426000</v>
+        <v>-250300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4718900</v>
+        <v>-412100</v>
       </c>
       <c r="H94" s="3">
-        <v>-432100</v>
+        <v>-4564400</v>
       </c>
       <c r="I94" s="3">
-        <v>1427900</v>
+        <v>-418000</v>
       </c>
       <c r="J94" s="3">
+        <v>1381100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-337500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-126400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>375900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-412400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-321400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-554100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-583500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-487500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-260100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-352800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-701100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-949500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-927900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-974900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-477300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-256600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-248200</v>
       </c>
       <c r="F96" s="3">
-        <v>-256600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-248200</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-171000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-171000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-298500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-318800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-320500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-330300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-424000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-210800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-316300</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-205900</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2786900</v>
+        <v>-905900</v>
       </c>
       <c r="E100" s="3">
-        <v>1090700</v>
+        <v>-2695700</v>
       </c>
       <c r="F100" s="3">
-        <v>-874700</v>
+        <v>1054900</v>
       </c>
       <c r="G100" s="3">
-        <v>554500</v>
+        <v>-846000</v>
       </c>
       <c r="H100" s="3">
-        <v>-338600</v>
+        <v>536300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1671400</v>
+        <v>-327500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1616700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-487100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>95700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>891300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>486900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-674100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1527700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-909400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>363300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-42600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>658200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-521600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-110300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-153600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-221900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>542100</v>
+        <v>133500</v>
       </c>
       <c r="E101" s="3">
-        <v>396100</v>
+        <v>524300</v>
       </c>
       <c r="F101" s="3">
-        <v>216900</v>
+        <v>383200</v>
       </c>
       <c r="G101" s="3">
-        <v>48300</v>
+        <v>209800</v>
       </c>
       <c r="H101" s="3">
-        <v>48200</v>
+        <v>46700</v>
       </c>
       <c r="I101" s="3">
-        <v>689600</v>
+        <v>46600</v>
       </c>
       <c r="J101" s="3">
+        <v>667000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-65800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-46200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-141200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>179600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-73000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-218000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>36100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-196900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>158300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>129100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-406600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>97400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>127600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>29700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-280700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1123500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1891100</v>
+        <v>-713900</v>
       </c>
       <c r="E102" s="3">
-        <v>2317200</v>
+        <v>-1829100</v>
       </c>
       <c r="F102" s="3">
-        <v>-627300</v>
+        <v>2241300</v>
       </c>
       <c r="G102" s="3">
-        <v>-4764900</v>
+        <v>-606700</v>
       </c>
       <c r="H102" s="3">
-        <v>235700</v>
+        <v>-4608900</v>
       </c>
       <c r="I102" s="3">
-        <v>1717700</v>
+        <v>228000</v>
       </c>
       <c r="J102" s="3">
+        <v>1661400</v>
+      </c>
+      <c r="K102" s="3">
         <v>971800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1289100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>378100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1340900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>385700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1209100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-749900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-928500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>120600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-281600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>739400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-247900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-546900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1118400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1102400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14818600</v>
+        <v>15880400</v>
       </c>
       <c r="E8" s="3">
-        <v>13994700</v>
+        <v>15362000</v>
       </c>
       <c r="F8" s="3">
-        <v>13934900</v>
+        <v>14507900</v>
       </c>
       <c r="G8" s="3">
-        <v>13398700</v>
+        <v>14445900</v>
       </c>
       <c r="H8" s="3">
-        <v>12344600</v>
+        <v>13890000</v>
       </c>
       <c r="I8" s="3">
-        <v>12708300</v>
+        <v>12797300</v>
       </c>
       <c r="J8" s="3">
+        <v>13174300</v>
+      </c>
+      <c r="K8" s="3">
         <v>12942800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13297600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12987800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11873000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15285100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17411100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17950800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17322700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18448800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19586200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18574800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18259400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18712800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18570900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18013000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>16862100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17042100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>16698500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10842000</v>
+        <v>11699000</v>
       </c>
       <c r="E9" s="3">
-        <v>10254100</v>
+        <v>11239600</v>
       </c>
       <c r="F9" s="3">
-        <v>10066800</v>
+        <v>10630200</v>
       </c>
       <c r="G9" s="3">
-        <v>9664600</v>
+        <v>10436000</v>
       </c>
       <c r="H9" s="3">
-        <v>8917100</v>
+        <v>10019000</v>
       </c>
       <c r="I9" s="3">
-        <v>8975200</v>
+        <v>9244100</v>
       </c>
       <c r="J9" s="3">
+        <v>9304300</v>
+      </c>
+      <c r="K9" s="3">
         <v>9003500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9262500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9197600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8612900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10834500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12305300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12873300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12441200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13007700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14109900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13380700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13159100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13352200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13062600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12689100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11908300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11859300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11737300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3976600</v>
+        <v>4181400</v>
       </c>
       <c r="E10" s="3">
-        <v>3740600</v>
+        <v>4122400</v>
       </c>
       <c r="F10" s="3">
-        <v>3868100</v>
+        <v>3877700</v>
       </c>
       <c r="G10" s="3">
-        <v>3734100</v>
+        <v>4009900</v>
       </c>
       <c r="H10" s="3">
-        <v>3427600</v>
+        <v>3871100</v>
       </c>
       <c r="I10" s="3">
-        <v>3733100</v>
+        <v>3553300</v>
       </c>
       <c r="J10" s="3">
+        <v>3870000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3939300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4035100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3790200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3260100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4450500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5105800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5077500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4881500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5441100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5476200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5194100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5100300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5360600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5508300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5323900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4953800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5182800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4961200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,17 +1236,17 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>21200</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>28300</v>
+        <v>21900</v>
       </c>
       <c r="H14" s="3">
-        <v>208600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>29300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>216300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1241,8 +1260,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1262,8 +1281,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1277,17 +1296,20 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>188100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>20900</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,8 +1379,8 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>8</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14208400</v>
+        <v>15259600</v>
       </c>
       <c r="E17" s="3">
-        <v>13543000</v>
+        <v>14729500</v>
       </c>
       <c r="F17" s="3">
-        <v>13343800</v>
+        <v>14039700</v>
       </c>
       <c r="G17" s="3">
-        <v>12881500</v>
+        <v>13833100</v>
       </c>
       <c r="H17" s="3">
-        <v>11658100</v>
+        <v>13353900</v>
       </c>
       <c r="I17" s="3">
-        <v>11968200</v>
+        <v>12085700</v>
       </c>
       <c r="J17" s="3">
+        <v>12407100</v>
+      </c>
+      <c r="K17" s="3">
         <v>12717400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12343400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12264400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11841000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14817400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16496700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17179700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16806200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17308000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18665300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17689600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17350800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18135700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17484800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16994900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16103400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17032800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>15832400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>610200</v>
+        <v>620800</v>
       </c>
       <c r="E18" s="3">
-        <v>451600</v>
+        <v>632500</v>
       </c>
       <c r="F18" s="3">
-        <v>591100</v>
+        <v>468200</v>
       </c>
       <c r="G18" s="3">
-        <v>517200</v>
+        <v>612800</v>
       </c>
       <c r="H18" s="3">
-        <v>686500</v>
+        <v>536200</v>
       </c>
       <c r="I18" s="3">
-        <v>740000</v>
+        <v>711700</v>
       </c>
       <c r="J18" s="3">
+        <v>767200</v>
+      </c>
+      <c r="K18" s="3">
         <v>225500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>954200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>723400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>32100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>467600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>914500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>771100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>516500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1140800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>920900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>885200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>908600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>577100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1086100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1018100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>758700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>9400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>866100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>49800</v>
+        <v>32100</v>
       </c>
       <c r="E20" s="3">
-        <v>69800</v>
+        <v>51600</v>
       </c>
       <c r="F20" s="3">
-        <v>-16700</v>
+        <v>72400</v>
       </c>
       <c r="G20" s="3">
-        <v>4700</v>
+        <v>-17300</v>
       </c>
       <c r="H20" s="3">
-        <v>2900</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>29500</v>
+        <v>3000</v>
       </c>
       <c r="J20" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K20" s="3">
         <v>63400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-21500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>20800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>11100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-17700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-39500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>32300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1336100</v>
+        <v>1360500</v>
       </c>
       <c r="E21" s="3">
-        <v>1181900</v>
+        <v>1385100</v>
       </c>
       <c r="F21" s="3">
-        <v>1237000</v>
+        <v>1225300</v>
       </c>
       <c r="G21" s="3">
-        <v>1144600</v>
+        <v>1282400</v>
       </c>
       <c r="H21" s="3">
-        <v>1262200</v>
+        <v>1186500</v>
       </c>
       <c r="I21" s="3">
-        <v>1316000</v>
+        <v>1308500</v>
       </c>
       <c r="J21" s="3">
+        <v>1364300</v>
+      </c>
+      <c r="K21" s="3">
         <v>872500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1508600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1308800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>695300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1258300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1736800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1623800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1409300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1916600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1622100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1554500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1580700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1230300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1748100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1672200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1373100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>613900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1489300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,8 +1838,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
@@ -1817,174 +1856,183 @@
       <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="3">
         <v>34900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>659900</v>
+        <v>652900</v>
       </c>
       <c r="E23" s="3">
-        <v>521400</v>
+        <v>684100</v>
       </c>
       <c r="F23" s="3">
-        <v>574400</v>
+        <v>540500</v>
       </c>
       <c r="G23" s="3">
-        <v>521900</v>
+        <v>595500</v>
       </c>
       <c r="H23" s="3">
-        <v>689300</v>
+        <v>541100</v>
       </c>
       <c r="I23" s="3">
-        <v>769500</v>
+        <v>714600</v>
       </c>
       <c r="J23" s="3">
+        <v>797700</v>
+      </c>
+      <c r="K23" s="3">
         <v>288800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>930200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>701900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>466800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>912400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>750600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>515000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1173700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>916300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>882700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>929400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>588200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1073400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1019800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>741000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-30200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>863600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>210200</v>
+        <v>237000</v>
       </c>
       <c r="E24" s="3">
-        <v>148700</v>
+        <v>218000</v>
       </c>
       <c r="F24" s="3">
-        <v>140200</v>
+        <v>154200</v>
       </c>
       <c r="G24" s="3">
-        <v>216500</v>
+        <v>145300</v>
       </c>
       <c r="H24" s="3">
-        <v>123100</v>
+        <v>224500</v>
       </c>
       <c r="I24" s="3">
-        <v>193500</v>
+        <v>127600</v>
       </c>
       <c r="J24" s="3">
+        <v>200600</v>
+      </c>
+      <c r="K24" s="3">
         <v>7800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>290400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>204200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>170900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>241200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>64900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>296400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>323600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>370200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>225800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>296900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>352300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>269200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>339400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>250000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>449700</v>
+        <v>415900</v>
       </c>
       <c r="E26" s="3">
-        <v>372700</v>
+        <v>466200</v>
       </c>
       <c r="F26" s="3">
-        <v>434300</v>
+        <v>386400</v>
       </c>
       <c r="G26" s="3">
-        <v>305400</v>
+        <v>450200</v>
       </c>
       <c r="H26" s="3">
-        <v>566200</v>
+        <v>316600</v>
       </c>
       <c r="I26" s="3">
-        <v>576000</v>
+        <v>587000</v>
       </c>
       <c r="J26" s="3">
+        <v>597200</v>
+      </c>
+      <c r="K26" s="3">
         <v>281000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>639800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>497700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-59000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>435600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>741500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>509400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>492500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1108800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>619800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>559100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>559200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>362400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>776500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>667500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>471800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-369600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>613600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>414000</v>
+        <v>408100</v>
       </c>
       <c r="E27" s="3">
-        <v>347000</v>
+        <v>429100</v>
       </c>
       <c r="F27" s="3">
-        <v>423200</v>
+        <v>359800</v>
       </c>
       <c r="G27" s="3">
-        <v>302000</v>
+        <v>438700</v>
       </c>
       <c r="H27" s="3">
-        <v>542400</v>
+        <v>313000</v>
       </c>
       <c r="I27" s="3">
-        <v>542600</v>
+        <v>562300</v>
       </c>
       <c r="J27" s="3">
+        <v>562500</v>
+      </c>
+      <c r="K27" s="3">
         <v>247700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>595700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>457200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-83900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>419000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>703500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>470000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>456000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1061300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>567300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>522600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>521400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>324800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>734000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>634200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>440800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-426600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>562800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49800</v>
+        <v>-32100</v>
       </c>
       <c r="E32" s="3">
-        <v>-69800</v>
+        <v>-51600</v>
       </c>
       <c r="F32" s="3">
-        <v>16700</v>
+        <v>-72400</v>
       </c>
       <c r="G32" s="3">
-        <v>-4700</v>
+        <v>17300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2900</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>-29500</v>
+        <v>-3000</v>
       </c>
       <c r="J32" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-63400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>21500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-20800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-11100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>17700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>39500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-32300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>414000</v>
+        <v>408100</v>
       </c>
       <c r="E33" s="3">
-        <v>347000</v>
+        <v>429100</v>
       </c>
       <c r="F33" s="3">
-        <v>423200</v>
+        <v>359800</v>
       </c>
       <c r="G33" s="3">
-        <v>302000</v>
+        <v>438700</v>
       </c>
       <c r="H33" s="3">
-        <v>542400</v>
+        <v>313000</v>
       </c>
       <c r="I33" s="3">
-        <v>542600</v>
+        <v>562300</v>
       </c>
       <c r="J33" s="3">
+        <v>562500</v>
+      </c>
+      <c r="K33" s="3">
         <v>247700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>595700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>457200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-83900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>419000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>703500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>470000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>456000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1061300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>567300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>522600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>521400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>324800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>734000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>634200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>440800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-426600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>562800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>414000</v>
+        <v>408100</v>
       </c>
       <c r="E35" s="3">
-        <v>347000</v>
+        <v>429100</v>
       </c>
       <c r="F35" s="3">
-        <v>423200</v>
+        <v>359800</v>
       </c>
       <c r="G35" s="3">
-        <v>302000</v>
+        <v>438700</v>
       </c>
       <c r="H35" s="3">
-        <v>542400</v>
+        <v>313000</v>
       </c>
       <c r="I35" s="3">
-        <v>542600</v>
+        <v>562300</v>
       </c>
       <c r="J35" s="3">
+        <v>562500</v>
+      </c>
+      <c r="K35" s="3">
         <v>247700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>595700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>457200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-83900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>419000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>703500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>470000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>456000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1061300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>567300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>522600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>521400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>324800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>734000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>634200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>440800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-426600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>562800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,710 +3093,735 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6006600</v>
+        <v>6027700</v>
       </c>
       <c r="E41" s="3">
-        <v>6720500</v>
+        <v>6226900</v>
       </c>
       <c r="F41" s="3">
-        <v>8549600</v>
+        <v>6966900</v>
       </c>
       <c r="G41" s="3">
-        <v>6308300</v>
+        <v>8863200</v>
       </c>
       <c r="H41" s="3">
-        <v>6915000</v>
+        <v>6539600</v>
       </c>
       <c r="I41" s="3">
-        <v>11523900</v>
+        <v>7168600</v>
       </c>
       <c r="J41" s="3">
+        <v>11946500</v>
+      </c>
+      <c r="K41" s="3">
         <v>11296000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9960700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9553000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9048900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8955400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7873800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7553900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6324100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7421500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8202200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9955100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9622800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9849800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9110400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9358400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9905300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>11271900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>10167700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1151800</v>
+        <v>1091300</v>
       </c>
       <c r="E42" s="3">
-        <v>1608400</v>
+        <v>1194000</v>
       </c>
       <c r="F42" s="3">
-        <v>1493400</v>
+        <v>1667400</v>
       </c>
       <c r="G42" s="3">
-        <v>1137600</v>
+        <v>1548200</v>
       </c>
       <c r="H42" s="3">
-        <v>1000000</v>
+        <v>1179400</v>
       </c>
       <c r="I42" s="3">
-        <v>998000</v>
+        <v>1036600</v>
       </c>
       <c r="J42" s="3">
+        <v>1034600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1060900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>959500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>951700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>885400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1307700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1276400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1234800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1079700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1261800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1453500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1834300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2216400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1840200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1370300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1305300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1359400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9807600</v>
+        <v>9484500</v>
       </c>
       <c r="E43" s="3">
-        <v>9657600</v>
+        <v>10167300</v>
       </c>
       <c r="F43" s="3">
-        <v>9391500</v>
+        <v>10011800</v>
       </c>
       <c r="G43" s="3">
-        <v>9004700</v>
+        <v>9735900</v>
       </c>
       <c r="H43" s="3">
-        <v>8538300</v>
+        <v>9334900</v>
       </c>
       <c r="I43" s="3">
-        <v>8377300</v>
+        <v>8851400</v>
       </c>
       <c r="J43" s="3">
+        <v>8684500</v>
+      </c>
+      <c r="K43" s="3">
         <v>8468200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8428300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8391400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8684800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9261100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10254000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10850800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10566300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11441900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11046700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10690200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9936000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9392400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9350000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9295400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>8475100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7512900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8383500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10178000</v>
+        <v>10335000</v>
       </c>
       <c r="E44" s="3">
-        <v>9358800</v>
+        <v>10551200</v>
       </c>
       <c r="F44" s="3">
-        <v>8030600</v>
+        <v>9702100</v>
       </c>
       <c r="G44" s="3">
-        <v>7509200</v>
+        <v>8325100</v>
       </c>
       <c r="H44" s="3">
-        <v>7061900</v>
+        <v>7784600</v>
       </c>
       <c r="I44" s="3">
-        <v>6508100</v>
+        <v>7320900</v>
       </c>
       <c r="J44" s="3">
+        <v>6746800</v>
+      </c>
+      <c r="K44" s="3">
         <v>5902900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5835500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6182000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7190900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6990900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7997800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9239800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9544700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9768000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10414700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10017000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9418500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>8937000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9474900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>8784700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>8188700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7152000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7391100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800500</v>
+        <v>1619200</v>
       </c>
       <c r="E45" s="3">
-        <v>1410400</v>
+        <v>1866500</v>
       </c>
       <c r="F45" s="3">
-        <v>1116000</v>
+        <v>1462100</v>
       </c>
       <c r="G45" s="3">
-        <v>1120500</v>
+        <v>1157000</v>
       </c>
       <c r="H45" s="3">
-        <v>1042600</v>
+        <v>1161500</v>
       </c>
       <c r="I45" s="3">
-        <v>1124200</v>
+        <v>1080900</v>
       </c>
       <c r="J45" s="3">
+        <v>1165400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1084300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1308600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1278600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2010000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3754600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9011500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3657900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1814100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1570900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1877700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1738200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1664900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1493600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1548200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1420800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1613100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1217000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4283600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28944400</v>
+        <v>28557600</v>
       </c>
       <c r="E46" s="3">
-        <v>28755800</v>
+        <v>30005900</v>
       </c>
       <c r="F46" s="3">
-        <v>28581200</v>
+        <v>29810300</v>
       </c>
       <c r="G46" s="3">
-        <v>25080200</v>
+        <v>29629300</v>
       </c>
       <c r="H46" s="3">
-        <v>24557900</v>
+        <v>26000000</v>
       </c>
       <c r="I46" s="3">
-        <v>28531500</v>
+        <v>25458400</v>
       </c>
       <c r="J46" s="3">
+        <v>29577800</v>
+      </c>
+      <c r="K46" s="3">
         <v>27812300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26492500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26356700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27820000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30269700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36413500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32537100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29328900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31464000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32994900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34234800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>32858600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>31513100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30853900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30164500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>29541600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>28426700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30226000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4599700</v>
+        <v>4682600</v>
       </c>
       <c r="E47" s="3">
-        <v>4534500</v>
+        <v>4768400</v>
       </c>
       <c r="F47" s="3">
-        <v>4369000</v>
+        <v>4700800</v>
       </c>
       <c r="G47" s="3">
-        <v>4127000</v>
+        <v>4529300</v>
       </c>
       <c r="H47" s="3">
-        <v>4244200</v>
+        <v>4278300</v>
       </c>
       <c r="I47" s="3">
-        <v>4791600</v>
+        <v>4399900</v>
       </c>
       <c r="J47" s="3">
+        <v>4967300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4870700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6533000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6274900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6157500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4600200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3092700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3171800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3358500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3389600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3038200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2861000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2984200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2842400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3008100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2987700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2901200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2820400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3053000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9877600</v>
+        <v>10024300</v>
       </c>
       <c r="E48" s="3">
-        <v>9863800</v>
+        <v>10239800</v>
       </c>
       <c r="F48" s="3">
-        <v>9734900</v>
+        <v>10225500</v>
       </c>
       <c r="G48" s="3">
-        <v>9297800</v>
+        <v>10091900</v>
       </c>
       <c r="H48" s="3">
-        <v>9274900</v>
+        <v>9638800</v>
       </c>
       <c r="I48" s="3">
-        <v>9304200</v>
+        <v>9615000</v>
       </c>
       <c r="J48" s="3">
+        <v>9645400</v>
+      </c>
+      <c r="K48" s="3">
         <v>9299000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9105300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9800300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10875000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11415200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12299100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15781700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17067500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12727200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12503100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12460500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12044500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12421600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13070000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12836900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12427600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11737500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>11622200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13589400</v>
+        <v>13090300</v>
       </c>
       <c r="E49" s="3">
-        <v>13028100</v>
+        <v>14087800</v>
       </c>
       <c r="F49" s="3">
-        <v>11911400</v>
+        <v>13505900</v>
       </c>
       <c r="G49" s="3">
-        <v>11394100</v>
+        <v>12348200</v>
       </c>
       <c r="H49" s="3">
-        <v>11089900</v>
+        <v>11811900</v>
       </c>
       <c r="I49" s="3">
-        <v>4257100</v>
+        <v>11496500</v>
       </c>
       <c r="J49" s="3">
+        <v>4413200</v>
+      </c>
+      <c r="K49" s="3">
         <v>4268500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4455200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4776200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5265000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5467600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6044300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6071400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6421400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6914900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6975600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6982600</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -3719,17 +3829,20 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>5899700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7114500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2426900</v>
+        <v>2493800</v>
       </c>
       <c r="E52" s="3">
-        <v>2366800</v>
+        <v>2515900</v>
       </c>
       <c r="F52" s="3">
-        <v>2290700</v>
+        <v>2453500</v>
       </c>
       <c r="G52" s="3">
-        <v>2402200</v>
+        <v>2374700</v>
       </c>
       <c r="H52" s="3">
-        <v>2415400</v>
+        <v>2490300</v>
       </c>
       <c r="I52" s="3">
-        <v>2360600</v>
+        <v>2503900</v>
       </c>
       <c r="J52" s="3">
+        <v>2447200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2295300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2325400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2525800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2847000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3032500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3284700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3332800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3392200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3298100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3600300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3498500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10157200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3421200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10697500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10809400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10784400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4184500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2490500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59438100</v>
+        <v>58848600</v>
       </c>
       <c r="E54" s="3">
-        <v>58548900</v>
+        <v>61617800</v>
       </c>
       <c r="F54" s="3">
-        <v>56887200</v>
+        <v>60696000</v>
       </c>
       <c r="G54" s="3">
-        <v>52301300</v>
+        <v>58973300</v>
       </c>
       <c r="H54" s="3">
-        <v>51582200</v>
+        <v>54219300</v>
       </c>
       <c r="I54" s="3">
-        <v>49245000</v>
+        <v>53473800</v>
       </c>
       <c r="J54" s="3">
+        <v>51050800</v>
+      </c>
+      <c r="K54" s="3">
         <v>48545700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48911300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49733900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>52964500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>54785100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61134300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60894800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59568600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57793900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59112100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60037400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>58044400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56872000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>57629500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56798500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>55654700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>53068900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>54506200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12550200</v>
+        <v>12536300</v>
       </c>
       <c r="E57" s="3">
-        <v>12177500</v>
+        <v>13010500</v>
       </c>
       <c r="F57" s="3">
-        <v>11799000</v>
+        <v>12624100</v>
       </c>
       <c r="G57" s="3">
-        <v>7939300</v>
+        <v>12231700</v>
       </c>
       <c r="H57" s="3">
-        <v>7613400</v>
+        <v>8230500</v>
       </c>
       <c r="I57" s="3">
-        <v>7586300</v>
+        <v>7892600</v>
       </c>
       <c r="J57" s="3">
+        <v>7864500</v>
+      </c>
+      <c r="K57" s="3">
         <v>7413400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7084300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6831600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7255600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8543000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9305300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9780500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10150400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11062800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11331900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11005700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10511700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10364100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10254300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9923500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9363400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>8479400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8700400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1073600</v>
+        <v>2103300</v>
       </c>
       <c r="E58" s="3">
-        <v>1567800</v>
+        <v>1113000</v>
       </c>
       <c r="F58" s="3">
-        <v>3498300</v>
+        <v>1625300</v>
       </c>
       <c r="G58" s="3">
-        <v>2226600</v>
+        <v>3626600</v>
       </c>
       <c r="H58" s="3">
-        <v>5509400</v>
+        <v>2308300</v>
       </c>
       <c r="I58" s="3">
-        <v>2657400</v>
+        <v>5711500</v>
       </c>
       <c r="J58" s="3">
+        <v>2754800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2617200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3616400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5605200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4218000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2775100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3029200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3462300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4022900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3747500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3093600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4652200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4131900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3393500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1725000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1660200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1652900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1570300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>219800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7055600</v>
+        <v>7126300</v>
       </c>
       <c r="E59" s="3">
-        <v>7147400</v>
+        <v>7314300</v>
       </c>
       <c r="F59" s="3">
-        <v>6436800</v>
+        <v>7409500</v>
       </c>
       <c r="G59" s="3">
-        <v>9277000</v>
+        <v>6672900</v>
       </c>
       <c r="H59" s="3">
-        <v>9257500</v>
+        <v>9617200</v>
       </c>
       <c r="I59" s="3">
-        <v>9884900</v>
+        <v>9597000</v>
       </c>
       <c r="J59" s="3">
+        <v>10247400</v>
+      </c>
+      <c r="K59" s="3">
         <v>9852100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9384400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9459600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10516100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11729800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16897600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13430800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13528400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13918400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14190600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14163400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14387700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14247600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14958100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14818300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>15005300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14006300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>12533100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20679400</v>
+        <v>21765900</v>
       </c>
       <c r="E60" s="3">
-        <v>20892700</v>
+        <v>21437800</v>
       </c>
       <c r="F60" s="3">
-        <v>21734100</v>
+        <v>21658900</v>
       </c>
       <c r="G60" s="3">
-        <v>19442900</v>
+        <v>22531200</v>
       </c>
       <c r="H60" s="3">
-        <v>22380400</v>
+        <v>20155900</v>
       </c>
       <c r="I60" s="3">
-        <v>20128600</v>
+        <v>23201100</v>
       </c>
       <c r="J60" s="3">
+        <v>20866700</v>
+      </c>
+      <c r="K60" s="3">
         <v>19882700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20085100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21896400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21989700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23047900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29232100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26673600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27701700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28728600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28616200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29821400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29031300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>28005300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26937300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26402000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26021600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>24056000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>21453400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9541800</v>
+        <v>9088000</v>
       </c>
       <c r="E61" s="3">
-        <v>9993900</v>
+        <v>9891700</v>
       </c>
       <c r="F61" s="3">
-        <v>9953500</v>
+        <v>10360400</v>
       </c>
       <c r="G61" s="3">
-        <v>9727200</v>
+        <v>10318500</v>
       </c>
       <c r="H61" s="3">
-        <v>6900400</v>
+        <v>10084000</v>
       </c>
       <c r="I61" s="3">
-        <v>7666400</v>
+        <v>7153400</v>
       </c>
       <c r="J61" s="3">
+        <v>7947500</v>
+      </c>
+      <c r="K61" s="3">
         <v>7645100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8303100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7397600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9842400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10187100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9626900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12764200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10550900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5850200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7834600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7722100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7561500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7811000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8742800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8783300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8782800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8399600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9757300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1346700</v>
+        <v>1305200</v>
       </c>
       <c r="E62" s="3">
-        <v>1325900</v>
+        <v>1396100</v>
       </c>
       <c r="F62" s="3">
-        <v>1468200</v>
+        <v>1374500</v>
       </c>
       <c r="G62" s="3">
-        <v>1636100</v>
+        <v>1522000</v>
       </c>
       <c r="H62" s="3">
-        <v>1481600</v>
+        <v>1696100</v>
       </c>
       <c r="I62" s="3">
-        <v>1355000</v>
+        <v>1536000</v>
       </c>
       <c r="J62" s="3">
+        <v>1404700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1389300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2614600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2466900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2640900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2556900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2740400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2843400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3030500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3181900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3974200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3959200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4004300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4039800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4534000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4657500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4589900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5002700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5716900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32901500</v>
+        <v>33423200</v>
       </c>
       <c r="E66" s="3">
-        <v>33525300</v>
+        <v>34108000</v>
       </c>
       <c r="F66" s="3">
-        <v>34447600</v>
+        <v>34754700</v>
       </c>
       <c r="G66" s="3">
-        <v>32060800</v>
+        <v>35710900</v>
       </c>
       <c r="H66" s="3">
-        <v>31987200</v>
+        <v>33236500</v>
       </c>
       <c r="I66" s="3">
-        <v>30367300</v>
+        <v>33160200</v>
       </c>
       <c r="J66" s="3">
+        <v>31480900</v>
+      </c>
+      <c r="K66" s="3">
         <v>30154000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32183300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32951700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35737200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37179700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43123400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43742800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42774700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39405000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42031400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43063400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42103500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>41435700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>41835200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>41551600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>40942000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>39126200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>38227700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17511500</v>
+        <v>18300300</v>
       </c>
       <c r="E72" s="3">
-        <v>17089700</v>
+        <v>18153700</v>
       </c>
       <c r="F72" s="3">
-        <v>16925800</v>
+        <v>17716400</v>
       </c>
       <c r="G72" s="3">
-        <v>16288600</v>
+        <v>17546500</v>
       </c>
       <c r="H72" s="3">
-        <v>16199600</v>
+        <v>16885900</v>
       </c>
       <c r="I72" s="3">
-        <v>15660800</v>
+        <v>16793600</v>
       </c>
       <c r="J72" s="3">
+        <v>16235100</v>
+      </c>
+      <c r="K72" s="3">
         <v>15272000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13213200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13584000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13652500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14504800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14482200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14210100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13693700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14423400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13260200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12808600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12020300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11755000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11222300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10661300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10052200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9326300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11377000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26536700</v>
+        <v>25425400</v>
       </c>
       <c r="E76" s="3">
-        <v>25023600</v>
+        <v>27509800</v>
       </c>
       <c r="F76" s="3">
-        <v>22439600</v>
+        <v>25941200</v>
       </c>
       <c r="G76" s="3">
-        <v>20240500</v>
+        <v>23262500</v>
       </c>
       <c r="H76" s="3">
-        <v>19595000</v>
+        <v>20982800</v>
       </c>
       <c r="I76" s="3">
-        <v>18877700</v>
+        <v>20313600</v>
       </c>
       <c r="J76" s="3">
+        <v>19569900</v>
+      </c>
+      <c r="K76" s="3">
         <v>18391700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16728000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16782200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17227300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17605500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18010900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17152000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16793900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18388900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17080700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16974000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15940900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15436300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15794300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15247000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14712700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13942700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>16278500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>414000</v>
+        <v>408100</v>
       </c>
       <c r="E81" s="3">
-        <v>347000</v>
+        <v>429100</v>
       </c>
       <c r="F81" s="3">
-        <v>423200</v>
+        <v>359800</v>
       </c>
       <c r="G81" s="3">
-        <v>302000</v>
+        <v>438700</v>
       </c>
       <c r="H81" s="3">
-        <v>542400</v>
+        <v>313000</v>
       </c>
       <c r="I81" s="3">
-        <v>542600</v>
+        <v>562300</v>
       </c>
       <c r="J81" s="3">
+        <v>562500</v>
+      </c>
+      <c r="K81" s="3">
         <v>247700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>595700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>457200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-83900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>419000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>703500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>470000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>456000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1061300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>567300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>522600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>521400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>324800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>734000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>634200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>440800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-426600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>562800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>676200</v>
+        <v>707700</v>
       </c>
       <c r="E83" s="3">
-        <v>660500</v>
+        <v>701000</v>
       </c>
       <c r="F83" s="3">
-        <v>662600</v>
+        <v>684700</v>
       </c>
       <c r="G83" s="3">
-        <v>622600</v>
+        <v>686900</v>
       </c>
       <c r="H83" s="3">
-        <v>572900</v>
+        <v>645500</v>
       </c>
       <c r="I83" s="3">
-        <v>546500</v>
+        <v>593900</v>
       </c>
       <c r="J83" s="3">
+        <v>566500</v>
+      </c>
+      <c r="K83" s="3">
         <v>583700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>578400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>606900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>669100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>791500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>824400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>873200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>894300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>742900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>705800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>671900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>651300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>642100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>674700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>652400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>632000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>644100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>590800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>524900</v>
+        <v>861300</v>
       </c>
       <c r="E89" s="3">
-        <v>868600</v>
+        <v>544100</v>
       </c>
       <c r="F89" s="3">
-        <v>1053500</v>
+        <v>900500</v>
       </c>
       <c r="G89" s="3">
-        <v>441600</v>
+        <v>1092100</v>
       </c>
       <c r="H89" s="3">
-        <v>-627600</v>
+        <v>457800</v>
       </c>
       <c r="I89" s="3">
-        <v>926800</v>
+        <v>-650600</v>
       </c>
       <c r="J89" s="3">
+        <v>960800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1230000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1862200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1365900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-847300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1407700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1201600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>308600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>961000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1207300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>440000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-48200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>333000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1437300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1104200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>574700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>709400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2263300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>783400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-418100</v>
+        <v>-543700</v>
       </c>
       <c r="E91" s="3">
-        <v>-413500</v>
+        <v>-433500</v>
       </c>
       <c r="F91" s="3">
-        <v>-471600</v>
+        <v>-428700</v>
       </c>
       <c r="G91" s="3">
-        <v>-419400</v>
+        <v>-488900</v>
       </c>
       <c r="H91" s="3">
-        <v>-349700</v>
+        <v>-434700</v>
       </c>
       <c r="I91" s="3">
-        <v>-418100</v>
+        <v>-362600</v>
       </c>
       <c r="J91" s="3">
+        <v>-433500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-708200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-295500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-335400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-408200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-662000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-523700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-632000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-664400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-779200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-668500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-631000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-875100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-940800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-756900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-825000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>575700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-466400</v>
+        <v>-556900</v>
       </c>
       <c r="E94" s="3">
-        <v>-526400</v>
+        <v>-483500</v>
       </c>
       <c r="F94" s="3">
-        <v>-250300</v>
+        <v>-545700</v>
       </c>
       <c r="G94" s="3">
-        <v>-412100</v>
+        <v>-259400</v>
       </c>
       <c r="H94" s="3">
-        <v>-4564400</v>
+        <v>-427200</v>
       </c>
       <c r="I94" s="3">
-        <v>-418000</v>
+        <v>-4731800</v>
       </c>
       <c r="J94" s="3">
+        <v>-433300</v>
+      </c>
+      <c r="K94" s="3">
         <v>1381100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-337500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-126400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>375900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-412400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-321400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-554100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-583500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-487500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-260100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-352800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-701100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-949500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-927900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-974900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-477300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-257300</v>
       </c>
       <c r="E96" s="3">
-        <v>-248200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-257300</v>
       </c>
       <c r="G96" s="3">
-        <v>-248200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-257300</v>
       </c>
       <c r="I96" s="3">
-        <v>-165400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-171500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-171000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-298500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-318800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-320500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-330300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-424000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-210800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-316300</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-205900</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-905900</v>
+        <v>-63400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2695700</v>
+        <v>-939100</v>
       </c>
       <c r="F100" s="3">
-        <v>1054900</v>
+        <v>-2794500</v>
       </c>
       <c r="G100" s="3">
-        <v>-846000</v>
+        <v>1093600</v>
       </c>
       <c r="H100" s="3">
-        <v>536300</v>
+        <v>-877100</v>
       </c>
       <c r="I100" s="3">
-        <v>-327500</v>
+        <v>556000</v>
       </c>
       <c r="J100" s="3">
+        <v>-339500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1616700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-487100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>95700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>891300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>486900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-674100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1527700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-909400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>363300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-42600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>658200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-521600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-110300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-153600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-221900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>133500</v>
+        <v>-440100</v>
       </c>
       <c r="E101" s="3">
-        <v>524300</v>
+        <v>138400</v>
       </c>
       <c r="F101" s="3">
-        <v>383200</v>
+        <v>543500</v>
       </c>
       <c r="G101" s="3">
-        <v>209800</v>
+        <v>397200</v>
       </c>
       <c r="H101" s="3">
-        <v>46700</v>
+        <v>217500</v>
       </c>
       <c r="I101" s="3">
-        <v>46600</v>
+        <v>48500</v>
       </c>
       <c r="J101" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K101" s="3">
         <v>667000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-65800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-46200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-141200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>179600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-218000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>36100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-196900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>158300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>129100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-406600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>97400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>127600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>29700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-280700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1123500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-713900</v>
+        <v>-199100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1829100</v>
+        <v>-740100</v>
       </c>
       <c r="F102" s="3">
-        <v>2241300</v>
+        <v>-1896200</v>
       </c>
       <c r="G102" s="3">
-        <v>-606700</v>
+        <v>2323500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4608900</v>
+        <v>-629000</v>
       </c>
       <c r="I102" s="3">
-        <v>228000</v>
+        <v>-4777900</v>
       </c>
       <c r="J102" s="3">
+        <v>236300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1661400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>971800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1289100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>378100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1340900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>385700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1209100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-749900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-928500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>120600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-281600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>739400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-247900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-546900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1118400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1102400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,380 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15880400</v>
+        <v>15533400</v>
       </c>
       <c r="E8" s="3">
-        <v>15362000</v>
+        <v>15577900</v>
       </c>
       <c r="F8" s="3">
-        <v>14507900</v>
+        <v>15069400</v>
       </c>
       <c r="G8" s="3">
-        <v>14445900</v>
+        <v>14231500</v>
       </c>
       <c r="H8" s="3">
-        <v>13890000</v>
+        <v>14170800</v>
       </c>
       <c r="I8" s="3">
-        <v>12797300</v>
+        <v>13625500</v>
       </c>
       <c r="J8" s="3">
+        <v>12553600</v>
+      </c>
+      <c r="K8" s="3">
         <v>13174300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12942800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13297600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12987800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11873000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15285100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17411100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17950800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17322700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18448800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19586200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18574800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18259400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18712800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18570900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18013000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>16862100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>17042100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>16698500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11699000</v>
+        <v>11177800</v>
       </c>
       <c r="E9" s="3">
-        <v>11239600</v>
+        <v>11476100</v>
       </c>
       <c r="F9" s="3">
-        <v>10630200</v>
+        <v>11025500</v>
       </c>
       <c r="G9" s="3">
-        <v>10436000</v>
+        <v>10427700</v>
       </c>
       <c r="H9" s="3">
-        <v>10019000</v>
+        <v>10237200</v>
       </c>
       <c r="I9" s="3">
-        <v>9244100</v>
+        <v>9828100</v>
       </c>
       <c r="J9" s="3">
+        <v>9068000</v>
+      </c>
+      <c r="K9" s="3">
         <v>9304300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9003500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9262500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9197600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8612900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10834500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12305300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12873300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12441200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13007700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14109900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13380700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13159100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13352200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13062600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12689100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>11908300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11859300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11737300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4181400</v>
+        <v>4355600</v>
       </c>
       <c r="E10" s="3">
-        <v>4122400</v>
+        <v>4101700</v>
       </c>
       <c r="F10" s="3">
-        <v>3877700</v>
+        <v>4043900</v>
       </c>
       <c r="G10" s="3">
-        <v>4009900</v>
+        <v>3803900</v>
       </c>
       <c r="H10" s="3">
-        <v>3871100</v>
+        <v>3933600</v>
       </c>
       <c r="I10" s="3">
-        <v>3553300</v>
+        <v>3797300</v>
       </c>
       <c r="J10" s="3">
+        <v>3485600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3870000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3939300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4035100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3790200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3260100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4450500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5105800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5077500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4881500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5441100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5476200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5194100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5100300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5360600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5508300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5323900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4953800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5182800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4961200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1068,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1152,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1238,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,17 +1255,17 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>21900</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>29300</v>
+        <v>21500</v>
       </c>
       <c r="I14" s="3">
-        <v>216300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>28800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>212100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1279,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1284,8 +1300,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1299,17 +1315,20 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3">
         <v>188100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>20900</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1382,8 +1401,8 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>8</v>
+      <c r="AA15" s="3">
+        <v>0</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>8</v>
@@ -1391,8 +1410,11 @@
       <c r="AC15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1441,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15259600</v>
+        <v>15141500</v>
       </c>
       <c r="E17" s="3">
-        <v>14729500</v>
+        <v>14968900</v>
       </c>
       <c r="F17" s="3">
-        <v>14039700</v>
+        <v>14448900</v>
       </c>
       <c r="G17" s="3">
-        <v>13833100</v>
+        <v>13772300</v>
       </c>
       <c r="H17" s="3">
-        <v>13353900</v>
+        <v>13569700</v>
       </c>
       <c r="I17" s="3">
-        <v>12085700</v>
+        <v>13099500</v>
       </c>
       <c r="J17" s="3">
+        <v>11855500</v>
+      </c>
+      <c r="K17" s="3">
         <v>12407100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12717400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12343400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12264400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11841000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14817400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16496700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17179700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16806200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17308000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18665300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17689600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17350800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18135700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17484800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>16994900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16103400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17032800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>15832400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>620800</v>
+        <v>391900</v>
       </c>
       <c r="E18" s="3">
-        <v>632500</v>
+        <v>609000</v>
       </c>
       <c r="F18" s="3">
-        <v>468200</v>
+        <v>620500</v>
       </c>
       <c r="G18" s="3">
-        <v>612800</v>
+        <v>459300</v>
       </c>
       <c r="H18" s="3">
-        <v>536200</v>
+        <v>601100</v>
       </c>
       <c r="I18" s="3">
-        <v>711700</v>
+        <v>526000</v>
       </c>
       <c r="J18" s="3">
+        <v>698100</v>
+      </c>
+      <c r="K18" s="3">
         <v>767200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>225500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>954200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>723400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>467600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>914500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>771100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>516500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1140800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>920900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>885200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>908600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>577100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1086100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1018100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>758700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>866100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1645,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>32100</v>
+        <v>47700</v>
       </c>
       <c r="E20" s="3">
-        <v>51600</v>
+        <v>31500</v>
       </c>
       <c r="F20" s="3">
-        <v>72400</v>
+        <v>50600</v>
       </c>
       <c r="G20" s="3">
-        <v>-17300</v>
+        <v>71000</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>-17000</v>
       </c>
       <c r="I20" s="3">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="J20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K20" s="3">
         <v>30600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>63400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-21500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>20800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>11100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-17700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-39500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>32300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1360500</v>
+        <v>1142400</v>
       </c>
       <c r="E21" s="3">
-        <v>1385100</v>
+        <v>1334600</v>
       </c>
       <c r="F21" s="3">
-        <v>1225300</v>
+        <v>1358700</v>
       </c>
       <c r="G21" s="3">
-        <v>1282400</v>
+        <v>1201900</v>
       </c>
       <c r="H21" s="3">
-        <v>1186500</v>
+        <v>1257900</v>
       </c>
       <c r="I21" s="3">
-        <v>1308500</v>
+        <v>1163900</v>
       </c>
       <c r="J21" s="3">
+        <v>1283600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1364300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>872500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1508600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1308800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>695300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1258300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1736800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1623800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1409300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1916600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1622100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1554500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1580700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1230300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1748100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1672200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1373100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>613900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1489300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1841,8 +1877,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
@@ -1859,180 +1895,189 @@
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="3">
         <v>34900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>652900</v>
+        <v>439500</v>
       </c>
       <c r="E23" s="3">
-        <v>684100</v>
+        <v>640400</v>
       </c>
       <c r="F23" s="3">
-        <v>540500</v>
+        <v>671100</v>
       </c>
       <c r="G23" s="3">
-        <v>595500</v>
+        <v>530300</v>
       </c>
       <c r="H23" s="3">
-        <v>541100</v>
+        <v>584100</v>
       </c>
       <c r="I23" s="3">
-        <v>714600</v>
+        <v>530800</v>
       </c>
       <c r="J23" s="3">
+        <v>701000</v>
+      </c>
+      <c r="K23" s="3">
         <v>797700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>288800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>930200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>701900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>466800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>912400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>750600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>515000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1173700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>916300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>882700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>929400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>588200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1073400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1019800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>741000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-30200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>863600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>237000</v>
+        <v>-339000</v>
       </c>
       <c r="E24" s="3">
-        <v>218000</v>
+        <v>232400</v>
       </c>
       <c r="F24" s="3">
-        <v>154200</v>
+        <v>213800</v>
       </c>
       <c r="G24" s="3">
-        <v>145300</v>
+        <v>151300</v>
       </c>
       <c r="H24" s="3">
-        <v>224500</v>
+        <v>142500</v>
       </c>
       <c r="I24" s="3">
-        <v>127600</v>
+        <v>220200</v>
       </c>
       <c r="J24" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K24" s="3">
         <v>200600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>290400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>204200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>170900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>241200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>64900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>296400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>323600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>370200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>225800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>296900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>352300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>269200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>339400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>250000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2159,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>415900</v>
+        <v>778500</v>
       </c>
       <c r="E26" s="3">
-        <v>466200</v>
+        <v>408000</v>
       </c>
       <c r="F26" s="3">
-        <v>386400</v>
+        <v>457300</v>
       </c>
       <c r="G26" s="3">
-        <v>450200</v>
+        <v>379000</v>
       </c>
       <c r="H26" s="3">
-        <v>316600</v>
+        <v>441600</v>
       </c>
       <c r="I26" s="3">
-        <v>587000</v>
+        <v>310600</v>
       </c>
       <c r="J26" s="3">
+        <v>575800</v>
+      </c>
+      <c r="K26" s="3">
         <v>597200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>281000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>639800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>497700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-59000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>435600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>741500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>509400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>492500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1108800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>619800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>559100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>559200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>362400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>776500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>667500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>471800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-369600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>613600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>408100</v>
+        <v>739900</v>
       </c>
       <c r="E27" s="3">
-        <v>429100</v>
+        <v>400400</v>
       </c>
       <c r="F27" s="3">
-        <v>359800</v>
+        <v>421000</v>
       </c>
       <c r="G27" s="3">
-        <v>438700</v>
+        <v>352900</v>
       </c>
       <c r="H27" s="3">
-        <v>313000</v>
+        <v>430400</v>
       </c>
       <c r="I27" s="3">
-        <v>562300</v>
+        <v>307100</v>
       </c>
       <c r="J27" s="3">
+        <v>551600</v>
+      </c>
+      <c r="K27" s="3">
         <v>562500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>247700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>595700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>457200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-83900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>419000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>703500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>470000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>456000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1061300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>567300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>522600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>521400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>324800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>734000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>634200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>440800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-426600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>562800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2417,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2503,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2589,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2675,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-32100</v>
+        <v>-47700</v>
       </c>
       <c r="E32" s="3">
-        <v>-51600</v>
+        <v>-31500</v>
       </c>
       <c r="F32" s="3">
-        <v>-72400</v>
+        <v>-50600</v>
       </c>
       <c r="G32" s="3">
-        <v>17300</v>
+        <v>-71000</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>17000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3000</v>
+        <v>-4800</v>
       </c>
       <c r="J32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-30600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-63400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>21500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-20800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-11100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>17700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>39500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-32300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>408100</v>
+        <v>739900</v>
       </c>
       <c r="E33" s="3">
-        <v>429100</v>
+        <v>400400</v>
       </c>
       <c r="F33" s="3">
-        <v>359800</v>
+        <v>421000</v>
       </c>
       <c r="G33" s="3">
-        <v>438700</v>
+        <v>352900</v>
       </c>
       <c r="H33" s="3">
-        <v>313000</v>
+        <v>430400</v>
       </c>
       <c r="I33" s="3">
-        <v>562300</v>
+        <v>307100</v>
       </c>
       <c r="J33" s="3">
+        <v>551600</v>
+      </c>
+      <c r="K33" s="3">
         <v>562500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>247700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>595700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>457200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-83900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>419000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>703500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>470000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>456000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1061300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>567300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>522600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>521400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>324800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>734000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>634200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>440800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-426600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>562800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2933,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>408100</v>
+        <v>739900</v>
       </c>
       <c r="E35" s="3">
-        <v>429100</v>
+        <v>400400</v>
       </c>
       <c r="F35" s="3">
-        <v>359800</v>
+        <v>421000</v>
       </c>
       <c r="G35" s="3">
-        <v>438700</v>
+        <v>352900</v>
       </c>
       <c r="H35" s="3">
-        <v>313000</v>
+        <v>430400</v>
       </c>
       <c r="I35" s="3">
-        <v>562300</v>
+        <v>307100</v>
       </c>
       <c r="J35" s="3">
+        <v>551600</v>
+      </c>
+      <c r="K35" s="3">
         <v>562500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>247700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>595700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>457200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-83900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>419000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>703500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>470000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>456000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1061300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>567300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>522600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>521400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>324800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>734000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>634200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>440800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-426600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>562800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3144,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,737 +3176,762 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6027700</v>
+        <v>5908600</v>
       </c>
       <c r="E41" s="3">
-        <v>6226900</v>
+        <v>5912900</v>
       </c>
       <c r="F41" s="3">
-        <v>6966900</v>
+        <v>6108300</v>
       </c>
       <c r="G41" s="3">
-        <v>8863200</v>
+        <v>6834200</v>
       </c>
       <c r="H41" s="3">
-        <v>6539600</v>
+        <v>8694300</v>
       </c>
       <c r="I41" s="3">
-        <v>7168600</v>
+        <v>6415100</v>
       </c>
       <c r="J41" s="3">
+        <v>7032000</v>
+      </c>
+      <c r="K41" s="3">
         <v>11946500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11296000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9960700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9553000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9048900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8955400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7873800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7553900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6324100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7421500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8202200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9955100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9622800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9849800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9110400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9358400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9905300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11271900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>10167700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1091300</v>
+        <v>1223300</v>
       </c>
       <c r="E42" s="3">
-        <v>1194000</v>
+        <v>1070500</v>
       </c>
       <c r="F42" s="3">
-        <v>1667400</v>
+        <v>1171300</v>
       </c>
       <c r="G42" s="3">
-        <v>1548200</v>
+        <v>1635600</v>
       </c>
       <c r="H42" s="3">
-        <v>1179400</v>
+        <v>1518700</v>
       </c>
       <c r="I42" s="3">
-        <v>1036600</v>
+        <v>1156900</v>
       </c>
       <c r="J42" s="3">
+        <v>1016900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1034600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1060900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>959500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>951700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>885400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1307700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1276400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1234800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1079700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1261800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1453500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1834300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2216400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1840200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1370300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1305300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1359400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="AB42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9484500</v>
+        <v>9535900</v>
       </c>
       <c r="E43" s="3">
-        <v>10167300</v>
+        <v>9303800</v>
       </c>
       <c r="F43" s="3">
-        <v>10011800</v>
+        <v>9973600</v>
       </c>
       <c r="G43" s="3">
-        <v>9735900</v>
+        <v>9821100</v>
       </c>
       <c r="H43" s="3">
-        <v>9334900</v>
+        <v>9550500</v>
       </c>
       <c r="I43" s="3">
-        <v>8851400</v>
+        <v>9157100</v>
       </c>
       <c r="J43" s="3">
+        <v>8682800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8684500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8468200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8428300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8391400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8684800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9261100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10254000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10850800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10566300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11441900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11046700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10690200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9936000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9392400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9350000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9295400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>8475100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7512900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8383500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10335000</v>
+        <v>9291900</v>
       </c>
       <c r="E44" s="3">
-        <v>10551200</v>
+        <v>10138200</v>
       </c>
       <c r="F44" s="3">
-        <v>9702100</v>
+        <v>10350200</v>
       </c>
       <c r="G44" s="3">
-        <v>8325100</v>
+        <v>9517300</v>
       </c>
       <c r="H44" s="3">
-        <v>7784600</v>
+        <v>8166500</v>
       </c>
       <c r="I44" s="3">
-        <v>7320900</v>
+        <v>7636300</v>
       </c>
       <c r="J44" s="3">
+        <v>7181500</v>
+      </c>
+      <c r="K44" s="3">
         <v>6746800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5902900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5835500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6182000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7190900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6990900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7997800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9239800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9544700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9768000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10414700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10017000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9418500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>8937000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>9474900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>8784700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>8188700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7152000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>7391100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1619200</v>
+        <v>1459100</v>
       </c>
       <c r="E45" s="3">
-        <v>1866500</v>
+        <v>1588300</v>
       </c>
       <c r="F45" s="3">
-        <v>1462100</v>
+        <v>1831000</v>
       </c>
       <c r="G45" s="3">
-        <v>1157000</v>
+        <v>1434300</v>
       </c>
       <c r="H45" s="3">
-        <v>1161500</v>
+        <v>1134900</v>
       </c>
       <c r="I45" s="3">
-        <v>1080900</v>
+        <v>1139400</v>
       </c>
       <c r="J45" s="3">
+        <v>1060300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1165400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1084300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1308600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1278600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2010000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3754600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9011500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3657900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1814100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1570900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1877700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1738200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1664900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1493600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1548200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1420800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1613100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1217000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4283600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28557600</v>
+        <v>27418800</v>
       </c>
       <c r="E46" s="3">
-        <v>30005900</v>
+        <v>28013700</v>
       </c>
       <c r="F46" s="3">
-        <v>29810300</v>
+        <v>29434300</v>
       </c>
       <c r="G46" s="3">
-        <v>29629300</v>
+        <v>29242500</v>
       </c>
       <c r="H46" s="3">
-        <v>26000000</v>
+        <v>29064900</v>
       </c>
       <c r="I46" s="3">
-        <v>25458400</v>
+        <v>25504700</v>
       </c>
       <c r="J46" s="3">
+        <v>24973500</v>
+      </c>
+      <c r="K46" s="3">
         <v>29577800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27812300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26492500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26356700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27820000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30269700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36413500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32537100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29328900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31464000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32994900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34234800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>32858600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>31513100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30853900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30164500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>29541600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>28426700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>30226000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4682600</v>
+        <v>4642500</v>
       </c>
       <c r="E47" s="3">
-        <v>4768400</v>
+        <v>4593400</v>
       </c>
       <c r="F47" s="3">
-        <v>4700800</v>
+        <v>4677600</v>
       </c>
       <c r="G47" s="3">
-        <v>4529300</v>
+        <v>4611200</v>
       </c>
       <c r="H47" s="3">
-        <v>4278300</v>
+        <v>4443000</v>
       </c>
       <c r="I47" s="3">
-        <v>4399900</v>
+        <v>4196900</v>
       </c>
       <c r="J47" s="3">
+        <v>4316100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4967300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4870700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6533000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6274900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6157500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4600200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3092700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3171800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3358500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3389600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3038200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2861000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2984200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2842400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3008100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2987700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2901200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2820400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3053000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10024300</v>
+        <v>10174800</v>
       </c>
       <c r="E48" s="3">
-        <v>10239800</v>
+        <v>9833300</v>
       </c>
       <c r="F48" s="3">
-        <v>10225500</v>
+        <v>10044700</v>
       </c>
       <c r="G48" s="3">
-        <v>10091900</v>
+        <v>10030700</v>
       </c>
       <c r="H48" s="3">
-        <v>9638800</v>
+        <v>9899700</v>
       </c>
       <c r="I48" s="3">
-        <v>9615000</v>
+        <v>9455200</v>
       </c>
       <c r="J48" s="3">
+        <v>9431800</v>
+      </c>
+      <c r="K48" s="3">
         <v>9645400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9299000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9105300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9800300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10875000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11415200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12299100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15781700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17067500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12727200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12503100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12460500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12044500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12421600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13070000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12836900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12427600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>11737500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>11622200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>13090300</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>14087800</v>
+        <v>12841000</v>
       </c>
       <c r="F49" s="3">
-        <v>13505900</v>
+        <v>13819400</v>
       </c>
       <c r="G49" s="3">
-        <v>12348200</v>
+        <v>13248600</v>
       </c>
       <c r="H49" s="3">
-        <v>11811900</v>
+        <v>12113000</v>
       </c>
       <c r="I49" s="3">
-        <v>11496500</v>
+        <v>11586900</v>
       </c>
       <c r="J49" s="3">
+        <v>11277600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4413200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4268500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4455200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4776200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5265000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5467600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6044300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6071400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6421400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6914900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6975600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6982600</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
@@ -3832,17 +3939,20 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3">
         <v>5899700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7114500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4034,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4120,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2493800</v>
+        <v>15873100</v>
       </c>
       <c r="E52" s="3">
-        <v>2515900</v>
+        <v>2446300</v>
       </c>
       <c r="F52" s="3">
-        <v>2453500</v>
+        <v>2468000</v>
       </c>
       <c r="G52" s="3">
-        <v>2374700</v>
+        <v>2406800</v>
       </c>
       <c r="H52" s="3">
-        <v>2490300</v>
+        <v>2329400</v>
       </c>
       <c r="I52" s="3">
-        <v>2503900</v>
+        <v>2442900</v>
       </c>
       <c r="J52" s="3">
+        <v>2456300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2447200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2295300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2325400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2525800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2847000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3032500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3284700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3332800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3392200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3298100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3600300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3498500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10157200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3421200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10697500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10809400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10784400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4184500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2490500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4292,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58848600</v>
+        <v>58109200</v>
       </c>
       <c r="E54" s="3">
-        <v>61617800</v>
+        <v>57727700</v>
       </c>
       <c r="F54" s="3">
-        <v>60696000</v>
+        <v>60444100</v>
       </c>
       <c r="G54" s="3">
-        <v>58973300</v>
+        <v>59539800</v>
       </c>
       <c r="H54" s="3">
-        <v>54219300</v>
+        <v>57850000</v>
       </c>
       <c r="I54" s="3">
-        <v>53473800</v>
+        <v>53186500</v>
       </c>
       <c r="J54" s="3">
+        <v>52455200</v>
+      </c>
+      <c r="K54" s="3">
         <v>51050800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48545700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48911300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49733900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>52964500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>54785100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61134300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60894800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59568600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57793900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59112100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60037400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>58044400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56872000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>57629500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56798500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>55654700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>53068900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>54506200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4412,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4444,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12536300</v>
+        <v>11990000</v>
       </c>
       <c r="E57" s="3">
-        <v>13010500</v>
+        <v>12297500</v>
       </c>
       <c r="F57" s="3">
-        <v>12624100</v>
+        <v>12762700</v>
       </c>
       <c r="G57" s="3">
-        <v>12231700</v>
+        <v>12383600</v>
       </c>
       <c r="H57" s="3">
-        <v>8230500</v>
+        <v>11998700</v>
       </c>
       <c r="I57" s="3">
-        <v>7892600</v>
+        <v>8073700</v>
       </c>
       <c r="J57" s="3">
+        <v>7742300</v>
+      </c>
+      <c r="K57" s="3">
         <v>7864500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7413400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7084300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6831600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7255600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8543000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9305300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9780500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10150400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11062800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11331900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11005700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10511700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10364100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10254300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9923500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9363400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>8479400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8700400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2103300</v>
+        <v>1579900</v>
       </c>
       <c r="E58" s="3">
-        <v>1113000</v>
+        <v>2063300</v>
       </c>
       <c r="F58" s="3">
-        <v>1625300</v>
+        <v>1091800</v>
       </c>
       <c r="G58" s="3">
-        <v>3626600</v>
+        <v>1594300</v>
       </c>
       <c r="H58" s="3">
-        <v>2308300</v>
+        <v>3557500</v>
       </c>
       <c r="I58" s="3">
-        <v>5711500</v>
+        <v>2264300</v>
       </c>
       <c r="J58" s="3">
+        <v>5602700</v>
+      </c>
+      <c r="K58" s="3">
         <v>2754800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2617200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3616400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5605200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4218000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2775100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3029200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3462300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4022900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3747500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3093600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4652200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4131900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3393500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1725000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1660200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1652900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1570300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>219800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7126300</v>
+        <v>7147400</v>
       </c>
       <c r="E59" s="3">
-        <v>7314300</v>
+        <v>6990500</v>
       </c>
       <c r="F59" s="3">
-        <v>7409500</v>
+        <v>7175000</v>
       </c>
       <c r="G59" s="3">
-        <v>6672900</v>
+        <v>7268400</v>
       </c>
       <c r="H59" s="3">
-        <v>9617200</v>
+        <v>6545800</v>
       </c>
       <c r="I59" s="3">
-        <v>9597000</v>
+        <v>9434000</v>
       </c>
       <c r="J59" s="3">
+        <v>9414200</v>
+      </c>
+      <c r="K59" s="3">
         <v>10247400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9852100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9384400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9459600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10516100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11729800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16897600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13430800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13528400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13918400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14190600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14163400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14387700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14247600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14958100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14818300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>15005300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14006300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>12533100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21765900</v>
+        <v>20717400</v>
       </c>
       <c r="E60" s="3">
-        <v>21437800</v>
+        <v>21351300</v>
       </c>
       <c r="F60" s="3">
-        <v>21658900</v>
+        <v>21029500</v>
       </c>
       <c r="G60" s="3">
-        <v>22531200</v>
+        <v>21246300</v>
       </c>
       <c r="H60" s="3">
-        <v>20155900</v>
+        <v>22102000</v>
       </c>
       <c r="I60" s="3">
-        <v>23201100</v>
+        <v>19772000</v>
       </c>
       <c r="J60" s="3">
+        <v>22759200</v>
+      </c>
+      <c r="K60" s="3">
         <v>20866700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19882700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20085100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21896400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21989700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23047900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29232100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26673600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27701700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28728600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28616200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29821400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29031300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>28005300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26937300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26402000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26021600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>24056000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21453400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9088000</v>
+        <v>8925800</v>
       </c>
       <c r="E61" s="3">
-        <v>9891700</v>
+        <v>8914900</v>
       </c>
       <c r="F61" s="3">
-        <v>10360400</v>
+        <v>9703300</v>
       </c>
       <c r="G61" s="3">
-        <v>10318500</v>
+        <v>10163000</v>
       </c>
       <c r="H61" s="3">
-        <v>10084000</v>
+        <v>10121900</v>
       </c>
       <c r="I61" s="3">
-        <v>7153400</v>
+        <v>9891900</v>
       </c>
       <c r="J61" s="3">
+        <v>7017100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7947500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7645100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8303100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7397600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9842400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10187100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9626900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12764200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10550900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5850200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7834600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7722100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7561500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7811000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8742800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8783300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8782800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8399600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9757300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1305200</v>
+        <v>1140400</v>
       </c>
       <c r="E62" s="3">
-        <v>1396100</v>
+        <v>1280300</v>
       </c>
       <c r="F62" s="3">
-        <v>1374500</v>
+        <v>1369500</v>
       </c>
       <c r="G62" s="3">
-        <v>1522000</v>
+        <v>1348300</v>
       </c>
       <c r="H62" s="3">
-        <v>1696100</v>
+        <v>1493000</v>
       </c>
       <c r="I62" s="3">
-        <v>1536000</v>
+        <v>1663800</v>
       </c>
       <c r="J62" s="3">
+        <v>1506700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1404700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1389300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2614600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2466900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2640900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2556900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2740400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2843400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3030500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3181900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3974200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3959200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4004300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4039800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4534000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4657500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4589900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5002700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5716900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5044,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5130,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5216,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33423200</v>
+        <v>32020500</v>
       </c>
       <c r="E66" s="3">
-        <v>34108000</v>
+        <v>32786600</v>
       </c>
       <c r="F66" s="3">
-        <v>34754700</v>
+        <v>33458300</v>
       </c>
       <c r="G66" s="3">
-        <v>35710900</v>
+        <v>34092700</v>
       </c>
       <c r="H66" s="3">
-        <v>33236500</v>
+        <v>35030700</v>
       </c>
       <c r="I66" s="3">
-        <v>33160200</v>
+        <v>32603400</v>
       </c>
       <c r="J66" s="3">
+        <v>32528600</v>
+      </c>
+      <c r="K66" s="3">
         <v>31480900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30154000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32183300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32951700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35737200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37179700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43123400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43742800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42774700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>39405000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42031400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43063400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42103500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>41435700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>41835200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>41551600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>40942000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>39126200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>38227700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5336,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5420,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5506,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5592,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5678,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18300300</v>
+        <v>18665200</v>
       </c>
       <c r="E72" s="3">
-        <v>18153700</v>
+        <v>17951700</v>
       </c>
       <c r="F72" s="3">
-        <v>17716400</v>
+        <v>17807900</v>
       </c>
       <c r="G72" s="3">
-        <v>17546500</v>
+        <v>17379000</v>
       </c>
       <c r="H72" s="3">
-        <v>16885900</v>
+        <v>17212300</v>
       </c>
       <c r="I72" s="3">
-        <v>16793600</v>
+        <v>16564300</v>
       </c>
       <c r="J72" s="3">
+        <v>16473800</v>
+      </c>
+      <c r="K72" s="3">
         <v>16235100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15272000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13213200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13584000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13652500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14504800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14482200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14210100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13693700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14423400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13260200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12808600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12020300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11755000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11222300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10661300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10052200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9326300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11377000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5850,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5936,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6022,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>25425400</v>
+        <v>26088700</v>
       </c>
       <c r="E76" s="3">
-        <v>27509800</v>
+        <v>24941100</v>
       </c>
       <c r="F76" s="3">
-        <v>25941200</v>
+        <v>26985800</v>
       </c>
       <c r="G76" s="3">
-        <v>23262500</v>
+        <v>25447100</v>
       </c>
       <c r="H76" s="3">
-        <v>20982800</v>
+        <v>22819400</v>
       </c>
       <c r="I76" s="3">
-        <v>20313600</v>
+        <v>20583100</v>
       </c>
       <c r="J76" s="3">
+        <v>19926700</v>
+      </c>
+      <c r="K76" s="3">
         <v>19569900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18391700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16728000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16782200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17227300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17605500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18010900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17152000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16793900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18388900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17080700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16974000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15940900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15436300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15794300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15247000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14712700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13942700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>16278500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6194,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>408100</v>
+        <v>739900</v>
       </c>
       <c r="E81" s="3">
-        <v>429100</v>
+        <v>400400</v>
       </c>
       <c r="F81" s="3">
-        <v>359800</v>
+        <v>421000</v>
       </c>
       <c r="G81" s="3">
-        <v>438700</v>
+        <v>352900</v>
       </c>
       <c r="H81" s="3">
-        <v>313000</v>
+        <v>430400</v>
       </c>
       <c r="I81" s="3">
-        <v>562300</v>
+        <v>307100</v>
       </c>
       <c r="J81" s="3">
+        <v>551600</v>
+      </c>
+      <c r="K81" s="3">
         <v>562500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>247700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>595700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>457200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-83900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>419000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>703500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>470000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>456000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1061300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>567300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>522600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>521400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>324800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>734000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>634200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>440800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-426600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>562800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6405,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>707700</v>
+        <v>702800</v>
       </c>
       <c r="E83" s="3">
-        <v>701000</v>
+        <v>694200</v>
       </c>
       <c r="F83" s="3">
-        <v>684700</v>
+        <v>687600</v>
       </c>
       <c r="G83" s="3">
-        <v>686900</v>
+        <v>671700</v>
       </c>
       <c r="H83" s="3">
-        <v>645500</v>
+        <v>673800</v>
       </c>
       <c r="I83" s="3">
-        <v>593900</v>
+        <v>633200</v>
       </c>
       <c r="J83" s="3">
+        <v>582600</v>
+      </c>
+      <c r="K83" s="3">
         <v>566500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>583700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>578400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>606900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>669100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>791500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>824400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>873200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>894300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>742900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>705800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>671900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>651300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>642100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>674700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>652400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>632000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>644100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>590800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6575,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6661,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6747,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6833,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6919,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>861300</v>
+        <v>1492600</v>
       </c>
       <c r="E89" s="3">
-        <v>544100</v>
+        <v>844900</v>
       </c>
       <c r="F89" s="3">
-        <v>900500</v>
+        <v>533700</v>
       </c>
       <c r="G89" s="3">
-        <v>1092100</v>
+        <v>883300</v>
       </c>
       <c r="H89" s="3">
-        <v>457800</v>
+        <v>1071300</v>
       </c>
       <c r="I89" s="3">
-        <v>-650600</v>
+        <v>449100</v>
       </c>
       <c r="J89" s="3">
+        <v>-638200</v>
+      </c>
+      <c r="K89" s="3">
         <v>960800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1230000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1862200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1365900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-847300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1407700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1201600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>308600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>961000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1207300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>440000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-48200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>333000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1437300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1104200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>574700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>709400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2263300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>783400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7039,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-543700</v>
+        <v>-39882000</v>
       </c>
       <c r="E91" s="3">
+        <v>-93336000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-81254000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-74881000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-84326000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-75191000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-64191000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-433500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-428700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-488900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-434700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-362600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-433500</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-708200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-295500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-335400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-408200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-662000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-523700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-632000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-664400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-779200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-668500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-631000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-875100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-940800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-756900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-825000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>575700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7209,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7295,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-556900</v>
+        <v>-924600</v>
       </c>
       <c r="E94" s="3">
-        <v>-483500</v>
+        <v>-546300</v>
       </c>
       <c r="F94" s="3">
-        <v>-545700</v>
+        <v>-474300</v>
       </c>
       <c r="G94" s="3">
-        <v>-259400</v>
+        <v>-535300</v>
       </c>
       <c r="H94" s="3">
-        <v>-427200</v>
+        <v>-254500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4731800</v>
+        <v>-419000</v>
       </c>
       <c r="J94" s="3">
+        <v>-4641600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-433300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1381100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-337500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-126400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>375900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-412400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-321400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-554100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-583500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-487500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-260100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-352800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-701100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-949500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-927900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-974900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-477300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7415,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-257300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-252400</v>
       </c>
       <c r="F96" s="3">
-        <v>-257300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-252400</v>
       </c>
       <c r="H96" s="3">
-        <v>-257300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-252400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-171500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-171000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-298500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-318800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-320500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-330300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-424000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-210800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-316300</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-205900</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7585,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7671,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7757,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63400</v>
+        <v>-651800</v>
       </c>
       <c r="E100" s="3">
-        <v>-939100</v>
+        <v>-62200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2794500</v>
+        <v>-921200</v>
       </c>
       <c r="G100" s="3">
-        <v>1093600</v>
+        <v>-2741300</v>
       </c>
       <c r="H100" s="3">
-        <v>-877100</v>
+        <v>1072800</v>
       </c>
       <c r="I100" s="3">
-        <v>556000</v>
+        <v>-860400</v>
       </c>
       <c r="J100" s="3">
+        <v>545400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-339500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1616700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-487100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>95700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>891300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>486900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-674100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1527700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-909400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>363300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-42600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>658200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-521600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-110300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-153600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-221900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-440100</v>
+        <v>79500</v>
       </c>
       <c r="E101" s="3">
-        <v>138400</v>
+        <v>-431700</v>
       </c>
       <c r="F101" s="3">
-        <v>543500</v>
+        <v>135800</v>
       </c>
       <c r="G101" s="3">
-        <v>397200</v>
+        <v>533200</v>
       </c>
       <c r="H101" s="3">
-        <v>217500</v>
+        <v>389600</v>
       </c>
       <c r="I101" s="3">
-        <v>48500</v>
+        <v>213400</v>
       </c>
       <c r="J101" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K101" s="3">
         <v>48300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>667000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-65800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-46200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-41800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-141200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>179600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-73000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-218000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>36100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-196900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>158300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>129100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-406600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>97400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>127600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>29700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-280700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1123500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-199100</v>
+        <v>-4300</v>
       </c>
       <c r="E102" s="3">
-        <v>-740100</v>
+        <v>-195400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1896200</v>
+        <v>-726000</v>
       </c>
       <c r="G102" s="3">
-        <v>2323500</v>
+        <v>-1860100</v>
       </c>
       <c r="H102" s="3">
-        <v>-629000</v>
+        <v>2279300</v>
       </c>
       <c r="I102" s="3">
-        <v>-4777900</v>
+        <v>-617000</v>
       </c>
       <c r="J102" s="3">
+        <v>-4686900</v>
+      </c>
+      <c r="K102" s="3">
         <v>236300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1661400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>971800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1289100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>378100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1340900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>385700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1209100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-749900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-928500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>120600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-281600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>739400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-247900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-546900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1118400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1102400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,380 +665,393 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15533400</v>
+        <v>13944000</v>
       </c>
       <c r="E8" s="3">
-        <v>15577900</v>
+        <v>14800900</v>
       </c>
       <c r="F8" s="3">
-        <v>15069400</v>
+        <v>14843300</v>
       </c>
       <c r="G8" s="3">
-        <v>14231500</v>
+        <v>14358800</v>
       </c>
       <c r="H8" s="3">
-        <v>14170800</v>
+        <v>13560400</v>
       </c>
       <c r="I8" s="3">
-        <v>13625500</v>
+        <v>13502500</v>
       </c>
       <c r="J8" s="3">
+        <v>12982900</v>
+      </c>
+      <c r="K8" s="3">
         <v>12553600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13174300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12942800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13297600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12987800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11873000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15285100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17411100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17950800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17322700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18448800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19586200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18574800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18259400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18712800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18570900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>18013000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>16862100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>17042100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>16698500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11177800</v>
+        <v>9902800</v>
       </c>
       <c r="E9" s="3">
-        <v>11476100</v>
+        <v>10650700</v>
       </c>
       <c r="F9" s="3">
-        <v>11025500</v>
+        <v>10935000</v>
       </c>
       <c r="G9" s="3">
-        <v>10427700</v>
+        <v>10505600</v>
       </c>
       <c r="H9" s="3">
-        <v>10237200</v>
+        <v>9935900</v>
       </c>
       <c r="I9" s="3">
-        <v>9828100</v>
+        <v>9754500</v>
       </c>
       <c r="J9" s="3">
+        <v>9364700</v>
+      </c>
+      <c r="K9" s="3">
         <v>9068000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9304300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9003500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9262500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9197600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8612900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10834500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12305300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12873300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12441200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13007700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14109900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13380700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13159100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13352200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13062600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12689100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>11908300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11859300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>11737300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4355600</v>
+        <v>4041200</v>
       </c>
       <c r="E10" s="3">
-        <v>4101700</v>
+        <v>4150200</v>
       </c>
       <c r="F10" s="3">
-        <v>4043900</v>
+        <v>3908300</v>
       </c>
       <c r="G10" s="3">
-        <v>3803900</v>
+        <v>3853200</v>
       </c>
       <c r="H10" s="3">
-        <v>3933600</v>
+        <v>3624500</v>
       </c>
       <c r="I10" s="3">
-        <v>3797300</v>
+        <v>3748100</v>
       </c>
       <c r="J10" s="3">
+        <v>3618300</v>
+      </c>
+      <c r="K10" s="3">
         <v>3485600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3870000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3939300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4035100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3790200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3260100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4450500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5105800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5077500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4881500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5441100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5476200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5194100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5100300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5360600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5508300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5323900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4953800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5182800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4961200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1082,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1155,8 +1169,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1241,8 +1258,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,17 +1278,17 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>21500</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>28800</v>
+        <v>20500</v>
       </c>
       <c r="J14" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K14" s="3">
         <v>212100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1282,8 +1302,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1303,8 +1323,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1318,17 +1338,20 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
         <v>188100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>20900</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1404,8 +1427,8 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>8</v>
+      <c r="AB15" s="3">
+        <v>0</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>8</v>
@@ -1413,8 +1436,11 @@
       <c r="AD15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1442,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15141500</v>
+        <v>13323100</v>
       </c>
       <c r="E17" s="3">
-        <v>14968900</v>
+        <v>14427500</v>
       </c>
       <c r="F17" s="3">
-        <v>14448900</v>
+        <v>14263000</v>
       </c>
       <c r="G17" s="3">
-        <v>13772300</v>
+        <v>13767500</v>
       </c>
       <c r="H17" s="3">
-        <v>13569700</v>
+        <v>13122800</v>
       </c>
       <c r="I17" s="3">
-        <v>13099500</v>
+        <v>12929800</v>
       </c>
       <c r="J17" s="3">
+        <v>12481800</v>
+      </c>
+      <c r="K17" s="3">
         <v>11855500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12407100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12717400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12343400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12264400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11841000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14817400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16496700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17179700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16806200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17308000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18665300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17689600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17350800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18135700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17484800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16994900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16103400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17032800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>15832400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>391900</v>
+        <v>620900</v>
       </c>
       <c r="E18" s="3">
-        <v>609000</v>
+        <v>373400</v>
       </c>
       <c r="F18" s="3">
-        <v>620500</v>
+        <v>580200</v>
       </c>
       <c r="G18" s="3">
-        <v>459300</v>
+        <v>591200</v>
       </c>
       <c r="H18" s="3">
-        <v>601100</v>
+        <v>437600</v>
       </c>
       <c r="I18" s="3">
-        <v>526000</v>
+        <v>572800</v>
       </c>
       <c r="J18" s="3">
+        <v>501200</v>
+      </c>
+      <c r="K18" s="3">
         <v>698100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>767200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>225500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>954200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>723400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>467600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>914500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>771100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>516500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1140800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>920900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>885200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>908600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>577100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1086100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1018100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>758700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>866100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1646,180 +1679,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47700</v>
+        <v>126100</v>
       </c>
       <c r="E20" s="3">
-        <v>31500</v>
+        <v>45400</v>
       </c>
       <c r="F20" s="3">
-        <v>50600</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="3">
-        <v>71000</v>
+        <v>48200</v>
       </c>
       <c r="H20" s="3">
-        <v>-17000</v>
+        <v>67600</v>
       </c>
       <c r="I20" s="3">
-        <v>4800</v>
+        <v>-16200</v>
       </c>
       <c r="J20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>63400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-23900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-21500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>20800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-12700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-17700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-39500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>32300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1142400</v>
+        <v>1409400</v>
       </c>
       <c r="E21" s="3">
-        <v>1334600</v>
+        <v>1088500</v>
       </c>
       <c r="F21" s="3">
-        <v>1358700</v>
+        <v>1271700</v>
       </c>
       <c r="G21" s="3">
-        <v>1201900</v>
+        <v>1294600</v>
       </c>
       <c r="H21" s="3">
-        <v>1257900</v>
+        <v>1145200</v>
       </c>
       <c r="I21" s="3">
-        <v>1163900</v>
+        <v>1198600</v>
       </c>
       <c r="J21" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1283600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1364300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>872500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1508600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1308800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>695300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1258300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1736800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1623800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1409300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1916600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1622100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1554500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1580700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1230300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1748100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1672200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1373100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>613900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1489300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1880,8 +1920,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
@@ -1898,186 +1938,195 @@
       <c r="AB22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD22" s="3">
         <v>34900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>439500</v>
+        <v>747000</v>
       </c>
       <c r="E23" s="3">
-        <v>640400</v>
+        <v>418800</v>
       </c>
       <c r="F23" s="3">
-        <v>671100</v>
+        <v>610200</v>
       </c>
       <c r="G23" s="3">
-        <v>530300</v>
+        <v>639400</v>
       </c>
       <c r="H23" s="3">
-        <v>584100</v>
+        <v>505200</v>
       </c>
       <c r="I23" s="3">
-        <v>530800</v>
+        <v>556600</v>
       </c>
       <c r="J23" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K23" s="3">
         <v>701000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>797700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>288800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>930200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>701900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>466800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>912400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>750600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>515000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1173700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>916300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>882700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>929400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>588200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1073400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1019800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>741000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-30200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>863600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-339000</v>
+        <v>-671700</v>
       </c>
       <c r="E24" s="3">
-        <v>232400</v>
+        <v>-323000</v>
       </c>
       <c r="F24" s="3">
-        <v>213800</v>
+        <v>221500</v>
       </c>
       <c r="G24" s="3">
-        <v>151300</v>
+        <v>203700</v>
       </c>
       <c r="H24" s="3">
-        <v>142500</v>
+        <v>144100</v>
       </c>
       <c r="I24" s="3">
-        <v>220200</v>
+        <v>135800</v>
       </c>
       <c r="J24" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K24" s="3">
         <v>125200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>290400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>204200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>170900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>241200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>64900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>296400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>323600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>370200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>225800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>296900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>352300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>269200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>339400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>250000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2162,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>778500</v>
+        <v>1418700</v>
       </c>
       <c r="E26" s="3">
-        <v>408000</v>
+        <v>741800</v>
       </c>
       <c r="F26" s="3">
-        <v>457300</v>
+        <v>388800</v>
       </c>
       <c r="G26" s="3">
-        <v>379000</v>
+        <v>435700</v>
       </c>
       <c r="H26" s="3">
-        <v>441600</v>
+        <v>361100</v>
       </c>
       <c r="I26" s="3">
-        <v>310600</v>
+        <v>420800</v>
       </c>
       <c r="J26" s="3">
+        <v>295900</v>
+      </c>
+      <c r="K26" s="3">
         <v>575800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>597200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>281000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>639800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>497700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-59000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>435600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>741500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>509400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>492500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1108800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>619800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>559100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>559200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>362400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>776500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>667500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>471800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-369600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>613600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>739900</v>
+        <v>1380300</v>
       </c>
       <c r="E27" s="3">
-        <v>400400</v>
+        <v>705100</v>
       </c>
       <c r="F27" s="3">
-        <v>421000</v>
+        <v>381500</v>
       </c>
       <c r="G27" s="3">
-        <v>352900</v>
+        <v>401100</v>
       </c>
       <c r="H27" s="3">
-        <v>430400</v>
+        <v>336300</v>
       </c>
       <c r="I27" s="3">
-        <v>307100</v>
+        <v>410100</v>
       </c>
       <c r="J27" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K27" s="3">
         <v>551600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>562500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>247700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>595700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>457200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-83900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>419000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>703500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>470000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>456000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1061300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>567300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>522600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>521400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>324800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>734000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>634200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>440800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-426600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>562800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2420,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2506,8 +2567,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2678,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47700</v>
+        <v>-126100</v>
       </c>
       <c r="E32" s="3">
-        <v>-31500</v>
+        <v>-45400</v>
       </c>
       <c r="F32" s="3">
-        <v>-50600</v>
+        <v>-30000</v>
       </c>
       <c r="G32" s="3">
-        <v>-71000</v>
+        <v>-48200</v>
       </c>
       <c r="H32" s="3">
-        <v>17000</v>
+        <v>-67600</v>
       </c>
       <c r="I32" s="3">
-        <v>-4800</v>
+        <v>16200</v>
       </c>
       <c r="J32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-63400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>23900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>21500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-20800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>12700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>17700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>39500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-32300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>739900</v>
+        <v>1380300</v>
       </c>
       <c r="E33" s="3">
-        <v>400400</v>
+        <v>705100</v>
       </c>
       <c r="F33" s="3">
-        <v>421000</v>
+        <v>381500</v>
       </c>
       <c r="G33" s="3">
-        <v>352900</v>
+        <v>401100</v>
       </c>
       <c r="H33" s="3">
-        <v>430400</v>
+        <v>336300</v>
       </c>
       <c r="I33" s="3">
-        <v>307100</v>
+        <v>410100</v>
       </c>
       <c r="J33" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K33" s="3">
         <v>551600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>562500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>247700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>595700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>457200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-83900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>419000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>703500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>470000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>456000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1061300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>567300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>522600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>521400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>324800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>734000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>634200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>440800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-426600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>562800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2936,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>739900</v>
+        <v>1380300</v>
       </c>
       <c r="E35" s="3">
-        <v>400400</v>
+        <v>705100</v>
       </c>
       <c r="F35" s="3">
-        <v>421000</v>
+        <v>381500</v>
       </c>
       <c r="G35" s="3">
-        <v>352900</v>
+        <v>401100</v>
       </c>
       <c r="H35" s="3">
-        <v>430400</v>
+        <v>336300</v>
       </c>
       <c r="I35" s="3">
-        <v>307100</v>
+        <v>410100</v>
       </c>
       <c r="J35" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K35" s="3">
         <v>551600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>562500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>247700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>595700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>457200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-83900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>419000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>703500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>470000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>456000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1061300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>567300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>522600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>521400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>324800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>734000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>634200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>440800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-426600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>562800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3145,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3177,764 +3263,789 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5908600</v>
+        <v>6251300</v>
       </c>
       <c r="E41" s="3">
-        <v>5912900</v>
+        <v>5630000</v>
       </c>
       <c r="F41" s="3">
-        <v>6108300</v>
+        <v>5634100</v>
       </c>
       <c r="G41" s="3">
-        <v>6834200</v>
+        <v>5820200</v>
       </c>
       <c r="H41" s="3">
-        <v>8694300</v>
+        <v>6512000</v>
       </c>
       <c r="I41" s="3">
-        <v>6415100</v>
+        <v>8284300</v>
       </c>
       <c r="J41" s="3">
+        <v>6112500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7032000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11946500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11296000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9960700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9553000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9048900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8955400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7873800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7553900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6324100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7421500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8202200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9955100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9622800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9849800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9110400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9358400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9905300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11271900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>10167700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1223300</v>
+        <v>1239400</v>
       </c>
       <c r="E42" s="3">
-        <v>1070500</v>
+        <v>1165600</v>
       </c>
       <c r="F42" s="3">
-        <v>1171300</v>
+        <v>1020000</v>
       </c>
       <c r="G42" s="3">
-        <v>1635600</v>
+        <v>1116100</v>
       </c>
       <c r="H42" s="3">
-        <v>1518700</v>
+        <v>1558500</v>
       </c>
       <c r="I42" s="3">
-        <v>1156900</v>
+        <v>1447000</v>
       </c>
       <c r="J42" s="3">
+        <v>1102300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1016900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1034600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1060900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>959500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>951700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>885400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1307700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1276400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1234800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1079700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1261800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1453500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1834300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2216400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1840200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1370300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1305300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1359400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9535900</v>
+        <v>8987200</v>
       </c>
       <c r="E43" s="3">
-        <v>9303800</v>
+        <v>9086200</v>
       </c>
       <c r="F43" s="3">
-        <v>9973600</v>
+        <v>8865100</v>
       </c>
       <c r="G43" s="3">
-        <v>9821100</v>
+        <v>9503300</v>
       </c>
       <c r="H43" s="3">
-        <v>9550500</v>
+        <v>9358000</v>
       </c>
       <c r="I43" s="3">
-        <v>9157100</v>
+        <v>9100100</v>
       </c>
       <c r="J43" s="3">
+        <v>8725300</v>
+      </c>
+      <c r="K43" s="3">
         <v>8682800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8684500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8468200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8428300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8391400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8684800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9261100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10254000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10850800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10566300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11441900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11046700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10690200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9936000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9392400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9350000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9295400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>8475100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7512900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>8383500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9291900</v>
+        <v>9472800</v>
       </c>
       <c r="E44" s="3">
-        <v>10138200</v>
+        <v>8853700</v>
       </c>
       <c r="F44" s="3">
-        <v>10350200</v>
+        <v>9660100</v>
       </c>
       <c r="G44" s="3">
-        <v>9517300</v>
+        <v>9862100</v>
       </c>
       <c r="H44" s="3">
-        <v>8166500</v>
+        <v>9068400</v>
       </c>
       <c r="I44" s="3">
-        <v>7636300</v>
+        <v>7781400</v>
       </c>
       <c r="J44" s="3">
+        <v>7276200</v>
+      </c>
+      <c r="K44" s="3">
         <v>7181500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6746800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5902900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5835500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6182000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7190900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6990900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7997800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9239800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9544700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9768000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10414700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10017000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9418500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>8937000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>9474900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>8784700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>8188700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>7152000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>7391100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1459100</v>
+        <v>1664500</v>
       </c>
       <c r="E45" s="3">
-        <v>1588300</v>
+        <v>1390300</v>
       </c>
       <c r="F45" s="3">
-        <v>1831000</v>
+        <v>1513400</v>
       </c>
       <c r="G45" s="3">
-        <v>1434300</v>
+        <v>1744600</v>
       </c>
       <c r="H45" s="3">
-        <v>1134900</v>
+        <v>1366600</v>
       </c>
       <c r="I45" s="3">
-        <v>1139400</v>
+        <v>1081400</v>
       </c>
       <c r="J45" s="3">
+        <v>1085700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1060300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1165400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1084300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1308600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1278600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2010000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3754600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9011500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3657900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1814100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1570900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1877700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1738200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1664900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1493600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1548200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1420800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1613100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1217000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4283600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27418800</v>
+        <v>27615300</v>
       </c>
       <c r="E46" s="3">
-        <v>28013700</v>
+        <v>26125800</v>
       </c>
       <c r="F46" s="3">
-        <v>29434300</v>
+        <v>26692600</v>
       </c>
       <c r="G46" s="3">
-        <v>29242500</v>
+        <v>28046300</v>
       </c>
       <c r="H46" s="3">
-        <v>29064900</v>
+        <v>27863500</v>
       </c>
       <c r="I46" s="3">
-        <v>25504700</v>
+        <v>27694300</v>
       </c>
       <c r="J46" s="3">
+        <v>24302000</v>
+      </c>
+      <c r="K46" s="3">
         <v>24973500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29577800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27812300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26492500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26356700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27820000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30269700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36413500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32537100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29328900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31464000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>32994900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34234800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>32858600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>31513100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30853900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30164500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>29541600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>28426700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>30226000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4642500</v>
+        <v>4842100</v>
       </c>
       <c r="E47" s="3">
-        <v>4593400</v>
+        <v>4423500</v>
       </c>
       <c r="F47" s="3">
-        <v>4677600</v>
+        <v>4376800</v>
       </c>
       <c r="G47" s="3">
-        <v>4611200</v>
+        <v>4457000</v>
       </c>
       <c r="H47" s="3">
-        <v>4443000</v>
+        <v>4393800</v>
       </c>
       <c r="I47" s="3">
-        <v>4196900</v>
+        <v>4233500</v>
       </c>
       <c r="J47" s="3">
+        <v>3998900</v>
+      </c>
+      <c r="K47" s="3">
         <v>4316100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4967300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4870700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6533000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6274900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6157500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4600200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3092700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3171800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3358500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3389600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3038200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2861000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2984200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2842400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3008100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2987700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2901200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2820400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3053000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10174800</v>
+        <v>10304300</v>
       </c>
       <c r="E48" s="3">
-        <v>9833300</v>
+        <v>9695000</v>
       </c>
       <c r="F48" s="3">
-        <v>10044700</v>
+        <v>9369600</v>
       </c>
       <c r="G48" s="3">
-        <v>10030700</v>
+        <v>9571100</v>
       </c>
       <c r="H48" s="3">
-        <v>9899700</v>
+        <v>9557700</v>
       </c>
       <c r="I48" s="3">
-        <v>9455200</v>
+        <v>9432900</v>
       </c>
       <c r="J48" s="3">
+        <v>9009300</v>
+      </c>
+      <c r="K48" s="3">
         <v>9431800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9645400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9299000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9105300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9800300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10875000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11415200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12299100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15781700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17067500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12727200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12503100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12460500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12044500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12421600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13070000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12836900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12427600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>11737500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>11622200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>13110500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12340100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>12235400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>13167700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>12623900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>11541800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11040500</v>
+      </c>
+      <c r="K49" s="3">
+        <v>11277600</v>
+      </c>
+      <c r="L49" s="3">
+        <v>4413200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>4268500</v>
+      </c>
+      <c r="N49" s="3">
+        <v>4455200</v>
+      </c>
+      <c r="O49" s="3">
+        <v>4776200</v>
+      </c>
+      <c r="P49" s="3">
+        <v>5265000</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>5467600</v>
+      </c>
+      <c r="R49" s="3">
+        <v>6044300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>6071400</v>
+      </c>
+      <c r="T49" s="3">
+        <v>6421400</v>
+      </c>
+      <c r="U49" s="3">
+        <v>6914900</v>
+      </c>
+      <c r="V49" s="3">
+        <v>6975600</v>
+      </c>
+      <c r="W49" s="3">
+        <v>6982600</v>
+      </c>
+      <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>12841000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>13819400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>13248600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>12113000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11586900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>11277600</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4413200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>4268500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>4455200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4776200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>5265000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>5467600</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>6044300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>6071400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>6421400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>6914900</v>
-      </c>
-      <c r="U49" s="3">
-        <v>6975600</v>
-      </c>
-      <c r="V49" s="3">
-        <v>6982600</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
@@ -3942,17 +4053,20 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3">
         <v>5899700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7114500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4037,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4123,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15873100</v>
+        <v>4074200</v>
       </c>
       <c r="E52" s="3">
-        <v>2446300</v>
+        <v>2784500</v>
       </c>
       <c r="F52" s="3">
-        <v>2468000</v>
+        <v>2330900</v>
       </c>
       <c r="G52" s="3">
-        <v>2406800</v>
+        <v>2351600</v>
       </c>
       <c r="H52" s="3">
-        <v>2329400</v>
+        <v>2293300</v>
       </c>
       <c r="I52" s="3">
-        <v>2442900</v>
+        <v>2219600</v>
       </c>
       <c r="J52" s="3">
+        <v>2327700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2456300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2447200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2295300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2325400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2525800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2847000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3032500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3284700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3332800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3392200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3298100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3600300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3498500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10157200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3421200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10697500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10809400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10784400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4184500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2490500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4295,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58109200</v>
+        <v>59946400</v>
       </c>
       <c r="E54" s="3">
-        <v>57727700</v>
+        <v>55369000</v>
       </c>
       <c r="F54" s="3">
-        <v>60444100</v>
+        <v>55005400</v>
       </c>
       <c r="G54" s="3">
-        <v>59539800</v>
+        <v>57593800</v>
       </c>
       <c r="H54" s="3">
-        <v>57850000</v>
+        <v>56732100</v>
       </c>
       <c r="I54" s="3">
-        <v>53186500</v>
+        <v>55122000</v>
       </c>
       <c r="J54" s="3">
+        <v>50678400</v>
+      </c>
+      <c r="K54" s="3">
         <v>52455200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51050800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48545700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48911300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49733900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>52964500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54785100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61134300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60894800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>59568600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57793900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>59112100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60037400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>58044400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56872000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>57629500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>56798500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>55654700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>53068900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>54506200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4413,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,524 +4575,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11990000</v>
+        <v>11645000</v>
       </c>
       <c r="E57" s="3">
-        <v>12297500</v>
+        <v>11424600</v>
       </c>
       <c r="F57" s="3">
-        <v>12762700</v>
+        <v>11717600</v>
       </c>
       <c r="G57" s="3">
-        <v>12383600</v>
+        <v>12160800</v>
       </c>
       <c r="H57" s="3">
-        <v>11998700</v>
+        <v>11799600</v>
       </c>
       <c r="I57" s="3">
-        <v>8073700</v>
+        <v>11432900</v>
       </c>
       <c r="J57" s="3">
+        <v>7693000</v>
+      </c>
+      <c r="K57" s="3">
         <v>7742300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7864500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7413400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7084300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6831600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7255600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8543000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9305300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9780500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10150400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11062800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11331900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11005700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10511700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10364100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10254300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9923500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9363400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8479400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>8700400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1579900</v>
+        <v>1513000</v>
       </c>
       <c r="E58" s="3">
-        <v>2063300</v>
+        <v>1505400</v>
       </c>
       <c r="F58" s="3">
-        <v>1091800</v>
+        <v>1966000</v>
       </c>
       <c r="G58" s="3">
-        <v>1594300</v>
+        <v>1040300</v>
       </c>
       <c r="H58" s="3">
-        <v>3557500</v>
+        <v>1519200</v>
       </c>
       <c r="I58" s="3">
-        <v>2264300</v>
+        <v>3389700</v>
       </c>
       <c r="J58" s="3">
+        <v>2157500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5602700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2754800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2617200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3616400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5605200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4218000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2775100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3029200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3462300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4022900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3747500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3093600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4652200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4131900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3393500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1725000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1660200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1652900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1570300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>219800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7147400</v>
+        <v>7241200</v>
       </c>
       <c r="E59" s="3">
-        <v>6990500</v>
+        <v>6810400</v>
       </c>
       <c r="F59" s="3">
-        <v>7175000</v>
+        <v>6660900</v>
       </c>
       <c r="G59" s="3">
-        <v>7268400</v>
+        <v>6836600</v>
       </c>
       <c r="H59" s="3">
-        <v>6545800</v>
+        <v>6925600</v>
       </c>
       <c r="I59" s="3">
-        <v>9434000</v>
+        <v>6237100</v>
       </c>
       <c r="J59" s="3">
+        <v>8989100</v>
+      </c>
+      <c r="K59" s="3">
         <v>9414200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10247400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9852100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9384400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9459600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10516100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11729800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16897600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13430800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13528400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13918400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14190600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14163400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14387700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14247600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14958100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14818300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>15005300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>14006300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>12533100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20717400</v>
+        <v>20399300</v>
       </c>
       <c r="E60" s="3">
-        <v>21351300</v>
+        <v>19740400</v>
       </c>
       <c r="F60" s="3">
-        <v>21029500</v>
+        <v>20344500</v>
       </c>
       <c r="G60" s="3">
-        <v>21246300</v>
+        <v>20037800</v>
       </c>
       <c r="H60" s="3">
-        <v>22102000</v>
+        <v>20244400</v>
       </c>
       <c r="I60" s="3">
-        <v>19772000</v>
+        <v>21059700</v>
       </c>
       <c r="J60" s="3">
+        <v>18839600</v>
+      </c>
+      <c r="K60" s="3">
         <v>22759200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20866700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19882700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20085100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21896400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21989700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23047900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29232100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26673600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27701700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28728600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28616200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29821400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>29031300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>28005300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26937300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26402000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>26021600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>24056000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>21453400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8925800</v>
+        <v>8723700</v>
       </c>
       <c r="E61" s="3">
-        <v>8914900</v>
+        <v>8504900</v>
       </c>
       <c r="F61" s="3">
-        <v>9703300</v>
+        <v>8494500</v>
       </c>
       <c r="G61" s="3">
-        <v>10163000</v>
+        <v>9245700</v>
       </c>
       <c r="H61" s="3">
-        <v>10121900</v>
+        <v>9683800</v>
       </c>
       <c r="I61" s="3">
-        <v>9891900</v>
+        <v>9644600</v>
       </c>
       <c r="J61" s="3">
+        <v>9425400</v>
+      </c>
+      <c r="K61" s="3">
         <v>7017100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7947500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7645100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8303100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7397600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9842400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10187100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9626900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12764200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10550900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5850200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7834600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7722100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7561500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7811000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8742800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8783300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8782800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8399600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9757300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1140400</v>
+        <v>1424700</v>
       </c>
       <c r="E62" s="3">
-        <v>1280300</v>
+        <v>1086600</v>
       </c>
       <c r="F62" s="3">
-        <v>1369500</v>
+        <v>1219900</v>
       </c>
       <c r="G62" s="3">
-        <v>1348300</v>
+        <v>1304900</v>
       </c>
       <c r="H62" s="3">
-        <v>1493000</v>
+        <v>1284700</v>
       </c>
       <c r="I62" s="3">
-        <v>1663800</v>
+        <v>1422600</v>
       </c>
       <c r="J62" s="3">
+        <v>1585300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1506700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1404700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1389300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2614600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2466900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2640900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2556900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2740400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2843400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3030500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3181900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3974200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3959200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4004300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4039800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4534000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4657500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4589900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5002700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5716900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5047,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5133,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5219,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32020500</v>
+        <v>31737700</v>
       </c>
       <c r="E66" s="3">
-        <v>32786600</v>
+        <v>30510500</v>
       </c>
       <c r="F66" s="3">
-        <v>33458300</v>
+        <v>31240500</v>
       </c>
       <c r="G66" s="3">
-        <v>34092700</v>
+        <v>31880500</v>
       </c>
       <c r="H66" s="3">
-        <v>35030700</v>
+        <v>32485000</v>
       </c>
       <c r="I66" s="3">
-        <v>32603400</v>
+        <v>33378700</v>
       </c>
       <c r="J66" s="3">
+        <v>31065900</v>
+      </c>
+      <c r="K66" s="3">
         <v>32528600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31480900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30154000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32183300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32951700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35737200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37179700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43123400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43742800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42774700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>39405000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42031400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>43063400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>42103500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>41435700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>41835200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>41551600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>40942000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>39126200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>38227700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5337,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5423,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5509,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5595,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5681,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18665200</v>
+        <v>18922500</v>
       </c>
       <c r="E72" s="3">
-        <v>17951700</v>
+        <v>17785100</v>
       </c>
       <c r="F72" s="3">
-        <v>17807900</v>
+        <v>17105200</v>
       </c>
       <c r="G72" s="3">
-        <v>17379000</v>
+        <v>16968200</v>
       </c>
       <c r="H72" s="3">
-        <v>17212300</v>
+        <v>16559400</v>
       </c>
       <c r="I72" s="3">
-        <v>16564300</v>
+        <v>16400600</v>
       </c>
       <c r="J72" s="3">
+        <v>15783200</v>
+      </c>
+      <c r="K72" s="3">
         <v>16473800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16235100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15272000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13213200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13584000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13652500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14504800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14482200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14210100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13693700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14423400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13260200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12808600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12020300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11755000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11222300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10661300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10052200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9326300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>11377000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5853,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5939,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6025,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26088700</v>
+        <v>28208700</v>
       </c>
       <c r="E76" s="3">
-        <v>24941100</v>
+        <v>24858400</v>
       </c>
       <c r="F76" s="3">
-        <v>26985800</v>
+        <v>23765000</v>
       </c>
       <c r="G76" s="3">
-        <v>25447100</v>
+        <v>25713200</v>
       </c>
       <c r="H76" s="3">
-        <v>22819400</v>
+        <v>24247100</v>
       </c>
       <c r="I76" s="3">
-        <v>20583100</v>
+        <v>21743300</v>
       </c>
       <c r="J76" s="3">
+        <v>19612500</v>
+      </c>
+      <c r="K76" s="3">
         <v>19926700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19569900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18391700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16728000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16782200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17227300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17605500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18010900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17152000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16793900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18388900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17080700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16974000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15940900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15436300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15794300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15247000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14712700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>13942700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>16278500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6197,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>739900</v>
+        <v>1380300</v>
       </c>
       <c r="E81" s="3">
-        <v>400400</v>
+        <v>705100</v>
       </c>
       <c r="F81" s="3">
-        <v>421000</v>
+        <v>381500</v>
       </c>
       <c r="G81" s="3">
-        <v>352900</v>
+        <v>401100</v>
       </c>
       <c r="H81" s="3">
-        <v>430400</v>
+        <v>336300</v>
       </c>
       <c r="I81" s="3">
-        <v>307100</v>
+        <v>410100</v>
       </c>
       <c r="J81" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K81" s="3">
         <v>551600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>562500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>247700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>595700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>457200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-83900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>419000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>703500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>470000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>456000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1061300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>567300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>522600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>521400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>324800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>734000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>634200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>440800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-426600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>562800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6406,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>702800</v>
+        <v>662400</v>
       </c>
       <c r="E83" s="3">
-        <v>694200</v>
+        <v>669700</v>
       </c>
       <c r="F83" s="3">
-        <v>687600</v>
+        <v>661400</v>
       </c>
       <c r="G83" s="3">
-        <v>671700</v>
+        <v>655200</v>
       </c>
       <c r="H83" s="3">
-        <v>673800</v>
+        <v>640000</v>
       </c>
       <c r="I83" s="3">
-        <v>633200</v>
+        <v>642000</v>
       </c>
       <c r="J83" s="3">
+        <v>603300</v>
+      </c>
+      <c r="K83" s="3">
         <v>582600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>566500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>583700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>578400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>606900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>669100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>791500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>824400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>873200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>894300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>742900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>705800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>671900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>651300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>642100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>674700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>652400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>632000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>644100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>590800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6578,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6664,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6750,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6836,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6922,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1492600</v>
+        <v>1556900</v>
       </c>
       <c r="E89" s="3">
-        <v>844900</v>
+        <v>1422200</v>
       </c>
       <c r="F89" s="3">
-        <v>533700</v>
+        <v>805000</v>
       </c>
       <c r="G89" s="3">
-        <v>883300</v>
+        <v>508600</v>
       </c>
       <c r="H89" s="3">
-        <v>1071300</v>
+        <v>841700</v>
       </c>
       <c r="I89" s="3">
-        <v>449100</v>
+        <v>1020800</v>
       </c>
       <c r="J89" s="3">
+        <v>427900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-638200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>960800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1230000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1862200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1365900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-847300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1407700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1201600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>308600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>961000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1207300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>440000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-48200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>333000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1437300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1104200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>574700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>709400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2263300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>783400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7040,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39882000</v>
+        <v>-133449000</v>
       </c>
       <c r="E91" s="3">
+        <v>-120415000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-93336000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-81254000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74881000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-84326000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-75191000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-64191000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-433500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-708200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-295500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-335400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-408200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-662000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-523700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-632000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-664400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-779200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-668500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-631000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-875100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-940800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-756900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-825000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>575700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7212,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7298,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-924600</v>
+        <v>-866300</v>
       </c>
       <c r="E94" s="3">
-        <v>-546300</v>
+        <v>-881000</v>
       </c>
       <c r="F94" s="3">
-        <v>-474300</v>
+        <v>-520500</v>
       </c>
       <c r="G94" s="3">
-        <v>-535300</v>
+        <v>-451900</v>
       </c>
       <c r="H94" s="3">
-        <v>-254500</v>
+        <v>-510100</v>
       </c>
       <c r="I94" s="3">
-        <v>-419000</v>
+        <v>-242500</v>
       </c>
       <c r="J94" s="3">
+        <v>-399300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4641600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-433300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1381100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-337500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-126400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>375900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-412400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-321400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-554100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-583500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-487500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-260100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-352800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-701100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-949500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-927900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-974900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-477300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7416,94 +7649,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-240500</v>
       </c>
       <c r="E96" s="3">
-        <v>-252400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-240500</v>
       </c>
       <c r="G96" s="3">
-        <v>-252400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-240500</v>
       </c>
       <c r="I96" s="3">
-        <v>-252400</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-240500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-171500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-171000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-298500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-318800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-320500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-330300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-424000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-210800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-316300</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-205900</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7588,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7674,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7760,262 +8003,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-651800</v>
+        <v>-428000</v>
       </c>
       <c r="E100" s="3">
-        <v>-62200</v>
+        <v>-621100</v>
       </c>
       <c r="F100" s="3">
-        <v>-921200</v>
+        <v>-59300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2741300</v>
+        <v>-877800</v>
       </c>
       <c r="H100" s="3">
-        <v>1072800</v>
+        <v>-2612000</v>
       </c>
       <c r="I100" s="3">
-        <v>-860400</v>
+        <v>1022200</v>
       </c>
       <c r="J100" s="3">
+        <v>-819800</v>
+      </c>
+      <c r="K100" s="3">
         <v>545400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-339500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1616700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-487100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>95700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>891300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>486900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-674100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1527700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-909400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>363300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-42600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>658200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-521600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-110300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-153600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-221900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79500</v>
+        <v>358800</v>
       </c>
       <c r="E101" s="3">
-        <v>-431700</v>
+        <v>75700</v>
       </c>
       <c r="F101" s="3">
-        <v>135800</v>
+        <v>-411400</v>
       </c>
       <c r="G101" s="3">
-        <v>533200</v>
+        <v>129400</v>
       </c>
       <c r="H101" s="3">
-        <v>389600</v>
+        <v>508000</v>
       </c>
       <c r="I101" s="3">
-        <v>213400</v>
+        <v>371300</v>
       </c>
       <c r="J101" s="3">
+        <v>203300</v>
+      </c>
+      <c r="K101" s="3">
         <v>47500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>48300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>667000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-65800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-46200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-41800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-141200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>179600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-73000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-218000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>36100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-196900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>158300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>129100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-406600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>97400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>127600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>29700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-280700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1123500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4300</v>
+        <v>621400</v>
       </c>
       <c r="E102" s="3">
-        <v>-195400</v>
+        <v>-4100</v>
       </c>
       <c r="F102" s="3">
-        <v>-726000</v>
+        <v>-186100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1860100</v>
+        <v>-691700</v>
       </c>
       <c r="H102" s="3">
-        <v>2279300</v>
+        <v>-1772400</v>
       </c>
       <c r="I102" s="3">
-        <v>-617000</v>
+        <v>2171800</v>
       </c>
       <c r="J102" s="3">
+        <v>-587900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4686900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>236300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1661400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>971800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1289100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>378100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1340900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>385700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1209100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-749900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-928500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>120600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-281600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>739400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-247900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-546900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1118400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1102400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2962300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PCRFY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>PCRFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,405 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13944000</v>
+        <v>13875800</v>
       </c>
       <c r="E8" s="3">
-        <v>14800900</v>
+        <v>13477200</v>
       </c>
       <c r="F8" s="3">
-        <v>14843300</v>
+        <v>14305400</v>
       </c>
       <c r="G8" s="3">
-        <v>14358800</v>
+        <v>14346300</v>
       </c>
       <c r="H8" s="3">
-        <v>13560400</v>
+        <v>13878100</v>
       </c>
       <c r="I8" s="3">
-        <v>13502500</v>
+        <v>13106400</v>
       </c>
       <c r="J8" s="3">
+        <v>13050500</v>
+      </c>
+      <c r="K8" s="3">
         <v>12982900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12553600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13174300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12942800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13297600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12987800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11873000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15285100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17411100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17950800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17322700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18448800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19586200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18574800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18259400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18712800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>18570900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>18013000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>16862100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>17042100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>16698500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>15655400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9902800</v>
+        <v>9847200</v>
       </c>
       <c r="E9" s="3">
-        <v>10650700</v>
+        <v>9571300</v>
       </c>
       <c r="F9" s="3">
-        <v>10935000</v>
+        <v>10294100</v>
       </c>
       <c r="G9" s="3">
-        <v>10505600</v>
+        <v>10568900</v>
       </c>
       <c r="H9" s="3">
-        <v>9935900</v>
+        <v>10153900</v>
       </c>
       <c r="I9" s="3">
-        <v>9754500</v>
+        <v>9603300</v>
       </c>
       <c r="J9" s="3">
+        <v>9427900</v>
+      </c>
+      <c r="K9" s="3">
         <v>9364700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9068000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9304300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9003500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9262500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9197600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8612900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10834500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12305300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12873300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12441200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13007700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14109900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13380700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13159100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13352200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13062600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12689100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11908300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>11859300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>11737300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>22073700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4041200</v>
+        <v>4028600</v>
       </c>
       <c r="E10" s="3">
-        <v>4150200</v>
+        <v>3905900</v>
       </c>
       <c r="F10" s="3">
-        <v>3908300</v>
+        <v>4011200</v>
       </c>
       <c r="G10" s="3">
-        <v>3853200</v>
+        <v>3777400</v>
       </c>
       <c r="H10" s="3">
-        <v>3624500</v>
+        <v>3724200</v>
       </c>
       <c r="I10" s="3">
-        <v>3748100</v>
+        <v>3503100</v>
       </c>
       <c r="J10" s="3">
+        <v>3622600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3618300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3485600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3870000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3939300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4035100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3790200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3260100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4450500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5105800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5077500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4881500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5441100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5476200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5194100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5100300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5360600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5508300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5323900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4953800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5182800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4961200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>-6418200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,8 +1095,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1172,8 +1185,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,8 +1277,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1281,17 +1300,17 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>20500</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K14" s="3">
         <v>27400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>212100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1305,8 +1324,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1326,8 +1345,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1341,17 +1360,20 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>188100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>20900</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1430,8 +1452,8 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>8</v>
+      <c r="AC15" s="3">
+        <v>0</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>8</v>
@@ -1439,8 +1461,11 @@
       <c r="AE15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1494,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13323100</v>
+        <v>13195500</v>
       </c>
       <c r="E17" s="3">
-        <v>14427500</v>
+        <v>12877100</v>
       </c>
       <c r="F17" s="3">
-        <v>14263000</v>
+        <v>13944500</v>
       </c>
       <c r="G17" s="3">
-        <v>13767500</v>
+        <v>13785500</v>
       </c>
       <c r="H17" s="3">
-        <v>13122800</v>
+        <v>13306600</v>
       </c>
       <c r="I17" s="3">
-        <v>12929800</v>
+        <v>12683500</v>
       </c>
       <c r="J17" s="3">
+        <v>12496900</v>
+      </c>
+      <c r="K17" s="3">
         <v>12481800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11855500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12407100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12717400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12343400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12264400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11841000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14817400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16496700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17179700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16806200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17308000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18665300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17689600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17350800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>18135700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17484800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16994900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>16103400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>17032800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>15832400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>14712700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>620900</v>
+        <v>680400</v>
       </c>
       <c r="E18" s="3">
-        <v>373400</v>
+        <v>600100</v>
       </c>
       <c r="F18" s="3">
-        <v>580200</v>
+        <v>360900</v>
       </c>
       <c r="G18" s="3">
-        <v>591200</v>
+        <v>560800</v>
       </c>
       <c r="H18" s="3">
-        <v>437600</v>
+        <v>571400</v>
       </c>
       <c r="I18" s="3">
-        <v>572800</v>
+        <v>423000</v>
       </c>
       <c r="J18" s="3">
+        <v>553600</v>
+      </c>
+      <c r="K18" s="3">
         <v>501200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>698100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>767200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>225500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>954200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>723400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>467600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>914500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>771100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>516500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1140800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>920900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>885200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>908600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>577100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1086100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1018100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>758700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>9400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>866100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>942700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,186 +1712,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>126100</v>
+        <v>87200</v>
       </c>
       <c r="E20" s="3">
-        <v>45400</v>
+        <v>121900</v>
       </c>
       <c r="F20" s="3">
-        <v>30000</v>
+        <v>43900</v>
       </c>
       <c r="G20" s="3">
-        <v>48200</v>
+        <v>29000</v>
       </c>
       <c r="H20" s="3">
-        <v>67600</v>
+        <v>46600</v>
       </c>
       <c r="I20" s="3">
-        <v>-16200</v>
+        <v>65400</v>
       </c>
       <c r="J20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>30600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>63400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-21500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>20800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>11100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-12700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-17700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-39500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>32300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>34800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1409400</v>
+        <v>1424400</v>
       </c>
       <c r="E21" s="3">
-        <v>1088500</v>
+        <v>1362200</v>
       </c>
       <c r="F21" s="3">
-        <v>1271700</v>
+        <v>1052100</v>
       </c>
       <c r="G21" s="3">
-        <v>1294600</v>
+        <v>1229100</v>
       </c>
       <c r="H21" s="3">
-        <v>1145200</v>
+        <v>1251300</v>
       </c>
       <c r="I21" s="3">
-        <v>1198600</v>
+        <v>1106900</v>
       </c>
       <c r="J21" s="3">
+        <v>1158500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1109000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1283600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1364300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>872500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1508600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1308800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>695300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1258300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1736800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1623800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1409300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1916600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1622100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1554500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1580700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1230300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1748100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1672200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1373100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>613900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1489300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1558400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1923,8 +1962,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
@@ -1941,192 +1980,201 @@
       <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="3">
         <v>34900</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>747000</v>
+        <v>767600</v>
       </c>
       <c r="E23" s="3">
-        <v>418800</v>
+        <v>722000</v>
       </c>
       <c r="F23" s="3">
-        <v>610200</v>
+        <v>404800</v>
       </c>
       <c r="G23" s="3">
-        <v>639400</v>
+        <v>589800</v>
       </c>
       <c r="H23" s="3">
-        <v>505200</v>
+        <v>618000</v>
       </c>
       <c r="I23" s="3">
-        <v>556600</v>
+        <v>488300</v>
       </c>
       <c r="J23" s="3">
+        <v>538000</v>
+      </c>
+      <c r="K23" s="3">
         <v>505700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>701000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>797700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>288800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>930200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>701900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>466800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>912400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>750600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>515000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1173700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>916300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>882700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>929400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>588200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1073400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1019800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>741000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-30200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>863600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>944800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-671700</v>
+        <v>160200</v>
       </c>
       <c r="E24" s="3">
-        <v>-323000</v>
+        <v>-649200</v>
       </c>
       <c r="F24" s="3">
-        <v>221500</v>
+        <v>-312200</v>
       </c>
       <c r="G24" s="3">
-        <v>203700</v>
+        <v>214100</v>
       </c>
       <c r="H24" s="3">
-        <v>144100</v>
+        <v>196900</v>
       </c>
       <c r="I24" s="3">
-        <v>135800</v>
+        <v>139300</v>
       </c>
       <c r="J24" s="3">
+        <v>131300</v>
+      </c>
+      <c r="K24" s="3">
         <v>209800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>125200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>290400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>204200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>170900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>241200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>64900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>296400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>323600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>370200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>225800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>296900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>352300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>269200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>339400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>250000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-37200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,186 +2262,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1418700</v>
+        <v>607300</v>
       </c>
       <c r="E26" s="3">
-        <v>741800</v>
+        <v>1371200</v>
       </c>
       <c r="F26" s="3">
-        <v>388800</v>
+        <v>717000</v>
       </c>
       <c r="G26" s="3">
-        <v>435700</v>
+        <v>375700</v>
       </c>
       <c r="H26" s="3">
-        <v>361100</v>
+        <v>421100</v>
       </c>
       <c r="I26" s="3">
-        <v>420800</v>
+        <v>349000</v>
       </c>
       <c r="J26" s="3">
+        <v>406700</v>
+      </c>
+      <c r="K26" s="3">
         <v>295900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>575800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>597200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>281000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>639800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>497700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>435600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>741500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>509400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>492500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1108800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>619800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>559100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>559200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>362400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>776500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>667500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>471800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-369600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>613600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>982000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1380300</v>
+        <v>580700</v>
       </c>
       <c r="E27" s="3">
-        <v>705100</v>
+        <v>1334100</v>
       </c>
       <c r="F27" s="3">
-        <v>381500</v>
+        <v>681500</v>
       </c>
       <c r="G27" s="3">
-        <v>401100</v>
+        <v>368700</v>
       </c>
       <c r="H27" s="3">
-        <v>336300</v>
+        <v>387700</v>
       </c>
       <c r="I27" s="3">
-        <v>410100</v>
+        <v>325000</v>
       </c>
       <c r="J27" s="3">
+        <v>396300</v>
+      </c>
+      <c r="K27" s="3">
         <v>292600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>551600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>562500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>247700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>595700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>457200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-83900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>419000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>703500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>470000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>456000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1061300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>567300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>522600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>521400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>324800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>734000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>634200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>440800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-426600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>562800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2481,8 +2538,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2570,8 +2630,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2722,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2814,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-126100</v>
+        <v>-87200</v>
       </c>
       <c r="E32" s="3">
-        <v>-45400</v>
+        <v>-121900</v>
       </c>
       <c r="F32" s="3">
-        <v>-30000</v>
+        <v>-43900</v>
       </c>
       <c r="G32" s="3">
-        <v>-48200</v>
+        <v>-29000</v>
       </c>
       <c r="H32" s="3">
-        <v>-67600</v>
+        <v>-46600</v>
       </c>
       <c r="I32" s="3">
-        <v>16200</v>
+        <v>-65400</v>
       </c>
       <c r="J32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-30600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-63400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>21500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-20800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>12700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>17700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>39500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-32300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-34800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1380300</v>
+        <v>580700</v>
       </c>
       <c r="E33" s="3">
-        <v>705100</v>
+        <v>1334100</v>
       </c>
       <c r="F33" s="3">
-        <v>381500</v>
+        <v>681500</v>
       </c>
       <c r="G33" s="3">
-        <v>401100</v>
+        <v>368700</v>
       </c>
       <c r="H33" s="3">
-        <v>336300</v>
+        <v>387700</v>
       </c>
       <c r="I33" s="3">
-        <v>410100</v>
+        <v>325000</v>
       </c>
       <c r="J33" s="3">
+        <v>396300</v>
+      </c>
+      <c r="K33" s="3">
         <v>292600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>551600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>562500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>247700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>595700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>457200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-83900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>419000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>703500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>470000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>456000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1061300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>567300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>522600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>521400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>324800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>734000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>634200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>440800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-426600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>562800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3090,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1380300</v>
+        <v>580700</v>
       </c>
       <c r="E35" s="3">
-        <v>705100</v>
+        <v>1334100</v>
       </c>
       <c r="F35" s="3">
-        <v>381500</v>
+        <v>681500</v>
       </c>
       <c r="G35" s="3">
-        <v>401100</v>
+        <v>368700</v>
       </c>
       <c r="H35" s="3">
-        <v>336300</v>
+        <v>387700</v>
       </c>
       <c r="I35" s="3">
-        <v>410100</v>
+        <v>325000</v>
       </c>
       <c r="J35" s="3">
+        <v>396300</v>
+      </c>
+      <c r="K35" s="3">
         <v>292600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>551600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>562500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>247700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>595700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>457200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-83900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>419000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>703500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>470000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>456000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1061300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>567300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>522600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>521400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>324800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>734000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>634200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>440800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-426600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>562800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3315,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,791 +3349,816 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6251300</v>
+        <v>7735600</v>
       </c>
       <c r="E41" s="3">
-        <v>5630000</v>
+        <v>6042100</v>
       </c>
       <c r="F41" s="3">
-        <v>5634100</v>
+        <v>5441500</v>
       </c>
       <c r="G41" s="3">
-        <v>5820200</v>
+        <v>5445400</v>
       </c>
       <c r="H41" s="3">
-        <v>6512000</v>
+        <v>5625400</v>
       </c>
       <c r="I41" s="3">
-        <v>8284300</v>
+        <v>6293900</v>
       </c>
       <c r="J41" s="3">
+        <v>8007000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6112500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7032000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11946500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11296000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9960700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9553000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9048900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8955400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7873800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7553900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6324100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7421500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8202200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9955100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9622800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9849800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9110400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9358400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9905300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11271900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>10167700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>9065200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1239400</v>
+        <v>1335400</v>
       </c>
       <c r="E42" s="3">
-        <v>1165600</v>
+        <v>1197900</v>
       </c>
       <c r="F42" s="3">
-        <v>1020000</v>
+        <v>1126600</v>
       </c>
       <c r="G42" s="3">
-        <v>1116100</v>
+        <v>985800</v>
       </c>
       <c r="H42" s="3">
-        <v>1558500</v>
+        <v>1078700</v>
       </c>
       <c r="I42" s="3">
-        <v>1447000</v>
+        <v>1506300</v>
       </c>
       <c r="J42" s="3">
+        <v>1398600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1102300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1016900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1034600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1060900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>959500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>951700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>885400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1307700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1276400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1234800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1079700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1261800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1453500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1834300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2216400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1840200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1370300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1305300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1359400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1273000</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8987200</v>
+        <v>8840600</v>
       </c>
       <c r="E43" s="3">
-        <v>9086200</v>
+        <v>8686300</v>
       </c>
       <c r="F43" s="3">
-        <v>8865100</v>
+        <v>8782000</v>
       </c>
       <c r="G43" s="3">
-        <v>9503300</v>
+        <v>8568300</v>
       </c>
       <c r="H43" s="3">
-        <v>9358000</v>
+        <v>9185100</v>
       </c>
       <c r="I43" s="3">
-        <v>9100100</v>
+        <v>9044700</v>
       </c>
       <c r="J43" s="3">
+        <v>8795500</v>
+      </c>
+      <c r="K43" s="3">
         <v>8725300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8682800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8684500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8468200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8428300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8391400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8684800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9261100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10254000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10850800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10566300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11441900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11046700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>10690200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9936000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9392400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9350000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9295400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>8475100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>7512900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>8383500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>7426900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9472800</v>
+        <v>8999900</v>
       </c>
       <c r="E44" s="3">
-        <v>8853700</v>
+        <v>9155700</v>
       </c>
       <c r="F44" s="3">
-        <v>9660100</v>
+        <v>8557300</v>
       </c>
       <c r="G44" s="3">
-        <v>9862100</v>
+        <v>9336700</v>
       </c>
       <c r="H44" s="3">
-        <v>9068400</v>
+        <v>9532000</v>
       </c>
       <c r="I44" s="3">
-        <v>7781400</v>
+        <v>8764800</v>
       </c>
       <c r="J44" s="3">
+        <v>7520900</v>
+      </c>
+      <c r="K44" s="3">
         <v>7276200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7181500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6746800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5902900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5835500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6182000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7190900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6990900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7997800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9239800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9544700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9768000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10414700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10017000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>9418500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>8937000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9474900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>8784700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>8188700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>7152000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>7391100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>6980200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1664500</v>
+        <v>1639800</v>
       </c>
       <c r="E45" s="3">
-        <v>1390300</v>
+        <v>1608800</v>
       </c>
       <c r="F45" s="3">
-        <v>1513400</v>
+        <v>1343800</v>
       </c>
       <c r="G45" s="3">
-        <v>1744600</v>
+        <v>1462800</v>
       </c>
       <c r="H45" s="3">
-        <v>1366600</v>
+        <v>1686200</v>
       </c>
       <c r="I45" s="3">
-        <v>1081400</v>
+        <v>1320900</v>
       </c>
       <c r="J45" s="3">
+        <v>1045200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1085700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1060300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1165400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1084300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1308600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1278600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2010000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3754600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9011500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3657900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1814100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1570900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1877700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1738200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1664900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1493600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1548200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1420800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1613100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1217000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4283600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>3937900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27615300</v>
+        <v>28551200</v>
       </c>
       <c r="E46" s="3">
-        <v>26125800</v>
+        <v>26690800</v>
       </c>
       <c r="F46" s="3">
-        <v>26692600</v>
+        <v>25251200</v>
       </c>
       <c r="G46" s="3">
-        <v>28046300</v>
+        <v>25799000</v>
       </c>
       <c r="H46" s="3">
-        <v>27863500</v>
+        <v>27107300</v>
       </c>
       <c r="I46" s="3">
-        <v>27694300</v>
+        <v>26930600</v>
       </c>
       <c r="J46" s="3">
+        <v>26767100</v>
+      </c>
+      <c r="K46" s="3">
         <v>24302000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24973500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29577800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27812300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26492500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26356700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27820000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30269700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36413500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32537100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29328900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>31464000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>32994900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34234800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>32858600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>31513100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30853900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30164500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>29541600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>28426700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>30226000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>27410200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4842100</v>
+        <v>4138100</v>
       </c>
       <c r="E47" s="3">
-        <v>4423500</v>
+        <v>4680000</v>
       </c>
       <c r="F47" s="3">
-        <v>4376800</v>
+        <v>4275400</v>
       </c>
       <c r="G47" s="3">
-        <v>4457000</v>
+        <v>4230300</v>
       </c>
       <c r="H47" s="3">
-        <v>4393800</v>
+        <v>4307800</v>
       </c>
       <c r="I47" s="3">
-        <v>4233500</v>
+        <v>4246700</v>
       </c>
       <c r="J47" s="3">
+        <v>4091700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3998900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4316100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4967300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4870700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6533000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6274900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6157500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4600200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3092700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3171800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3358500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3389600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3038200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2861000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2984200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2842400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3008100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2987700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2901200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2820400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3053000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2865400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10304300</v>
+        <v>10479500</v>
       </c>
       <c r="E48" s="3">
-        <v>9695000</v>
+        <v>9959300</v>
       </c>
       <c r="F48" s="3">
-        <v>9369600</v>
+        <v>9370400</v>
       </c>
       <c r="G48" s="3">
-        <v>9571100</v>
+        <v>9055900</v>
       </c>
       <c r="H48" s="3">
-        <v>9557700</v>
+        <v>9250600</v>
       </c>
       <c r="I48" s="3">
-        <v>9432900</v>
+        <v>9237700</v>
       </c>
       <c r="J48" s="3">
+        <v>9117100</v>
+      </c>
+      <c r="K48" s="3">
         <v>9009300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9431800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9645400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9299000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9105300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9800300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10875000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11415200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12299100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15781700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17067500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12727200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12503100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12460500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12044500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12421600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13070000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12836900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12427600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>11737500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>11622200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>11155300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13110500</v>
+        <v>12990200</v>
       </c>
       <c r="E49" s="3">
-        <v>12340100</v>
+        <v>12671600</v>
       </c>
       <c r="F49" s="3">
-        <v>12235400</v>
+        <v>11927000</v>
       </c>
       <c r="G49" s="3">
-        <v>13167700</v>
+        <v>11825800</v>
       </c>
       <c r="H49" s="3">
-        <v>12623900</v>
+        <v>12726900</v>
       </c>
       <c r="I49" s="3">
-        <v>11541800</v>
+        <v>12201200</v>
       </c>
       <c r="J49" s="3">
+        <v>11155400</v>
+      </c>
+      <c r="K49" s="3">
         <v>11040500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11277600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4413200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4268500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4455200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4776200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5265000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5467600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6044300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6071400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6421400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6914900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6975600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6982600</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6673800</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
@@ -4056,17 +4166,20 @@
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD49" s="3">
         <v>5899700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7114500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>6864900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4267,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4359,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4074200</v>
+        <v>4431800</v>
       </c>
       <c r="E52" s="3">
-        <v>2784500</v>
+        <v>3937800</v>
       </c>
       <c r="F52" s="3">
-        <v>2330900</v>
+        <v>2691200</v>
       </c>
       <c r="G52" s="3">
-        <v>2351600</v>
+        <v>2252900</v>
       </c>
       <c r="H52" s="3">
-        <v>2293300</v>
+        <v>2272900</v>
       </c>
       <c r="I52" s="3">
-        <v>2219600</v>
+        <v>2216500</v>
       </c>
       <c r="J52" s="3">
+        <v>2145300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2327700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2456300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2447200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2295300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2325400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2525800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2847000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3032500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3284700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3332800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3392200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3298100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3600300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3498500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10157200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3421200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10697500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10809400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10784400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4184500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2490500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>2546500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4543,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59946400</v>
+        <v>60590800</v>
       </c>
       <c r="E54" s="3">
-        <v>55369000</v>
+        <v>57939400</v>
       </c>
       <c r="F54" s="3">
-        <v>55005400</v>
+        <v>53515300</v>
       </c>
       <c r="G54" s="3">
-        <v>57593800</v>
+        <v>53163900</v>
       </c>
       <c r="H54" s="3">
-        <v>56732100</v>
+        <v>55665600</v>
       </c>
       <c r="I54" s="3">
-        <v>55122000</v>
+        <v>54832800</v>
       </c>
       <c r="J54" s="3">
+        <v>53276600</v>
+      </c>
+      <c r="K54" s="3">
         <v>50678400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>52455200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>51050800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>48545700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48911300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49733900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>52964500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>54785100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61134300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60894800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>59568600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57793900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>59112100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>60037400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>58044400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56872000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>57629500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>56798500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>55654700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>53068900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>54506200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>50842400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4671,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,542 +4705,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11645000</v>
+        <v>11025300</v>
       </c>
       <c r="E57" s="3">
-        <v>11424600</v>
+        <v>11255200</v>
       </c>
       <c r="F57" s="3">
-        <v>11717600</v>
+        <v>11042100</v>
       </c>
       <c r="G57" s="3">
-        <v>12160800</v>
+        <v>11325300</v>
       </c>
       <c r="H57" s="3">
-        <v>11799600</v>
+        <v>11753700</v>
       </c>
       <c r="I57" s="3">
-        <v>11432900</v>
+        <v>11404600</v>
       </c>
       <c r="J57" s="3">
+        <v>11050100</v>
+      </c>
+      <c r="K57" s="3">
         <v>7693000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7742300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7864500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7413400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7084300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6831600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7255600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8543000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9305300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9780500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10150400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11062800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11331900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11005700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10511700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10364100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10254300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9923500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9363400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>8479400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>8700400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>7988500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1513000</v>
+        <v>1989400</v>
       </c>
       <c r="E58" s="3">
-        <v>1505400</v>
+        <v>1462400</v>
       </c>
       <c r="F58" s="3">
-        <v>1966000</v>
+        <v>1455000</v>
       </c>
       <c r="G58" s="3">
-        <v>1040300</v>
+        <v>1900100</v>
       </c>
       <c r="H58" s="3">
-        <v>1519200</v>
+        <v>1005500</v>
       </c>
       <c r="I58" s="3">
-        <v>3389700</v>
+        <v>1468300</v>
       </c>
       <c r="J58" s="3">
+        <v>3276300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2157500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5602700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2754800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2617200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3616400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5605200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4218000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2775100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3029200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3462300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4022900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3747500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3093600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4652200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4131900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3393500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1725000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1660200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1652900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1570300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>219800</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>217600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7241200</v>
+        <v>7058200</v>
       </c>
       <c r="E59" s="3">
-        <v>6810400</v>
+        <v>6998800</v>
       </c>
       <c r="F59" s="3">
-        <v>6660900</v>
+        <v>6582400</v>
       </c>
       <c r="G59" s="3">
-        <v>6836600</v>
+        <v>6437900</v>
       </c>
       <c r="H59" s="3">
-        <v>6925600</v>
+        <v>6607700</v>
       </c>
       <c r="I59" s="3">
-        <v>6237100</v>
+        <v>6693800</v>
       </c>
       <c r="J59" s="3">
+        <v>6028300</v>
+      </c>
+      <c r="K59" s="3">
         <v>8989100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9414200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10247400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9852100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9384400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9459600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10516100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11729800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16897600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13430800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13528400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13918400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14190600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14163400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14387700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>14247600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>14958100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>14818300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>15005300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>14006300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>12533100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>11798500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20399300</v>
+        <v>20072800</v>
       </c>
       <c r="E60" s="3">
-        <v>19740400</v>
+        <v>19716300</v>
       </c>
       <c r="F60" s="3">
-        <v>20344500</v>
+        <v>19079500</v>
       </c>
       <c r="G60" s="3">
-        <v>20037800</v>
+        <v>19663400</v>
       </c>
       <c r="H60" s="3">
-        <v>20244400</v>
+        <v>19366900</v>
       </c>
       <c r="I60" s="3">
-        <v>21059700</v>
+        <v>19566700</v>
       </c>
       <c r="J60" s="3">
+        <v>20354700</v>
+      </c>
+      <c r="K60" s="3">
         <v>18839600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22759200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20866700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19882700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20085100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21896400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21989700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23047900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29232100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26673600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27701700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28728600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>28616200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>29821400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>29031300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>28005300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26937300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>26402000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>26021600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>24056000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>21453400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>20004600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8723700</v>
+        <v>9231300</v>
       </c>
       <c r="E61" s="3">
-        <v>8504900</v>
+        <v>8431600</v>
       </c>
       <c r="F61" s="3">
-        <v>8494500</v>
+        <v>8220200</v>
       </c>
       <c r="G61" s="3">
-        <v>9245700</v>
+        <v>8210100</v>
       </c>
       <c r="H61" s="3">
-        <v>9683800</v>
+        <v>8936200</v>
       </c>
       <c r="I61" s="3">
-        <v>9644600</v>
+        <v>9359600</v>
       </c>
       <c r="J61" s="3">
+        <v>9321700</v>
+      </c>
+      <c r="K61" s="3">
         <v>9425400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7017100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7947500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7645100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8303100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7397600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9842400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10187100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9626900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12764200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10550900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5850200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7834600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7722100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7561500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7811000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8742800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8783300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8782800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8399600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9757300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>9762100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1424700</v>
+        <v>1545300</v>
       </c>
       <c r="E62" s="3">
-        <v>1086600</v>
+        <v>1377000</v>
       </c>
       <c r="F62" s="3">
-        <v>1219900</v>
+        <v>1050200</v>
       </c>
       <c r="G62" s="3">
-        <v>1304900</v>
+        <v>1179100</v>
       </c>
       <c r="H62" s="3">
-        <v>1284700</v>
+        <v>1261200</v>
       </c>
       <c r="I62" s="3">
-        <v>1422600</v>
+        <v>1241700</v>
       </c>
       <c r="J62" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1585300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1506700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1404700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1389300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2614600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2466900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2640900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2556900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2740400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2843400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3030500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3181900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3974200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3959200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4004300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4039800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4534000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4657500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4589900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>5002700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>5716900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>5749700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5347,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5288,8 +5439,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5531,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31737700</v>
+        <v>32017000</v>
       </c>
       <c r="E66" s="3">
-        <v>30510500</v>
+        <v>30675100</v>
       </c>
       <c r="F66" s="3">
-        <v>31240500</v>
+        <v>29489100</v>
       </c>
       <c r="G66" s="3">
-        <v>31880500</v>
+        <v>30194600</v>
       </c>
       <c r="H66" s="3">
-        <v>32485000</v>
+        <v>30813200</v>
       </c>
       <c r="I66" s="3">
-        <v>33378700</v>
+        <v>31397500</v>
       </c>
       <c r="J66" s="3">
+        <v>32261200</v>
+      </c>
+      <c r="K66" s="3">
         <v>31065900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32528600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31480900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30154000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32183300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32951700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35737200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37179700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43123400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43742800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42774700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>39405000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42031400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>43063400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>42103500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>41435700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>41835200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>41551600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>40942000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>39126200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>38227700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>36715800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5659,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5749,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5841,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5933,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6025,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18922500</v>
+        <v>18989700</v>
       </c>
       <c r="E72" s="3">
-        <v>17785100</v>
+        <v>18289000</v>
       </c>
       <c r="F72" s="3">
-        <v>17105200</v>
+        <v>17189600</v>
       </c>
       <c r="G72" s="3">
-        <v>16968200</v>
+        <v>16532500</v>
       </c>
       <c r="H72" s="3">
-        <v>16559400</v>
+        <v>16400100</v>
       </c>
       <c r="I72" s="3">
-        <v>16400600</v>
+        <v>16005000</v>
       </c>
       <c r="J72" s="3">
+        <v>15851600</v>
+      </c>
+      <c r="K72" s="3">
         <v>15783200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16473800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16235100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15272000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13213200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13584000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13652500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14504800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14482200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14210100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13693700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14423400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13260200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12808600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12020300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11755000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11222300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10661300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>10052200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9326300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>11377000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>11090800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6209,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6301,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6393,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28208700</v>
+        <v>28573800</v>
       </c>
       <c r="E76" s="3">
-        <v>24858400</v>
+        <v>27264300</v>
       </c>
       <c r="F76" s="3">
-        <v>23765000</v>
+        <v>24026200</v>
       </c>
       <c r="G76" s="3">
-        <v>25713200</v>
+        <v>22969300</v>
       </c>
       <c r="H76" s="3">
-        <v>24247100</v>
+        <v>24852400</v>
       </c>
       <c r="I76" s="3">
-        <v>21743300</v>
+        <v>23435300</v>
       </c>
       <c r="J76" s="3">
+        <v>21015300</v>
+      </c>
+      <c r="K76" s="3">
         <v>19612500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19926700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19569900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18391700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16728000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16782200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17227300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17605500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18010900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17152000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16793900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18388900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17080700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16974000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15940900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15436300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15794300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>15247000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14712700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>13942700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>16278500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>14126600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6577,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1380300</v>
+        <v>580700</v>
       </c>
       <c r="E81" s="3">
-        <v>705100</v>
+        <v>1334100</v>
       </c>
       <c r="F81" s="3">
-        <v>381500</v>
+        <v>681500</v>
       </c>
       <c r="G81" s="3">
-        <v>401100</v>
+        <v>368700</v>
       </c>
       <c r="H81" s="3">
-        <v>336300</v>
+        <v>387700</v>
       </c>
       <c r="I81" s="3">
-        <v>410100</v>
+        <v>325000</v>
       </c>
       <c r="J81" s="3">
+        <v>396300</v>
+      </c>
+      <c r="K81" s="3">
         <v>292600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>551600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>562500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>247700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>595700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>457200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-83900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>419000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>703500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>470000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>456000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1061300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>567300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>522600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>521400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>324800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>734000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>634200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>440800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-426600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>562800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>899200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6802,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>662400</v>
+        <v>656800</v>
       </c>
       <c r="E83" s="3">
-        <v>669700</v>
+        <v>640200</v>
       </c>
       <c r="F83" s="3">
-        <v>661400</v>
+        <v>647300</v>
       </c>
       <c r="G83" s="3">
-        <v>655200</v>
+        <v>639300</v>
       </c>
       <c r="H83" s="3">
-        <v>640000</v>
+        <v>633300</v>
       </c>
       <c r="I83" s="3">
-        <v>642000</v>
+        <v>618600</v>
       </c>
       <c r="J83" s="3">
+        <v>620500</v>
+      </c>
+      <c r="K83" s="3">
         <v>603300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>582600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>566500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>583700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>578400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>606900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>669100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>791500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>824400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>873200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>894300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>742900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>705800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>671900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>651300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>642100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>674700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>652400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>632000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>644100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>590800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>580900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6984,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7076,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7168,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7260,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7352,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1556900</v>
+        <v>1096500</v>
       </c>
       <c r="E89" s="3">
-        <v>1422200</v>
+        <v>1504800</v>
       </c>
       <c r="F89" s="3">
-        <v>805000</v>
+        <v>1374600</v>
       </c>
       <c r="G89" s="3">
-        <v>508600</v>
+        <v>778100</v>
       </c>
       <c r="H89" s="3">
-        <v>841700</v>
+        <v>491600</v>
       </c>
       <c r="I89" s="3">
-        <v>1020800</v>
+        <v>813500</v>
       </c>
       <c r="J89" s="3">
+        <v>986600</v>
+      </c>
+      <c r="K89" s="3">
         <v>427900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-638200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>960800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1230000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1862200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1365900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-847300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1407700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1201600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>308600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>961000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1207300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>440000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-48200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>333000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1437300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1104200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>574700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>709400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2263300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>783400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7480,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-143921000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-133449000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-120415000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-93336000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-81254000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-74881000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-84326000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-75191000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-64191000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-433500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-708200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-295500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-335400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-408200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-662000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-523700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-632000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-664400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-779200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-668500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-631000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-875100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-940800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-756900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-825000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1043400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>575700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1172500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1302200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7662,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7754,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-866300</v>
+        <v>-691600</v>
       </c>
       <c r="E94" s="3">
-        <v>-881000</v>
+        <v>-837300</v>
       </c>
       <c r="F94" s="3">
-        <v>-520500</v>
+        <v>-851500</v>
       </c>
       <c r="G94" s="3">
-        <v>-451900</v>
+        <v>-503100</v>
       </c>
       <c r="H94" s="3">
-        <v>-510100</v>
+        <v>-436800</v>
       </c>
       <c r="I94" s="3">
-        <v>-242500</v>
+        <v>-493000</v>
       </c>
       <c r="J94" s="3">
+        <v>-234400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-399300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4641600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-433300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1381100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-337500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-126400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>375900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-412400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-321400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-554100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-583500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-487500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-260100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-352800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-701100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-949500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-927900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1138900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1131400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-974900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-477300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-569300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,97 +7882,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-240500</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-240500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-240500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-240500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-171500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-171000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-298500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-318800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-320500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-330300</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-424000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-210800</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-316300</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-205900</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8064,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8156,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8248,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-428000</v>
+        <v>1098100</v>
       </c>
       <c r="E100" s="3">
-        <v>-621100</v>
+        <v>-413700</v>
       </c>
       <c r="F100" s="3">
-        <v>-59300</v>
+        <v>-600300</v>
       </c>
       <c r="G100" s="3">
-        <v>-877800</v>
+        <v>-57300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2612000</v>
+        <v>-848400</v>
       </c>
       <c r="I100" s="3">
-        <v>1022200</v>
+        <v>-2524600</v>
       </c>
       <c r="J100" s="3">
+        <v>988000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-819800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>545400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-339500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1616700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-487100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>95700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>891300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>486900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-674100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1527700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-909400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1684400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1896600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>363300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>658200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-521600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-110300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1190300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-153600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-221900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>3644700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>346800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>73200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-397600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>125100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>491000</v>
+      </c>
+      <c r="J101" s="3">
         <v>358800</v>
       </c>
-      <c r="E101" s="3">
-        <v>75700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-411400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>129400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>508000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>371300</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>203300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>47500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>48300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>667000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-65800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-46200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-41800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-141200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>179600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-73000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-218000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>36100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-196900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>158300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>129100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-406600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>97400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>127600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>29700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-280700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1123500</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-154400</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>621400</v>
+        <v>1693500</v>
       </c>
       <c r="E102" s="3">
-        <v>-4100</v>
+        <v>600600</v>
       </c>
       <c r="F102" s="3">
-        <v>-186100</v>
+        <v>-4000</v>
       </c>
       <c r="G102" s="3">
-        <v>-691700</v>
+        <v>-179900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1772400</v>
+        <v>-668600</v>
       </c>
       <c r="I102" s="3">
-        <v>2171800</v>
+        <v>-1713100</v>
       </c>
       <c r="J102" s="3">
+        <v>2099100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-587900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4686900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>236300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1661400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>971800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1289100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>378100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1340900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>385700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1209100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-749900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-928500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1913600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>120600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-281600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>739400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-247900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-546900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1582700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1118400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1102400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>2962300</v>
       </c>
     </row>
